--- a/ui_data/tokopedia.xlsx
+++ b/ui_data/tokopedia.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Product Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,11 +434,11 @@
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="58.33333333333334" customWidth="1" min="3" max="3"/>
-    <col width="72" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="148" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
     <col width="142" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="173" customWidth="1" min="8" max="8"/>
+    <col width="239" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -485,7 +485,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12601911782</v>
+        <v>12170254551</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -494,62 +494,62 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Casio Gallery Indonesia</t>
+          <t>ARSY sport store</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Casio Original MQ-24-1ELDF Jam Tangan Pria Analog</t>
+          <t>Arsy Sport - Celana Pendek Olahraga - Celana Kolor TP-008</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>148850</t>
+          <t>39900</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/23/73a8b780-6012-4dbf-8e45-d4d2ff9502db.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/21/266258d8-5ec5-4d84-b0ec-1e3a33ceace2.jpg</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/casiogallery/casio-original-mq-24-1eldf-jam-tangan-pria-analog?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/arsy-sport/arsy-sport-celana-pendek-olahraga-celana-kolor-tp-008-h-abu-m-20a32?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1032432086</v>
+        <v>12878260060</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rumah Tangga</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Maju Grosir</t>
+          <t>boygrossa</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jam Dinding HItam Putih 2014 Dingding Tempel Wall Clock Polos Murah</t>
+          <t>Celana pendek pria Resleting kantong kualitas premium kolor boxer</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>28400</t>
+          <t>30000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/7/17/2939951/2939951_0045e691-7bde-4283-88d6-ebfb41378995_446_446</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/3/7/58ba150b-0a8d-483d-bc46-6372d64c41ce.jpg</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -559,13 +559,13 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/majugrosir/jam-dinding-hitam-putih-2014-dingding-tempel-wall-clock-polos-murah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/boygrossa/celana-pendek-pria-resleting-kantong-kualitas-premium-kolor-boxer-abu-tua-l-xl-49ada?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1803120315</v>
+        <v>1814119480</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -574,38 +574,38 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Grace-Arloji</t>
+          <t>ADILEO CLOTH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jam Tangan Casio Pria W-219H-8B / w219h Original w219</t>
+          <t>CELANA PENDEK KOLOR -AIGER-POLLO (ALL SIZE)DEWASA [ L-XL ] UNISEX</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>289170</t>
+          <t>23000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/4/27/377158c4-4497-4dba-bbeb-104775ae1e74.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/9/3/6410607/6410607_65971155-8af4-40ea-985c-9dcb25178c93_1920_1920.jpg</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/grace-arloji/jam-tangan-casio-pria-w-219h-8b-w219h-original-w219?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/adileo-cloth-78/celana-pendek-kolor-aiger-pollo-all-size-dewasa-l-xl-unisex-random-all-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11670138871</v>
+        <v>11882034626</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -614,38 +614,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Liga Arloji</t>
+          <t>BATAVIASPORT25</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CASIO MTP-B145D-2A1VDF Jam Tangan Unisex Analog MTP-B145D-2A1 MTPB145D</t>
+          <t>BOXER PRIA | KOLOR PRIA | BOXER MOTIF DEWASA | KOLOR| CELANA BOXER CW</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1239000</t>
+          <t>15000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/9/23/9373285e-d356-4acd-b31a-cfb8f086263c.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/19/e33bc140-9375-458b-b395-c0b7989dc503.jpg</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/liga-arloji/casio-mtp-b145d-2a1vdf-jam-tangan-unisex-analog-mtp-b145d-2a1-mtpb145d?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/bataviasport25/boxer-pria-kolor-pria-boxer-motif-dewasa-kolor-celana-boxer-cw-boxer-cwe-all-size-d8495?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>146350207</v>
+        <v>6948580910</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -654,38 +654,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>time piece indonesia</t>
+          <t>Bos kolorr</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>JAM TANGAN CASIO DB36 / DB-36-1AVDF ORIGINAL &amp; BERGARANSI</t>
+          <t>celana pria pendek /celana kolor pendek /celana pendek olahraga</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>24500</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/3/7/146350207/146350207_0c2e232f-2001-4fae-916b-a790507318b5_1100_1100.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/3/29/9bdf2e7a-53ba-4c58-b6ac-7cdfdd97b540.jpg</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/indotimepiece/jam-tangan-casio-db36-db-36-1avdf-original-bergaransi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/boskolorr/celana-pria-pendek-celana-kolor-pendek-celana-pendek-olahraga-abu-tua-l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9361201433</v>
+        <v>1670297962</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -694,38 +694,38 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Alat Ukur Dan Repeater</t>
+          <t>ID LUCK</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jam Tangan Korek elektrik Api Rokok Quartz Casio OULM Hitam</t>
+          <t>Celana Pendek Pria Jumbo Big Size Kolor Laki laki Semi Jeans Oversize</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>54500</t>
+          <t>29000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/7/8/27321060/27321060_5e36e659-169c-46e8-a583-b89d2be17093_387_387</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/3/13/0f21c84e-d5ff-4f7c-8be5-ec59d5009234.jpg</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/alatukurrepeater/jam-tangan-korek-elektrik-api-rokok-quartz-casio-oulm-hitam-tali-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/idluck/celana-pendek-pria-jumbo-big-size-kolor-laki-laki-semi-jeans-oversize-abu-2xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1806000647</v>
+        <v>2928992098</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -734,38 +734,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Time Gallery Official</t>
+          <t>Vahana_store</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jam Casio Calculator Kalkulator CA-53W-1ZDR 1Z CA53W CA53W1ZDR 53 1</t>
+          <t>Celana Chino Pendek Pria Distro Kolor Dewasa Terlaris - Fashion Pria</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>18905</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/4/11/6c1b5ad9-8d1b-44cc-9277-0e1711fc3af8.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/10/e683ccc0-c771-4e3e-98de-601410ce563b.jpg</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/timegalleryofficial/jam-casio-calculator-kalkulator-ca-53w-1zdr-1z-ca53w-ca53w1zdr-53-1?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/vahanastore/celana-chino-pendek-pria-distro-kolor-dewasa-terlaris-fashion-pria-random-acak-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>388401814</v>
+        <v>6008434485</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -774,34 +774,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>The Watches</t>
+          <t>ImanuelStore</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>JAM TANGAN CASIO AW-80D-7AVD / AW80D ORIGINAL &amp; BERGARANSI</t>
+          <t>Celana Kolor Training Pendek Jumbo Kain Polyester Lembut Ukuran XXL</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>458000</t>
+          <t>18999</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/1/12/2309083/2309083_65ed94ae-f104-455d-9278-e8d14ce58fc0_700_700.jpg</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/8/1fb4faf4-dd0f-4b27-becf-31976838067d.jpg</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/thewatches/jam-tangan-casio-aw-80d-7avd-aw80d-original-bergaransi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/imanuels/celana-kolor-training-pendek-jumbo-kain-polyester-lembut-ukuran-xxl-biru?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>357024195</v>
+        <v>2245173765</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -810,38 +814,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>time piece indonesia</t>
+          <t>asiyah_shopsby</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Casio W-218H-2A / W218H Jam Tangan Pria Original &amp; Bergaransi</t>
+          <t>Celana Pendek Kain Kolor 3/4 cowok sehari hari</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>270000</t>
+          <t>13500</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2018/11/6/1661097/1661097_115dcf32-1730-443e-a908-8b16f76a6985_502_502.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/10/4/10b9431e-afd3-4ae5-b823-ff789eec69e0.jpg</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/indotimepiece/casio-w-218h-2a-w218h-jam-tangan-pria-original-bergaransi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/asiyahshopsby/celana-pendek-kain-kolor-3-4-cowok-sehari-hari?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5302257409</v>
+        <v>2929881357</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -850,22 +854,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>YTN olshop</t>
+          <t>Vien'z_Shop</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>jam tangan pria ripcurl A3199 original 💯 water resistance</t>
+          <t>Celana Pendek Kolor Pria Jumbo Sablon Armed 3/4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>420000</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/8/8/ec92118e-57ff-44f0-ba3e-e0880b921fba.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/11/29/dcc6ca48-5c34-4bca-a36a-29cb4b8b3642.jpg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -875,13 +879,13 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/ytnolshop/jam-tangan-pria-ripcurl-a3199-original-water-resistance?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/vienzshop-1/celana-pendek-kolor-pria-jumbo-sablon-armed-3-4-all-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1790535023</v>
+        <v>4498720269</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -890,78 +894,78 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Saraoriginalshop</t>
+          <t>Markas Reseller Jakarta</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Eiger Touch Digi TYP11528- Jam Tangan Pria Original</t>
+          <t>MRJ Celana Boxer Pria 3 Gunung Kolor Pendek Polos Cowok Underwear Man</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>365000</t>
+          <t>4196</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/7/c9a1e4a7-f4c2-481a-a87b-8e3897ae4267.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/8/31/93f330ed-e79b-4843-a03c-10b300fe6bd0.jpg</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/saraoriginalshop/eiger-touch-digi-typ11528-jam-tangan-pria-original?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/markasreseller/mrj-celana-boxer-pria-3-gunung-kolor-pendek-polos-cowok-underwear-man-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2007300882</v>
+        <v>12530994411</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Olahraga</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Liga Arloji</t>
+          <t>stuvco.sportswear</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CASIO MTP-V005L-7B5UDF - Jam Tangan Pria - Coklat- MTP-V005L-7B5</t>
+          <t>Celana Pendek Olahraga Short Pants Pria Wanita Kolor Futsal Sepak Bola</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>265000</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/28/fb0ad358-04db-4adf-a212-e633c41d18aa.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/13/795d4a2a-9777-4b26-b9a1-36d239fe3d3f.jpg</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/liga-arloji/casio-mtp-v005l-7b5udf-jam-tangan-pria-coklat-mtp-v005l-7b5?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/stuvco/celana-pendek-olahraga-short-pants-pria-wanita-kolor-futsal-sepak-bola-polos-m-l-hitam-e5b6e?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11720584354</v>
+        <v>9395807840</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -970,22 +974,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Carolina Watch Official Jakarta</t>
+          <t>palastri shop</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jam Tangan Pria Casio General MTP-VD01L-1E Black Dial Black Leather </t>
+          <t xml:space="preserve">Celana Super Jumbo 8XL 12XL Extra Kolor_ 8L 12L Kolor Pendek Pants </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>395850</t>
+          <t>75000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/4/2406b32f-c61a-4acc-be9a-52eea15706d9.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/5/7/82550b1f-cb80-42f7-981c-f8675bc75211.jpg</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -995,37 +999,37 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/carolinawatchid/jam-tangan-pria-casio-general-mtp-vd01l-1e-black-dial-black-leather?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/palastrishop/celana-super-jumbo-8xl-12xl-extra-kolor-8l-12l-kolor-pendek-pants-8l-122cd?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3948770975</v>
+        <v>12954337654</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Olahraga</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dewok helm</t>
+          <t>Gallery Yudhistira 08</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Wanita Kulit Elegan Dial Unik cocok untuk Anda gunakan</t>
+          <t>Celana Kolor Santai Celana Olahraga Bola Futsal Volly Pria Wanita</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>15500</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/5/25/0385ce10-09e0-499d-95f3-7cc300cb4cf6.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/17/e965dedd-ef16-4066-b659-079c8b7e2f60.jpg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1035,53 +1039,53 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/dewoks/jam-tangan-pria-wanita-kulit-elegan-dial-unik-cocok-untuk-anda-gunakan?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/galleryyudhistira/celana-kolor-santai-celana-olahraga-bola-futsal-volly-pria-wanita-mills-merah-pl-a11ad?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>610890740</v>
+        <v>13857624064</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rumah Tangga</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Watchhappy</t>
+          <t>Najmi.bandung</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>WatchHappy MESIN Jam Dinding MATAHARI 12888 Quartz Mov'tment Original</t>
+          <t>Kolor Pendek Santai Harian Pria dan Wanita Celana Harian</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12880</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/11/14/46ea94ff-4345-44af-91b6-717d15bf747b.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/4/2/9d14e34d-3986-471c-bce8-e7b96866e9cb.jpg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/watchhappy/watchhappy-mesin-jam-dinding-matahari-12888-quartz-mov-tment-original?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/najmibdg/kolor-pendek-santai-harian-pria-dan-wanita-celana-harian-motif-10-60122?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2301221195</v>
+        <v>337552829</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1090,38 +1094,38 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ayu o'shop</t>
+          <t>Sandang Atelier</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jam tangan ORIGINAL Anti Air 100% SKYMAX 2026 bisa dibawa berenang</t>
+          <t>Polo celana kolor pendek katun karet</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>70000</t>
+          <t>125000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/10/21/c9a32a37-1bc0-491f-ba0d-4a485545d6c7.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2018/12/2/27174091/27174091_2b67cdfa-549d-4765-bccc-e69ad79bd227_1984_1652.jpg</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/ayuoshop2410/jam-tangan-original-anti-air-100-skymax-2026-bisa-dibawa-berenang-abu-abu-4-7cm?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sandangatelier/polo-celana-kolor-pendek-katun-karet?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12819531909</v>
+        <v>3447487933</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1130,78 +1134,78 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Casio Gallery Indonesia</t>
+          <t>MaulidyaFashionid</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Casio General MTP-B145D-3AVDF Analog</t>
+          <t>CELANA BOXER KOLOR PRIA MOTIF API TERBAIK [BISA COD]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>798850</t>
+          <t>9999</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/28/118b4d87-81bf-4142-8666-d8c0f89b3824.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/4/5/b7e3fbec-5176-4a33-9bad-680627892716.jpg</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/casiogallery/jam-tangan-pria-casio-general-mtp-b145d-3avdf-analog?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/maulidyacollection-1/celana-boxer-kolor-pria-motif-api-terbaik-bisa-cod-putih-8c73?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>390959116</v>
+        <v>6135268244</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>The Watches</t>
+          <t>Superfeel Official</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>JAM TANGAN CASIO MTP-1302D-7A1 / MTP1302D-7A1 GARANSI &amp; BERGARANSI</t>
+          <t>SFL SEAMLESS PANTIES CD WANITA KOLOR TRANSPARAN KATUN CELANA DALAM 329</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>396000</t>
+          <t>17800</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/1/16/2309083/2309083_06f74a12-2f76-40ec-9d83-8d555611a858_300_300.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/13/47d63cc4-0d4c-4b41-8c6e-13586b1dbb9f.png</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/thewatches/jam-tangan-casio-mtp-1302d-7a1-mtp1302d-7a1-garansi-bergaransi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/superfeelofc/sfl-seamless-panties-cd-wanita-kolor-transparan-katun-celana-dalam-329-gray-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1949555179</v>
+        <v>8170370979</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1210,38 +1214,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>serbasli</t>
+          <t>badelstore</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>JAM CASIO KALKULATOR CA53WF / CA53 / CA-53WF-1B DIGITAL ORIGINAL</t>
+          <t>Celana pendek badminton Astec kolor bulutangkis untuk pria wanita dewa</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>319000</t>
+          <t>82000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/24/2ef51e33-bfcc-4e5a-96cb-4c1b0f44c301.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/2/25/04ee9846-7584-4bb7-8ef9-6629e5d3ecd0.jpg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/serbasli/jam-casio-kalkulator-ca53wf-ca53-ca-53wf-1b-digital-original?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/badelstore/celana-pendek-badminton-astec-kolor-bulutangkis-untuk-pria-wanita-dewa?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9717956145</v>
+        <v>2660864880</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1250,22 +1254,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Carolina Watch</t>
+          <t>Bandar Kolor1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jam Tangan Unisex Casio LWA-300H-7E2 Basic Silver Dial Black Resin</t>
+          <t>Celana Pendek Pria Katun Celana Kolor Wanita Hawai Santai Rumah 52</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>525850</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/13/afa290f1-b6a2-4e4b-b7f0-612bd80a557d.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/1/7/6f156a8f-da76-4b8d-93e9-134108861993.jpg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1275,13 +1279,13 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/carolinawatch/jam-tangan-unisex-casio-lwa-300h-7e2-basic-silver-dial-black-resin?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D15216338</t>
+          <t>https://www.tokopedia.com/bandarkolor1/celana-pendek-pria-katun-celana-kolor-wanita-hawai-santai-rumah-52-kolor-anak?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2133420006</v>
+        <v>3131938498</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1290,62 +1294,62 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Eiger Adventure Official</t>
+          <t>Blested</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>EIGER GLENWOOD LACW WATCH SILVER</t>
+          <t>Celana Kolor Pendek Kain KATUN Polos Saku Pria Wanita Unisex Remaja</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>926100</t>
+          <t>30000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/9/3/55c07dd2-f6e0-4b54-8ee9-9719705523f6.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/3/5/2e7b651d-a48f-4303-966a-7dd52269d385.jpg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/eigeradventure/eiger-glenwood-lacw-watch-silver?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/blested/celana-kolor-pendek-kain-katun-polos-saku-pria-wanita-unisex-remaja-moca?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>12658893755</v>
+        <v>12182849634</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Rumah Tangga</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>IKEA Indonesia</t>
+          <t>Naufalis Store</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>IKEA PLUTTIS Jam Dinding Klasik Voltase Rendah 28cm</t>
+          <t>Celana Pendek Pria Tartan Jumbo kolor distro motif kotak Big Size</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>99900</t>
+          <t>56000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/1/2dcf7dd8-7ad6-4079-ae75-9fab30ca521e.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/23/ce47a973-ddce-4a31-ac1b-179fd71fba95.jpg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1355,13 +1359,13 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/ikeaindonesia/ikea-pluttis-jam-dinding-klasik-voltase-rendah-28cm-merah-be8fe?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/naufalis/celana-pendek-pria-tartan-jumbo-kolor-distro-motif-kotak-big-size-hitam-m-size-27-29-f08f6?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>12645121230</v>
+        <v>1945992495</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1370,38 +1374,38 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Casio Gallery Indonesia</t>
+          <t>Mincha Kolor</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Casio Jam Tangan Analog Pria MTP-V004D-1B2UDF</t>
+          <t>Kolor Kolor Pria Pendek Harian</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>350350</t>
+          <t>10200</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/30/973d2c55-05c0-48de-8722-0ac6fa017954.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/28/180e627e-4ba8-401e-8ccc-9b7f03d9879d.jpg</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/casiogallery/casio-jam-tangan-analog-pria-mtp-v004d-1b2udf?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/minchakolor/kolor-kolor-pria-pendek-harian?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>315655848</v>
+        <v>3563949253</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1410,38 +1414,38 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BIDEN Official Store</t>
+          <t>NZLstore99</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>jam tangan Biden fashion pria analog pita jala bisnis</t>
+          <t>Celana pendek 7/8 pria dewasa/celana santai harian/celana kolor 7/8</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>105999</t>
+          <t>21000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/5/25/f47e8463-c9d2-4466-8c41-61f4bb6c0efb.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/4/15/d33d1475-c9c2-4761-804f-bbc1971da10f.jpg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/watchyourhome/jam-tangan-biden-fashion-pria-analog-pita-jala-bisnis-hitam?extParam=ivf%3Dtrue%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/nzlstore99/celana-pendek-7-8-pria-dewasa-celana-santai-harian-celana-kolor-7-8?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>12678699827</v>
+        <v>2706587979</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1450,22 +1454,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Casio Gallery Indonesia</t>
+          <t>alulakatalog</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Casio Jam Tangan Pria MTP-VD300L-1EUDF Analog</t>
+          <t>celana kolor pendek super jumbo pria bigsize 4XL</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>597350</t>
+          <t>19000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/5/a1b6d6de-0643-4442-8594-19a96e3c9ca1.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/1/140a6ed2-968e-4b40-8f47-a28952977c99.jpg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1475,13 +1479,13 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/casiogallery/casio-jam-tangan-pria-mtp-vd300l-1eudf-analog?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/alulakatalog/celana-kolor-pendek-super-jumbo-pria-bigsize-4xl-salur-terang-superjumbo?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>11756492734</v>
+        <v>1091438710</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1490,78 +1494,78 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Carolina Watch Official Jakarta</t>
+          <t>alifvia</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Casio G-Shock GA-B001-1A Black Dial Black Resin Band</t>
+          <t>Celana Pendek Kolor Santai Polos SUPER BIG SIZE JUMBO</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1593270</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/6/bafd218f-c0e6-4df2-8d56-182bb9edc5b0.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/9/23/a5206cef-d18a-4e1d-8b52-886506de03ce.jpg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/carolinawatchid/jam-tangan-pria-casio-g-shock-ga-b001-1a-black-dial-black-resin-band?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/01-pakaian/celana-pendek-kolor-santai-polos-super-big-size-jumbo-biru?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4390261979</v>
+        <v>3570699480</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Grace-Arloji</t>
+          <t>Superfeel Official</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Jam Tangan Casio Pria AE-1500WHX-1A Original ae1500whx ae1500</t>
+          <t>SFL CD WANITA KOLOR PEREMPUAN REMAJA DEWASA PANTIES KATUN SPANDEKS 322</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>352170</t>
+          <t>7850</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/20/e51f0f8a-f81f-44f8-9f4c-341cb3ba11c0.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/4/16/c28ab797-4478-4398-a313-fba7dc1f16b6.png</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/grace-arloji/jam-tangan-casio-pria-ae-1500whx-1a-original-ae1500whx-ae1500?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/superfeelofc/sfl-cd-wanita-kolor-perempuan-remaja-dewasa-panties-katun-spandeks-322-merah-muda-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>152923782</v>
+        <v>7995449025</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1570,22 +1574,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>time piece indonesia</t>
+          <t>frankyfashion</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Jam Tangan CASIO W800H / W-800HG-9AVDF ORIGINAL &amp; BERGARANSI</t>
+          <t>Celana kolor pria dibawah lutut clana pendek color cowo olahraga</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>265000</t>
+          <t>25650</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2018/11/5/152923782/152923782_db4e4f35-d168-422b-b828-0a64c1b628b1_900_900.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/8/23/13389355-acf6-45f8-ab47-2e4546ea0c2f.jpg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1595,13 +1599,13 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/indotimepiece/jam-tangan-casio-w800h-w-800hg-9avdf-original-bergaransi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/frankyfashion/celana-kolor-pria-dibawah-lutut-clana-pendek-color-cowo-olahraga-warna-a?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9697801732</v>
+        <v>2266687794</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1610,38 +1614,38 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Liga Arloji</t>
+          <t>Sultan kolor</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CASIO MW-240-1EV2DF &amp; MQ-24-1EDF Jam Tangan Analog Couple / Pasangan</t>
+          <t>Paket 4 Pcs Celana Pendek Kolor Santai Pria Harian</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>409830</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/5/25/c92711d2-f106-4b7b-a3bc-a24d4eb413c5.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/9/18/ddf35ad8-6909-4330-8c7b-c329570c1686.jpg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/liga-arloji/casio-mw-240-1ev2df-mq-24-1edf-jam-tangan-analog-couple-pasangan?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sultankolor/paket-4-pcs-celana-pendek-kolor-santai-pria-harian-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>11248779426</v>
+        <v>7299963065</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1650,22 +1654,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Liga Arloji</t>
+          <t>OnlineShop Risa</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CASIO MW-240-1EVDF Jam Tangan Pria Analog Rubber Water MW-240-1E MW240</t>
+          <t>Celana Pendek Chino Cino Rip Pinggang Karet Tali Kolor Pria Dewasa</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>207000</t>
+          <t>52900</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/18/36586ebf-7817-4f0b-8847-5a25a2d5273f.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/7/19/d09d713a-7274-4cba-a4e4-703e6554c102.jpg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1675,13 +1679,13 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/liga-arloji/casio-mw-240-1evdf-jam-tangan-pria-analog-rubber-water-mw-240-1e-mw240?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/onlineshoprisa/celana-pendek-chino-cino-rip-pinggang-karet-tali-kolor-pria-dewasa-hitam-32?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4423824914</v>
+        <v>6758427582</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1690,38 +1694,38 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Carolina Watch</t>
+          <t>win makmur</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Casio General MQ-24-7B2</t>
+          <t>celana bola / celana futsal / kolor pendek / celana pendek pria</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>148850</t>
+          <t>15000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/3/13/cf46639a-790f-4733-84bb-28527d04d314.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/10/15/2ff97458-1949-4a78-8b75-f758e3920899.jpg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/carolinawatch/jam-tangan-pria-casio-general-mq-24-7b2?extParam=ivf%3Dtrue%26src%3Dsearch%26whid%3D15216338</t>
+          <t>https://www.tokopedia.com/winmakmur/celana-bola-celana-futsal-kolor-pendek-celana-pendek-pria-hitam-1-pcs?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7196496297</v>
+        <v>1034078325</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1730,38 +1734,38 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>KingJam</t>
+          <t>E'R Shop Collection</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Jam Tangan Model Deepsea Challenge 50MM jumbo</t>
+          <t>celana kolor pendek pria</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1300000</t>
+          <t>14500</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/12/41fe68b7-d912-45d8-af4f-e8fbe7887cb0.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/7/22/d433c858-ad3b-4c20-8cf0-f529877895c4.jpg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/king-jam/jam-tangan-model-deepsea-challenge-50mm-jumbo?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/revisjeans/celana-kolor-pendek-pria-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>384351141</v>
+        <v>11705088120</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1770,22 +1774,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>The Watches</t>
+          <t>Lapak Barang Terlengkap</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CASIO STANDARD CA-53W-1 JAM TANGAN CALCULATOR PRIA/WANITA ORIGINAL</t>
+          <t>LBT Celana Boxer Pria Kolor Pendek Motif Corak 6899 6717 Daleman Man</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>310000</t>
+          <t>7218</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/1/4/2309083/2309083_caaecaa5-64de-49f9-8802-f45afbe5ddc8_700_700.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/9/28/2b38c05c-e2c3-462f-994d-f40abda0fabf.jpg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1795,13 +1799,13 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/thewatches/casio-standard-ca-53w-1-jam-tangan-calculator-pria-wanita-original?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/lapakbarangterlengkap/lbt-celana-boxer-pria-kolor-pendek-motif-corak-6899-6717-daleman-man-6899-navy-f0460?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>10963030768</v>
+        <v>7182145833</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1810,38 +1814,38 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Grace-Arloji</t>
+          <t>BHAZONK_STORE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Jam Tangan Digitec Pria DG5189 Digital Rubber Kuning Original 5189t</t>
+          <t>celana kolor putih polos pria, celana polosan pendek</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>136000</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/7/31/cc0f9c93-cced-436a-b136-49e26fa2c360.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/10/86a10014-9448-49ef-b56a-aa6b0e87bb2c.jpg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/grace-arloji/jam-tangan-digitec-pria-dg5189-digital-rubber-kuning-original-5189t?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/bhazonkstore/celana-kolor-putih-polos-pria-celana-polosan-pendek-merah-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1357628142</v>
+        <v>12321295782</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1850,38 +1854,38 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MerpatiPedia</t>
+          <t>ZR GROSIR</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jam Tangan Digital Formal Pria 91 Tali Rubber</t>
+          <t>Celana Pendek Pria Santai Kolor Cowok Dewasa Motif</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>25010</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/3/27/7c878a88-2812-4098-9b70-729822743fd6.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/10/f2f81c91-9297-4617-8db9-05e24b556eda.jpg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/merpatipedia86/jam-tangan-digital-formal-pria-91-tali-rubber-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/zr-grosir/celana-pendek-pria-santai-kolor-cowok-dewasa-motif-hijau-dewasa-stndr-9b263?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>12336184140</v>
+        <v>434907219</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1890,38 +1894,38 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BudgetGadget</t>
+          <t>suhendri kelontong</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SKMEI 2209 ColorVenture Jam Tangan Digital Pria Sporty Urban</t>
+          <t>Karet kolor 3 cm per meter / elastic penguin / elastis / celana dalam</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>128999</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/12/2f27c792-61bc-4557-8212-299edf2addee.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/7/28/434907219/434907219_574d0ab9-57b1-48b0-ae86-226e7b19f2df_700_700.jpg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/budgetgadget/skmei-2209-colorventure-jam-tangan-digital-pria-sporty-urban?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/hendri-kelontong/karet-kolor-3-cm-per-meter-elastic-penguin-elastis-celana-dalam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1858258788</v>
+        <v>12637714686</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1930,38 +1934,38 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ogyta Shop</t>
+          <t>arthalita store</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NORTH EDGE NL02 Jam Tangan Pria Pengukur Tekanan Darah Detak Jantung</t>
+          <t>Celana kolor pria dewasa jumbo pendek santai</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>441000</t>
+          <t>34000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/1/31/804fabb8-b775-4a2a-91a0-921817eecd2e.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/30/aefba313-7a1d-458e-ad4d-d976035cd075.jpg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/ogytashop/north-edge-nl02-jam-tangan-pria-pengukur-tekanan-darah-detak-jantung-biru?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/arthalita/celana-kolor-pria-dewasa-jumbo-pendek-santai?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>12108264224</v>
+        <v>6801409773</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1970,38 +1974,38 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SKMEI OFFICIAL STORE</t>
+          <t>indie_86</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Jam Tangan Digital Pria SKMEI 1893 black water resistance 30m</t>
+          <t>BEST SELLER - BOXER PRIA | CELANA PENDEK | CELANA KOLOR BOXER KEREN</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>76000</t>
+          <t>9500</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/14/bec48f7a-d07a-4c09-8247-a3349c87380b.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/5/b6ac2478-9a7a-4975-8f25-ee11ea6b36c9.jpg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/skmeiofficialid/jam-tangan-digital-pria-skmei-1893-black-water-resistance-30m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/034218/best-seller-boxer-pria-celana-pendek-celana-kolor-boxer-keren-36-anime-39?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>11517861204</v>
+        <v>977408318</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2010,38 +2014,38 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>hardi49</t>
+          <t>FAF Galeri</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NEW MARS 3 NORTH EDGE DIGITAL SPORT WATCH RUNNING CARBON FIBER PLUS</t>
+          <t>Celana Pendek Pria Dan Wanita Size Standar - Kolor Santai Murah Grosir</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>15000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/2/433fb340-a4b5-48bc-941e-b2465cab4f25.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/1/5/980939/980939_e02dad85-6014-4982-b987-34b6c20b1f5d_2048_2048.jpg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/hardi49/new-mars-3-north-edge-digital-sport-watch-running-carbon-fiber-plus?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/fafgaleri/celana-pendek-pria-dan-wanita-size-standar-kolor-santai-murah-grosir-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>12233702065</v>
+        <v>9683814666</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2050,38 +2054,38 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Casio Gallery Indonesia</t>
+          <t>GUDANG CELANA BOXER</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Casio Original MQ-24-7BLDF Jam Tangan Pria Analog</t>
+          <t>Boxer pria DTF| Celana pendek motif anime| kolor| Celana dalam pria</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>148850</t>
+          <t>27500</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/29/9d72578d-a3ca-4826-9dec-02b65f907d87.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/5/24/d7a3a4a3-434b-4769-b70c-3d74dd0e79dd.jpg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/casiogallery/casio-original-mq-24-7bldf-jam-tangan-pria-analog?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/boxerpsycho/boxer-pria-dtf-celana-pendek-motif-anime-kolor-celana-dalam-pria-le-08?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>480341412</v>
+        <v>868225736</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2090,38 +2094,38 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Liga Arloji</t>
+          <t>Oryza Gold</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Jam Tangan Casio Analog MQ-24 Unisex</t>
+          <t>celana pendek pria / Celana Kolor pria Murah</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>148000</t>
+          <t>8990</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/5/24/39655122/39655122_04859312-3517-4371-80c1-b3f094398e6f_700_700</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/8/29/65656891/65656891_cbfbe21e-2073-4b21-9301-befc7134bc9d_1500_1500</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/liga-arloji/jam-tangan-casio-analog-mq-24-unisex-hitam-balok?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/oryzagold/celana-pendek-pria-celana-kolor-pria-murah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>12442079092</v>
+        <v>7259373626</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2130,38 +2134,38 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Liga Arloji</t>
+          <t>BOXER WICKS PREMIUM</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>TIMEX TW2W23500 Expedition North Traprock Jam Tangan Pria Analog 43mm</t>
+          <t>Celana Pendek Boxer Pria Wanita / Boxer murah / kolor pria /</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1575000</t>
+          <t>14286</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/30/d14688b0-31ed-4708-a00e-8a676ab535df.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/19/21bfc12f-031c-4b59-bd96-5fe656dc4023.png</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/liga-arloji/timex-tw2w23500-expedition-north-traprock-jam-tangan-pria-analog-43mm?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/boxer-wicks/celana-pendek-boxer-pria-wanita-boxer-murah-kolor-pria-pakis-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>146329453</v>
+        <v>11619375122</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2170,38 +2174,38 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>time piece indonesia</t>
+          <t>Grosir Termurah Tercepat</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>JAM TANGAN CASIO AW80 / AW-80-1AVD ORIGINAL &amp; BERGARANSI</t>
+          <t>GTT Celana Boxer Pria 6717 Kolor Motif Corak Celana Dalam Cowok</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>425000</t>
+          <t>7218</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/2/23/146329453/146329453_62dac09e-a663-4a8c-b673-dd06af03b6ba_1100_1100.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/7/4777dc2a-e927-4371-a7d7-59b40b847cb9.png</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/indotimepiece/jam-tangan-casio-aw80-aw-80-1avd-original-bergaransi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/grosirtermurahtercepat/gtt-celana-boxer-pria-6717-kolor-motif-corak-celana-dalam-cowok-6899-navy-ee13d?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7809656625</v>
+        <v>3527360392</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2210,38 +2214,38 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Grace-Arloji</t>
+          <t>LUCKY SPORTS</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Dziner 8312 Original Digital Hitam Ungu</t>
+          <t>Celana Pendek Santai Kolor Pria Keren Bahan Babyterry</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>105000</t>
+          <t>25000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/2/4/d97f8f81-782e-46b1-95db-81e9e0bd86c5.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/4/12/2ac1b75e-282e-49c5-bba1-86406acc738b.jpg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/grace-arloji/jam-tangan-pria-dziner-8312-original-digital-hitam-ungu?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/luckysports/celana-pendek-santai-kolor-pria-keren-bahan-babyterry-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>12108132460</v>
+        <v>8634908879</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2250,38 +2254,38 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SKMEI OFFICIAL STORE</t>
+          <t>strongtiget collection</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Jam Tangan Digital Pria SKMEI 1877 Black water resistance 30 M</t>
+          <t>Celana Kolor Pendek Santai Pria Cowok Dewasa Remaja Big Size Jumbo</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>75525</t>
+          <t>13100</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/14/f8cc4079-9585-4fe8-b04e-775b0f4a02db.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/3/20/17a972a4-9b2c-4f48-9ef7-7513cc083412.jpg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/skmeiofficialid/jam-tangan-digital-pria-skmei-1877-black-water-resistance-30-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/strongtiget2/celana-kolor-pendek-santai-pria-cowok-dewasa-remaja-big-size-jumbo-random-jumbo?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>912761091</v>
+        <v>663813275</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2290,38 +2294,38 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SkyArloji</t>
+          <t>thebackpackershop</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Sporty Quicksilver Tanggal Aktif Strap Kulit</t>
+          <t>Consina Celana pendek/kolor Quickness</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>25000</t>
+          <t>115000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/6/12/5657714/5657714_d7691433-9a37-4b28-86e5-ae2d4e7e2598_640_640.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/7/22/af504eec-07d2-4655-8a6d-e96fad79fae5.jpg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/skyar/jam-tangan-pria-sporty-quicksilver-tanggal-aktif-strap-kulit-coklat-muda?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/thebackpackershop/consina-celana-pendek-kolor-quickness-s?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1846799218</v>
+        <v>12807450897</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2330,22 +2334,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>serbasli</t>
+          <t>sasa jaya collection</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>JAM TANGAN CASIO A168WA-1WDF Original</t>
+          <t>celana pendek pria termurah/celana kolor santai</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>352470</t>
+          <t>19000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/7/2/3effb0a1-43a9-4103-87f5-0c0a64952a88.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/26/804d8b10-4ebb-4021-bb49-586a60c17a9a.jpg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2355,13 +2359,13 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/serbasli/jam-tangan-casio-a168wa-1wdf-original?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/archive-sasajayacollection-1670632150/celana-pendek-pria-termurah-celana-kolor-santai-navy-8aafc?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2769668535</v>
+        <v>12759310516</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2370,38 +2374,38 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Carolina Watch</t>
+          <t>Grosir Termurah Tercepat</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Casio General AE-1500WH-8B</t>
+          <t>GTT Celana Boxer Pria 6954 Boxer Pria Model MAN Salur 3 Garis Kolor</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>434850</t>
+          <t>5477</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/6/0ff530be-6ac1-49cc-8c1a-6747d53ab6a7.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/5/d386efb9-3b6b-4387-aeb6-64b88b57b17c.png</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/carolinawatch/jam-tangan-pria-casio-general-ae-1500wh-8b?extParam=ivf%3Dtrue%26src%3Dsearch%26whid%3D15216338</t>
+          <t>https://www.tokopedia.com/grosirtermurahtercepat/gtt-celana-boxer-pria-6954-boxer-pria-model-man-salur-3-garis-kolor-abu-abu-54874?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>12806532817</v>
+        <v>1070893911</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2410,34 +2414,38 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Carolina Watch</t>
+          <t>Oryza Gold</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jam Tangan Pria Casio MTP-VD03D-3A2 Green Dial with Stainless Steel </t>
+          <t>Celana Pendek Pria Murah/ Celana Pendek Kolor (warna Random)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>499850</t>
+          <t>12500</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/12/d6b9ebf7-55e9-4143-aa35-ffca764622eb.png</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/8/4/65656891/65656891_cdf6a5a0-9fe3-4853-ac32-475d0d0453c7_1279_1279</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/carolinawatch/jam-tangan-pria-casio-mtp-vd03d-3a2-green-dial-with-stainless-steel?extParam=ivf%3Dtrue%26src%3Dsearch%26whid%3D15216338</t>
+          <t>https://www.tokopedia.com/oryzagold/celana-pendek-pria-murah-celana-pendek-kolor-warna-random?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2871960413</v>
+        <v>4466430900</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2446,22 +2454,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SKMEI OFFICIAL SRG</t>
+          <t>Ju Collection Official</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SKMEI 1426 Original Jam Tangan Pria Digital Sport Outdoor Anti Air 50M</t>
+          <t>Celana Kolor Big Size / Super Jumbo Celana Santai Pendek Pria 39-46</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>82900</t>
+          <t>20000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/1/26/a1f0ad8c-d3e3-4791-a777-91c6cc90896e.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/24/27d22e5d-5bcb-490a-a782-9bdbb06b6a6a.jpg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2471,13 +2479,13 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/skmeiofficialsrg/skmei-1426-original-jam-tangan-pria-digital-sport-outdoor-anti-air-50m-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/jucollection/celana-kolor-big-size-super-jumbo-celana-santai-pendek-pria-39-46-abu-muda-m-b0d0?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>388399641</v>
+        <v>1438720834</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2486,34 +2494,38 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>The Watches</t>
+          <t>rikha store</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>JAM TANGAN CASIO AW80V / AW-80V-5BVDF ORIGINAL &amp; BERGARANSI</t>
+          <t>Celana Pendek Kolor Hawai Pria Wanita AIGAR Batik</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>465000</t>
+          <t>22500</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/1/12/2309083/2309083_c5854f20-d6ea-4311-bfae-217906f6ab83_700_700.jpg</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/12/30/3c5457db-1b3d-4754-a791-5010929f09cc.png</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/thewatches/jam-tangan-casio-aw80v-aw-80v-5bvdf-original-bergaransi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/rikha/celana-pendek-kolor-hawai-pria-wanita-aigar-batik?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10398037604</v>
+        <v>12277136139</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2522,38 +2534,38 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>serbasli</t>
+          <t>biondshop</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>JAM CASIO DIGITAL LF-20W-1A / LF20W ORIGINAL BERGARANSI RESMI</t>
+          <t>Celana Boxer | Celana Kolor | Celana Motif | Pria Wanita | Premium</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>340000</t>
+          <t>9900</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/18/8d7b948c-af0b-4587-bdee-967a2caee648.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/5/8283b9bb-9341-4193-855f-e1fa8874cbec.jpg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/serbasli/jam-casio-digital-lf-20w-1a-lf20w-original-bergaransi-resmi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/biondshop/celana-boxer-celana-kolor-celana-motif-pria-wanita-premium-random-63fa4?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>886674654</v>
+        <v>1956403734</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2562,38 +2574,38 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ecos</t>
+          <t>CloPro</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SBPW sebastian michaelis black butler pocket watch anime jam sak</t>
+          <t>Celana Pendek Kolor Harian Bahan Parasut</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>14500</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/6/5/231069/231069_f0ddd42d-b059-4805-8cdf-a16375dfe422_745_745</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/6/27/426b392b-55ef-4da1-aac9-263ef37a8bb0.jpg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/ecos/sbpw-sebastian-michaelis-black-butler-pocket-watch-anime-jam-sak?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/clopro/celana-pendek-kolor-harian-bahan-parasut-random-all-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>12159350661</v>
+        <v>2533512901</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2602,38 +2614,38 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Casio Gallery Indonesia</t>
+          <t>ZR GROSIR</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Casio Jam Tangan Pria AE-1500WH-8BVDF Sport</t>
+          <t>Celana pendek kolor santai pria Paket 3pcs</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>434850</t>
+          <t>52000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/24/62148e5f-9f54-469e-b228-ea18a8e4e7ae.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/7/8/92d9f975-d701-4dde-a973-c743ed500b42.jpg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/casiogallery/casio-jam-tangan-pria-ae-1500wh-8bvdf-sport?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/zr-grosir/celana-pendek-kolor-santai-pria-paket-3pcs-random-s-fit-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>912827010</v>
+        <v>2743280112</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2642,38 +2654,38 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SkyArloji</t>
+          <t>Argiastore</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Sporty Quicksilver Day Date Aktif Strap Kulit</t>
+          <t>Celana Pendek Pria Wanita Kolor Tidur Salur Katun Harian Murah</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>22000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/6/12/5657714/5657714_bca867c9-1401-4ef4-8ded-d2bf5103d0ad_640_640.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/1/16/a8b001af-87eb-472a-a78b-a69eb3a3119c.jpg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/skyar/jam-tangan-pria-sporty-quicksilver-day-date-aktif-strap-kulit-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/argiastore/celana-pendek-pria-wanita-kolor-tidur-salur-katun-harian-murah?extParam=cmp%3D1%26ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>12513314707</v>
+        <v>1628483441</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2682,38 +2694,38 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Binbinzzshop</t>
+          <t>Bos Clothing AM</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Jam tangan original Skmei 9288 all stanless</t>
+          <t>Celana Pendek Pria Kombinasi Babby Terry / Kolor Katun Santai / Celana</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>190000</t>
+          <t>32900</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/11/6f694b31-e1a0-47ed-a92c-31371152298c.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/2/25/2545b6fe-4ff3-4f42-af56-bc3b8d2d9936.jpg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/binbinzzshop/jam-tangan-original-skmei-9288-all-stanless-silver-full-3de18?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/bosclothing/celana-pendek-pria-kombinasi-babby-terry-kolor-katun-santai-celana-abu-muda-l-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>7259728566</v>
+        <v>6134703371</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2722,38 +2734,38 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>IRAQS OUTDOOR</t>
+          <t>adibah_collection17</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>JAM TANGAN EIGER VERDON LAW WATCH BLACK NEW DAN ORIGINAL + BONUS</t>
+          <t>Paket 50 Ribu 5 Pcs Celana Pendek Kolor Pria Wanita Volly Olahraga</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>469999</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/19/c2c7eda8-2df6-44ce-a1b9-032d22c08e86.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/1/8/5170d3bc-a086-4499-9a31-8f05fc70a073.png</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/iraqs-outdoor/jam-tangan-eiger-verdon-law-watch-black-new-dan-original-bonus?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/adibahcollection17/paket-50-ribu-5-pcs-celana-pendek-kolor-pria-wanita-volly-olahraga-paket-5-pcs-list-random?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4349515106</v>
+        <v>4142575911</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2762,22 +2774,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Carolina Watch</t>
+          <t>Radellaofficialstore</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Casio General AE-1500WHX-3A</t>
+          <t>BOXER HARIAN SANTAI UNISEX - CELANA KOLOR REMAJA DEWASA COWOK CEWEK</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>363350</t>
+          <t>5782</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/6/788011b0-9b41-471d-863a-3cd4a9b665cb.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/6/4dd74618-e3a7-4fac-a76f-76b4597586c8.jpg</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2787,13 +2799,13 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/carolinawatch/jam-tangan-pria-casio-general-ae-1500whx-3a?extParam=ivf%3Dtrue%26src%3Dsearch%26whid%3D15216338</t>
+          <t>https://www.tokopedia.com/radellaofficialstor/boxer-harian-santai-unisex-celana-kolor-remaja-dewasa-cowok-cewek-cd-polos-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9709885689</v>
+        <v>2976762655</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2802,38 +2814,38 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Casindo Official Store</t>
+          <t>rasamanis100822</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Casio Jam Tangan Pria General W-201-1BVDF Original Digital Black</t>
+          <t>Celana bapak-bapak/Celana Bahan kain tebal/Celana kolor Pendek</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>280080</t>
+          <t>26000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/6/a12eeda6-64d9-4185-a783-bcd4f100e96b.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/16/89363e5b-8167-4ee8-83a7-21b454171257.jpg</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/casindoofficial/casio-jam-tangan-pria-general-w-201-1bvdf-original-digital-black?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/rasamanis100822/celana-bapak-bapak-celana-bahan-kain-tebal-celana-kolor-pendek-abu-abu-xl-xxxl-jumbo?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>920204554</v>
+        <v>2841611990</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2842,38 +2854,38 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>The Watches</t>
+          <t>A-N FASHION</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Jam Tangan CASIO AE-1000W-3A / AE1000W-3A ORIGINAL &amp; BERGARANSI</t>
+          <t>CELANA JEANS PENDEK MURAH RIP KOLOR (COD)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>285000</t>
+          <t>21500</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/6/14/2309083/2309083_83c634f1-84c9-42c9-a182-116e94c08d37_700_700.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/1/31/6239af8e-12c2-468a-83fd-66076ac5919a.jpg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/thewatches/jam-tangan-casio-ae-1000w-3a-ae1000w-3a-original-bergaransi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/a-n-fashion/celana-jeans-pendek-murah-rip-kolor-cod-chinos-pendek-27?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>12014142774</v>
+        <v>4099848966</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2882,38 +2894,38 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>skymax indonesia</t>
+          <t>Argiastore</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Digital DIVIGO DV-7209 Original Water Resist 3 ATM</t>
+          <t>Celana Pendek Pria Wanita Kolor Tidur Kotak Katun Harian Murah</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>23000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/3/c43dbc1d-892c-4e00-88ba-3f07530436fb.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/3/dde51332-d187-48fb-a92c-fab39f32941f.jpg</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/skymaxindonesia/jam-tangan-pria-digital-divigo-dv-7209-original-water-resist-3-atm-hitam-full-ed933?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/argiastore/celana-pendek-pria-wanita-kolor-tidur-kotak-katun-harian-murah?extParam=cmp%3D1%26ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2443345071</v>
+        <v>1247755310</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2922,38 +2934,38 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Happy Molly Store</t>
+          <t>Argiastore</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Touch Screen★LED Watch [ Hitam ] Jam Tangan Digital</t>
+          <t>Celana Pendek Pria Jumbo Salur Kolor Murah</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>22000</t>
+          <t>20000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/11/21/4f445f17-c1bb-4232-957a-54f9183f935e.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/3/7/dc707137-867d-481c-9ead-d698663a1349.jpg</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/archive-happymollystore/touch-screen-led-watch-hitam-jam-tangan-digital?extParam=ivf%3Dtrue%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/argiastore/celana-pendek-pria-jumbo-salur-kolor-murah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2107619818</v>
+        <v>11812274180</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2962,22 +2974,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Portalbags id</t>
+          <t>AvaAvena</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Eiger Antero Watch Jam Tangan Analog Digital Original</t>
+          <t>Celana kolor olahraga pria parasut murah / celana pendek pria (APG93)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>558000</t>
+          <t>15000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/5/8/ce939032-a855-4eec-8d6c-33d19df5d278.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/10/11/faac695b-120b-43e0-ade6-06f818419701.jpg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2987,13 +2999,13 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/portalbags/eiger-antero-watch-jam-tangan-analog-digital-original?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/avaavena/celana-kolor-olahraga-pria-parasut-murah-celana-pendek-pria-apg93?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>291965396</v>
+        <v>5853934984</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3002,38 +3014,38 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Watchhappy</t>
+          <t>A-H shop</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Seiko 5 Automatic Men's Watch SNXS79K Snxs79k1 snxs79 SNXS77</t>
+          <t>CELANA PENDEK KOLOR SANTAI ARMY DORENG LORENG</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2888000</t>
+          <t>21329</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2018/5/21/3069119/3069119_bdc8532f-7eae-46e3-a514-daf322f095e6_700_700.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/1/bae7166c-36d3-4da2-9543-1c0249f907f1.jpg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/watchhappy/seiko-5-automatic-men-s-watch-snxs79k-snxs79k1-snxs79-snxs77?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/a-hshop/celana-pendek-kolor-santai-army-doreng-loreng?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>422931130</v>
+        <v>7842609980</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3042,22 +3054,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>time piece indonesia</t>
+          <t>Tas Vision</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Casio F-91W-3DG / F91W-3 Jam Tangan Pria Digital Original &amp; Garansi</t>
+          <t>Celana Dalam Boxer Brief Pria Cowok Kolor Cool Kain Polyester Spandex</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>190000</t>
+          <t>49888</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/3/9/1661097/1661097_ce589eac-26b1-4093-8641-24e3f8a2f509_1100_1100.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/2/7/744d38c0-5e5a-4ebc-b036-38d2da320302.jpg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3067,13 +3079,13 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/indotimepiece/casio-f-91w-3dg-f91w-3-jam-tangan-pria-digital-original-garansi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/tasvision/celana-dalam-boxer-brief-pria-cowok-kolor-cool-kain-polyester-spandex-xxl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>7549560161</v>
+        <v>12836478877</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3082,22 +3094,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Tos Ti Tos</t>
+          <t>SukawulyoMintoraharjo</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Muslim Mukmin AlFajr Al Fajr Kiblat Sholat Salat</t>
+          <t>DK7 [PAKET ISI 5 PCS]BOXER PRIA SANTAI HARIAN PRIA WANITA | KOLOR PRIA</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>65000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/1/16/ccb0b4d0-bd30-4fed-894b-debbfa50f4c3.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/3/1/4354e946-98fd-43d6-9ac6-80c4d5dfea71.jpg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3107,13 +3119,13 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/tostitos/jam-tangan-pria-muslim-mukmin-alfajr-al-fajr-kiblat-sholat-salat-hitam-1728?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sukawulyomintorahar/dk7-paket-isi-5-pcs-boxer-pria-santai-harian-pria-wanita-kolor-pria?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>12560375421</v>
+        <v>12404293255</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3122,62 +3134,62 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Casio Gallery Indonesia</t>
+          <t>Bintang Fashion Indonesia</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Jam Tangan Casio General LF-20W-8A2DF Original Digital Grey</t>
+          <t>Sweatpants New Colour Celana Pendek Polos Pria Kolor Original</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>389350</t>
+          <t>48500</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/17/6f377812-42ce-4cdc-8c2f-c3b26215fe55.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/3/31/d9520b70-394a-44f7-8ca0-9ea34d8e0208.jpg</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/casiogallery/jam-tangan-casio-general-lf-20w-8a2df-original-digital-grey?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/bintangfashionindonesia/sweatpants-new-colour-celana-pendek-polos-pria-kolor-original-pink-l-7253d?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5324983727</v>
+        <v>5453222238</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Rumah Tangga</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>IKEA Indonesia</t>
+          <t>JuraganKolor</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>IKEA KUPONG Jam Alarm dengan Desain Minimalis</t>
+          <t>Celana Pendek Pria Polos Santai Kolor Cowok Dewasa Kaos Baby Terry</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>26900</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/8/9/9499032e-a605-44a9-966e-95380472db73.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/8/15/f1fef0a2-f6b8-43aa-9137-3248b0a23932.jpg</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3187,13 +3199,13 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/ikeaindonesia/ikea-kupong-jam-alarm-dengan-desain-minimalis?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/juragankolor/celana-pendek-pria-polos-santai-kolor-cowok-dewasa-kaos-baby-terry-abu-muda-l-to-xl-28-34?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1881445130</v>
+        <v>2256673259</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3202,38 +3214,38 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Eiger Adventure Official</t>
+          <t>celanamurahjakarta</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>EIGER ALVERSTONE WATCH</t>
+          <t>Celana kolor polos - Celana pendek polos - celana santai polos</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>629100</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/6/3/49f7f5ab-8e16-4d6f-beab-92526c9d33ea.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/10/1/549787061/549787061_42cef633-27fb-4c2f-b104-829165590081_720_720.jpg</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/eigeradventure/eiger-alverstone-watch-navy?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/grosircelana07/celana-kolor-polos-celana-pendek-polos-celana-santai-polos-l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>7966428209</v>
+        <v>7291479631</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3242,38 +3254,38 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Saraoriginalshop</t>
+          <t>BOXER WICKS PREMIUM</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Eiger KARLSKOGA WATCH - Jam Tangan Pria - Original</t>
+          <t>Celana Pendek Kolor Boxer Pria Wanita / Boxer murah</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>14286</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/2/14/430be0a5-b7b5-40b0-81c5-7b9f93cc18d3.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/22/2ab0bac3-cf90-4254-8e6c-ec724d36fe6c.png</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/saraoriginalshop/eiger-karlskoga-watch-jam-tangan-pria-original-hijau?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/boxer-wicks/celana-pendek-kolor-boxer-pria-wanita-boxer-murah-zilver?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>12810038480</v>
+        <v>1793659547</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3282,38 +3294,38 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Carolina Watch Official Jakarta</t>
+          <t>Bubble ID</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Casio MW-240B-5B Black Dial with Brown Nylon Band</t>
+          <t>Celana Kolor Santai Pria &amp; Wanita</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>402350</t>
+          <t>20000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/2/27/a948a182-b247-4348-8c07-df6ca55e55b2.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/4/24/760700e6-d1d7-4726-9b2e-41089343a43c.jpg</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/carolinawatchid/jam-tangan-pria-casio-mw-240b-5b-black-dial-with-brown-nylon-band?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/x-s/celana-kolor-santai-pria-wanita-navy-jumbo?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>7828246648</v>
+        <v>3032916055</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -3322,38 +3334,38 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Casindo Official Store</t>
+          <t>qorry</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Casio Jam Tangan Pria General MW-240-1EVDF Original Analog black</t>
+          <t>Celana Pendek Olahraga Pria - Celana Kolor Dewasa</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>229680</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/6/ec254eed-2b28-487e-b8bf-7463f1e5c191.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/22/e3f537e6-43d4-4534-b77c-5900a5303b9e.jpg</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/casindoofficial/casio-jam-tangan-pria-general-mw-240-1evdf-original-analog-black?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/qorry/celana-pendek-olahraga-pria-celana-kolor-dewasa-s?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4423824840</v>
+        <v>13909716431</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -3362,38 +3374,38 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Carolina Watch</t>
+          <t>PRISMA Pro</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Jam Tangan Casio MW-59-1E</t>
+          <t>Celana Dalam Boxer Kolor Pria Wanita Celana Pendek Unisex Katun Murah</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>233350</t>
+          <t>13500</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/12/e2d88bc0-ec20-47ce-a831-b949052eb88a.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/9/da31ebd1-84a9-4885-a7a7-eb2d864c9d6a.jpg</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/carolinawatch/jam-tangan-casio-mw-59-1e?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D15216338</t>
+          <t>https://www.tokopedia.com/prismapro/celana-dalam-boxer-kolor-pria-wanita-celana-pendek-unisex-katun-murah-motif-cewek-dec36?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>12514069904</v>
+        <v>12866758068</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -3402,38 +3414,38 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Casio Gallery Indonesia</t>
+          <t>Boygross</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Casio Jam Tangan Pria AE-1200WH-1AVDF-R Digital Original Black</t>
+          <t>Celana Pendek Pria Kolor Boxer kolor M-L panjang 40cm bahan BabyTErry</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>356850</t>
+          <t>25000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/24/f49e96a2-2d69-4e2f-89ee-aa78ab62c1a3.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/3/6/1b249cb3-7cc0-4075-8a41-63168001990b.jpg</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/casiogallery/casio-jam-tangan-pria-ae-1200wh-1avdf-r-digital-original-black?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/boygross/celana-pendek-pria-kolor-boxer-kolor-m-l-panjang-40cm-bahan-babyterry-abu-abu-m-l-3e31e?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2253576058</v>
+        <v>6807482319</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -3442,38 +3454,38 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Carolina Watch</t>
+          <t>JuraganKolor</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jam Tangan Pria Casio General A100WE-1A </t>
+          <t>Celana Pendek Pria Motif Rib Kolor Distro Cowok Dewasa Santai</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>571350</t>
+          <t>27500</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/6/fa8c6ebf-6255-41a3-9bd7-01c841166f32.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/3/23e9b808-a2d2-447f-a6a6-90f2d6af8636.png</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/carolinawatch/jam-tangan-pria-casio-general-a100we-1a?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D15216338</t>
+          <t>https://www.tokopedia.com/juragankolor/celana-pendek-pria-motif-rib-kolor-distro-cowok-dewasa-santai-hitam-motif-l-to-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>918404381</v>
+        <v>2228797078</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -3482,22 +3494,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>The Watches</t>
+          <t>Laluis</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Jam Tangan CASIO MTP-VD300D-1E / MTPVD300D-1E ORIGINAL &amp; BERGARANSI</t>
+          <t>Celana JUMBO kolor pendek santai pria wanita</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>580000</t>
+          <t>7900</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/6/13/2309083/2309083_920f33ca-077b-4e7c-af4c-884fc89e382a_700_700.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/9/30/5134647d-90dd-46a6-a7cf-d66a64d86b50.jpg</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3507,13 +3519,13 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/thewatches/jam-tangan-casio-mtp-vd300d-1e-mtpvd300d-1e-original-bergaransi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/laluis/celana-jumbo-kolor-pendek-santai-pria-wanita-dikirim-acak-usia-1-tahunan?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>12451703969</v>
+        <v>2609052942</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -3522,38 +3534,38 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>hardi49</t>
+          <t>cigodeg</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NORTH EDGE ALPS Men's Digital Carbon fiber Watch Shock Militray Sports</t>
+          <t>Paket 5 pcs Celana pendek pria santai xxl adz sport kolor pendek polos</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>349000</t>
+          <t>145000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/26/9607a1bd-2040-48e5-b2c8-6bd1069aae29.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/25/77eb643f-6b10-4059-a227-e753eaf41fc6.jpg</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/hardi49/north-edge-alps-men-s-digital-carbon-fiber-watch-shock-militray-sports?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/singkong-mentah/paket-5-pcs-celana-pendek-pria-santai-xxl-adz-sport-kolor-pendek-polos-kasih-cattan?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>11936866442</v>
+        <v>7756383205</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3562,22 +3574,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Grace-Arloji</t>
+          <t>jersey Light Indonesia</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Digitec Neon 5181 Abu-abu Original DN5181T DG5181</t>
+          <t>Celana Pendek Unisex / Celana Kolor Full print</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>225000</t>
+          <t>9725</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/25/edd030b4-c0b2-4d9e-89d1-6a56bd2cd00f.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/2/1/feca78f3-2095-4e0a-a93b-feef90ea56ac.jpg</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3587,13 +3599,13 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/grace-arloji/jam-tangan-pria-digitec-neon-5181-abu-abu-original-dn5181t-dg5181?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/jerseylight/celana-pendek-unisex-celana-kolor-full-print-hijau-stabilo?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3208971402</v>
+        <v>494437660</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3602,22 +3614,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Liga Arloji</t>
+          <t>JC Official Store</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>CASIO MTP-V005D-2B4UDF - Jam Tangan Pria - MTP-V005D-7B5 - Biru</t>
+          <t>celana army | loreng | pendek kolor pinggang karet | jumbo size</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>298000</t>
+          <t>135000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/3/13/ca667900-26cd-4101-bf08-bfb139830ed7.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/4/a164d6d8-8b27-43c6-b0cf-8da0c4da81fe.jpg</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3627,13 +3639,13 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/liga-arloji/casio-mtp-v005d-2b4udf-jam-tangan-pria-mtp-v005d-7b5-biru?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/jcofficialstore/celana-army-loreng-pendek-kolor-pinggang-karet-jumbo-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>371342209</v>
+        <v>2209570850</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3642,38 +3654,38 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>time piece indonesia</t>
+          <t>DASYAT ONLINE SHOP</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Casio F-91W-1 / F91W Jam Tangan Pria Digital Original &amp; Garansi</t>
+          <t>DOS Celana Boxer Pria 3 Gunung Kolor Pendek Polos Cowok Underwear Man</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>190000</t>
+          <t>4196</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/3/9/371342209/371342209_db0b38a8-2efe-44f8-acf0-d21467983a2b_1600_1600.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/11/27/4a16ecec-ce0b-4688-8425-35518c89b44a.jpg</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/indotimepiece/casio-f-91w-1-f91w-jam-tangan-pria-digital-original-garansi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/dasyatonlineshop/dos-celana-boxer-pria-3-gunung-kolor-pendek-polos-cowok-underwear-man-navy?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1561034081</v>
+        <v>1827723147</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3682,38 +3694,38 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Carolina Watch</t>
+          <t>rijalhawai</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Casio General AEQ-110W-3A</t>
+          <t>CELANA PENDEK 3/4 CASUAL PRIA/CELANA HARIAN/CELANA KOLOR/HAWAI</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>506350</t>
+          <t>44900</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/6/9f8627f6-9c69-41eb-82b3-1000a9920e0e.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/27/1e65ea9f-5bdf-4380-a880-a73978d75c07.jpg</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/carolinawatch/jam-tangan-pria-casio-general-aeq-110w-3a?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D15216338</t>
+          <t>https://www.tokopedia.com/rijalhawai/celana-pendek-3-4-casual-pria-celana-harian-celana-kolor-hawai-krem-all-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>146347350</v>
+        <v>1238952274</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3722,38 +3734,38 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>time piece indonesia</t>
+          <t>zulfieka_collection</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>JAM TANGAN CASIO DB360 / DB-360-1ADF ORIGINAL &amp; BERGARANSI</t>
+          <t>Celana Kolor Pendek Pria Dewasa</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>419000</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/3/7/146347350/146347350_5e3bf517-f449-437e-866f-10aceb887af1_1600_1600.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/3/22/4397842a-72c6-4548-b92b-4a818bfe01f0.png</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/indotimepiece/jam-tangan-casio-db360-db-360-1adf-original-bergaransi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/zulfiekacollection/celana-kolor-pendek-pria-dewasa-hitam-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>12763309957</v>
+        <v>13088730272</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3762,38 +3774,34 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Gudang Jam Official</t>
+          <t>WENTEO DE LUXE</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jam Tangan Smart Suunto Race Titanium Charcoal SS050932000 AMOLED </t>
+          <t>CELANA DALAM BRANDED / KOLOR BOXER SUPER MIRROR VVIP ISI 3 PCS ELEGAN</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>8597000</t>
+          <t>348000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/19/1ceaa9e6-b1ed-4947-94a1-ea36544cced2.jpg</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/5/8418ec28-99f6-45b6-8145-42949d3556a5.jpg</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/gudangjamofficial/jam-tangan-smart-suunto-race-titanium-charcoal-ss050932000-amoled?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/wenteostore/celana-dalam-branded-kolor-boxer-super-mirror-vvip-isi-3-pcs-elegan?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>12815618010</v>
+        <v>2343081394</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3802,34 +3810,38 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Grace-Arloji</t>
+          <t>eLvio Group</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Jam Tangan Casio Pria MTP-B145D-3A Original mtp b145</t>
+          <t>CELANA PENDEK PRIA WANITA CHINO DISTRO BOXER KOLOR KAIN SANTAI 202</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>774270</t>
+          <t>19700</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/27/3703e108-c74b-482d-bfe1-abf0c55195c0.jpg</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr"/>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/10/8edce86b-b075-4502-b6c3-52235805bcb3.png</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/grace-arloji/jam-tangan-casio-pria-mtp-b145d-3a-original-mtp-b145?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/elviogroup/celana-pendek-pria-wanita-chino-distro-boxer-kolor-kain-santai-202?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>11985865830</v>
+        <v>6716288588</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3838,38 +3850,38 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Carolina Watch Official Jakarta</t>
+          <t>CV. Lunara Store</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Alba Mechanical AL4217X1 Green Dial Green Nylon Strap</t>
+          <t>Celana Boxer Pria Jumbo Polos Kolor Wanita Pendek Santai Murah Grosir</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>980800</t>
+          <t>17000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/31/542c2628-9f04-4208-b2fd-55ad058f8dc0.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/17/c6accb16-54bb-4979-8c2d-e9fa2069d915.jpg</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/carolinawatchid/jam-tangan-pria-alba-mechanical-al4217x1-green-dial-green-nylon-strap?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/cvlunara/celana-boxer-pria-jumbo-polos-kolor-wanita-pendek-santai-murah-grosir-mustard?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1298422044</v>
+        <v>894485682</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3878,78 +3890,78 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Bergaya online</t>
+          <t>Najmi.bandung</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>kaca jam tangan tebal 1mm berkualitas</t>
+          <t>Celana Pendek Santai Pria dan Wanita Kolor Pendek Ukuran Standar</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>19500</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/10/30/a615fc43-3104-41f8-ba7b-cf11c35540cd.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/11/15/ce2eae5e-90fa-402b-957d-ffbc47a1eee2.jpg</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/bergayaonline/kaca-jam-tangan-tebal-1mm-berkualitas?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/najmibdg/celana-pendek-santai-pria-dan-wanita-kolor-pendek-ukuran-standar?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>917834532</v>
+        <v>1944634371</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>The Watches</t>
+          <t>BAAJO SHOP</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Jam Tangan CASIO LTP-V007L-1B / LTPV007L-1 ORIGINAL &amp; BERGARANSI</t>
+          <t>Celana Pendek Kolor Pria/Wanita Selutut Bahan Tebal Ziro</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>255000</t>
+          <t>26500</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/6/13/2309083/2309083_33602d69-48ae-4f75-a828-714324664163_700_700.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/6/23/f77074ae-f5ca-46c6-8d47-172b78f4d71a.jpg</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/thewatches/jam-tangan-casio-ltp-v007l-1b-ltpv007l-1-original-bergaransi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/baajo/celana-pendek-kolor-pria-wanita-selutut-bahan-tebal-ziro-hitam-allsize-l-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>383981215</v>
+        <v>12866210410</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3958,78 +3970,78 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>The Watches</t>
+          <t>boygrossa</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Casio Standard HDA-600B-1BVDF Jam Tangan Pria DoubleTime Garansi Resmi</t>
+          <t>Celana pendek unisex pria wanita model kolor boxer bahan bebyterry</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>300000</t>
+          <t>22000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/1/3/2309083/2309083_1269b611-8547-4f5f-b86d-1b27713d650f_700_700.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/3/6/dfc7a490-ba83-43c9-96c8-3b46b7f13909.jpg</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/thewatches/casio-standard-hda-600b-1bvdf-jam-tangan-pria-doubletime-garansi-resmi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/boygrossa/celana-pendek-unisex-pria-wanita-model-kolor-boxer-bahan-bebyterry-hijau-botol-m-l-2db32?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1210524803</v>
+        <v>11565373750</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Olahraga</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Ogyta Shop</t>
+          <t>wanti-olshop</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Casio Kalkulator Calculator CA-53WF-8B Custom Original</t>
+          <t>Celana pendek pria sport casual olahraga // celana trening kolor olah</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>389000</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/27/eef76dd4-e9ba-4abb-a93d-9c2a07e57e11.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/7/21/f21f8e5c-ade4-43b2-b793-9c8f6197744d.jpg</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/ogytashop/jam-tangan-pria-casio-kalkulator-calculator-ca-53wf-8b-custom-original?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/wanti-olshop-1/celana-pendek-pria-sport-casual-olahraga-celana-trening-kolor-olah-under-biru-l-96ad8?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>398989958</v>
+        <v>14440500</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -4038,38 +4050,38 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Liga Arloji</t>
+          <t>BERKAH TOKO ONLINE</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>CASIO AW-80-1AVDF Jam Tangan Pria Analog Digital AW80 AW-80-1A</t>
+          <t>CELANA KOLOR PENDEK JUMBO(KOTAK-KOTAK),ukuran di bawah lutut</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>460000</t>
+          <t>12500</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/1/30/39655122/39655122_218e0822-f582-4828-8ed5-7975425e8aa7_1100_1100.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/12/28/14440500/14440500_519c52ac-b00e-4d4c-a57f-45665b1784cb_1560_1560.jpg</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/liga-arloji/casio-aw-80-1avdf-jam-tangan-pria-analog-digital-aw80-aw-80-1a?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/berkahtokoonline/celana-kolor-pendek-jumbokotak-kotakukuran-di-bawah-lutut?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>157377002</v>
+        <v>4070614017</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -4078,38 +4090,38 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>time piece indonesia</t>
+          <t>Argiastore</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>JAM TANGAN CASIO W753 / W-753-2AVDF ORIGINAL &amp; BERGARANSI</t>
+          <t>celana pendek pria dewasa kolor Harian Santai Murah</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>435000</t>
+          <t>17000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2018/11/5/157377002/157377002_51ddbc21-022b-40d8-b4b4-62414dd0909b_1050_1050.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/2/688d6b71-261f-45e7-890a-3ab1519b31b4.jpg</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/indotimepiece/jam-tangan-casio-w753-w-753-2avdf-original-bergaransi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/argiastore/celana-pendek-pria-dewasa-kolor-harian-santai-murah-random?extParam=cmp%3D1%26ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>3738453127</v>
+        <v>3197165756</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -4118,38 +4130,38 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>OHSEN</t>
+          <t>Sultan kolor</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>JAM SAKU POCKET WATCH HITAM ROMAWI</t>
+          <t>Celana Pendek Kolor Pria Wanita Harian Polos</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>66000</t>
+          <t>22000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/19/64c89f50-91bd-4f88-8c60-5b5ba5be8d8b.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/9/16/1d50d711-0400-47b7-ac60-554a8bfdb677.jpg</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/ohsen/jam-saku-pocket-watch-hitam-romawi-gold-kalung?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sultankolor/celana-pendek-kolor-pria-wanita-harian-polos-putih-m-fit-l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>920198552</v>
+        <v>931551311</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -4158,38 +4170,38 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>The Watches</t>
+          <t>MEGA NATHAN</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Jam Tangan CASIO AE-1000W-1B / AE1000W-1B ORIGINAL &amp; BERGARANSI</t>
+          <t>Karet Celana Kolor 1M Size 1.8cm</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>285000</t>
+          <t>1800</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/6/14/2309083/2309083_3366dd28-066d-4b09-bc35-44ee79e0fa1b_600_600.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/26/fb077452-b9a0-4286-a102-5d230c708120.jpg</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/thewatches/jam-tangan-casio-ae-1000w-1b-ae1000w-1b-original-bergaransi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/megalaris/karet-celana-kolor-1m-size-1-8cm?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>697408557</v>
+        <v>4498689077</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -4198,38 +4210,38 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Liga Arloji</t>
+          <t>Grosir Termurah Tercepat</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>CASIO AW-49HE-1AVDF - Jam Tangan Pria - Hitam AW49HE</t>
+          <t>GTT Celana Boxer Pria 3 Gunung Kolor Pendek Polos Cowok Underwear Man</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>298000</t>
+          <t>4196</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/3/6/5d8cebe6-c851-46ca-ac6b-996c8a3cbcc5.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/8/4e9ee82c-827e-4925-9b50-ea29b0033c8a.png</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/liga-arloji/casio-aw-49he-1avdf-jam-tangan-pria-hitam-aw49he?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/grosirtermurahtercepat/gtt-celana-boxer-pria-3-gunung-kolor-pendek-polos-cowok-underwear-man-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>647282316</v>
+        <v>12865884725</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -4238,38 +4250,38 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Carolina Watch</t>
+          <t>Boygross</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Jam Tangan Casio General DBC-32-1A</t>
+          <t>Celana Kolor M/L/XL/XXL/XXXL</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>538850</t>
+          <t>22000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/13/e108cbd9-19d8-40ba-9b1d-d5f96a3a25d5.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/3/6/c0c9e14a-4031-4d3c-8a0f-dff7e27dd7ee.jpg</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/carolinawatch/jam-tangan-casio-general-dbc-32-1a?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D15216338</t>
+          <t>https://www.tokopedia.com/boygross/celana-kolor-m-l-xl-xxl-xxxl-biru-dongker-m-l-103e9?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>12115522964</v>
+        <v>12549601868</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -4278,38 +4290,34 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SKMEI OFFICIAL STORE</t>
+          <t>forhem_collection</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Digital SKMEI 2063 Black Black Water Resistant 30M</t>
+          <t xml:space="preserve">TERMURAH CELANA PENDEK PRIA WANITA DEWASA CELANA KOLOR JUMBO M-XXXXL </t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>82650</t>
+          <t>7900</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/15/e6d3ff92-fa5c-4017-8115-308658bb1632.jpg</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/15/031a1f13-c94c-4b9c-bd93-7f7749997ae4.jpg</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/skmeiofficialid/jam-tangan-pria-digital-skmei-2063-black-black-water-resistant-30m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/archive-bajugrosir99/termurah-celana-pendek-pria-wanita-dewasa-celana-kolor-jumbo-m-xxxxl-hitam-bayi-0-3-tahun-cdf9f?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>12328231386</v>
+        <v>1308985706</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -4318,22 +4326,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SKMEI OFFICIAL STORE</t>
+          <t>TARAFA SHOP</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Digital SKMEI 1952 Silver Steel Water Resistant 30M</t>
+          <t>Celana pendek pria /Celana kolor termurah/Celana pria</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>68400</t>
+          <t>14200</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/11/6e07832d-5df9-4b1e-a880-f29720d36ca5.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/11/3/5b07edc1-befd-4a2e-ba6d-760be256ccfc.jpg</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4343,13 +4351,13 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/skmeiofficialid/jam-tangan-pria-digital-skmei-1952-silver-steel-water-resistant-30m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/tarafa/celana-pendek-pria-celana-kolor-termurah-celana-pria-multiwarna-all-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>388436251</v>
+        <v>13174104457</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -4358,38 +4366,38 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>The Watches</t>
+          <t>superbid</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>JAM TANGAN CASIO AW49HE / AW-49HE-2AV ORIGINAL &amp; BERGARANSI</t>
+          <t>Celana Pendek Pria Wanita Celana Olahraga short pants men sport Running Gym Sport Kolor Volly Futsal Bulu Tangkis Jogging Bahan Berkulitas</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>250000</t>
+          <t>23850</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/1/12/2309083/2309083_568d2845-7625-4146-8afc-ef974a72bfd2_700_700.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/29/dd5ed0b1-2002-44d4-b13b-88f7a0874930.jpg</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/thewatches/jam-tangan-casio-aw49he-aw-49he-2av-original-bergaransi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/superbid/celana-pendek-pria-wanita-celana-olahraga-short-pants-men-sport-running-gym-sport-kolor-volly-futsal-bulu-tangkis-jogging-bahan-berkulitas-abutua-m-b0380?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>12653036654</v>
+        <v>3907076377</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -4398,38 +4406,38 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Casio Gallery Indonesia</t>
+          <t>Boskolor Adz corp</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Casio Jam Tangan Pria General MTP-V005D-7B5UDF Original Analog Silver</t>
+          <t>(paket 3) Celana pendek pria santai olahraga / kolor pendek pria</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>298350</t>
+          <t>57900</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/31/296144bc-7466-43d9-8a0c-eefd7fe8fd64.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/1/20/7c250fa3-64bc-4e0f-9aed-d0b6f162aa3d.jpg</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/casiogallery/casio-jam-tangan-pria-general-mtp-v005d-7b5udf-original-analog-silver?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/boskolor/paket-3-celana-pendek-pria-santai-olahraga-kolor-pendek-pria-random-s-anak?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>648310261</v>
+        <v>3766558393</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -4438,38 +4446,38 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Carolina Watch</t>
+          <t>Boskolor Adz corp</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria CASIO F-91WG-9Q</t>
+          <t>Celana pendek pria super jumbo xxxl kolor big size jumbo xxxl</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>207350</t>
+          <t>11500</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/13/24d80101-7348-4053-b0e7-06e3fc132084.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/23/163d2171-be77-4cf7-a9a5-b0a75066bbf1.jpg</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/carolinawatch/jam-tangan-pria-casio-f-91wg-9q?extParam=ivf%3Dtrue%26src%3Dsearch%26whid%3D15216338</t>
+          <t>https://www.tokopedia.com/boskolor/celana-pendek-pria-super-jumbo-xxxl-kolor-big-size-jumbo-xxxl-putih-s-anak?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>381331495</v>
+        <v>3922517787</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -4478,22 +4486,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Liga Arloji</t>
+          <t>HagiaSophia_Store</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>CASIO MTP-1183A-7ADF Jam Tangan Pria Analog MTP1183A MTP-1183A-7A</t>
+          <t>Celana Pendek Pria Surfing Distro Premium Renang Pantai Santai Kolor 3</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>421000</t>
+          <t>37000</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/7/16/81e0279e-b4fa-4b58-973e-d96e7a58815b.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/5/23/3670f92b-8ade-4ed8-8dba-ad3274621cdc.jpg</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4503,13 +4511,13 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/liga-arloji/casio-mtp-1183a-7adf-jam-tangan-pria-analog-mtp1183a-mtp-1183a-7a?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/hagiastoremkssr/celana-pendek-pria-surfing-distro-premium-renang-pantai-santai-kolor-3?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>12328204584</v>
+        <v>6933316398</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -4518,38 +4526,38 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>SKMEI OFFICIAL STORE</t>
+          <t>BS.CO SPORT</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Digital SKMEI 1894 Black Black Water Resistant 30M</t>
+          <t>CELANA PENDEK PRIA DEWASA KOLOR BOXER COWO SANTAI POLOS BORDIR</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>76000</t>
+          <t>8000</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/11/cdcd7a24-0612-44de-af50-5d39f287f898.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/11/10/33fdc076-1648-4c4a-a132-9d12638264a3.jpg</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/skmeiofficialid/jam-tangan-pria-digital-skmei-1894-black-black-water-resistant-30m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/bscosport/celana-pendek-pria-dewasa-kolor-boxer-cowo-santai-polos-bordir-celana-dalam-all-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>12790764274</v>
+        <v>8881339889</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -4558,38 +4566,38 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Liga Arloji</t>
+          <t>Boskolor Adz corp</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Casio W-219HB-3AVDF Jam Tangan Pria Digital Kanvas W219H W-219HB-3A</t>
+          <t>Celana kolor pria wanita dewasa</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>415000</t>
+          <t>9950</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/23/000e18b6-74f9-4f5e-b909-1cca81ea922b.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/6/8/415bc43b-c80d-4aba-a922-89e8f3ebed01.jpg</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/liga-arloji/casio-w-219hb-3avdf-jam-tangan-pria-digital-kanvas-w219h-w-219hb-3a?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/boskolor/celana-kolor-pria-wanita-dewasa-celana-manset-m-l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>12955952469</v>
+        <v>2512191949</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -4598,118 +4606,114 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>JAM KARET</t>
+          <t>HasanaH_03</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>JAM TANGAN PRIA CASIO WS-1700H-1A ORIGINAL - WS 1700H 1AVDF HITAM</t>
+          <t>Boxer / Celana kolor pria motif api [BISA COD]</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>463900</t>
+          <t>8500</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/27/d141e014-d8fc-41b3-9f5b-14b4e403f48f.png</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2021/12/7/116c1c42-74f7-4aef-ad82-77c37021b084.jpg</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/jamkaret/jam-tangan-pria-casio-ws-1700h-1a-original-ws-1700h-1avdf-hitam-ws-1700h-1a-c50b0?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/archive-hasanah03-1-1697329452/boxer-celana-kolor-pria-motif-api-bisa-cod-putih-allsize?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>7673433707</v>
+        <v>1612277006</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Fashion Arloji</t>
+          <t>RB TOYS AND TECHNOLOGY</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Jam tangan pria swiss army infantry triple time free 2 tali</t>
+          <t>RB-P37 Celana Dalam Seamless Wanita V Shape Low Waist Panties CD Kolor</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>158000</t>
+          <t>13998</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/1/25/fa64b262-7ef8-4f5a-8523-603522998963.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/3/8/9134d8f6-9195-4279-93b2-9955c3d11cae.jpg</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/fashionarloji/jam-tangan-pria-swiss-army-infantry-triple-time-free-2-tali-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/reborn88/rb-p37-celana-dalam-seamless-wanita-v-shape-low-waist-panties-cd-kolor-biru-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>611206813</v>
+        <v>977404235</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Olahraga</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Watch S</t>
+          <t>FAF Galeri</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Jam Tangan Casio Vintage Original A168WGG-1A ORIGINAL 100%</t>
+          <t>Celana Trening Pendek Jumbo - Celana Santai Olahraga Training Kolor</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>831400</t>
+          <t>18000</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/17/2c20802c-e78a-4231-85c5-250f47201602.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/1/5/980939/980939_f5a196ca-7f5d-4186-b084-73de44360966_2048_2048.jpg</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/yusufiyuswatchs/jam-tangan-casio-vintage-original-a168wgg-1a-original-100?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/fafgaleri/celana-trening-pendek-jumbo-celana-santai-olahraga-training-kolor-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>3670216160</v>
+        <v>2688286815</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -4718,38 +4722,38 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Geoff Max Official</t>
+          <t>silviashop05</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Juno Official - Glamo Black Cream | Jam Tangan | Watch Unisex</t>
+          <t>celana kolor distro broadshort pendek pria dewasa termurah</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>24999</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/4/25/ce1eb5d0-044a-42d6-855d-7aae8705e37c.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2022/1/8/2528bb75-c9da-49bf-a0a4-66647e28548e.jpg</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/gmxofficial/juno-official-glamo-black-cream-jam-tangan-watch-unisex?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/silviashop05/celana-kolor-distro-broadshort-pendek-pria-dewasa-termurah-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1628994162</v>
+        <v>1685573495</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -4758,22 +4762,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Eiger Adventure Official</t>
+          <t>greenTex</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>EIGER BLANCA-MDW WATCH</t>
+          <t>Celana Pendek Polos Adem Bahan Kaos - Celana Pendek Kolor Adem</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>413100</t>
+          <t>29000</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/5/3/55a530bc-8fcc-4870-9af4-e8b43559f711.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/3/19/92f36a0f-17ea-4098-a94c-9cb87f67f870.jpg</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4783,13 +4787,13 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/eigeradventure/eiger-blanca-mdw-watch-biru-all-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/green-tex/celana-pendek-polos-adem-bahan-kaos-celana-pendek-kolor-adem-s-abu-muda?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>374546706</v>
+        <v>2320442500</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -4798,38 +4802,38 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Liga Arloji</t>
+          <t>Qul Shop</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>CASIO MTP-VD01L-1BVUDF - Jam Tangan Pria - Coklat</t>
+          <t>Celana Pendek Pria Murah Olahraga Renang Santai Kolor Murah</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>395000</t>
+          <t>15800</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/8/3/19efc780-cf51-43cb-a1d0-8e1df700bfa2.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/10/22/12aaa917-b1e1-43f7-bb1a-a89e7aa5eab3.jpg</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/liga-arloji/casio-mtp-vd01l-1bvudf-jam-tangan-pria-coklat?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/qulbishop/celana-pendek-pria-murah-olahraga-renang-santai-kolor-murah-abu-abu-l-fit-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1649909046</v>
+        <v>3405232227</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -4838,38 +4842,38 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>koleksijamtangan</t>
+          <t>nnisastoree</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>JAM TANGAN PRIA CASIO CA-53WF-1B DATA BANK CALCULATOR ORIGINAL GARANSI</t>
+          <t>Celana Kolor Pria/Celana Pendek Kantong Resleting/Parasut</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>355000</t>
+          <t>17000</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/3/5/0b4d7e2e-95a9-475b-81fb-7a11b1fa73b1.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/4/1/f1ab7c79-6463-4814-871a-2016b4d08dc6.jpg</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/tokokoleksijam/jam-tangan-pria-casio-ca-53wf-1b-data-bank-calculator-original-garansi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/nnisastoree/celana-kolor-pria-celana-pendek-kantong-resleting-parasut-navy?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>12790580532</v>
+        <v>2770820263</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -4878,38 +4882,38 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Liga Arloji</t>
+          <t>JuraganKolor</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>CASIO MTP-VD03D-3A1UDF Jam Tangan Pria Analog MTP-VD03D-3A1 MTPVD03D</t>
+          <t>Celana Pendek Pria Jumbo Basket Kolor Dewasa Training Olaharaga 3/4</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>29900</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/23/17a808c5-610f-4c6b-905d-67f405549d65.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/1/20/132d2e8a-b6c3-4bda-888f-12d40fbe4b7c.png</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/liga-arloji/casio-mtp-vd03d-3a1udf-jam-tangan-pria-analog-mtp-vd03d-3a1-mtpvd03d?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/juragankolor/celana-pendek-pria-jumbo-basket-kolor-dewasa-training-olaharaga-3-4-abu-gelap-xxl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>12436983996</v>
+        <v>10463419959</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -4918,22 +4922,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Swing Fine Watches</t>
+          <t>alifvia</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Jam Tangan CITIZEN MECHANICAL Tsuyosa NJ0150-81L Original</t>
+          <t>Celana pendek pria Celana Kolor Santai Dewasa Bisa cewe dan cowo</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>4440000</t>
+          <t>16500</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/12/29/b817a46b-980e-4227-bcbf-ee844dcaf99f.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/3/24/7ebb32b4-3cdd-4c30-9710-b9f812deb0cc.jpg</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -4943,13 +4947,13 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/swingfinewatches/jam-tangan-citizen-mechanical-tsuyosa-nj0150-81l-original?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/01-pakaian/celana-pendek-pria-celana-kolor-santai-dewasa-bisa-cewe-dan-cowo-hitam-all-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>11938534248</v>
+        <v>1383418154</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -4958,22 +4962,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>RC__Store</t>
+          <t>Adzqia shop</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Jam Tangan Eiger Provo Original</t>
+          <t>celana pendek sport khusus big size / kolor nike,adidas black</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>354000</t>
+          <t>39900</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/16/79a83d85-07ce-4b48-bbe0-e29c89ffab16.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/4/2/70ac1cc8-1e92-455f-b361-5637c3898263.jpg</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4983,13 +4987,13 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/rcstore-2/jam-tangan-eiger-provo-original-hitam-58bdd?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/adzqiashop/celana-pendek-sport-khusus-big-size-kolor-nike-adidas-black?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>6743763063</v>
+        <v>6718779026</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -4998,78 +5002,78 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SKMEI MURAH &amp; ORIGINAL</t>
+          <t>Cahaya_hijab99</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Anak SKMEI 1973 Rubber Anti air 3 atm Original</t>
+          <t>(COD) CELANA KOLOR CELANA PENDEK PRIA KATOK KOLOR CELANA SPORT LARI</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>79000</t>
+          <t>9999</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2022/10/13/971587bf-da00-416e-bfa5-22f1fdaf0bb9.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/10/8/40312dca-5089-444e-b329-26b11678c3d4.jpg</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/oriskmei/jam-tangan-pria-anak-skmei-1973-rubber-anti-air-3-atm-original-bear?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/cahayahijab99/cod-celana-kolor-celana-pendek-pria-katok-kolor-celana-sport-lari-grosir-linning?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>7717784236</v>
+        <v>7067448193</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Olahraga</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>skymax indonesia</t>
+          <t>Serba Kaos Bandung</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Jam Tangan Couple Pria Wanita Sunto Skymax Digital Anti air</t>
+          <t>Jersey Celana Kolor Pendek Bawahan Olahraga Badminton Jumbo Big Size</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/1/29/0a6235d5-2d2b-4548-9c91-577840e6add8.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/11/26/0280ab8d-4b0e-43a8-921e-c97dde2df375.jpg</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/skymaxindonesia/jam-tangan-couple-pria-wanita-sunto-skymax-digital-anti-air-hitam-pria?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/serbakaos/jersey-celana-kolor-pendek-bawahan-olahraga-badminton-jumbo-big-size-putih-xxl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1844570571</v>
+        <v>2567294019</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -5078,38 +5082,38 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Carolina Watch</t>
+          <t>shininglight store</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Casio General AEQ-110W-1B</t>
+          <t>celana pendek pria celana kolor pria olahraga</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>506350</t>
+          <t>25000</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/6/d26ba1b2-0bf7-4ac1-9e6a-7fc541222ce8.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/18/7f64884d-27e9-47b0-924e-f83862c26190.jpg</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/carolinawatch/jam-tangan-pria-casio-general-aeq-110w-1b?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D15216338</t>
+          <t>https://www.tokopedia.com/shininglight-store/celana-pendek-pria-celana-kolor-pria-olahraga-navy-polos?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>3345671836</v>
+        <v>1832199487</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -5118,22 +5122,22 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Carolina Watch</t>
+          <t>Ahmad_Muhammad99</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Alba Mechanical Al4221X1 Beige Dial and Canvas Strap</t>
+          <t>Celana Pendek Kolor Misty Pria Dewasa Jumbo XXXL | Celana Harian Pria</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>980800</t>
+          <t>18500</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/20/99728458-7b6a-45fa-8f30-482c30216e3a.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/24/e1486b9b-911b-45a6-8526-87df495875cc.jpg</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5143,13 +5147,13 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/carolinawatch/jam-tangan-pria-alba-mechanical-al4221x1-beige-dial-and-canvas-strap-a9f8?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D15216338</t>
+          <t>https://www.tokopedia.com/ahmadmuhammad99/celana-pendek-kolor-misty-pria-dewasa-jumbo-xxxl-celana-harian-pria?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>11680705196</v>
+        <v>2592093101</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -5158,38 +5162,38 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Carolina Watch</t>
+          <t>BATAVIASPORT25</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Casio  Standard Series MDV-10D-1A2</t>
+          <t>CELANA KOLOR PENDEK PARASUT PRIA MURAH 3 PCS</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>1236750</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/8/b6ed6270-1305-41b7-918f-7f3791027873.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/22/21b3e8a0-5569-484f-9559-5c5856ef4721.jpg</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/carolinawatch/jam-tangan-pria-casio-standard-series-mdv-10d-1a2?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D15216338</t>
+          <t>https://www.tokopedia.com/bataviasport25/celana-kolor-pendek-parasut-pria-murah-3-pcs-ramdom-all-size-fit-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>751461034</v>
+        <v>13073816974</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -5198,38 +5202,38 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Ogyta Shop</t>
+          <t>Ahmad_Muhammad99</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Q&amp;Q QnQ QQ Smile Solar Jam Tangan Pria Tali Karet RP00J035Y Original</t>
+          <t>Celana Pendek Kolor Bola | Celana Harian Pria Dewasa</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>17500</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/9/1/b6b68c70-693b-42c2-8ea8-2ff564724b16.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/5/3/8a75cb22-1249-4df6-956a-d9f9f028326f.jpg</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/ogytashop/q-q-qnq-qq-smile-solar-jam-tangan-pria-tali-karet-rp00j035y-original?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/ahmadmuhammad99/celana-pendek-kolor-bola-celana-harian-pria-dewasa-res-dora-xxl-48672?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>9805296545</v>
+        <v>775670196</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -5238,78 +5242,78 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Rebirth Official Store</t>
+          <t>Sweeten_you</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>SUNLIFEX Jam Tangan Pria Digital Tali Silikon Olahraga Jam  Cowok</t>
+          <t>Celana Pendek Kolor Santai Olahraga - Abibas</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>55000</t>
+          <t>15000</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/5/30/8ec51eb7-04cf-4c98-83de-4e9441885d46.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/4/8/775670196/775670196_962bb9b0-65c9-4993-bfe6-8e7b06308ec6_1024_1024.jpg</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/rebirthofficial/sunlifex-jam-tangan-pria-digital-tali-silikon-olahraga-jam-cowok-hitam-c5973?extParam=cmp%3D1%26ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sweetenyou/celana-pendek-kolor-santai-olahraga-abibas?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>6170650222</v>
+        <v>1967108076</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Olahraga</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>ABCmart</t>
+          <t>explode official</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Adapter USB Charger Garmin Fenix Venu Forerunner Vivoactive Jam</t>
+          <t>celana olahraga explode / celana jersey/celana runing pria /kolor pria</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>18000</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/15/fae85a2d-1dba-4471-897a-da6f63b6a01d.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/7/1/43af647f-9684-4836-ae39-186bd3b4e454.jpg</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/abcmart/adapter-usb-charger-garmin-fenix-venu-forerunner-vivoactive-jam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/explodeo/celana-olahraga-explode-celana-jersey-celana-runing-pria-kolor-pria-hitam-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1811489827</v>
+        <v>8188497042</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -5318,38 +5322,38 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Watchhappy</t>
+          <t>DASYAT ONLINE SHOP</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>WatchHappy Lorus R2303HX9 R2303H Men Digital Watch Rubber 100%Original</t>
+          <t>DOS Celana Dalam Boxer Pria 6706 Celana Kolor Pendek Boxer Cowok</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>199900</t>
+          <t>6839</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/4/29/40887da7-2bea-4c06-9675-aa4dd1eb6eae.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/2/26/e2292f4e-80f1-4ace-a96d-39887fe69a9a.jpg</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/watchhappy/watchhappy-lorus-r2303hx9-r2303h-men-digital-watch-rubber-100-original?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/dasyatonlineshop/dos-celana-dalam-boxer-pria-6706-celana-kolor-pendek-boxer-cowok-biru-531d5?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>12658825501</v>
+        <v>9633916149</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -5358,38 +5362,34 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Casio Gallery Indonesia</t>
+          <t>men s stuff</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Casio Jam Tangan Pria General MTP-V006L-1BUDF</t>
+          <t>Celana Pendek / SweatShort Pants Pria dan Wanita / Celana Kolor Unisex</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>311350</t>
+          <t>49300</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/2/9d0f3e2e-c8b6-4f02-b60b-34c5b25be395.png</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/5/22/6795c16d-804a-4000-b5a4-5bc9387cad80.jpg</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/casiogallery/casio-jam-tangan-pria-general-mtp-v006l-1budf?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/mensstuff1/celana-pendek-sweatshort-pants-pria-dan-wanita-celana-kolor-unisex-pendek-hitam-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>12733791900</v>
+        <v>203318061</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -5398,38 +5398,34 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>GrosirGshock</t>
+          <t>bibbibbli</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>SALE Jam Tangan Casio General CA-53WF-3BDF Original</t>
+          <t>Celana kolor Pendek Jumbo XXL pria/ wanita motif kotak</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>259500</t>
+          <t>49900</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/14/f9933fc2-6a24-406b-9524-2f3024ec39ba.jpg</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/7/28/57174c62-e9af-43ef-a8d7-66d55c16153d.jpg</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/gshockoriginal/sale-jam-tangan-casio-general-ca-53wf-3bdf-original?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/celanahawai/celana-kolor-pendek-jumbo-xxl-pria-wanita-motif-kotak?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>4349516103</v>
+        <v>13144885739</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -5438,22 +5434,22 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Carolina Watch</t>
+          <t>Boygross</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Casio General WS-1400H-1A</t>
+          <t>Celana Kolor L dan XL</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>395850</t>
+          <t>22000</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/12/20072e54-3e20-42a7-8c09-d48c74f015b6.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/15/6fcf4798-f6d2-4b52-ad22-7e2d2d47b47e.jpg</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5463,13 +5459,13 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/carolinawatch/jam-tangan-pria-casio-general-ws-1400h-1a?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D15216338</t>
+          <t>https://www.tokopedia.com/boygross/celana-kolor-l-dan-xl-maroon-m-l-79107?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>12113853173</v>
+        <v>13088737660</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -5478,38 +5474,38 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SKMEI OFFICIAL STORE</t>
+          <t>WENTEO DE LUXE</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Digital SKMEI  1998 BK/BLACK water resistance 30m</t>
+          <t>CELANA DALAM BRANDED / KOLOR BOXER HALUS SUPER MIRROR VVIP ISI 3 PCS</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>72200</t>
+          <t>348000</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/15/e5eb947b-44fa-4113-a5e6-e8185f66b73e.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/5/6cb64bf7-9927-40ef-83cb-72783df55314.jpg</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/skmeiofficialid/jam-tangan-pria-digital-skmei-1998-bk-black-water-resistance-30m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/wenteostore/celana-dalam-branded-kolor-boxer-halus-super-mirror-vvip-isi-3-pcs?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>388412061</v>
+        <v>7686825817</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -5518,38 +5514,38 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>The Watches</t>
+          <t>SM_FESYEN</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>JAM TANGAN CASIO AW80 / AW-80-7A2VD ORIGINAL &amp; BERGARANSI</t>
+          <t>kolor pendek celana olahraga jogging basket sport gym pria wanita</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>385000</t>
+          <t>12000</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/1/12/2309083/2309083_f3297156-cd33-4071-8152-5971f98d4c4f_300_300.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/1/27/817af3d5-e9ef-4fd3-9033-15999b895a39.jpg</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/thewatches/jam-tangan-casio-aw80-aw-80-7a2vd-original-bergaransi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/smfesyen/kolor-pendek-celana-olahraga-jogging-basket-sport-gym-pria-wanita-celana-dalam-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>787879363</v>
+        <v>2511250988</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -5558,22 +5554,22 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Time Gallery Official</t>
+          <t>Adzqia shop</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Jam Tangan Casio G-Shock Original GMW-B5000GD-9DR GMWB5000GD 9ADR 9A 9</t>
+          <t>celana kolor pendek jumbo kaos babyterry</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>7709000</t>
+          <t>29900</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/7/13/2663966c-5905-455e-82d1-5741511cc5a9.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/7/0f79e726-541f-401a-a399-929ec491eb0b.jpg</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -5583,13 +5579,13 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/timegalleryofficial/jam-tangan-casio-g-shock-original-gmw-b5000gd-9dr-gmwb5000gd-9adr-9a-9?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/adzqiashop/celana-kolor-pendek-jumbo-kaos-babyterry?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>152924660</v>
+        <v>1677630775</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -5598,38 +5594,38 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>time piece indonesia</t>
+          <t>OKEGAN JEANS</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Jam Tangan CASIO W87H / W-87H-1VH ORIGINAL &amp; BERGARANSI</t>
+          <t>PAMA - Celana Kolor Pendek Jumbo XXXL Pria Bahan Misty Berkualitas</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>410000</t>
+          <t>12000</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2018/11/3/152924660/152924660_15196f59-e2c4-4ca7-952a-f662f4d32df4_903_903.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/3/17/0625cf0f-e270-46c9-9998-380d9ffa8097.jpg</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/indotimepiece/jam-tangan-casio-w87h-w-87h-1vh-original-bergaransi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/okeganjeans/pama-celana-kolor-pendek-jumbo-xxxl-pria-bahan-misty-berkualitas-xl-bb-70kg?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>374547918</v>
+        <v>11831934692</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -5638,38 +5634,38 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Liga Arloji</t>
+          <t>Mickonova Store</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>CASIO MTP-VD01L-1EVUDF - Jam Tangan Pria Analog Hitam Kulit MTPDV01L</t>
+          <t>CELANA PENDEK PRIA KOLOR PINGGANG KARET COWOK KUALITAS DISTRO MURAH</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>395000</t>
+          <t>42500</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/8/3/8747606d-e18b-4a8d-af9f-4d0c6c408f57.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/13/97454180-a894-4953-b227-c3b1a5d67a58.png</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/liga-arloji/casio-mtp-vd01l-1evudf-jam-tangan-pria-analog-hitam-kulit-mtpdv01l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/mickonova-store/celana-pendek-pria-kolor-pinggang-karet-cowok-kualitas-distro-murah-cream-27-28-ff123?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>462110381</v>
+        <v>12170203862</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -5678,38 +5674,38 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>GrosirGshock</t>
+          <t>ARSY sport store</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Jam Tangan Casio General B650WD-1AVDF Original Murah</t>
+          <t>Arsy Sport - Celana Kolor Pria / Celana Pendek Pria TP-007</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>434520</t>
+          <t>34900</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/7/4/c922a08e-3442-45fa-b3ce-a27368ceed64.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/21/e2ea9c1a-ed02-48b0-9fb5-5b490d117cb9.jpg</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/gshockoriginal/jam-tangan-casio-general-b650wd-1avdf-original-murah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/arsy-sport/arsy-sport-celana-kolor-pria-celana-pendek-pria-tp-007-hitam-l-ea5bd?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>149780331</v>
+        <v>1672333581</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -5718,38 +5714,38 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>time piece indonesia</t>
+          <t>alfan bejo05</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>JAM TANGAN CASIO MRW200H / MRW-200H-1EVDF ORIGINAL &amp; BERGARANSI</t>
+          <t>celana kolor pendek misty super jumbo</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>295000</t>
+          <t>18000</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/4/12/149780331/149780331_e9b96906-3b08-45db-8802-2223c01c693f_1600_1600.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/3/14/8e8d7d2f-870d-4d0b-b332-672aa66c0b7e.jpg</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/indotimepiece/jam-tangan-casio-mrw200h-mrw-200h-1evdf-original-bergaransi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/bejosekabehe/celana-kolor-pendek-misty-super-jumbo-random-super-jumbo?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>630431376</v>
+        <v>13083196306</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -5758,38 +5754,38 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>SKMEI MURAH &amp; ORIGINAL</t>
+          <t>GhalionOriginaL</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria / SKMEI 1419 / Jam Tangan Analog / SKMEI HITAM PUTIH 2</t>
+          <t>Celana Pendek Kolor Santai Pria Wanita Big Size Jumbo</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>58000</t>
+          <t>16577</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/12/18/31703371/31703371_0912999c-083b-40ea-ae14-435e0d95275e_800_800</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/21/787b6067-bf16-4cc6-9244-d62ff1078880.jpg</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/oriskmei/jam-tangan-pria-skmei-1419-jam-tangan-analog-skmei-hitam-putih-2?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/ghalionoriginal/celana-pendek-kolor-santai-pria-wanita-big-size-jumbo-abu-tua-1c01c?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>381240866</v>
+        <v>6459358524</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -5798,38 +5794,38 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Baby Reseller Jam</t>
+          <t>Grosir Termurah Tercepat</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Jam Tangan Orient Panda Solar RA-TX0203S RA-TX0203S10B Original</t>
+          <t>GTT Celana Boxer Pria 3 Gunung Kolor Pendek Polos Cowok Underwear 2</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>3086000</t>
+          <t>4196</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/16/3d1a2ce1-1341-4073-a267-c720c90a0794.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/8/9ad9456d-9a99-4b1f-b4bb-fdd37fe50175.png</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/babyresellerjam/jam-tangan-orient-panda-solar-ra-tx0203s-ra-tx0203s10b-original?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/grosirtermurahtercepat/gtt-celana-boxer-pria-3-gunung-kolor-pendek-polos-cowok-underwear-2-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>293262229</v>
+        <v>7298140853</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -5838,38 +5834,38 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Ogyta Shop</t>
+          <t>Markas Busana</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Casio Analog Digital Jam Tangan Pria Karet Hitam AW-90H-2B Original</t>
+          <t>Celana Pendek Pria Kolor Santai Sporty Olahraga Volly Futsal Murah</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>335000</t>
+          <t>13999</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/9/23/080b5bdf-04bf-4456-b760-28eb54e320df.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/23/0aafc28e-3203-4978-ae0f-8a195e473970.jpg</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/ogytashop/casio-analog-digital-jam-tangan-pria-karet-hitam-aw-90h-2b-original?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/markasbusana/celana-pendek-pria-kolor-santai-sporty-olahraga-volly-futsal-murah-merah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>199334009</v>
+        <v>1585454069</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -5878,38 +5874,38 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>BukaTokoMurah</t>
+          <t>AIMPRO</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Alat service jam tangan paket lengkap pemotong rantai ganti batere dll</t>
+          <t>Celana Kolor Pria Dewasa - Celana Pendek Pria - Celana Sport Pria</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>12000</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2017/8/30/199334009/199334009_2ccf5063-e0ef-4247-8079-4d65f7c5f439_2048_0.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/2/5/d0e2e331-9e2f-465f-8f20-8de4170cec22.jpg</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/bukatokomurah/alat-service-jam-tangan-paket-lengkap-pemotong-rantai-ganti-batere-dll?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/aimpro/celana-kolor-pria-dewasa-celana-pendek-pria-celana-sport-pria-hitam-all-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>371945304</v>
+        <v>2999925368</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -5918,38 +5914,38 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Liga Arloji</t>
+          <t>nnisastoree</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>CASIO AW-90H-2BVDF - Jam Tangan Unisex Pria Wanita AW90H AW-90H-2B</t>
+          <t>celana kolor parasut pendek</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>350000</t>
+          <t>17000</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/9/28/11959f01-c9d7-49d3-9bb2-d68578891ee0.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/18/6881ef05-802e-4d68-8c71-0cbf96d09c3b.jpg</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/liga-arloji/casio-aw-90h-2bvdf-jam-tangan-unisex-pria-wanita-aw90h-aw-90h-2b?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/nnisastoree/celana-kolor-parasut-pendek?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1566772832</v>
+        <v>8418703093</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -5958,38 +5954,38 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Timepedia Indonesia</t>
+          <t>kachigachi</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Jam Tangan Alba Pria AT3H21 AT3H21X1 Original Bergaransi Resmi 1 Tahun</t>
+          <t>Celana Pendek Pria Jumbo / Celana Kolor Pria Big Size - Zipper 2.0</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>646000</t>
+          <t>59900</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/1/28/ed8ad3fa-f924-41f1-9077-0a3019087e2b.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/21/7941e093-9006-442e-97ec-2dbe19294c1b.png</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/timepediaindonesia/jam-tangan-alba-pria-at3h21-at3h21x1-original-bergaransi-resmi-1-tahun?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/kachigachi/celana-pendek-pria-jumbo-celana-kolor-pria-big-size-zipper-2-0-biru-m-50-65kg?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1012020782</v>
+        <v>2588956745</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -5998,38 +5994,38 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SKMEI MURAH &amp; ORIGINAL</t>
+          <t>ImanuelStore</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Curren 8329 Date Chronograph aktif BROWN RSE GOLD HTM</t>
+          <t>Celana Training Pendek Pria Santai Kolor Saku + Resliting IMS</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>240000</t>
+          <t>14999</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/7/10/31703371/31703371_dbd59081-ea0d-4b75-b161-3ce90ecc18e8_700_700</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/22/051e1430-8f8d-4001-84f8-0a16341f0027.jpg</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/oriskmei/jam-tangan-pria-curren-8329-date-chronograph-aktif-brown-rse-gold-htm?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/imanuels/celana-training-pendek-pria-santai-kolor-saku-resliting-ims-random?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>3085361628</v>
+        <v>2143284977</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -6038,38 +6034,38 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Grace-Arloji</t>
+          <t>Argiastore</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Jam Tangan Casio A500WA-1 original a500wa a500</t>
+          <t>Celana Pendek Chino Pria Kolor Polos Harian Murah</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>478170</t>
+          <t>30000</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2016/5/7/427233/427233_32e24921-2cf2-4106-93d4-d14005aaa0b6.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/9/6/6e9695b5-aefa-4766-9593-db85d0d868a2.jpg</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/grace-arloji/jam-tangan-casio-a500wa-1-original-a500wa-a500?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/argiastore/celana-pendek-chino-pria-kolor-polos-harian-murah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>11526900385</v>
+        <v>613487865</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -6078,38 +6074,38 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SKMEI OFFICIAL STORE</t>
+          <t>Adzqia shop</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Digital SKMEI 1972 Black Water Resistance 30m</t>
+          <t>celana pendek sport gradeori / kolor nike,adidas black</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>62700</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/9/7/65619e0c-539c-4ee8-9ecd-9a096a64f1a8.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/4/2/0ad10e46-208e-4abc-90df-39de020bdebe.jpg</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/skmeiofficialid/jam-tangan-pria-digital-skmei-1972-black-water-resistance-30m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/adzqiashop/celana-pendek-sport-gradeori-kolor-nike-adidas-black-adidas-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>7132425227</v>
+        <v>6740493810</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -6118,22 +6114,22 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Gentanala</t>
+          <t>Amzy Shop</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Jam Tangan Kayu dan Resin Widodo 1.5 Hutan Tropis Series</t>
+          <t>Celana Pendek Harian Kolor Pria Dewasa Super Big Size Saku Kempol</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>350220</t>
+          <t>30000</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/3/3bc09c87-e736-408d-b1ff-163d885561ca.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/20/83dfadb5-8384-4800-a3eb-1cb7ea2029af.jpg</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6143,13 +6139,13 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/gentanala/jam-tangan-kayu-dan-resin-widodo-1-5-hutan-tropis-series?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/amzyshop/celana-pendek-harian-kolor-pria-dewasa-super-big-size-saku-kempol-tery-polos-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>6481905578</v>
+        <v>4894767874</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -6158,38 +6154,38 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>JAMDUNIA</t>
+          <t>TokoJoloarto</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>CASIO ORIGINAL F-91W-1D F 91W 1D 91 F91 JAM TANGAN PRIA F-91WS</t>
+          <t>Celana Pendek Kolor Murah M L XL</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>268000</t>
+          <t>8900</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2022/9/27/4a7555d5-9c22-4328-9310-0a2e899472ce.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/8/30/0fbf6230-f6b2-4b1c-9d2e-f7f65f2a0df9.jpg</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/jamdunia/casio-original-f-91w-1d-f-91w-1d-91-f91-jam-tangan-pria-f-91ws?extParam=ivf%3Dtrue%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/tokojoloarto/celana-pendek-kolor-murah-m-l-xl-s-maks-7-tahun?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>9829219690</v>
+        <v>6874880289</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -6198,78 +6194,78 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Rebirth Official Store</t>
+          <t>Amanda Shop 01</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>SUNLIFEX Jam Tangan Pria Square Kalender Tali Silikon Bercahaya Kuarsa</t>
+          <t>AD - CELANA PENDEK PRIA DISTRO SURFING kolor boxer clana penek cowok d</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>99000</t>
+          <t>48000</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/9/9/383501b4-5221-42ac-b777-9ea09640c6c0.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2022/11/2/d2c3a430-9a98-46c6-8a3d-39ad64ab01f7.jpg</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/rebirthofficial/sunlifex-jam-tangan-pria-square-kalender-tali-silikon-bercahaya-kuarsa-kuning-7eaf4?extParam=cmp%3D1%26ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/amandashop01-01/ad-celana-pendek-pria-distro-surfing-kolor-boxer-clana-penek-cowok-d?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>9814956228</v>
+        <v>9298598858</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Rumah Tangga</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>WMCshop</t>
+          <t>Benthang Cloth</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Jam Dinding Seiko Putih Chrome Stainless</t>
+          <t>Celana Kolor Protot Pria Dewasa</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>139407</t>
+          <t>14850</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/5/30/347dca08-1cde-4088-a967-f82639dd5c49.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/5/1/a7b980a1-657f-4158-b4b8-fdd65f036308.jpg</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/wmcshop/jam-dinding-seiko-putih-chrome-stainless-putih-32cm?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/benthangcloth/celana-kolor-protot-pria-dewasa?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>12603271899</v>
+        <v>3549800205</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -6278,78 +6274,74 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SKMEI OFFICIAL STORE</t>
+          <t>JuraganKolor</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Jam Tangan Digital Skmei Pria  1995 Pink Black water resistance 30m</t>
+          <t>Celana Pendek Pria Jumbo Basket Kolor Dewasa Olaharaga Training 3/4</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>93100</t>
+          <t>29900</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/23/f7759f2d-d106-41df-9375-fd09e0d824b2.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/4/14/09bade92-c0e4-4a16-9812-f0e2b077be14.png</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/skmeiofficialid/jam-tangan-digital-skmei-pria-1995-pink-black-water-resistance-30m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/juragankolor/celana-pendek-pria-jumbo-basket-kolor-dewasa-olaharaga-training-3-4-hitam-xl-to-xxl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>12487464041</v>
+        <v>12536162055</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Rumah Tangga</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Naxen Official Store</t>
+          <t>giftech</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Naxen Jam Meja Kayu Digital LED Alarm Clock + Temperature </t>
+          <t>Celana Pendek Parasut Pria Saku Resleting WaterProof Kolor Olahraga Ru</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>52900</t>
+          <t>32900</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/8/0e566885-4128-438b-a644-f33a9b645364.png</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/13/f5eea55d-ae4f-4d1a-9bda-2847c454fde4.jpg</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/naxen-official/naxen-jam-meja-kayu-digital-led-alarm-clock-temperature?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/giftech/celana-pendek-parasut-pria-saku-resleting-waterproof-kolor-olahraga-ru-ua-polos-m-860de?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>371991302</v>
+        <v>6400010214</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -6358,62 +6350,62 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Liga Arloji</t>
+          <t>JuraganKolor</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>CASIO F-105W-1ADF - Jam Tangan Unisex Digital Hitam F-105W-1A  F105W</t>
+          <t>Celana Pendek Pria Dewasa Kolor Cowok Polos Santai Kaos Baby Terry</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>285000</t>
+          <t>24900</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/9/29/d50fbd73-14be-4ba6-b24b-a855cd637958.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/24/5eb08154-e159-43d9-b9c9-cd6c582d6a20.png</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/liga-arloji/casio-f-105w-1adf-jam-tangan-unisex-digital-hitam-f-105w-1a-f105w?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/juragankolor/celana-pendek-pria-dewasa-kolor-cowok-polos-santai-kaos-baby-terry-hitam-l-to-xl-28-33?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>9534137968</v>
+        <v>12456177956</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SKMEI MURAH &amp; ORIGINAL</t>
+          <t>Superfeel Official</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Analog SKMEI 1454 Rubber Men LED</t>
+          <t>CELANA DALAM KATUN BOXER 2 IN 1 CD WANITA KOLOR PEREMPUAN MIDI MID 215</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>91350</t>
+          <t>23900</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/5/17/0be1887a-430e-48f7-bb8c-6e1a050e9fd6.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/3/292df163-4f29-4c17-b6d8-95211e705295.png</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6423,13 +6415,13 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/oriskmei/jam-tangan-pria-analog-skmei-1454-rubber-men-led-hitam-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/superfeelofc/celana-dalam-katun-boxer-2-in-1-cd-wanita-kolor-perempuan-midi-mid-215-abu-abu-xxl-033ed?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>154076654</v>
+        <v>12872699462</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -6438,38 +6430,38 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>time piece indonesia</t>
+          <t>Boygross</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Jam Tangan CASIO A500WA / A500WA-7DF ORIGINAL &amp; BERGARANSI</t>
+          <t>celana pendek prIa wanita kolor short pants pantai santai  katunpe</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>455000</t>
+          <t>22000</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/2/20/154076654/154076654_a56d405d-fa80-4187-ba49-2a69ef42afac_1600_1600.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/3/7/67cedc39-69d6-4392-af0c-a5e25fe2af18.jpg</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/indotimepiece/jam-tangan-casio-a500wa-a500wa-7df-original-bergaransi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/boygross/celana-pendek-pria-wanita-kolor-short-pants-pantai-santai-katunpe-ckm29-hitam-l-xl-082a7?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>10970448448</v>
+        <v>2550930325</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -6478,38 +6470,38 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Swing Fine Watches</t>
+          <t>Arthalita_Oficial store</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Jam Tangan ORIENT RA-AK0705R Bambino Automatic Leather Original</t>
+          <t>Celana Kolor Pria Dewasa Pendek Santai Olahraga</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>3575000</t>
+          <t>33900</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/8/1/81ea7ea4-25dd-403d-a5bc-ce8fe07c043a.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/10/15/3ff71885-0975-4d07-ab0e-b391e6532c70.jpg</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/swingfinewatches/jam-tangan-orient-ra-ak0705r-bambino-automatic-leather-original-4bcb?extParam=ivf%3Dtrue%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/junajunoshop/celana-kolor-pria-dewasa-pendek-santai-olahraga?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>386896172</v>
+        <v>12309358675</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -6518,38 +6510,38 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>The Watches</t>
+          <t>FashionStoreMurah</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Casio Standard W-96H-1B Jam Tangan Iluminator Pria Original&amp;Bergaransi</t>
+          <t>Celana Pendek Pria Harian Kolor Santai Polos Cowok</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>298000</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/1/9/2309083/2309083_000f8982-b888-4f35-b34e-d3d5accc446d_700_700.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/8/5dc58606-91d3-4756-96a4-ebf507f517e3.png</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/thewatches/casio-standard-w-96h-1b-jam-tangan-iluminator-pria-original-bergaransi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/fashionsmrh/celana-pendek-pria-harian-kolor-santai-polos-cowok?extParam=cmp%3D1%26ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>12242394593</v>
+        <v>5844344757</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -6558,34 +6550,38 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Swing Fine Watches</t>
+          <t>Mincha Kolor</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria ORIENT FAC00005W Bambino Automatic Leather Strap Ori</t>
+          <t>Celana Kolor Pria Dewasa Misty Cargo Kantung Gantung Jumbo</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2795000</t>
+          <t>13313</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/30/26eac845-1d16-4419-822c-aa7aa1448e40.jpg</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr"/>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/1/2a9d43e9-8080-47ee-b641-9dd852109294.jpg</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/swingfinewatches/jam-tangan-pria-orient-fac00005w-bambino-automatic-leather-strap-ori?extParam=ivf%3Dtrue%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/minchakolor/celana-kolor-pria-dewasa-misty-cargo-kantung-gantung-jumbo?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1444507208</v>
+        <v>819350510</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -6594,38 +6590,38 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Jetzu Watch &amp; Acc</t>
+          <t>Adzqia shop</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Best Seller Original Jam Tangan Pria Wanita SKYMAX Digital Black</t>
+          <t>Celana pendek sport import Adidas black / kolor black</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>87500</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/6/be8450e3-770a-4254-8744-8d4ec83c5634.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/4/2/3133a986-a6d2-44f7-83e5-8d5ae790fbb5.jpg</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/jwatch-acc/best-seller-original-jam-tangan-pria-wanita-skymax-digital-black?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/adzqiashop/celana-pendek-sport-import-adidas-black-kolor-black-hitam-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>6847650239</v>
+        <v>12851797999</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -6634,38 +6630,38 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SKMEI MURAH &amp; ORIGINAL</t>
+          <t>Boygross</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria SKMEI 1863 Digital Astronout Original Anti air</t>
+          <t>Celana Jumbo Pria Santai Kolor XXL/XXXL Bahan BabyTerry Panjang 65Cm</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>77000</t>
+          <t>33000</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2022/10/29/60b76452-af83-418a-bffc-ae264627e8cf.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/3/6/75f4b6bd-4f66-47b0-8873-b50bb15de40b.jpg</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/oriskmei/jam-tangan-pria-skmei-1863-digital-astronout-original-anti-air-hitam-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/boygross/celana-jumbo-pria-santai-kolor-xxl-xxxl-bahan-babyterry-panjang-65cm-hitam-xxl-xxxl-eb361?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>12397411218</v>
+        <v>6762840407</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -6674,38 +6670,38 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Alba Official Shop</t>
+          <t>frankyfashion</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>ALBA Jam Tangan Pria AT3J57 Quartz Chronograph Stainless Silver</t>
+          <t>Celana Kolor Santai Clana Daleman Boxer Pendek Rumah Pria Bandung</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>870000</t>
+          <t>26000</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/1/8/d47363c2-1e21-4fec-9f2f-8a7c6ae25a95.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/6/15/ce59342e-6b08-479c-bbfd-bf297831fbdd.jpg</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/albaofficialshop/alba-jam-tangan-pria-at3j57-quartz-chronograph-stainless-silver?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/frankyfashion/celana-kolor-santai-clana-daleman-boxer-pendek-rumah-pria-bandung-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>7342495567</v>
+        <v>12105547773</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -6714,38 +6710,38 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Eiger Adventure Official</t>
+          <t>Nawasena Ofc</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>EIGER KARLSKOGA WATCH</t>
+          <t>Celana Pendek Double Layer Kolor Olahraga GYM Fitnes Pria Wanita Short</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>449100</t>
+          <t>68500</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/28/38315d02-5eed-4449-b559-af4916ec2db0.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/14/ca5686ad-e6bf-4ea6-8513-a7b39c9b72d1.jpg</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/eigeradventure/eiger-karlskoga-watch-black?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/nawasenao/celana-pendek-double-layer-kolor-olahraga-gym-fitnes-pria-wanita-short-hitam-mfit-l-d0ddd?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>384354189</v>
+        <v>503102183</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -6754,38 +6750,38 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>The Watches</t>
+          <t>Konjac Sponge Grosir</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Casio DataBank DB-36-1A Jam Tangan Pria Original&amp;Guaranteed 1 Years</t>
+          <t>Celana Kolor Pendek / Celana Pendek Zumba</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>310000</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/1/4/2309083/2309083_0b001d90-ddd0-4751-be59-e90e241606c1_700_700.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/1/25/66298189-bece-4df3-ad8f-8ee437e8104b.png</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/thewatches/casio-databank-db-36-1a-jam-tangan-pria-original-guaranteed-1-years?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/konjacsponge/celana-kolor-pendek-celana-pendek-zumba?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>578625330</v>
+        <v>1348583774</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -6794,38 +6790,38 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Watchhappy</t>
+          <t>Rora Blessing Shop</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Seiko 5 Watch Sport Original SRPD53K1 PEPSI SPORTY Rantai SRPD53</t>
+          <t>Celana Kolor Pria Wanita/Celana Pendek/Celana olahraga/Celana Training</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>2899000</t>
+          <t>20000</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/10/4/3069119/3069119_b9e27c1f-2705-4e55-9638-990814259863_770_770.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/21/6db1c99c-caf8-4b8f-8ec4-3f9b5c7a5800.jpg</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/watchhappy/seiko-5-watch-sport-original-srpd53k1-pepsi-sporty-rantai-srpd53?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/rorablessingshop/celana-kolor-pria-wanita-celana-pendek-celana-olahraga-celana-training-hitam-jumbo-dewasa?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2104960436</v>
+        <v>2487889845</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -6834,38 +6830,38 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SKMEI OFFICIAL STORE</t>
+          <t>zedikagrosir</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria SKMEI Digital 1628 Black Black Water Resistant 50m</t>
+          <t>celana pendek kolor pria dewasa 6/2</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>77900</t>
+          <t>16999</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/8/25/008cdeba-6c87-4b42-b7d9-ab4a7b1d1105.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/1/6aa2a55b-dbaf-43eb-8f0e-bbce2135e0cd.jpg</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/skmeiofficialid/jam-tangan-pria-skmei-digital-1628-black-black-water-resistant-50m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/zedikagrosir/celana-pendek-kolor-pria-dewasa-6-2-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>7286832899</v>
+        <v>1088450424</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -6874,38 +6870,38 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>SKMEI MURAH &amp; ORIGINAL</t>
+          <t>GHASSANI ID</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Analog Digital SKMEI 2031 rubber Original 5 atm</t>
+          <t>CELANA KOLOR HAWAI PENDEK SANTAI DEWASA PRIA WANITA CELANA TIDUR MURAH</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>130000</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2022/12/22/27c1af3a-6187-43c4-82a0-ea302bcc37f7.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/8/11/109056159/109056159_c11d185e-c3cf-4db7-aff0-181fc1bcecd2_450_450</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/oriskmei/jam-tangan-pria-analog-digital-skmei-2031-rubber-original-5-atm-silver?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/ghassaniid/celana-kolor-hawai-pendek-santai-dewasa-pria-wanita-celana-tidur-murah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>12325294973</v>
+        <v>1196180368</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -6914,38 +6910,38 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SKMEI OFFICIAL STORE</t>
+          <t>TIGET</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jam Tangan Pria Digital Analog SKMEI 1673 Black Black Water Resistant </t>
+          <t>Celana Kolor Pendek Santai Futsal Bola Pria Cowok Dewasa AllSize Murah</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>152000</t>
+          <t>15000</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/11/42b8e528-e580-45cf-ae6c-901fb4e706ff.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/9/19/0a80bb54-d356-4aab-bc85-1753fd2c7345.jpg</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/skmeiofficialid/jam-tangan-pria-digital-analog-skmei-1673-black-black-water-resistant?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/tiget/celana-kolor-pendek-santai-futsal-bola-pria-cowok-dewasa-allsize-murah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>8293068815</v>
+        <v>2284279735</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -6954,38 +6950,38 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>23 Shop Center</t>
+          <t>Mickonova Store</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>JAM TANGAN ALEXANDRE CHRISTIE AC 6141 COUPLE</t>
+          <t>Celana Kolor Pendek Pria Wanita Dewasa Olahraga Jumbo Bigsize XXL RIP</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>900000</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/3/4/33f7cbe1-189b-4f83-a3d1-83ff9d8a86e5.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/10/14/34c44c6c-cded-4de1-a4ff-2bb7658c42f2.jpg</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/23shopcenter/jam-tangan-alexandre-christie-ac-6141-couple-silver-putih-11908?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/mickonova-store/celana-kolor-pendek-pria-wanita-dewasa-olahraga-jumbo-bigsize-xxl-rip-hitam-all-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>371987171</v>
+        <v>3080850621</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -6994,38 +6990,38 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Liga Arloji</t>
+          <t>alesha baselayer</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>CASIO DBC-32-1ADF - Jam Tangan Pria Digital Kalkulator DBC32 DBC-32-1A</t>
+          <t>Celana pendek pria santai katun babyterry kolor santai sport</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>538000</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/9/28/8b895f55-fd61-4de4-9ef7-cf91d896204c.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/28/31261b10-f656-458b-aa7a-e5b79d25ad60.jpg</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/liga-arloji/casio-dbc-32-1adf-jam-tangan-pria-digital-kalkulator-dbc32-dbc-32-1a?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/basemanset/celana-pendek-pria-santai-katun-babyterry-kolor-santai-sport-abumuda-m-l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>11689537263</v>
+        <v>4942990227</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -7034,38 +7030,38 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Carolina Watch Official Jakarta</t>
+          <t>Sugar&amp;Kelly</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jam Tangan Pria Casio General MQ-24-1E Classic Black Dial Black Resin </t>
+          <t>Panties Boxer CD Celana Dalam Kolor Pria Sempak Cowok Boxer Man Nyaman</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>148850</t>
+          <t>7000</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/16/462ddfad-5ccf-486a-9d4d-6f7c49bb8749.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/7/21/aebdc293-4167-4eb6-8095-a43e1b1e4db4.jpg</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/carolinawatchid/jam-tangan-pria-casio-general-mq-24-1e-classic-black-dial-black-resin?extParam=cmp%3D1%26ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sugarkelly/panties-boxer-cd-celana-dalam-kolor-pria-sempak-cowok-boxer-man-nyaman-biru?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>6036210185</v>
+        <v>8188382189</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -7074,38 +7070,38 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Troy Official Shop</t>
+          <t>Grosir Termurah Tercepat</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Troy - Eleanor - Jam Tangan Pria</t>
+          <t>GTT Celana Dalam Boxer Pria 6706 Celana Kolor Pendek Boxer Cowok</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>228000</t>
+          <t>6839</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/9/3328fef9-99b2-4c0f-8173-89428a0950a3.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/27/8b7476bf-d709-47c2-9bbd-fad3d909473c.png</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/troyofficial/troy-eleanor-jam-tangan-pria?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/grosirtermurahtercepat/gtt-celana-dalam-boxer-pria-6706-celana-kolor-pendek-boxer-cowok-hitam-574c8?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>7212283458</v>
+        <v>2036549708</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -7114,38 +7110,38 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Ogyta Shop</t>
+          <t>Rumah celana pendek tenun abq</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria CASIO Tali Kanvas Cokelat W89HB-5A Kado Original</t>
+          <t>CELANA PANJANG TENUN KOLOR ETNIK ASMAT TERLARIS DAN TERBAIK</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>629000</t>
+          <t>140000</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/14/630b7b8b-ffe4-47c3-8bbf-87f9e152b030.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/6/5/78c16943-e25e-458e-a12a-3a28d4e1839f.jpg</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/ogytashop/jam-tangan-pria-casio-tali-kanvas-cokelat-w89hb-5a-kado-original?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/rumahtenunabq/celana-panjang-tenun-kolor-etnik-asmat-terlaris-dan-terbaik-all-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2055056322</v>
+        <v>2301423361</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -7154,38 +7150,38 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>BudgetGadget</t>
+          <t>Strong Tiget</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>SKMEI 1729 Jam Tangan Digital Kiblat Pria Muslim Qibla</t>
+          <t>Celana Kolor Pendek Santai Pria Cowok Dewasa Big Size All Size Paragon</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>153999</t>
+          <t>19500</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/8/9/cf78ed1b-bbb4-4b91-8eff-53e484712d4d.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/10/18/bf5ee2a6-842d-4b32-bdbb-56890023004b.jpg</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/budgetgadget/skmei-1729-jam-tangan-digital-kiblat-pria-muslim-qibla?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/strongtiget/celana-kolor-pendek-santai-pria-cowok-dewasa-big-size-all-size-paragon?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1844570597</v>
+        <v>9713537429</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -7194,78 +7190,78 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Carolina Watch</t>
+          <t>Gudang Grosir Terlengkap</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Jam Tangan Unisex Casio MQ-24-1B3</t>
+          <t>GGT UNDERWEAR MEN FIERCE MAN / KOLOR PRIA / CELANA DALAM BOXER PRIA</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>148850</t>
+          <t>4829</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/13/b2da7c51-e7bf-4533-99ef-8caba9b602e0.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/15/24583614-4b76-4f8e-8551-1fe95e743506.jpg</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/carolinawatch/jam-tangan-unisex-casio-mq-24-1b3?extParam=ivf%3Dtrue%26src%3Dsearch%26whid%3D15216338</t>
+          <t>https://www.tokopedia.com/gudanggrosirterlengkap/ggt-underwear-men-fierce-man-kolor-pria-celana-dalam-boxer-pria-pth-no-kemasan?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>6801257319</v>
+        <v>1301570720</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Rumah Tangga</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Sonifer Indonesia</t>
+          <t>BAAJO SHOP</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Sonifer Jam Meja LCD Digital Clock Pakai Baterai</t>
+          <t>CELANA PENDEK PRIA WANITA DEWASA/CELANA KOLOR PENDEK BAHAN BABYTERRY</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>55000</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/10/22/2a2be4bb-45c5-4a07-a59e-71433f738d20.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/16/1eeb768d-d7ec-421f-914c-dce51916adff.png</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/soniferindonesia/sonifer-jam-meja-lcd-digital-clock-pakai-baterai-putih?extParam=ivf%3Dtrue%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/baajo/celana-pendek-pria-wanita-dewasa-celana-kolor-pendek-bahan-babyterry-abu-abu-allsize-27-33?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1215541715</v>
+        <v>6762201001</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -7274,38 +7270,38 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>time piece indonesia</t>
+          <t>Gavinfashion</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Jam Tangan CASIO MW240 / MW-240-1EVDF ORIGINAL &amp; BERGARANSI</t>
+          <t>Boxer Unisex Pria Wanita Celana Kolor Harian Tartan Kotak Dewasa Murah</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>190000</t>
+          <t>9900</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/9/26/02f9c632-aa67-4d58-b40b-bee24f5a2f12.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/17/b09410c0-6556-4958-b85d-3ccc96b74b88.jpg</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/indotimepiece/jam-tangan-casio-mw240-mw-240-1evdf-original-bergaransi-5f33?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/gavinfashion-1/boxer-unisex-pria-wanita-celana-kolor-harian-tartan-kotak-dewasa-murah-warna-acak-l-bb-35-50kg?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>12672425778</v>
+        <v>1832142053</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -7314,78 +7310,78 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Carolina Watch</t>
+          <t>Ahmad_Muhammad99</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jam Tangan Pria Alba Active AG8K21X1 Blue Gradation Dial Blue Rubber </t>
+          <t>Celana Pendek Kolor Misty Harian Pria Dewasa All Size | Celana Kolor</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>655200</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/24/d2e09094-937c-45da-95cf-cabd5cf5f81f.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/10/20/8e732dfc-6600-4810-bf16-1f423af0d40a.jpg</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/carolinawatch/jam-tangan-pria-alba-active-ag8k21x1-blue-gradation-dial-blue-rubber?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D15216338</t>
+          <t>https://www.tokopedia.com/ahmadmuhammad99/celana-pendek-kolor-misty-harian-pria-dewasa-all-size-celana-kolor?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2322684980</v>
+        <v>1942805254</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Carolina Watch</t>
+          <t>Violete_</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jam Tangan Pria Alba AM3853X1 </t>
+          <t>Violet Celana Dalam Gstring Pakain Dalam Kolor Sexy Simpul Erotis 1103</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>704800</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/24/da911537-fbe7-4266-8a13-99040b0b5f56.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/6/22/2ab6735e-16c9-427b-a689-524feb61d21c.jpg</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/carolinawatch/jam-tangan-pria-alba-am3853x1?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D15216338</t>
+          <t>https://www.tokopedia.com/violete-/violet-celana-dalam-gstring-pakain-dalam-kolor-sexy-simpul-erotis-1103-red-free-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>12757373128</v>
+        <v>13150754142</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -7394,38 +7390,38 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>StealShop 88</t>
+          <t>Aiman Kolor</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Jam Seiko Datejust Olive Green Perpetual NH35</t>
+          <t>Celana kolor pendek jumbo XL-XXL pendek pria wanita - katun rami</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>2449020</t>
+          <t>25200</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/20/8b0237d5-f8b9-4f03-8f2d-12082101a59f.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/29/9c70105f-e50a-486c-855d-f8b18408811d.jpg</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/seikomodindonesia/jam-seiko-datejust-olive-green-perpetual-nh35?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/aimankolor/celana-kolor-pendek-jumbo-xl-xxl-pendek-pria-wanita-katun-rami-xl-d41c9?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>12790063294</v>
+        <v>1976516769</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -7434,22 +7430,22 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Casio Gallery Indonesia</t>
+          <t>monkstoresoc</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Casio General MTP-M305L-1AVDF Original Jam Tangan Pria Analog</t>
+          <t>celana kolor premium unisex pria wanita terlaris best seller</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>1305850</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/3/e6aef3dc-fd2a-4052-a39a-7b3f74790334.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/1/3/58e03a54-73b8-42b4-a705-b4782cea1eab.jpg</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -7459,13 +7455,13 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/casiogallery/casio-general-mtp-m305l-1avdf-original-jam-tangan-pria-analog?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/monkstoresoc/celana-kolor-premium-unisex-pria-wanita-terlaris-best-seller?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>740456555</v>
+        <v>5449489643</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -7474,78 +7470,78 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Liga Arloji</t>
+          <t>garasiide</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>CASIO MTP-V001L-7BUDF - Jam Tangan Pria Analog Tali Kulit - MTPV001L</t>
+          <t>Celana Pendek Pria Santai BIG SIZE JUMBO/Celana Lari Futsal Kolor Pria</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>246000</t>
+          <t>6350</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/4/948b2225-6cf5-4fff-be7b-e004076abdfc.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/8/15/08f37f4d-fa6e-45cf-b504-b42916aee6d2.jpg</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/liga-arloji/casio-mtp-v001l-7budf-jam-tangan-pria-analog-tali-kulit-mtpv001l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/garasiide/celana-pendek-pria-santai-big-size-jumbo-celana-lari-futsal-kolor-pria-s-kosong?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>11606503353</v>
+        <v>13042956129</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Carolina Watch Official Jakarta</t>
+          <t>Superfeel Official</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jam Tangan Unisex Casio General F-91WM-7A Vintage Series Digital Dial </t>
+          <t>SFL CD THONG SEXY SEAMLESS WANITA PREMIUM KOLOR SEKSI PEREMPUAN DALEMAN BAHAN LEMBUT TALI SAMPING CELANA DALAM LINGERIE CEWE CWE CEWEK HOT COD 363</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>207350</t>
+          <t>13800</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/9/15/2a9e76c0-abae-42c0-8365-cfd9f67d54c6.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/28/8824d7e4-907f-4e17-96e7-464f4444e99a.png</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/carolinawatchid/jam-tangan-unisex-casio-general-f-91wm-7a-vintage-series-digital-dial?extParam=ivf%3Dtrue%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/superfeelofc/sfl-cd-thong-sexy-seamless-wanita-premium-kolor-seksi-perempuan-daleman-bahan-lembut-tali-samping-celana-dalam-lingerie-cewe-cwe-cewek-hot-cod-363-mustard-m-95a29?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>4268287333</v>
+        <v>2468344428</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -7554,22 +7550,22 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>A86</t>
+          <t>Tokonyaivon</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>JAM TANGAN DIGITEC DG 8100 ALTIMETER/BAROMETER/THERMOMETER ORIGINAL</t>
+          <t>Tali Kolor / Tali Celana Harga Per Meter</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>331000</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/4/21/c349948d-6d4c-43d4-b787-41435f0d618b.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/1/25/2ace6144-c002-4ed9-9e77-47462e6551b7.jpg</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7579,13 +7575,13 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/a86/jam-tangan-digitec-dg-8100-altimeter-barometer-thermometer-original-hijau?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/tokonyaivon/tali-kolor-tali-celana-harga-per-meter?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>7828229519</v>
+        <v>13096635190</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -7594,38 +7590,38 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Casindo Official Store</t>
+          <t>DASYAT ONLINE SHOP</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Casio Jam Tangan Pria General A158WA-1DF Original Digital silver</t>
+          <t>DOS Celana Boxer Pria 6954 Boxer Pria Model MAN Salur 3 Garis Kolor Pendek Polos Cowok Pakaian Dalam Laki Laki</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>352080</t>
+          <t>5477</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/2/6/a81f22e6-6091-416b-a92d-4c0f832db7ba.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/23/2aae8b9c-d95f-45c6-9828-6e2c666cab5b.jpg</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/casindoofficial/casio-jam-tangan-pria-general-a158wa-1df-original-digital-silver?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/dasyatonlineshop/dos-celana-boxer-pria-6954-boxer-pria-model-man-salur-3-garis-kolor-pendek-polos-cowok-pakaian-dalam-laki-laki-hitam-8d63a?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>351431888</v>
+        <v>11799272104</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -7634,22 +7630,22 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>GKS</t>
+          <t>eLvio Group</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>HXA 14 Types Baut Jam Tangan Kacamata Screw Watch Back Cover 1000pcs</t>
+          <t>CELANA PENDEK PRIA WANITA CHINO DISTRO BOXER KOLOR KAIN SANTAI 199</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>42550</t>
+          <t>19700</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/20/d638cd2b-2822-4933-b1c7-974058dbd1d2.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/10/ef1b411e-c787-4b06-bae7-d7eb5352d477.png</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -7659,13 +7655,13 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/gadingselaras/hxa-14-types-baut-jam-tangan-kacamata-screw-watch-back-cover-1000pcs?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/elviogroup/celana-pendek-pria-wanita-chino-distro-boxer-kolor-kain-santai-199?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>249147644</v>
+        <v>1458028853</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -7674,38 +7670,38 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>SKMEI OFFICIAL STORE</t>
+          <t>Little Ant</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Digital SKMEI 1251 Black Water Resistant 50M</t>
+          <t>Karet (3cm lebarnya) kolor / elastex / karet elastis celana permeter</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>75525</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2018/1/15/249147644/249147644_fb14c89e-2c9f-4549-a314-009de06bd836_1000_1000.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2018/6/13/2372447/2372447_d453e049-9515-4213-bd07-795fd69475f7_816_612.jpg</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/skmeiofficialid/jam-tangan-pria-digital-skmei-1251-black-water-resistant-50m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/littleant/karet-3cm-lebarnya-kolor-elastex-karet-elastis-celana-permeter-putih?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>306850758</v>
+        <v>7890450494</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -7714,38 +7710,38 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Ogyta Shop</t>
+          <t>GUDANG CELANA BOXER</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Swatch Analog Jam Tangan Karet Unisex SUOB402 XX-RATED BLACK Original</t>
+          <t>GCB - Boxer pria| kolor pria| Celana dalam bahan cotton P466</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>1065900</t>
+          <t>23900</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/7/8/83b6c990-273f-4e7f-b659-0c4d8d631878.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/2/10/34770192-ef3d-4305-a7fe-67281ce5f0dc.png</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/ogytashop/swatch-analog-jam-tangan-karet-unisex-suob402-xx-rated-black-original?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/boxerpsycho/gcb-boxer-pria-kolor-pria-celana-dalam-bahan-cotton-p466-art-05?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>376806057</v>
+        <v>2926258352</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -7754,38 +7750,38 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Ogyta Shop</t>
+          <t>Kaysagrosir</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Q&amp;Q QQ Analog Jam Tangan Pria Karet Biru Dongker VS22J011Y Original</t>
+          <t>Celana Pendek Pria Kolor Misty Super Jumbo</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>139000</t>
+          <t>19000</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/3/25/0c5cb979-fb95-41ac-9ab1-6c3bbcd9f29d.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/10/9c9a0c44-f464-4cb9-a148-17eb5dc61bdf.jpg</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/ogytashop/q-q-qq-analog-jam-tangan-pria-karet-biru-dongker-vs22j011y-original?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/kaysagrosir/celana-pendek-pria-kolor-misty-super-jumbo?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1258795981</v>
+        <v>467081334</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -7794,38 +7790,38 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>GrosirGshock</t>
+          <t>Adzqia shop</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Jam Tangan Alba AV3503X1 AV3503 Original</t>
+          <t>Celana pendek bola dengan saku nike hitam / kolor bola futsal dan lari</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>764000</t>
+          <t>37900</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/1/fcf4402b-6485-4872-b225-30f7722ba279.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/5/8/2662913/2662913_22c568ca-a2c8-428b-8b22-4481177a60a8_700_700.jpg</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/gshockoriginal/jam-tangan-alba-av3503x1-av3503-original?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/adzqiashop/celana-pendek-bola-dengan-saku-nike-hitam-kolor-bola-futsal-dan-lari?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>10130283347</v>
+        <v>982716101</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -7834,38 +7830,38 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>hosse acc</t>
+          <t>Amzy Shop</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Digital Rubber 1426 honhx</t>
+          <t>Celana Pendek Kolor Misty All SizeL-XL</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>16500</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/30/a2e115e8-701a-42f9-b135-f078d8c387c1.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/4/3/9de497d4-2fd9-4c71-8c1d-a387b17d1e81.jpg</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/hosse/jam-tangan-pria-digital-rubber-1426-honhx-hitam-full-layar-putih?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/amzyshop/celana-pendek-kolor-misty-all-sizel-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>47503851</v>
+        <v>538407187</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -7874,38 +7870,38 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Verve Watch</t>
+          <t>strongtiget collection</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Jam Tangan VERVE Watch - Local Brand Indonesia - Tipe Classic 002</t>
+          <t>Celana Kolor Santai Futsal Bola olahraga Sport Pendek Pria Cowok Murah</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>259000</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2016/12/5/47503851/47503851_bfef7ba9-0f3a-4b25-b563-2715fa15e098_2048_0.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/2/10/538407187/538407187_8fa4b466-695e-43fc-8323-4cd2765c4aed_2048_2048.jpg</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/vervewatch/jam-tangan-verve-watch-local-brand-indonesia-tipe-classic-002?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/strongtiget2/celana-kolor-santai-futsal-bola-olahraga-sport-pendek-pria-cowok-murah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>8254708184</v>
+        <v>8119976894</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -7914,38 +7910,38 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Time Gallery Official</t>
+          <t>MyNoona Toona</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Jam Casio Original MTP-E173L-7AVDF MTPE173L7AVDF MTPE173L 7A 7 E173</t>
+          <t>Celana Boxer Pria 6711 Kolor Pendek Cowok Polos Underwear Man</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>989000</t>
+          <t>4743</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/3/2/3c9eca74-e611-4278-98ed-94c275bdf542.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/2/22/53c989eb-692b-468f-9f59-0456571f5199.jpg</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/timegalleryofficial/jam-casio-original-mtp-e173l-7avdf-mtpe173l7avdf-mtpe173l-7a-7-e173?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/mynoonatoona/celana-boxer-pria-6711-kolor-pendek-cowok-polos-underwear-man-biru?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>10343562289</v>
+        <v>2216718159</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -7954,22 +7950,22 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Liga Arloji</t>
+          <t>ANITA shoes</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Digitec DN-5182T Jam Tangan Pria Analog Lampu Neon 5182 DN5182T</t>
+          <t>Celana Pendek Pria ¾ Kendy Pinggang Kolor 33-38</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>245000</t>
+          <t>145000</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/6/21/e54016f5-fd3d-43a5-a4bc-fdb0341f0d38.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/11/0efe4096-bf17-4a05-9e60-b2929ed0bd3f.jpg</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -7979,13 +7975,13 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/liga-arloji/digitec-dn-5182t-jam-tangan-pria-analog-lampu-neon-5182-dn5182t-hitam-e88f2?extParam=ivf%3Dtrue%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/anitaku/celana-pendek-pria-kendy-pinggang-kolor-33-38-cokelat-38?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>12806555014</v>
+        <v>2741848283</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -7994,38 +7990,38 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Carolina Watch</t>
+          <t>Aiqa_id</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Casio MW-240B-5B Black Dial with Brown Nylon Band</t>
+          <t>Celana pendek kolor uniqlo cowok polos embos laki laki dewasa besar</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>402350</t>
+          <t>57000</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/12/6f923409-e7c2-4ccd-a2e7-bc360b5fe73d.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/27/8804e29c-350f-4a86-9fbb-a66e8b22b3d2.jpg</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/carolinawatch/jam-tangan-pria-casio-mw-240b-5b-black-dial-with-brown-nylon-band?extParam=ivf%3Dtrue%26src%3Dsearch%26whid%3D15216338</t>
+          <t>https://www.tokopedia.com/aiqaid/celana-pendek-kolor-uniqlo-cowok-polos-embos-laki-laki-dewasa-besar?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>12442254692</v>
+        <v>2018126514</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -8034,38 +8030,38 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Liga Arloji</t>
+          <t>Adzqia shop</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>TIMEX TW4B29700 Expedition Acadia Jam Tangan Pria Analog Kanvas</t>
+          <t>( hemat 3 ) celana pendek pria santai Siro / kolor santai</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>1014000</t>
+          <t>89900</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/30/4a980300-898f-48f8-8852-dbdac6b2c211.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/7/23/c1d2934d-2830-429f-908d-62cc9e04cc74.jpg</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/liga-arloji/timex-tw4b29700-expedition-acadia-jam-tangan-pria-analog-kanvas?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/adzqiashop/hemat-3-celana-pendek-pria-santai-siro-kolor-santai?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>11483701875</v>
+        <v>2377263936</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -8074,38 +8070,38 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Rebirth Official Store</t>
+          <t>FashionStoreMurah</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Sunlifex Jam Tangan Pria Digital Olahraga Kasual Pria Tali Silikon</t>
+          <t>Celana Kolor Pendek Pria Wanita Tidur Katun Murah</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>59000</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/9/2/f705fbfc-6f91-4cce-bd7a-fca035d311f0.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/11/5/62fe2ea8-f270-4276-994b-cf907aeda103.jpg</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/rebirthofficial/sunlifex-jam-tangan-pria-digital-olahraga-kasual-pria-tali-silikon-cokelat-abb9b?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/fashionsmrh/celana-kolor-pendek-pria-wanita-tidur-katun-murah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1022569798</v>
+        <v>1325756152</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -8114,38 +8110,38 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>time piece indonesia</t>
+          <t>LAPAKMASKU.COM</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>JAM TANGAN UNISEX CASIO F-91WS-8DF / F91WS-8 ORIGINAL &amp; BERGARANSI</t>
+          <t>kolor pendek pria/celana olahraga/celana futsal/celana santai/murah</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>310000</t>
+          <t>24500</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/7/13/1661097/1661097_27b8424f-d112-4ebb-9ec6-bb7d3213a7c3_700_700.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/10/30/cb64f13d-d00e-4493-ab4c-0daf7662ad82.jpg</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/indotimepiece/jam-tangan-unisex-casio-f-91ws-8df-f91ws-8-original-bergaransi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/lapakmaskucom/kolor-pendek-pria-celana-olahraga-celana-futsal-celana-santai-murah-putih-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>6955602307</v>
+        <v>11852584244</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -8154,38 +8150,38 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>BENUA ACC SHOP</t>
+          <t>Sachstuff Official Shop</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Jam tangan Pria DiViGo Digital DV-7209 Water Resistant 3ATM</t>
+          <t>Sachstuff - Celana Kolor / Boxer Polos</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>52500</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/11/13/5d3ac8bb-431b-4794-aa53-b7b667400150.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/16/eb4e94cb-b9f5-47cb-bfc5-33c57c0c1ba7.jpg</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/benuaaccshop/jam-tangan-pria-divigo-digital-dv-7209-water-resistant-3atm-full-black?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sachstuff/sachstuff-celana-kolor-boxer-polos-beigie-jumbo-33967?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2003569832</v>
+        <v>1948434078</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -8194,38 +8190,38 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Sandal Gunung OutdoorPro</t>
+          <t>Adzqia shop</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Jam Tangan Forester JTF 2027 Digital Sport Watch Pria</t>
+          <t>celana kolor pendek Adidas Terry saku sleting</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>155000</t>
+          <t>29900</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/7/16/5450f53e-2a2c-4d36-ac43-20f7c9d9b8cd.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/10/21/459dcd03-7bcf-49fd-b270-1095096df25b.jpg</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sandalgunungoutdoorpro/jam-tangan-forester-jtf-2027-digital-sport-watch-pria?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/adzqiashop/celana-kolor-pendek-adidas-terry-saku-sleting?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>12664912659</v>
+        <v>6460878303</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -8234,22 +8230,22 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Casio Gallery Indonesia</t>
+          <t>Celana Kolor Alfath</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Casio Jam Tangan Pria Analog MTP-VD03D-1AUDF Original</t>
+          <t>Celana Pendek Pria Chino Pinggang Karet Kolor Cinos Cowok Laki Jumbo</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>499850</t>
+          <t>19999</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/2/3fa4d9fe-00ed-4adb-8047-8a5c6edbf739.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2022/9/26/eb650541-8fc1-4637-ae54-a3000c261e09.jpg</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -8259,93 +8255,93 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/casiogallery/casio-jam-tangan-pria-analog-mtp-vd03d-1audf-original?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/celanakoloralfath/celana-pendek-pria-chino-pinggang-karet-kolor-cinos-cowok-laki-jumbo-hitam-anak-2-3th?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>5216563985</v>
+        <v>5795723334</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Rumah Tangga</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>hayylife Official Shop</t>
+          <t>Alishba HZstore</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>HAYYLIFE Jam Pasir Penghitung Waktu Type Cute Macaroon 15 30 Menit</t>
+          <t>KARET ELASTIS HITAM 4 CM PER METER KARET CELANA PINGGANG KOLOR</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>39999</t>
+          <t>4900</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/5/12/330a766f-a213-4365-8d4d-09467d8ce3db.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/8/30/aa25430b-08a5-4c4c-9270-5ddc0f1849ac.jpg</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/hayylife/hayylife-jam-pasir-penghitung-waktu-type-cute-macaroon-15-30-menit-pink-15-min?extParam=ivf%3Dtrue%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/rozar/karet-elastis-hitam-4-cm-per-meter-karet-celana-pinggang-kolor?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>3181909463</v>
+        <v>9361430136</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Olahraga</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Watchhappy</t>
+          <t>Bos Clothing AM</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>WatchHappy Alba AM3855X1 Sport Watch Green Nylon Strap AM3855 Original</t>
+          <t>Celana Pendek Olah Raga Parasut Premium / Kolor Lari / Sports short</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>689000</t>
+          <t>29900</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/3/10/ed773d98-6915-460d-8b5b-b2765000ff43.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/5/30/0c3eae1f-424b-4c17-bd83-75a1bb64bdfd.jpg</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/watchhappy/watchhappy-alba-am3855x1-sport-watch-green-nylon-strap-am3855-original?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/bosclothing/celana-pendek-olah-raga-parasut-premium-kolor-lari-sports-short-hitam-m-4665c?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>4349516573</v>
+        <v>12878085973</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -8354,38 +8350,38 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Carolina Watch</t>
+          <t>boygrossa</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Casio General WS-1400H-3A</t>
+          <t>Celana pendek kasual pria wanita santai celana pantai kolor nyaman</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>395850</t>
+          <t>20000</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/12/e0870ec3-bdcb-46d3-a93f-031bba042807.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/3/7/7109a621-db02-4a0a-8b62-b44e775e0b26.jpg</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/carolinawatch/jam-tangan-pria-casio-general-ws-1400h-3a?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D15216338</t>
+          <t>https://www.tokopedia.com/boygrossa/celana-pendek-kasual-pria-wanita-santai-celana-pantai-kolor-nyaman-mocca-m-l-f923d?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>927532941</v>
+        <v>2481255011</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -8394,38 +8390,38 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Spysy store</t>
+          <t>bracket lcd,led</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Casio Original A168 a168wa Jam Tangan Digital Stainless Model Unisex</t>
+          <t>celana kolor jumbo celana kolor xxxl super jumbo celana pendek strip</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>459000</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/2/15/fcbc92b0-68c9-4341-868f-aa56850a88b2.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/11/30/c5e0e195-e5ae-4e39-8c5c-659af716b2f1.jpg</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/spys/casio-original-a168-a168wa-jam-tangan-digital-stainless-model-unisex?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/bracket-/celana-kolor-jumbo-celana-kolor-xxxl-super-jumbo-celana-pendek-strip?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>12790776656</v>
+        <v>951597465</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -8434,32 +8430,32 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Liga Arloji</t>
+          <t>yasminecollection33</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Casio W-219HB-5AVDF Jam Tangan Pria Digital Kanvas W219H W-219HB-5A</t>
+          <t>kolor pria jumbo | celana kolor pria big size | celana pendek pria</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>415000</t>
+          <t>22500</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/23/58eb6d5e-0594-4608-979a-81959a3e3b46.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/6/20/8866649/8866649_fa7add2c-cd87-4f0f-b5aa-8fc8cdaf4888_540_540.jpg</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/liga-arloji/casio-w-219hb-5avdf-jam-tangan-pria-digital-kanvas-w219h-w-219hb-5a?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/yasminecollection33/kolor-pria-jumbo-celana-kolor-pria-big-size-celana-pendek-pria?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>

--- a/ui_data/tokopedia.xlsx
+++ b/ui_data/tokopedia.xlsx
@@ -432,13 +432,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
     <col width="58.33333333333334" customWidth="1" min="3" max="3"/>
-    <col width="148" customWidth="1" min="4" max="4"/>
+    <col width="72" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="142" customWidth="1" min="6" max="6"/>
+    <col width="141" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="239" customWidth="1" min="8" max="8"/>
+    <col width="162" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -485,191 +485,191 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12170254551</v>
+        <v>9259990107</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ARSY sport store</t>
+          <t>SUNFLOWER099</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Arsy Sport - Celana Pendek Olahraga - Celana Kolor TP-008</t>
+          <t>susu zee renceng coklat 10 sachet</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>39900</t>
+          <t>35500</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/21/266258d8-5ec5-4d84-b0ec-1e3a33ceace2.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/4/27/92321423-45e3-4cbe-a5d7-1e9409142d9a.jpg</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/arsy-sport/arsy-sport-celana-pendek-olahraga-celana-kolor-tp-008-h-abu-m-20a32?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sunflower099/susu-zee-renceng-coklat-10-sachet?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12878260060</v>
+        <v>1285322313</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Perawatan Hewan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>boygrossa</t>
+          <t>bratasena store</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Celana pendek pria Resleting kantong kualitas premium kolor boxer</t>
+          <t>ROYAL CANIN BABYCAT MILK / ROYAL CANIN SUSU KUCING 300GR FRESHPACK</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>30000</t>
+          <t>302663</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/3/7/58ba150b-0a8d-483d-bc46-6372d64c41ce.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/19/702ed1fd-968d-4fe2-9361-ea31b5aa369b.png</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/boygrossa/celana-pendek-pria-resleting-kantong-kualitas-premium-kolor-boxer-abu-tua-l-xl-49ada?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/bratasenastore/royal-canin-babycat-milk-royal-canin-susu-kucing-300gr-freshpack?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1814119480</v>
+        <v>12666340768</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ADILEO CLOTH</t>
+          <t>El Husna Shop</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CELANA PENDEK KOLOR -AIGER-POLLO (ALL SIZE)DEWASA [ L-XL ] UNISEX</t>
+          <t>Etawanesia Susu Kambing Etawa Atasi Pernafasan Pegal Linu Tulang Sendi</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23000</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/9/3/6410607/6410607_65971155-8af4-40ea-985c-9dcb25178c93_1920_1920.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/2/bdfd52cf-8421-4798-bda5-62383f2de6e3.png</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/adileo-cloth-78/celana-pendek-kolor-aiger-pollo-all-size-dewasa-l-xl-unisex-random-all-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/elhusnashop/etawanesia-susu-kambing-etawa-atasi-pernafasan-pegal-linu-tulang-sendi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11882034626</v>
+        <v>12599304753</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BATAVIASPORT25</t>
+          <t>jianstore01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BOXER PRIA | KOLOR PRIA | BOXER MOTIF DEWASA | KOLOR| CELANA BOXER CW</t>
+          <t>Susu Urra Original Susu Kambing Saanen Eropa Susu Penambah Berat Badan</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>15000</t>
+          <t>55000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/19/e33bc140-9375-458b-b395-c0b7989dc503.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/1/23/acb89f6f-9551-49e4-978f-abb91825a3f4.jpg</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/bataviasport25/boxer-pria-kolor-pria-boxer-motif-dewasa-kolor-celana-boxer-cw-boxer-cwe-all-size-d8495?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/jianstore01/susu-urra-original-susu-kambing-saanen-eropa-susu-penambah-berat-badan?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6948580910</v>
+        <v>649324296</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Bos kolorr</t>
+          <t>Master Domba Farm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>celana pria pendek /celana kolor pendek /celana pendek olahraga</t>
+          <t>Susu Kambing Murni - Susu Segar Bekasi</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24500</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/3/29/9bdf2e7a-53ba-4c58-b6ac-7cdfdd97b540.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/9/30/e3458a68-d8ee-486d-bade-a0fa66cf31fa.jpg</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -679,117 +679,117 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/boskolorr/celana-pria-pendek-celana-kolor-pendek-celana-pendek-olahraga-abu-tua-l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/masterdomba/susu-kambing-murni-susu-segar-bekasi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1670297962</v>
+        <v>1379797762</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ID LUCK</t>
+          <t>Hypermart Balekota</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Jumbo Big Size Kolor Laki laki Semi Jeans Oversize</t>
+          <t>ULTRA UHT MILK PLAIN 1000 ML - SUSU</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29000</t>
+          <t>19050</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/3/13/0f21c84e-d5ff-4f7c-8be5-ec59d5009234.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/2/23/5cb51673-0173-4c58-a3c5-de1430a93e00.jpg</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/idluck/celana-pendek-pria-jumbo-big-size-kolor-laki-laki-semi-jeans-oversize-abu-2xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/hpmbalekota/ultra-uht-milk-plain-1000-ml-susu?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2928992098</v>
+        <v>1777319001</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vahana_store</t>
+          <t>Foodmart Atrium Senen</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Celana Chino Pendek Pria Distro Kolor Dewasa Terlaris - Fashion Pria</t>
+          <t>ULTRA MILK SUSU UHT COKELAT 1000 ML</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>18905</t>
+          <t>18690</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/10/e683ccc0-c771-4e3e-98de-601410ce563b.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/2/23/dc214907-441f-4a08-a101-7f29911998bd.jpg</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/vahanastore/celana-chino-pendek-pria-distro-kolor-dewasa-terlaris-fashion-pria-random-acak-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/foodmartatriumsenen/ultra-milk-susu-uht-cokelat-1000-ml?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6008434485</v>
+        <v>597135657</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ImanuelStore</t>
+          <t>Busrain Gwena</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Celana Kolor Training Pendek Jumbo Kain Polyester Lembut Ukuran XXL</t>
+          <t>Susu Bubuk Fullcream/coklat/Skim Indoprima 350 Gr</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>18999</t>
+          <t>44800</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/8/1fb4faf4-dd0f-4b27-becf-31976838067d.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/10/27/43697355/43697355_d052ed18-1dd4-4991-b6f4-16c74fb6ffc7_700_700</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -799,157 +799,157 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/imanuels/celana-kolor-training-pendek-jumbo-kain-polyester-lembut-ukuran-xxl-biru?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/gwena08/susu-bubuk-fullcream-coklat-skim-indoprima-350-gr-coklat-0e62?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2245173765</v>
+        <v>12568212432</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>asiyah_shopsby</t>
+          <t>Sukanda Djaya Home</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Celana Pendek Kain Kolor 3/4 cowok sehari hari</t>
+          <t>Diamond Milk Susu UHT Marshmallow 125 Ml 1 Karton</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>13500</t>
+          <t>110300</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/10/4/10b9431e-afd3-4ae5-b823-ff789eec69e0.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/1/18/95c056b7-51b8-4ce5-a81e-3a9042dae4a3.png</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/asiyahshopsby/celana-pendek-kain-kolor-3-4-cowok-sehari-hari?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sukandahome/diamond-milk-susu-uht-marshmallow-125-ml-1-karton?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D8817974</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2929881357</v>
+        <v>3148830379</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vien'z_Shop</t>
+          <t>Kivara</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Celana Pendek Kolor Pria Jumbo Sablon Armed 3/4</t>
+          <t>tropicana slim susu low fat vanilla 500 gr</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/11/29/dcc6ca48-5c34-4bca-a36a-29cb4b8b3642.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/4/e7415884-6148-4d39-b5e7-8d9f3c285436.jpg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/vienzshop-1/celana-pendek-kolor-pria-jumbo-sablon-armed-3-4-all-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/kivara/tropicana-slim-susu-low-fat-vanilla-500-gr-machiato-coffee?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4498720269</v>
+        <v>7578952516</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Markas Reseller Jakarta</t>
+          <t>Kochhaus</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MRJ Celana Boxer Pria 3 Gunung Kolor Pendek Polos Cowok Underwear Man</t>
+          <t>Nzmp Skim Milk Powder Susu Bubuk Rendah Lemak</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4196</t>
+          <t>30000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/8/31/93f330ed-e79b-4843-a03c-10b300fe6bd0.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/20/21378ad8-e590-47cf-ab30-8ea63452adc6.jpg</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/markasreseller/mrj-celana-boxer-pria-3-gunung-kolor-pendek-polos-cowok-underwear-man-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/kochhaustgr/nzmp-skim-milk-powder-susu-bubuk-rendah-lemak-250-gram?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12530994411</v>
+        <v>1655383345</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Olahraga</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>stuvco.sportswear</t>
+          <t>Amelia Milk</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Celana Pendek Olahraga Short Pants Pria Wanita Kolor Futsal Sepak Bola</t>
+          <t>Susu kambing etawa murni 100%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>19900</t>
+          <t>5999</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/13/795d4a2a-9777-4b26-b9a1-36d239fe3d3f.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/1/55f09e0a-3d82-43d2-b0d3-361ff001294a.jpg</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -959,77 +959,77 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/stuvco/celana-pendek-olahraga-short-pants-pria-wanita-kolor-futsal-sepak-bola-polos-m-l-hitam-e5b6e?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sususapisusukambing/susu-kambing-etawa-murni-100?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9395807840</v>
+        <v>3798261713</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>palastri shop</t>
+          <t>Frisian Flag Official</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Celana Super Jumbo 8XL 12XL Extra Kolor_ 8L 12L Kolor Pendek Pants </t>
+          <t>Frisian Flag Purefarm Susu UHT Low Fat Belgian Chocolate 225ml</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>75000</t>
+          <t>7200</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/5/7/82550b1f-cb80-42f7-981c-f8675bc75211.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/7/8/86c53d0f-2c53-4ea9-b02c-98acbba2481e.jpg</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/palastrishop/celana-super-jumbo-8xl-12xl-extra-kolor-8l-12l-kolor-pendek-pants-8l-122cd?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/frisian-flag/frisian-flag-purefarm-susu-uht-low-fat-belgian-chocolate-225ml?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12954337654</v>
+        <v>11888805560</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Olahraga</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Gallery Yudhistira 08</t>
+          <t>alkahfistore04</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Celana Kolor Santai Celana Olahraga Bola Futsal Volly Pria Wanita</t>
+          <t>SUSU KAMBING ETAWA BUBUK EMILK 200 GRAM MENJAGA KESEHATAN TULANG</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>15500</t>
+          <t>15000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/17/e965dedd-ef16-4066-b659-079c8b7e2f60.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/10/20/f5427162-b1ef-4871-a697-763e1963616e.jpg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1039,37 +1039,37 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/galleryyudhistira/celana-kolor-santai-celana-olahraga-bola-futsal-volly-pria-wanita-mills-merah-pl-a11ad?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/alkahfistore04/susu-kambing-etawa-bubuk-emilk-200-gram-menjaga-kesehatan-tulang?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>13857624064</v>
+        <v>12564735250</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Najmi.bandung</t>
+          <t>Sukanda Djaya Home</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Kolor Pendek Santai Harian Pria dan Wanita Celana Harian</t>
+          <t>Diamond Milk Susu UHT Full Cream 200 Ml 1 Karton</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>100500</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/4/2/9d14e34d-3986-471c-bce8-e7b96866e9cb.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/1/17/7dcc6746-9a85-4a6a-8453-e872e7257e9f.png</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1079,277 +1079,277 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/najmibdg/kolor-pendek-santai-harian-pria-dan-wanita-celana-harian-motif-10-60122?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sukandahome/diamond-milk-susu-uht-full-cream-200-ml-1-karton?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D8817974</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>337552829</v>
+        <v>4396979130</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Perawatan Hewan</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sandang Atelier</t>
+          <t>Centralidnpetshop</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Polo celana kolor pendek katun karet</t>
+          <t>COLOSTRUM ECOPET GOAT MILK SUSU ANJING KUCING (1 box isi 10 sachet 20g</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>125000</t>
+          <t>62000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2018/12/2/27174091/27174091_2b67cdfa-549d-4765-bccc-e69ad79bd227_1984_1652.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/20/120b65a7-1049-43e1-97d7-bbe7edbf8bc9.jpg</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sandangatelier/polo-celana-kolor-pendek-katun-karet?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/centralidnpetshop/colostrum-ecopet-goat-milk-susu-anjing-kucing-1-box-isi-10-sachet-20g?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3447487933</v>
+        <v>3511539249</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MaulidyaFashionid</t>
+          <t>Toko Laundry Jaya</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CELANA BOXER KOLOR PRIA MOTIF API TERBAIK [BISA COD]</t>
+          <t>Susu HOMETOWN Fresh Milk 1 Liter ASLI</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>9999</t>
+          <t>25200</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/4/5/b7e3fbec-5176-4a33-9bad-680627892716.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/19/bc4c5402-eb44-44e8-b9de-6dae900d363e.jpg</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/maulidyacollection-1/celana-boxer-kolor-pria-motif-api-terbaik-bisa-cod-putih-8c73?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/laundryjaya/susu-hometown-fresh-milk-1-liter-asli?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6135268244</v>
+        <v>2780213309</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Superfeel Official</t>
+          <t>Cahaya Berkat Prima</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SFL SEAMLESS PANTIES CD WANITA KOLOR TRANSPARAN KATUN CELANA DALAM 329</t>
+          <t>Ensure Gold Vanilla  850 gr Susu Nutrisi Dewasa Rendah Laktosa</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>17800</t>
+          <t>275000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/13/47d63cc4-0d4c-4b41-8c6e-13586b1dbb9f.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/11/85d1319a-4ab1-4f0d-a556-a50262db6e5c.jpg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/superfeelofc/sfl-seamless-panties-cd-wanita-kolor-transparan-katun-celana-dalam-329-gray-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/cahyaberkatprima/ensure-gold-vanilla-850-gr-susu-nutrisi-dewasa-rendah-laktosa?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8170370979</v>
+        <v>414434697</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>badelstore</t>
+          <t>Haga Nusantara</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Celana pendek badminton Astec kolor bulutangkis untuk pria wanita dewa</t>
+          <t>Susu Hilo School Vanilla 250 g | Hi Lo School Vanila 250gr</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>82000</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/2/25/04ee9846-7584-4bb7-8ef9-6629e5d3ecd0.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/19/f8fcf446-0461-46f2-aff4-889ada52d759.jpg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/badelstore/celana-pendek-badminton-astec-kolor-bulutangkis-untuk-pria-wanita-dewa?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/haganusantara/susu-hilo-school-vanilla-250-g-hi-lo-school-vanila-250gr?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2660864880</v>
+        <v>7819113273</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Bandar Kolor1</t>
+          <t>CUERPO OFFICIAL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Katun Celana Kolor Wanita Hawai Santai Rumah 52</t>
+          <t>PAKET BUNDLING 3 POUCH CUERPO 2 LBS 945GRAM SUSU VANILLA &amp; COKLAT</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>420000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/1/7/6f156a8f-da76-4b8d-93e9-134108861993.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/6/18/8eb3e2ca-cd19-4f40-8628-48a3e2788d7e.jpg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/bandarkolor1/celana-pendek-pria-katun-celana-kolor-wanita-hawai-santai-rumah-52-kolor-anak?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/cuerpo/paket-bundling-3-pouch-cuerpo-2-lbs-945gram-susu-vanilla-coklat-choco-2-van-1-9a57c?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3131938498</v>
+        <v>2166137716</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Blested</t>
+          <t>Mola Official</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Celana Kolor Pendek Kain KATUN Polos Saku Pria Wanita Unisex Remaja</t>
+          <t>Susu Almond Bubuk Mola /Almond Milk Powder Mola</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30000</t>
+          <t>29000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/3/5/2e7b651d-a48f-4303-966a-7dd52269d385.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/9/13/6fe116e0-a56e-4de8-b901-a26c3f436772.jpg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/blested/celana-kolor-pendek-kain-katun-polos-saku-pria-wanita-unisex-remaja-moca?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/molaofficial/susu-almond-bubuk-mola-almond-milk-powder-mola-strawberi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>12182849634</v>
+        <v>11900573615</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Naufalis Store</t>
+          <t>Taajirun Online</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Tartan Jumbo kolor distro motif kotak Big Size</t>
+          <t>Susu sapi Milkcowplus penambah berat dan tinggi badan 500gr</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>56000</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/23/ce47a973-ddce-4a31-ac1b-179fd71fba95.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/21/2b7acef9-9728-4740-bc77-c48557315c39.jpg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1359,77 +1359,77 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/naufalis/celana-pendek-pria-tartan-jumbo-kolor-distro-motif-kotak-big-size-hitam-m-size-27-29-f08f6?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/taajirunonline/susu-sapi-milkcowplus-penambah-berat-dan-tinggi-badan-500gr-coklat-efc2b?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1945992495</v>
+        <v>9444499892</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Bayi</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mincha Kolor</t>
+          <t>MyBabyTools</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Kolor Kolor Pria Pendek Harian</t>
+          <t>LACTOGROW 3 4 VANILA MADU SUSU PERTUMBUHAN ANAK 1-3 TAHUN 3-5 THN 1Kg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10200</t>
+          <t>131000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/28/180e627e-4ba8-401e-8ccc-9b7f03d9879d.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/4/70eaacf2-f405-44d0-ab34-8de92ccc6001.jpg</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/minchakolor/kolor-kolor-pria-pendek-harian?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/mybaby-tools/lactogrow-3-4-vanila-madu-susu-pertumbuhan-anak-1-3-tahun-3-5-thn-1kg-lacgr4-vanila?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3563949253</v>
+        <v>707771109</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Perawatan Hewan</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NZLstore99</t>
+          <t>Agung Pet Center</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Celana pendek 7/8 pria dewasa/celana santai harian/celana kolor 7/8</t>
+          <t>Royal Canin Cat Baby Milk 300gr - Promo Price</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>21000</t>
+          <t>316223</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/4/15/d33d1475-c9c2-4761-804f-bbc1971da10f.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/5/0caeb91d-ab23-4c0a-9038-d5add3853334.jpg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1439,37 +1439,37 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/nzlstore99/celana-pendek-7-8-pria-dewasa-celana-santai-harian-celana-kolor-7-8?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/agungpet/royal-canin-cat-baby-milk-300gr-promo-price?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2706587979</v>
+        <v>3602376461</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>alulakatalog</t>
+          <t>KedaiMart Official Store</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>celana kolor pendek super jumbo pria bigsize 4XL</t>
+          <t>SGM Eksplor 1+ Pro-Gressmaxx Susu Pertumbuhan Madu Box 400 Gram</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>19000</t>
+          <t>51000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/1/140a6ed2-968e-4b40-8f47-a28952977c99.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2022/4/19/df7ed02d-dd66-4866-a216-b74d1b13738c.jpg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1479,117 +1479,117 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/alulakatalog/celana-kolor-pendek-super-jumbo-pria-bigsize-4xl-salur-terang-superjumbo?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/kedaimartstore/sgm-eksplor-1-pro-gressmaxx-susu-pertumbuhan-madu-box-400-gram?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1091438710</v>
+        <v>12883405718</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Bayi</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>alifvia</t>
+          <t>Dancow Official Store</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Celana Pendek Kolor Santai Polos SUPER BIG SIZE JUMBO</t>
+          <t>Nestle DANCOW 1+ Madu 1.2 kg Susu Pertumbuhan Anak Usia 1 - 3 Tahun</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>120062</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/9/23/a5206cef-d18a-4e1d-8b52-886506de03ce.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/8/930bdc3e-6ea3-432a-89e1-3f6ee12aca01.jpg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/01-pakaian/celana-pendek-kolor-santai-polos-super-big-size-jumbo-biru?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/dancowofficial/nestle-dancow-1-madu-1-2-kg-susu-pertumbuhan-anak-usia-1-3-tahun?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3570699480</v>
+        <v>784472136</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Superfeel Official</t>
+          <t>Saudara_88</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SFL CD WANITA KOLOR PEREMPUAN REMAJA DEWASA PANTIES KATUN SPANDEKS 322</t>
+          <t>Susu bubuk Dancow renceng (isi 10pcs) / susu bubuk rencengan</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7850</t>
+          <t>36500</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/4/16/c28ab797-4478-4398-a313-fba7dc1f16b6.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/4/14/6180196/6180196_d91a8855-7bec-4f9e-9ee8-dcb590dcfe7d_1560_1560.jpg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/superfeelofc/sfl-cd-wanita-kolor-perempuan-remaja-dewasa-panties-katun-spandeks-322-merah-muda-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/thong88/susu-bubuk-dancow-renceng-isi-10pcs-susu-bubuk-rencengan-coklat?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>7995449025</v>
+        <v>2148188449</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>frankyfashion</t>
+          <t>GIZIDAT Official</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Celana kolor pria dibawah lutut clana pendek color cowo olahraga</t>
+          <t>Etawaku Platinum | Susu Kambing Etawa 100% Murni Pengganti Susu Sapi</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>25650</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/8/23/13389355-acf6-45f8-ab47-2e4546ea0c2f.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/28/6f07fc3c-48c1-4500-81ba-482f54263a62.png</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1599,197 +1599,197 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/frankyfashion/celana-kolor-pria-dibawah-lutut-clana-pendek-color-cowo-olahraga-warna-a?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/gizidat-official/etawaku-platinum-susu-kambing-etawa-100-murni-pengganti-susu-sapi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2266687794</v>
+        <v>10336666062</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sultan kolor</t>
+          <t>barangmurahdonk</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Paket 4 Pcs Celana Pendek Kolor Santai Pria Harian</t>
+          <t>Susu Bubuk NZMP Wholemilk Powder Full Cream - 1kg / 1000gr</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/9/18/ddf35ad8-6909-4330-8c7b-c329570c1686.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/6/21/ef8c63f7-7c5b-4150-96c0-f6e9becb4d1b.jpg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sultankolor/paket-4-pcs-celana-pendek-kolor-santai-pria-harian-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/barangmurahdonk/susu-bubuk-nzmp-wholemilk-powder-full-cream-1kg-1000gr-seller-7c246?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7299963065</v>
+        <v>7293931581</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>OnlineShop Risa</t>
+          <t>Stasiun_131</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Celana Pendek Chino Cino Rip Pinggang Karet Tali Kolor Pria Dewasa</t>
+          <t>Sunbay Susu Evaporated Evaporasi Halal</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>52900</t>
+          <t>13750</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/7/19/d09d713a-7274-4cba-a4e4-703e6554c102.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/22/ecc30b3c-04c8-4b0b-a18e-160e2f281850.jpg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/onlineshoprisa/celana-pendek-chino-cino-rip-pinggang-karet-tali-kolor-pria-dewasa-hitam-32?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/stasiun-1/sunbay-susu-evaporated-evaporasi-halal?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6758427582</v>
+        <v>8616547540</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>win makmur</t>
+          <t>JURAGAN ON</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>celana bola / celana futsal / kolor pendek / celana pendek pria</t>
+          <t>SUSU KAMBING ETAWA PLATINUM SK77 NON SUGAR 1KG</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>15000</t>
+          <t>65000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/10/15/2ff97458-1949-4a78-8b75-f758e3920899.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/3/19/9bdc301c-8d73-4781-ad7f-03bd9b615a90.jpg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/winmakmur/celana-bola-celana-futsal-kolor-pendek-celana-pendek-pria-hitam-1-pcs?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/juraganon/susu-kambing-etawa-platinum-sk77-non-sugar-1kg?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1034078325</v>
+        <v>302981196</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Bayi</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>E'R Shop Collection</t>
+          <t>Nestle Indonesia</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>celana kolor pendek pria</t>
+          <t>Nestle DANCOW FortiGro Susu Bubuk Susu Anak Full Cream 390g</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>14500</t>
+          <t>59600</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/7/22/d433c858-ad3b-4c20-8cf0-f529877895c4.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/1/11/cc51e5ab-8b47-4297-a052-441322e059eb.jpg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/revisjeans/celana-kolor-pendek-pria-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/nestle-indonesia/nestle-dancow-fortigro-susu-bubuk-susu-anak-full-cream-390g?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>11705088120</v>
+        <v>917486668</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Lapak Barang Terlengkap</t>
+          <t>AFF GALLERY</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LBT Celana Boxer Pria Kolor Pendek Motif Corak 6899 6717 Daleman Man</t>
+          <t>Susu Kambing Etawa Goatfit Milk COKLAT ISI 10 Sachet/ GoatFiT</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7218</t>
+          <t>18000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/9/28/2b38c05c-e2c3-462f-994d-f40abda0fabf.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/6/13/10205410/10205410_a2840de2-05e5-4072-a900-c40d4fd3c1b9_1080_1080</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1799,157 +1799,153 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/lapakbarangterlengkap/lbt-celana-boxer-pria-kolor-pendek-motif-corak-6899-6717-daleman-man-6899-navy-f0460?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/pusatpropolis/susu-kambing-etawa-goatfit-milk-coklat-isi-10-sachet-goatfit?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>7182145833</v>
+        <v>12025028524</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BHAZONK_STORE</t>
+          <t>SEMURGET</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>celana kolor putih polos pria, celana polosan pendek</t>
+          <t>Bebelac 3 GroGreat+ Susu Bubuk Pertumbuhan Anak 400 g</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>19900</t>
+          <t>73500</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/10/86a10014-9448-49ef-b56a-aa6b0e87bb2c.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/4/a396bb5b-b1e9-43fc-9355-32645c736983.png</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/bhazonkstore/celana-kolor-putih-polos-pria-celana-polosan-pendek-merah-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/semurget/bebelac-3-grogreat-susu-bubuk-pertumbuhan-anak-400-g-honey-09805?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>12321295782</v>
+        <v>10592166712</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ZR GROSIR</t>
+          <t>Agen Susu Kambing Provit Etawa</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Santai Kolor Cowok Dewasa Motif</t>
+          <t>Susu Kambing Etawa Provit 1Box isi 50 Scht (Proviterje) Original</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>25010</t>
+          <t>289999</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/10/f2f81c91-9297-4617-8db9-05e24b556eda.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/7/9/0cdbb49d-b419-4be0-bd9c-36f905f60033.jpg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/zr-grosir/celana-pendek-pria-santai-kolor-cowok-dewasa-motif-hijau-dewasa-stndr-9b263?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/agensusu/susu-kambing-etawa-provit-1box-isi-50-scht-proviterje-original?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>434907219</v>
+        <v>11126205055</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>suhendri kelontong</t>
-        </is>
-      </c>
+          <t>Telur &amp; Olahan Susu</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Karet kolor 3 cm per meter / elastic penguin / elastis / celana dalam</t>
+          <t>Frisian Flag Low Fat Belgian Chocolate Purefarm Susu UHT 225 ml</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>7700</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/7/28/434907219/434907219_574d0ab9-57b1-48b0-ae86-226e7b19f2df_700_700.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/8/10/c3ae54ee-cb78-4a8d-a977-ee8ac77ea1b5.jpg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/hendri-kelontong/karet-kolor-3-cm-per-meter-elastic-penguin-elastis-celana-dalam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/now/frisian-flag-low-fat-belgian-chocolate-purefarm-susu-uht-225-ml?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>12637714686</v>
+        <v>2715440324</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>arthalita store</t>
+          <t>Iyas Susu</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Celana kolor pria dewasa jumbo pendek santai</t>
+          <t>susu bebelac 3 vanila 800 gram</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>34000</t>
+          <t>138000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/30/aefba313-7a1d-458e-ad4d-d976035cd075.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/1/12/58bc0571-58f1-4386-b9db-924dc5031ff0.jpg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1959,517 +1955,517 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/arthalita/celana-kolor-pria-dewasa-jumbo-pendek-santai?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/toko-iyas-susu/susu-bebelac-3-vanila-800-gram?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6801409773</v>
+        <v>8577959574</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>indie_86</t>
+          <t>Susu Etawaku</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>BEST SELLER - BOXER PRIA | CELANA PENDEK | CELANA KOLOR BOXER KEREN</t>
+          <t>Etawalin - Susu Kambing Etawa Asli - Solusi Nyeri Sendi dan Tulang</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>9500</t>
+          <t>92500</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/5/b6ac2478-9a7a-4975-8f25-ee11ea6b36c9.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/7/7de10f0b-2f86-4c8a-b10e-ad504dbc0263.png</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/034218/best-seller-boxer-pria-celana-pendek-celana-kolor-boxer-keren-36-anime-39?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/susuetawaku/etawalin-susu-kambing-etawa-asli-solusi-nyeri-sendi-dan-tulang?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>977408318</v>
+        <v>1823236001</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>FAF Galeri</t>
+          <t>Hypermart Pakuwon</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Dan Wanita Size Standar - Kolor Santai Murah Grosir</t>
+          <t>Ultra UHT Milk Plain 1000 Ml</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>15000</t>
+          <t>19050</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/1/5/980939/980939_e02dad85-6014-4982-b987-34b6c20b1f5d_2048_2048.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/12/11/0191c1c4-7ae2-4d4c-be4b-6c4522d60da9.jpg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/fafgaleri/celana-pendek-pria-dan-wanita-size-standar-kolor-santai-murah-grosir-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/hypermartpakuwon/ultra-uht-milk-plain-1000-ml?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>9683814666</v>
+        <v>2308136735</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GUDANG CELANA BOXER</t>
+          <t>as syifa herbal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Boxer pria DTF| Celana pendek motif anime| kolor| Celana dalam pria</t>
+          <t>Susu Kambing Etawaku Platinum | Susu Kambing Murni Rasa Original</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>27500</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/5/24/d7a3a4a3-434b-4769-b70c-3d74dd0e79dd.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/11/22/d85ce0b0-7f57-42f0-b5bf-2ef4c4b6da40.jpg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/boxerpsycho/boxer-pria-dtf-celana-pendek-motif-anime-kolor-celana-dalam-pria-le-08?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/imamwahyudi/susu-kambing-etawaku-platinum-susu-kambing-murni-rasa-original?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>868225736</v>
+        <v>1617728309</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Oryza Gold</t>
+          <t>Groseria Mart</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>celana pendek pria / Celana Kolor pria Murah</t>
+          <t>*Bintara* Susu Ultra Mimi UHT Cokelat 125ml x 40 (1 Dus)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>8990</t>
+          <t>114000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/8/29/65656891/65656891_cbfbe21e-2073-4b21-9301-befc7134bc9d_1500_1500</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/1/23/ef7e3332-3cb3-4cc7-bfd7-4371f16cb182.jpg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/oryzagold/celana-pendek-pria-celana-kolor-pria-murah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/groseria/bintara-susu-ultra-mimi-uht-cokelat-125ml-x-40-1-dus?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7259373626</v>
+        <v>12049999040</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BOXER WICKS PREMIUM</t>
+          <t>AIO STORE 88</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Celana Pendek Boxer Pria Wanita / Boxer murah / kolor pria /</t>
+          <t>Minuman Susu Coklat 3 in 1 malaysia</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>14286</t>
+          <t>66500</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/19/21bfc12f-031c-4b59-bd96-5fe656dc4023.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/8/31d70dcc-a60e-41b8-85f3-66f18824331f.jpg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/boxer-wicks/celana-pendek-boxer-pria-wanita-boxer-murah-kolor-pria-pakis-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/aio-store-88/minuman-susu-coklat-3-in-1-malaysia-18-sachet-18a00?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>11619375122</v>
+        <v>1249998537</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Grosir Termurah Tercepat</t>
+          <t>TBK Ny Liem</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>GTT Celana Boxer Pria 6717 Kolor Motif Corak Celana Dalam Cowok</t>
+          <t>ULTRA MILK Susu Full Cream UHT 1 liter</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7218</t>
+          <t>19200</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/7/4777dc2a-e927-4371-a7d7-59b40b847cb9.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/10/11/152b7702-59bb-4fc9-be92-bd87e22348b9.png</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/grosirtermurahtercepat/gtt-celana-boxer-pria-6717-kolor-motif-corak-celana-dalam-cowok-6899-navy-ee13d?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/tbknyliem/ultra-milk-susu-full-cream-uht-1-liter?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3527360392</v>
+        <v>3153287705</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>LUCKY SPORTS</t>
+          <t>HuiliShop</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Celana Pendek Santai Kolor Pria Keren Bahan Babyterry</t>
+          <t>SO GOOD SUSU STERIL 200ML</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>25000</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/4/12/2ac1b75e-282e-49c5-bba1-86406acc738b.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/3/7/7bdc06a8-c93a-4ae4-8630-3c5675405231.jpg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/luckysports/celana-pendek-santai-kolor-pria-keren-bahan-babyterry-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/elmos-colection/so-good-susu-steril-200ml?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8634908879</v>
+        <v>1291828935</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Perawatan Hewan</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>strongtiget collection</t>
+          <t>CHIKO PETSHOPS</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Celana Kolor Pendek Santai Pria Cowok Dewasa Remaja Big Size Jumbo</t>
+          <t>Susu Kucing Growssy SACHET</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>13100</t>
+          <t>2900</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/3/20/17a972a4-9b2c-4f48-9ef7-7513cc083412.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/3/22/1977e872-487f-4858-a9d8-cadaf07d030a.png</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/strongtiget2/celana-kolor-pendek-santai-pria-cowok-dewasa-remaja-big-size-jumbo-random-jumbo?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/chikopetshops/susu-kucing-growssy-sachet?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>663813275</v>
+        <v>3811947511</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>thebackpackershop</t>
+          <t>Depo Susu Kelapa Gading</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Consina Celana pendek/kolor Quickness</t>
+          <t>Susu Diamond Fresh Milk 1 Liter Plain 946ml Freshmilk 1L Segar Karton</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>115000</t>
+          <t>20990</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/7/22/af504eec-07d2-4655-8a6d-e96fad79fae5.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/19/75fe5c93-0afa-4632-9898-8c0873887239.jpg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/thebackpackershop/consina-celana-pendek-kolor-quickness-s?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/deposusuaa/susu-diamond-fresh-milk-1-liter-plain-946ml-freshmilk-1l-segar-karton?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>12807450897</v>
+        <v>441262405</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>sasa jaya collection</t>
+          <t>WRP Official Store</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>celana pendek pria termurah/celana kolor santai</t>
+          <t>WRP Low Fat Milk Chocolate Hazelnut 200g - Susu Rendah Lemak</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>19000</t>
+          <t>62300</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/26/804d8b10-4ebb-4021-bb49-586a60c17a9a.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/2/9/c600b6ab-f5cb-47b5-9d11-88e1edba9698.jpg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/archive-sasajayacollection-1670632150/celana-pendek-pria-termurah-celana-kolor-santai-navy-8aafc?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/wrp/wrp-low-fat-milk-chocolate-hazelnut-200g-susu-rendah-lemak?extParam=ivf%3Dtrue%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>12759310516</v>
+        <v>11697942987</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Grosir Termurah Tercepat</t>
+          <t>TerjaminAda</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>GTT Celana Boxer Pria 6954 Boxer Pria Model MAN Salur 3 Garis Kolor</t>
+          <t>Karihome Susu Kambing Premium 3 dan 4 900gr</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5477</t>
+          <t>580000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/5/d386efb9-3b6b-4387-aeb6-64b88b57b17c.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/9/27/8ab63c3e-30a4-4019-8f9b-ad9dd2e722f9.jpg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/grosirtermurahtercepat/gtt-celana-boxer-pria-6954-boxer-pria-model-man-salur-3-garis-kolor-abu-abu-54874?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/terjaminada/karihome-susu-kambing-premium-3-dan-4-900gr-karihome-4-914ce?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1070893911</v>
+        <v>641502371</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Oryza Gold</t>
+          <t>DReal StarShop</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Murah/ Celana Pendek Kolor (warna Random)</t>
+          <t>REALGOOD SUSU BANTAL 55ml</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>12500</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/8/4/65656891/65656891_cdf6a5a0-9fe3-4853-ac32-475d0d0453c7_1279_1279</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/12/26/1002017/1002017_27983ad2-a058-4ce4-b2d0-27ae4c0143a9_1134_1134.jpg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/oryzagold/celana-pendek-pria-murah-celana-pendek-kolor-warna-random?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/drealstarshop/realgood-susu-bantal-55ml-keju?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4466430900</v>
+        <v>6995667674</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ju Collection Official</t>
+          <t>obabyhouse</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Celana Kolor Big Size / Super Jumbo Celana Santai Pendek Pria 39-46</t>
+          <t>Arla Full Cream Milk UHT Organic 200 ml</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>9500</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/24/27d22e5d-5bcb-490a-a782-9bdbb06b6a6a.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/5/24/3dfe1239-c0a1-4385-bd18-79f1eab41435.jpg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2479,37 +2475,37 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/jucollection/celana-kolor-big-size-super-jumbo-celana-santai-pendek-pria-39-46-abu-muda-m-b0d0?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/obabyhouse/arla-full-cream-milk-uht-organic-200-ml?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D1308962</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1438720834</v>
+        <v>671532532</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>rikha store</t>
+          <t>Edi bahagia</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Celana Pendek Kolor Hawai Pria Wanita AIGAR Batik</t>
+          <t>Susu UHT rasa coklat Ultra milk 200 ml (satu dus)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>22500</t>
+          <t>117990</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/12/30/3c5457db-1b3d-4754-a791-5010929f09cc.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/1/23/1c840102-564b-4056-90b4-ee9b9685d660.jpg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2519,157 +2515,157 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/rikha/celana-pendek-kolor-hawai-pria-wanita-aigar-batik?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/edibahagia/susu-uht-rasa-coklat-ultra-milk-200-ml-satu-dus?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>12277136139</v>
+        <v>3486780854</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>biondshop</t>
+          <t>HALAL HERBAL OFFICIAL</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Celana Boxer | Celana Kolor | Celana Motif | Pria Wanita | Premium</t>
+          <t>Etawaku Platinum | Paket 3 - Solusi Alergi Susu Sapi</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>9900</t>
+          <t>246000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/5/8283b9bb-9341-4193-855f-e1fa8874cbec.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/25/79ada17c-0ea9-427a-bf92-13dd94f36f07.jpg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/biondshop/celana-boxer-celana-kolor-celana-motif-pria-wanita-premium-random-63fa4?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/halalherbshop/etawaku-platinum-paket-3-solusi-alergi-susu-sapi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1956403734</v>
+        <v>8687200783</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CloPro</t>
+          <t>OHCO shop</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Celana Pendek Kolor Harian Bahan Parasut</t>
+          <t>Hania Goat Milk Skim Susu Kambing HNI</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>14500</t>
+          <t>100000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/6/27/426b392b-55ef-4da1-aac9-263ef37a8bb0.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/1/f03987dd-b743-4660-8d99-f92d25be51b6.jpg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/clopro/celana-pendek-kolor-harian-bahan-parasut-random-all-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/ohco/hania-goat-milk-skim-susu-kambing-hni?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2533512901</v>
+        <v>4619447971</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Perawatan Hewan</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ZR GROSIR</t>
+          <t>Kucingbilly</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Celana pendek kolor santai pria Paket 3pcs</t>
+          <t>Micucu cat susu anak kucing</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>52000</t>
+          <t>31669</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/7/8/92d9f975-d701-4dde-a973-c743ed500b42.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/21/31a239f1-3a84-47ff-980c-e6b939ad008b.png</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/zr-grosir/celana-pendek-kolor-santai-pria-paket-3pcs-random-s-fit-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/kucingbilly/micucu-cat-susu-anak-kucing?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2743280112</v>
+        <v>2430489333</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Argiastore</t>
+          <t>Zee Official Store</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Wanita Kolor Tidur Salur Katun Harian Murah</t>
+          <t>Zee KrunchZee Vanilla Twist Milk 337.5gr</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>22000</t>
+          <t>49100</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/1/16/a8b001af-87eb-472a-a78b-a69eb3a3119c.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/6/13/c77d9b12-8809-4686-800c-c1687db0e900.jpg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2679,117 +2675,113 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/argiastore/celana-pendek-pria-wanita-kolor-tidur-salur-katun-harian-murah?extParam=cmp%3D1%26ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/zeeofficial/zee-krunchzee-vanilla-twist-milk-337-5gr?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D12553702</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1628483441</v>
+        <v>7734369467</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Bos Clothing AM</t>
-        </is>
-      </c>
+          <t>Telur &amp; Olahan Susu</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Kombinasi Babby Terry / Kolor Katun Santai / Celana</t>
+          <t>Indomilk Susu UHT Korean Black Latte 180 ml</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>32900</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/2/25/2545b6fe-4ff3-4f42-af56-bc3b8d2d9936.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/1/30/7b37e608-9a94-48e7-8f9f-8f1d33132e27.jpg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/bosclothing/celana-pendek-pria-kombinasi-babby-terry-kolor-katun-santai-celana-abu-muda-l-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/now/indomilk-susu-uht-korean-black-latte-180-ml?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D12210375</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6134703371</v>
+        <v>6731618060</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Bayi</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>adibah_collection17</t>
+          <t>SGM Official Store</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Paket 50 Ribu 5 Pcs Celana Pendek Kolor Pria Wanita Volly Olahraga</t>
+          <t>SGM Eksplor 3+ dengan IronC Susu Bubuk Rasa Madu 600GR</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>56329</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/1/8/5170d3bc-a086-4499-9a31-8f05fc70a073.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/15/bdf44b5a-c565-49c1-a310-1f7b0ef68fe7.png</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/adibahcollection17/paket-50-ribu-5-pcs-celana-pendek-kolor-pria-wanita-volly-olahraga-paket-5-pcs-list-random?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sgmofficialstore/sgm-eksplor-3-dengan-ironc-susu-bubuk-rasa-madu-600gr?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4142575911</v>
+        <v>2926038881</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Radellaofficialstore</t>
+          <t>Internet ID</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>BOXER HARIAN SANTAI UNISEX - CELANA KOLOR REMAJA DEWASA COWOK CEWEK</t>
+          <t>Susu Proten Box Rasa Vanilla</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5782</t>
+          <t>12000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/6/4dd74618-e3a7-4fac-a76f-76b4597586c8.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/4/4/209c5107-d9c7-4b97-b833-52edf09faceb.png</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2799,197 +2791,197 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/radellaofficialstor/boxer-harian-santai-unisex-celana-kolor-remaja-dewasa-cowok-cewek-cd-polos-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/internetid/susu-proten-box-rasa-vanilla-1-pcs?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2976762655</v>
+        <v>5970739345</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>rasamanis100822</t>
+          <t>Etawalin Official Store</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Celana bapak-bapak/Celana Bahan kain tebal/Celana kolor Pendek</t>
+          <t>Etawalin Susu Kambing Etawa Original Atasi Masalah Sendi Dan Tulang</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>26000</t>
+          <t>90000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/16/89363e5b-8167-4ee8-83a7-21b454171257.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/26/0a9ecc7f-a797-441c-b893-0e96b21b7698.png</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/rasamanis100822/celana-bapak-bapak-celana-bahan-kain-tebal-celana-kolor-pendek-abu-abu-xl-xxxl-jumbo?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/etawalin/etawalin-susu-kambing-etawa-original-atasi-masalah-sendi-dan-tulang?extParam=cmp%3D1%26ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2841611990</v>
+        <v>6956739514</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>A-N FASHION</t>
+          <t>Sinar Baru Group</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>CELANA JEANS PENDEK MURAH RIP KOLOR (COD)</t>
+          <t>Susu Milo Uht 110ml Kotak Coklat / 110 Ml 1 dus Karton 36 pcs</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>21500</t>
+          <t>96500</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/1/31/6239af8e-12c2-468a-83fd-66076ac5919a.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/11/13/b5f0ae79-7896-4728-abcd-04394fa01f85.jpg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/a-n-fashion/celana-jeans-pendek-murah-rip-kolor-cod-chinos-pendek-27?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sinarbarugroup/susu-milo-uht-110ml-kotak-coklat-110-ml-1-dus-karton-36-pcs?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4099848966</v>
+        <v>867513022</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Argiastore</t>
+          <t>Jtw366 Farm</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Wanita Kolor Tidur Kotak Katun Harian Murah</t>
+          <t>Susu Sapi Murni Pasteurisasi Jatiwaringin Free Ongkir*</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>23000</t>
+          <t>17000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/3/dde51332-d187-48fb-a92c-fab39f32941f.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/5/26/2354600/2354600_ba0374a7-5173-4299-9b1e-a0f043e094e4_656_656.jpg</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/argiastore/celana-pendek-pria-wanita-kolor-tidur-kotak-katun-harian-murah?extParam=cmp%3D1%26ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/archive-jtw366/susu-sapi-murni-pasteurisasi-jatiwaringin-free-ongkir?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1247755310</v>
+        <v>2112143327</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Perawatan Hewan</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Argiastore</t>
+          <t>Susu Elvis Jakarta Barat</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Jumbo Salur Kolor Murah</t>
+          <t>Susu Elvis - Raw Goat Milk Regular Pack 100 ml x 5 - Anjing Kucing</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>32900</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/3/7/dc707137-867d-481c-9ead-d698663a1349.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/30/f1cf3385-1111-4447-8697-09fc24189459.jpg</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/argiastore/celana-pendek-pria-jumbo-salur-kolor-murah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/susu-elvis/susu-elvis-raw-goat-milk-regular-pack-100-ml-x-5-anjing-kucing?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>11812274180</v>
+        <v>1999277986</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>AvaAvena</t>
+          <t>piqa_store</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Celana kolor olahraga pria parasut murah / celana pendek pria (APG93)</t>
+          <t>Susu kambing murni segar beku kemasan 200ml</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>15000</t>
+          <t>5850</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/10/11/faac695b-120b-43e0-ade6-06f818419701.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/8/22/f2baed76-5116-462b-b7e7-9ec6acbe5ac5.jpg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2999,77 +2991,77 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/avaavena/celana-kolor-olahraga-pria-parasut-murah-celana-pendek-pria-apg93?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/piqastore/susu-kambing-murni-segar-beku-kemasan-200ml?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5853934984</v>
+        <v>326746996</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Bayi</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>A-H shop</t>
+          <t>SGM Official Store</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>CELANA PENDEK KOLOR SANTAI ARMY DORENG LORENG</t>
+          <t>SGM Eksplor 1+ dengan IronC Susu Pertumbuhan Rasa Madu 900GR</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>21329</t>
+          <t>81097</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/1/bae7166c-36d3-4da2-9543-1c0249f907f1.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/15/fc08b719-6958-4b68-b260-7640eaa5daec.png</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/a-hshop/celana-pendek-kolor-santai-army-doreng-loreng?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sgmofficialstore/sgm-eksplor-1-dengan-ironc-susu-pertumbuhan-rasa-madu-900gr?extParam=ivf%3Dtrue%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>7842609980</v>
+        <v>3798261599</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Tas Vision</t>
+          <t>Frisian Flag Official</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Celana Dalam Boxer Brief Pria Cowok Kolor Cool Kain Polyester Spandex</t>
+          <t>Frisian Flag Purefarm Susu UHT Fullcream 946ml</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>49888</t>
+          <t>19750</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/2/7/744d38c0-5e5a-4ebc-b036-38d2da320302.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/7/8/1ccae403-29a9-4b23-8fe5-7b0791919fd0.jpg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3079,37 +3071,37 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/tasvision/celana-dalam-boxer-brief-pria-cowok-kolor-cool-kain-polyester-spandex-xxl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/frisian-flag/frisian-flag-purefarm-susu-uht-fullcream-946ml?extParam=cmp%3D1%26ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>12836478877</v>
+        <v>1936441850</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SukawulyoMintoraharjo</t>
+          <t>BAYININJA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>DK7 [PAKET ISI 5 PCS]BOXER PRIA SANTAI HARIAN PRIA WANITA | KOLOR PRIA</t>
+          <t>NATURE ONE Organic 4 Junior Susu Anak 3 to 6 Tahun 900 g</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>65000</t>
+          <t>475000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/3/1/4354e946-98fd-43d6-9ac6-80c4d5dfea71.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/7/18/682869e9-2f70-48ed-b598-426be69de2d1.jpg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3119,277 +3111,273 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sukawulyomintorahar/dk7-paket-isi-5-pcs-boxer-pria-santai-harian-pria-wanita-kolor-pria?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/bayininja/nature-one-organic-4-junior-susu-anak-3-to-6-tahun-900-g?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>12404293255</v>
+        <v>10380114110</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Bintang Fashion Indonesia</t>
-        </is>
-      </c>
+          <t>Ibu &amp; Bayi</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Sweatpants New Colour Celana Pendek Polos Pria Kolor Original</t>
+          <t>Lactogrow 3 Happynutri Susu Formula 1 - 3 tahun Vanila 350 g</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>48500</t>
+          <t>62100</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/3/31/d9520b70-394a-44f7-8ca0-9ea34d8e0208.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/9/7/3eeeaefd-cf37-4e9c-a943-ff589a45e8ca.jpg</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/bintangfashionindonesia/sweatpants-new-colour-celana-pendek-polos-pria-kolor-original-pink-l-7253d?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/now/lactogrow-3-happynutri-susu-formula-1-3-tahun-vanila-350-g?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D12210375</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5453222238</v>
+        <v>2045119883</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>JuraganKolor</t>
+          <t>Sahabat Kesehatan</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Polos Santai Kolor Cowok Dewasa Kaos Baby Terry</t>
+          <t>Bundle 2 Box Pulmosol - Susu Nutrisi Kesehatan Pernapasan</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>26900</t>
+          <t>155810</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/8/15/f1fef0a2-f6b8-43aa-9137-3248b0a23932.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/8/3/50e6c69d-7646-452f-a6e2-7b4c0ac3f351.png</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/juragankolor/celana-pendek-pria-polos-santai-kolor-cowok-dewasa-kaos-baby-terry-abu-muda-l-to-xl-28-34?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sahabatkesehatan/bundle-2-box-pulmosol-susu-nutrisi-kesehatan-pernapasan?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D1149176</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2256673259</v>
+        <v>2292134147</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>celanamurahjakarta</t>
+          <t>susu kita2</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Celana kolor polos - Celana pendek polos - celana santai polos</t>
+          <t>Susu Milo Kotak Coklat ACTIVE GO UHT - 110 ml (4 pcs)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>11500</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/10/1/549787061/549787061_42cef633-27fb-4c2f-b104-829165590081_720_720.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/10/15/3d0802f7-d515-4aab-8b91-409f0dc493ab.jpg</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/grosircelana07/celana-kolor-polos-celana-pendek-polos-celana-santai-polos-l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/susukita2/susu-milo-kotak-coklat-active-go-uht-110-ml-4-pcs?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>7291479631</v>
+        <v>9243248283</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>BOXER WICKS PREMIUM</t>
+          <t>Apotek Heka Bandung</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Celana Pendek Kolor Boxer Pria Wanita / Boxer murah</t>
+          <t>Nutren Diab 400 g - Susu Diabetes Menjaga Gula Darah</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>14286</t>
+          <t>204300</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/22/2ab0bac3-cf90-4254-8e6c-ec724d36fe6c.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/4/21/0d1e5d70-7cf2-4215-894e-1661e1b2993a.jpg</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/boxer-wicks/celana-pendek-kolor-boxer-pria-wanita-boxer-murah-zilver?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/apotek-heka-bandung/nutren-diab-400-g-susu-diabetes-menjaga-gula-darah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1793659547</v>
+        <v>1095043807</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Bubble ID</t>
+          <t>omega food</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Celana Kolor Santai Pria &amp; Wanita</t>
+          <t>Purenat pure goat milk powder 800 g ( susu kambing)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>445000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/4/24/760700e6-d1d7-4726-9b2e-41089343a43c.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/8/13/16188cc7-3533-4ded-bfcf-ebe691aee225.png</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/x-s/celana-kolor-santai-pria-wanita-navy-jumbo?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/090991/purenat-pure-goat-milk-powder-800-g-susu-kambing?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>3032916055</v>
+        <v>7251033699</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>qorry</t>
+          <t>Emmar Shop</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Celana Pendek Olahraga Pria - Celana Kolor Dewasa</t>
+          <t>SGM Eksplor 3 Plus Susu Pertumbuhan 3-5 Tahun 900g 900 gram</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>79800</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/22/e3f537e6-43d4-4534-b77c-5900a5303b9e.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/18/b452997a-bae3-4e0e-b4bf-b961d15204bf.jpg</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/qorry/celana-pendek-olahraga-pria-celana-kolor-dewasa-s?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/emmarshop/sgm-eksplor-3-plus-susu-pertumbuhan-3-5-tahun-900g-900-gram-madu?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>13909716431</v>
+        <v>9582378525</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Bayi</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PRISMA Pro</t>
+          <t>Dancow Official Store</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Celana Dalam Boxer Kolor Pria Wanita Celana Pendek Unisex Katun Murah</t>
+          <t>Nestle DANCOW FortiGro Susu Bubuk Susu Anak Instant 195g</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>13500</t>
+          <t>25313</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/9/da31ebd1-84a9-4885-a7a7-eb2d864c9d6a.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/15/e04b5a0d-cc75-44c6-8ddc-22c15d0b8ab6.png</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3399,117 +3387,117 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/prismapro/celana-dalam-boxer-kolor-pria-wanita-celana-pendek-unisex-katun-murah-motif-cewek-dec36?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/dancowofficial/nestle-dancow-fortigro-susu-bubuk-susu-anak-instant-195g?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>12866758068</v>
+        <v>8912418435</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Boygross</t>
+          <t>Langgan MM</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Kolor Boxer kolor M-L panjang 40cm bahan BabyTErry</t>
+          <t xml:space="preserve"> Anget Sari Susu Jahe Minuman Serbuk [10 pcs/ renceng]</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>25000</t>
+          <t>11500</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/3/6/1b249cb3-7cc0-4075-8a41-63168001990b.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/4/1/7993df3f-2bf7-4fea-a2e3-84d41802d2ca.jpg</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/boygross/celana-pendek-pria-kolor-boxer-kolor-m-l-panjang-40cm-bahan-babyterry-abu-abu-m-l-3e31e?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/langgan-mm/anget-sari-susu-jahe-minuman-serbuk-10-pcs-renceng?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>6807482319</v>
+        <v>984337146</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>JuraganKolor</t>
+          <t>Fonterra Official Store</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Motif Rib Kolor Distro Cowok Dewasa Santai</t>
+          <t>Boneeto Susu Bubuk Cokelat 2 x 320g- Daya Pikir dan Tubuh Aktif</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>27500</t>
+          <t>78397</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/3/23e9b808-a2d2-447f-a6a6-90f2d6af8636.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/28/1df7f87b-c626-403c-81c4-65ad1fe71a82.jpg</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/juragankolor/celana-pendek-pria-motif-rib-kolor-distro-cowok-dewasa-santai-hitam-motif-l-to-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/fonterraofficial/boneeto-susu-bubuk-cokelat-2-x-320g-daya-pikir-dan-tubuh-aktif?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2228797078</v>
+        <v>12751265552</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Laluis</t>
+          <t>sehat gemoy657</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Celana JUMBO kolor pendek santai pria wanita</t>
+          <t>susu fortico kolostrum isi 20 sachet</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>7900</t>
+          <t>275000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/9/30/5134647d-90dd-46a6-a7cf-d66a64d86b50.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/17/8175739c-ee46-41b6-a56d-f21d366a3f13.jpg</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3519,313 +3507,317 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/laluis/celana-jumbo-kolor-pendek-santai-pria-wanita-dikirim-acak-usia-1-tahunan?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sehatgemoy657/susu-fortico-kolostrum-isi-20-sachet?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2609052942</v>
+        <v>326747153</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Bayi</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>cigodeg</t>
+          <t>SGM Official Store</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Paket 5 pcs Celana pendek pria santai xxl adz sport kolor pendek polos</t>
+          <t>SGM Eksplor 3+ dengan IronC Susu Bubuk Rasa Vanilla 900GR</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>145000</t>
+          <t>75872</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/25/77eb643f-6b10-4059-a227-e753eaf41fc6.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/15/d08bb59a-dcf4-4122-867b-98fd20d5a80b.png</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/singkong-mentah/paket-5-pcs-celana-pendek-pria-santai-xxl-adz-sport-kolor-pendek-polos-kasih-cattan?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sgmofficialstore/sgm-eksplor-3-dengan-ironc-susu-bubuk-rasa-vanilla-900gr?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>7756383205</v>
+        <v>10067422371</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>jersey Light Indonesia</t>
+          <t>Sinar Cahaya Agung</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Celana Pendek Unisex / Celana Kolor Full print</t>
+          <t>(1 Dus = 30 pcs) Susu Beruang / Nestle Bear Brand 140 ml</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>9725</t>
+          <t>226000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/2/1/feca78f3-2095-4e0a-a93b-feef90ea56ac.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/6/10/ef067e61-b9cb-4580-b1bd-c3f71c1bdea3.jpg</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/jerseylight/celana-pendek-unisex-celana-kolor-full-print-hijau-stabilo?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sinarcahayaa/1-dus-30-pcs-susu-beruang-nestle-bear-brand-140-ml?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>494437660</v>
+        <v>8470936427</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>JC Official Store</t>
+          <t>Dunia Kasa &amp; Verban</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>celana army | loreng | pendek kolor pinggang karet | jumbo size</t>
+          <t>Susu Colusmin 10 Sachet</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>135000</t>
+          <t>105000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/4/a164d6d8-8b27-43c6-b0cf-8da0c4da81fe.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/3/12/292d87b0-d9b7-4b22-a88b-e039b9d56942.jpg</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/jcofficialstore/celana-army-loreng-pendek-kolor-pinggang-karet-jumbo-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/duniakasaverban/susu-colusmin-10-sachet?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2209570850</v>
+        <v>576532250</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Perawatan Hewan</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>DASYAT ONLINE SHOP</t>
+          <t>atanta Shop</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>DOS Celana Boxer Pria 3 Gunung Kolor Pendek Polos Cowok Underwear Man</t>
+          <t>Propet's - 1kg Formula Susu Untuk Kucing &amp; Anjing propet propets</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>4196</t>
+          <t>37000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/11/27/4a16ecec-ce0b-4688-8425-35518c89b44a.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2018/10/4/3117310/3117310_dbe25d3e-0db7-4ab5-b35f-760ad9d61ff2_800_800.jpg</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/dasyatonlineshop/dos-celana-boxer-pria-3-gunung-kolor-pendek-polos-cowok-underwear-man-navy?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/atanta/propet-s-1kg-formula-susu-untuk-kucing-anjing-propet-propets?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1827723147</v>
+        <v>12561603555</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>rijalhawai</t>
+          <t>Sukanda Djaya Home</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>CELANA PENDEK 3/4 CASUAL PRIA/CELANA HARIAN/CELANA KOLOR/HAWAI</t>
+          <t>Diamond Milk Susu UHT Marshmallow 125 ML [Isi 12 Pcs]</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>44900</t>
+          <t>33096</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/27/1e65ea9f-5bdf-4380-a880-a73978d75c07.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/1/17/ce45658f-a131-4e65-bd06-4fc931ece908.png</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/rijalhawai/celana-pendek-3-4-casual-pria-celana-harian-celana-kolor-hawai-krem-all-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sukandahome/diamond-milk-susu-uht-marshmallow-125-ml-isi-12-pcs?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D8817974</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1238952274</v>
+        <v>6001159331</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>zulfieka_collection</t>
+          <t>Nabawi Herbal Official</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Celana Kolor Pendek Pria Dewasa</t>
+          <t>Susu Kambing Sky Goat</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>30000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/3/22/4397842a-72c6-4548-b92b-4a818bfe01f0.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/26/fd91f88a-4f93-4b3d-9e55-888f405aacb0.jpg</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/zulfiekacollection/celana-kolor-pendek-pria-dewasa-hitam-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/nabawiherbalofficial/susu-kambing-sky-goat-cokelat?extParam=ivf%3Dtrue%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>13088730272</v>
+        <v>8887919434</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>WENTEO DE LUXE</t>
+          <t>delightfoodies</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>CELANA DALAM BRANDED / KOLOR BOXER SUPER MIRROR VVIP ISI 3 PCS ELEGAN</t>
+          <t>Susu greenfields fresh milk 1000ml / fresh milk greenfields 1 liter</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>348000</t>
+          <t>21200</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/5/8418ec28-99f6-45b6-8145-42949d3556a5.jpg</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr"/>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/3/31/76aa522c-7f14-4fbb-942e-85df19b9e10c.jpg</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/wenteostore/celana-dalam-branded-kolor-boxer-super-mirror-vvip-isi-3-pcs-elegan?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/delightfoodies/susu-greenfields-fresh-milk-1000ml-fresh-milk-greenfields-1-liter?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2343081394</v>
+        <v>348537624</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>eLvio Group</t>
+          <t>Adzkia Fresh Food</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>CELANA PENDEK PRIA WANITA CHINO DISTRO BOXER KOLOR KAIN SANTAI 202</t>
+          <t>Yummy Feta Cheese Cow milk 1kg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>19700</t>
+          <t>205000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/10/8edce86b-b075-4502-b6c3-52235805bcb3.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2018/10/24/348537624/348537624_d8f7e1f8-a7b0-46cb-bc8e-d1edff8a5deb_640_640.jpg</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3835,673 +3827,665 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/elviogroup/celana-pendek-pria-wanita-chino-distro-boxer-kolor-kain-santai-202?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/adzkiafreshfood/yummy-feta-cheese-cow-milk-1kg?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>6716288588</v>
+        <v>12022294446</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CV. Lunara Store</t>
+          <t>Republik Bayi Tangerang</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Celana Boxer Pria Jumbo Polos Kolor Wanita Pendek Santai Murah Grosir</t>
+          <t>Boost Optimum Susu Bubuk Nutrisi Dewasa Lansia 800gr 800 gram MURAH</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>17000</t>
+          <t>288000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/17/c6accb16-54bb-4979-8c2d-e9fa2069d915.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/4/e831d8a6-12e9-4072-875a-99a63b4470d4.jpg</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/cvlunara/celana-boxer-pria-jumbo-polos-kolor-wanita-pendek-santai-murah-grosir-mustard?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/republikbayi-tangerang/boost-optimum-susu-bubuk-nutrisi-dewasa-lansia-800gr-800-gram-murah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>894485682</v>
+        <v>377834851</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Perawatan Hewan</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Najmi.bandung</t>
+          <t>KIN DOG FOOD - JakBar</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Celana Pendek Santai Pria dan Wanita Kolor Pendek Ukuran Standar</t>
+          <t>KIN Dog Food - Goat Milk Kefir</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>19500</t>
+          <t>73000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/11/15/ce2eae5e-90fa-402b-957d-ffbc47a1eee2.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/4/20/33f8ea95-8baf-4e36-b522-84e2b38c2eca.png</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/najmibdg/celana-pendek-santai-pria-dan-wanita-kolor-pendek-ukuran-standar?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/kindogfoodjakbar/kin-dog-food-goat-milk-kefir?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1944634371</v>
+        <v>1693824234</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>BAAJO SHOP</t>
+          <t>Lactona Official</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Celana Pendek Kolor Pria/Wanita Selutut Bahan Tebal Ziro</t>
+          <t>Lactona Skim 300 Gram Susu Rendah Lemak Low Fat</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>26500</t>
+          <t>36999</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/6/23/f77074ae-f5ca-46c6-8d47-172b78f4d71a.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/3/25/0e6170a9-d11c-4528-bf20-f982dc9cba1c.jpg</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/baajo/celana-pendek-kolor-pria-wanita-selutut-bahan-tebal-ziro-hitam-allsize-l-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/lactonaofficial/lactona-skim-300-gram-susu-rendah-lemak-low-fat?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>12866210410</v>
+        <v>11021568306</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>boygrossa</t>
+          <t>EtawalinStoreIndonesia</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Celana pendek unisex pria wanita model kolor boxer bahan bebyterry</t>
+          <t>Etawalin - Susu Herbal 100% Alami (1 Box)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>22000</t>
+          <t>90000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/3/6/dfc7a490-ba83-43c9-96c8-3b46b7f13909.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/20/7a3912a5-384f-42ac-bcf0-064d642744f7.png</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/boygrossa/celana-pendek-unisex-pria-wanita-model-kolor-boxer-bahan-bebyterry-hijau-botol-m-l-2db32?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/etawalinstoreindonesia/etawalin-susu-herbal-100-alami-1-box?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>11565373750</v>
+        <v>12675862864</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Olahraga</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>wanti-olshop</t>
+          <t>Nice For Kids</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Celana pendek pria sport casual olahraga // celana trening kolor olah</t>
+          <t>Anchor Protein Plus Sachet Susu Bubuk Tinggi Protein + Renceng</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>37000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/7/21/f21f8e5c-ade4-43b2-b793-9c8f6197744d.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/4/d9378ee0-b6e6-40ee-a65e-0d68300ee4a2.jpg</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/wanti-olshop-1/celana-pendek-pria-sport-casual-olahraga-celana-trening-kolor-olah-under-biru-l-96ad8?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/niceforkids/anchor-protein-plus-sachet-susu-bubuk-tinggi-protein-renceng?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>14440500</v>
+        <v>10309681315</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Perawatan Hewan</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>BERKAH TOKO ONLINE</t>
+          <t>woofidoo pet grocer</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>CELANA KOLOR PENDEK JUMBO(KOTAK-KOTAK),ukuran di bawah lutut</t>
+          <t>WOOFIDOO Kefir Goat Milk Yogurt Anjing Cat Dog Probiotic Susu Kambing</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>12500</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/12/28/14440500/14440500_519c52ac-b00e-4d4c-a57f-45665b1784cb_1560_1560.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/6/20/b6e144a7-ecf1-456f-bd77-fd45ac25fa6c.jpg</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/berkahtokoonline/celana-kolor-pendek-jumbokotak-kotakukuran-di-bawah-lutut?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/woofidoo/woofidoo-kefir-goat-milk-yogurt-anjing-cat-dog-probiotic-susu-kambing?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>4070614017</v>
+        <v>2091429750</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Argiastore</t>
+          <t>TOKO FAHMI RB</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>celana pendek pria dewasa kolor Harian Santai Murah</t>
+          <t>Dancow Instant FortiGro susu bubuk Sachet 27gr x 10 Sachet (Renceng)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>17000</t>
+          <t>36000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/2/688d6b71-261f-45e7-890a-3ab1519b31b4.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/10/27/3209f716-c29b-432e-a239-d539144e9832.png</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/argiastore/celana-pendek-pria-dewasa-kolor-harian-santai-murah-random?extParam=cmp%3D1%26ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/fahmirb/dancow-instant-fortigro-susu-bubuk-sachet-27gr-x-10-sachet-renceng-coklat?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>3197165756</v>
+        <v>2165265431</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Sultan kolor</t>
+          <t>NutriMart</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Celana Pendek Kolor Pria Wanita Harian Polos</t>
+          <t>Twin Pack: HiLo Teen Taro 500gr - Susu Tinggi Kalsium</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>22000</t>
+          <t>181300</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/9/16/1d50d711-0400-47b7-ac60-554a8bfdb677.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/30/07815505-9e39-4667-b7f5-3dda911e0dec.jpg</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sultankolor/celana-pendek-kolor-pria-wanita-harian-polos-putih-m-fit-l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/nutrimartid/twin-pack-hilo-teen-taro-500gr-susu-tinggi-kalsium?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D30193</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>931551311</v>
+        <v>558833506</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Bayi</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>MEGA NATHAN</t>
+          <t>Dancow Official Store</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Karet Celana Kolor 1M Size 1.8cm</t>
+          <t>Nestle DANCOW 1+ Madu Susu Anak 1-3 Tahun Box 350g</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>42800</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/26/fb077452-b9a0-4286-a102-5d230c708120.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/5/b4738089-0711-48ba-8d5c-72cf4c15fafe.png</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/megalaris/karet-celana-kolor-1m-size-1-8cm?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/dancowofficial/nestl-dancow-1-madu-susu-anak-1-3-tahun-box-350g?extParam=cmp%3D1%26ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>4498689077</v>
+        <v>9582374095</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Bayi</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Grosir Termurah Tercepat</t>
+          <t>Dancow Official Store</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>GTT Celana Boxer Pria 3 Gunung Kolor Pendek Polos Cowok Underwear Man</t>
+          <t>Nestle DANCOW FortiGro Susu Bubuk Susu Anak Instant 390gram</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4196</t>
+          <t>54860</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/8/4e9ee82c-827e-4925-9b50-ea29b0033c8a.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/5/19/f80dd131-6791-4e87-b458-43a9eb8259de.jpg</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/grosirtermurahtercepat/gtt-celana-boxer-pria-3-gunung-kolor-pendek-polos-cowok-underwear-man-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/dancowofficial/nestle-dancow-fortigro-susu-bubuk-susu-anak-instant-390gram?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>12865884725</v>
+        <v>10811310464</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Perawatan Hewan</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Boygross</t>
+          <t>MAKMUR JAYA PET SHOP</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Celana Kolor M/L/XL/XXL/XXXL</t>
+          <t>Top Growth 30gr Susu Kucing / KMR Kitten Milk Replacer | 1 box</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>22000</t>
+          <t>27499</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/3/6/c0c9e14a-4031-4d3c-8a0f-dff7e27dd7ee.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/7/22/f3e4be4a-80d5-4e08-a9c3-a9354d55686f.jpg</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/boygross/celana-kolor-m-l-xl-xxl-xxxl-biru-dongker-m-l-103e9?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/makmurjaya-ps/top-growth-30gr-susu-kucing-kmr-kitten-milk-replacer-1-box?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>12549601868</v>
+        <v>2036162870</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>forhem_collection</t>
-        </is>
-      </c>
+          <t>Telur &amp; Olahan Susu</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve">TERMURAH CELANA PENDEK PRIA WANITA DEWASA CELANA KOLOR JUMBO M-XXXXL </t>
+          <t>Milo Susu UHT Activ Go Cokelat 180 ml</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>7900</t>
+          <t>4800</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/15/031a1f13-c94c-4b9c-bd93-7f7749997ae4.jpg</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr"/>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/10/15/1631b9dc-dbd2-45e9-bcc3-3d16d6aaa907.jpg</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/archive-bajugrosir99/termurah-celana-pendek-pria-wanita-dewasa-celana-kolor-jumbo-m-xxxxl-hitam-bayi-0-3-tahun-cdf9f?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/now/milo-susu-uht-activ-go-cokelat-180-ml?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D16699633</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1308985706</v>
+        <v>9207905357</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>TARAFA SHOP</t>
+          <t>Etawalin Official</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Celana pendek pria /Celana kolor termurah/Celana pria</t>
+          <t>ETAWALIN SUSU ETAWA ORIGINAL ATASI NYERI SENDI DAN ASAM URAT</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>14200</t>
+          <t>99000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/11/3/5b07edc1-befd-4a2e-ba6d-760be256ccfc.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/8/d8310d72-83ba-4b20-8db3-b55a8606aeea.png</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/tarafa/celana-pendek-pria-celana-kolor-termurah-celana-pria-multiwarna-all-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/etawalinofficialstore/etawalin-susu-etawa-original-atasi-nyeri-sendi-dan-asam-urat?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>13174104457</v>
+        <v>3693130259</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>superbid</t>
-        </is>
-      </c>
+          <t>Telur &amp; Olahan Susu</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Wanita Celana Olahraga short pants men sport Running Gym Sport Kolor Volly Futsal Bulu Tangkis Jogging Bahan Berkulitas</t>
+          <t>Diamond Susu Segar Fresh Milk Strawberry 946 ml</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>23850</t>
+          <t>27200</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/29/dd5ed0b1-2002-44d4-b13b-88f7a0874930.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/5/4/8563283f-d298-41e4-8dc1-119b33669bba.png</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/superbid/celana-pendek-pria-wanita-celana-olahraga-short-pants-men-sport-running-gym-sport-kolor-volly-futsal-bulu-tangkis-jogging-bahan-berkulitas-abutua-m-b0380?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/now/diamond-susu-segar-fresh-milk-strawberry-946-ml?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D12210375</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3907076377</v>
+        <v>7747957004</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Boskolor Adz corp</t>
+          <t>Online Susu</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>(paket 3) Celana pendek pria santai olahraga / kolor pendek pria</t>
+          <t>NESTLE NUTREN Diab - Susu Diabetes Vanilla - Kaleng 400 gram</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>57900</t>
+          <t>198900</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/1/20/7c250fa3-64bc-4e0f-9aed-d0b6f162aa3d.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/6/30/2249ad09-5331-4340-bced-aa14b5df7efe.jpg</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/boskolor/paket-3-celana-pendek-pria-santai-olahraga-kolor-pendek-pria-random-s-anak?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/onlinesusu-1/nestle-nutren-diab-susu-diabetes-vanilla-kaleng-400-gram?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3766558393</v>
+        <v>8605614932</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Boskolor Adz corp</t>
+          <t>toko dua putra</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Celana pendek pria super jumbo xxxl kolor big size jumbo xxxl</t>
+          <t>susu greenfields UHT Full Cream 200 Ml X 32 Pcs (.1 karton.)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>11500</t>
+          <t>185000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/23/163d2171-be77-4cf7-a9a5-b0a75066bbf1.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/6/13/2d8139eb-24af-4b94-9d91-d3e3009ab7b3.jpg</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/boskolor/celana-pendek-pria-super-jumbo-xxxl-kolor-big-size-jumbo-xxxl-putih-s-anak?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/tokoduaputrabsd/susu-greenfields-uht-full-cream-200-ml-x-32-pcs-1-karton?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3922517787</v>
+        <v>6294605436</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>HagiaSophia_Store</t>
-        </is>
-      </c>
+          <t>Telur &amp; Olahan Susu</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Surfing Distro Premium Renang Pantai Santai Kolor 3</t>
+          <t>Greenfields Susu Segar Fresh Milk Strawberry 200 ml</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>37000</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/5/23/3670f92b-8ade-4ed8-8dba-ad3274621cdc.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2022/9/20/c1a6f6f4-eafc-4e44-b2de-0d7a4c9c9498.png</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4511,77 +4495,77 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/hagiastoremkssr/celana-pendek-pria-surfing-distro-premium-renang-pantai-santai-kolor-3?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/now/greenfields-susu-segar-fresh-milk-strawberry-200-ml?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D12210375</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>6933316398</v>
+        <v>3798261719</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>BS.CO SPORT</t>
+          <t>Frisian Flag Official</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>CELANA PENDEK PRIA DEWASA KOLOR BOXER COWO SANTAI POLOS BORDIR</t>
+          <t>Frisian Flag Purefarm Susu UHT Low Fat French Vanilla 225ml</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>8000</t>
+          <t>7200</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/11/10/33fdc076-1648-4c4a-a132-9d12638264a3.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/7/8/ecd1885d-4a39-4017-879d-f4e4a90f6a28.jpg</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/bscosport/celana-pendek-pria-dewasa-kolor-boxer-cowo-santai-polos-bordir-celana-dalam-all-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/frisian-flag/frisian-flag-purefarm-susu-uht-low-fat-french-vanilla-225ml?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>8881339889</v>
+        <v>2045123448</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Boskolor Adz corp</t>
+          <t>Sahabat Kesehatan</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Celana kolor pria wanita dewasa</t>
+          <t>Bundle 10 Box Pulmosol - Susu Nutrisi Kesehatan Pernapasan</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>9950</t>
+          <t>775170</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/6/8/415bc43b-c80d-4aba-a922-89e8f3ebed01.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/8/3/52da3980-f3fe-4933-ab36-161a996c3fe6.png</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4591,263 +4575,263 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/boskolor/celana-kolor-pria-wanita-dewasa-celana-manset-m-l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sahabatkesehatan/bundle-10-box-pulmosol-susu-nutrisi-kesehatan-pernapasan?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D1149176</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2512191949</v>
+        <v>1240207458</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>HasanaH_03</t>
+          <t>Manda Probiotica</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Boxer / Celana kolor pria motif api [BISA COD]</t>
+          <t>grass fed cow milk susu sapi grass fed</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>8500</t>
+          <t>25000</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2021/12/7/116c1c42-74f7-4aef-ad82-77c37021b084.jpg</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr"/>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/10/6/baece4a4-68a3-4a86-b597-1dd06f1485a8.jpg</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/archive-hasanah03-1-1697329452/boxer-celana-kolor-pria-motif-api-bisa-cod-putih-allsize?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/mandaprobiotica/grass-fed-cow-milk-susu-sapi-grass-fed?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1612277006</v>
+        <v>1922600976</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>RB TOYS AND TECHNOLOGY</t>
+          <t>NutriMart</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>RB-P37 Celana Dalam Seamless Wanita V Shape Low Waist Panties CD Kolor</t>
+          <t>Twin Pack: HiLo Teen Popcorn Caramel 500gr - Susu Tinggi Kalsium</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>13998</t>
+          <t>181300</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/3/8/9134d8f6-9195-4279-93b2-9955c3d11cae.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/9/7/796920c3-3910-4449-8b68-8c54411a9e27.jpg</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/reborn88/rb-p37-celana-dalam-seamless-wanita-v-shape-low-waist-panties-cd-kolor-biru-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/nutrimartid/twin-pack-hilo-teen-popcorn-caramel-500gr-susu-tinggi-kalsium?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D30193</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>977404235</v>
+        <v>2399808754</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Olahraga</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>FAF Galeri</t>
-        </is>
-      </c>
+          <t>Telur &amp; Olahan Susu</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Celana Trening Pendek Jumbo - Celana Santai Olahraga Training Kolor</t>
+          <t>Cimory Susu UHT Blueberry 250 ml</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>18000</t>
+          <t>5800</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/1/5/980939/980939_f5a196ca-7f5d-4186-b084-73de44360966_2048_2048.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2021/11/10/f49008cc-a745-4d66-bbd1-8cc9a70bd2c0.jpg</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/fafgaleri/celana-trening-pendek-jumbo-celana-santai-olahraga-training-kolor-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/now/cimory-susu-uht-blueberry-250-ml?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D12210375</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2688286815</v>
+        <v>5098826363</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>silviashop05</t>
+          <t>gudang endog</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>celana kolor distro broadshort pendek pria dewasa termurah</t>
+          <t>Susu Evaporasi FN F&amp;N / Evaporated Milk FN 380gr grab/gojek only</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>24999</t>
+          <t>16900</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2022/1/8/2528bb75-c9da-49bf-a0a4-66647e28548e.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/7/29/a38ff9cb-ad05-4661-8dd9-8f00e21e2e3b.jpg</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/silviashop05/celana-kolor-distro-broadshort-pendek-pria-dewasa-termurah-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/archive-gudang-endog/susu-evaporasi-fn-f-n-evaporated-milk-fn-380gr-grab-gojek-only?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1685573495</v>
+        <v>573926135</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>greenTex</t>
+          <t>Toko Reflus</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Celana Pendek Polos Adem Bahan Kaos - Celana Pendek Kolor Adem</t>
+          <t>Susu UHT Ultra 1 Liter</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>29000</t>
+          <t>17500</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/3/19/92f36a0f-17ea-4098-a94c-9cb87f67f870.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/9/30/6908789/6908789_fadb67bd-aace-45b6-a6a2-866e05cd7c4e_1224_1224.jpg</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/green-tex/celana-pendek-polos-adem-bahan-kaos-celana-pendek-kolor-adem-s-abu-muda?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/tokoreflus/susu-uht-ultra-1-liter?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2320442500</v>
+        <v>11756155273</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Qul Shop</t>
+          <t>cccstore7</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Murah Olahraga Renang Santai Kolor Murah</t>
+          <t>SUSU USA HEVISURE GOLD UNTUK PENGIDAP DIABETES</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>15800</t>
+          <t>429000</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/10/22/12aaa917-b1e1-43f7-bb1a-a89e7aa5eab3.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/27/30b5bad6-44aa-4a59-ab0a-6d65b832c8c0.jpg</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/qulbishop/celana-pendek-pria-murah-olahraga-renang-santai-kolor-murah-abu-abu-l-fit-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/cccstore7/susu-usa-hevisure-gold-untuk-pengidap-diabetes?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>3405232227</v>
+        <v>1197033246</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>nnisastoree</t>
+          <t>Tokoman Official Store</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Celana Kolor Pria/Celana Pendek Kantong Resleting/Parasut</t>
+          <t>F&amp;N Evaporated Milk 380 gr / Susu Evaporasi / Pengganti Santan</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4857,287 +4841,287 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/4/1/f1ab7c79-6463-4814-871a-2016b4d08dc6.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/7/16/8583607/8583607_d5c1674b-3be6-439e-aa34-463616f9a103_1280_1280.jpg</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/nnisastoree/celana-kolor-pria-celana-pendek-kantong-resleting-parasut-navy?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/tokoman-official/f-n-evaporated-milk-380-gr-susu-evaporasi-pengganti-santan?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2770820263</v>
+        <v>7974813717</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>JuraganKolor</t>
+          <t>Kikhyo</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Jumbo Basket Kolor Dewasa Training Olaharaga 3/4</t>
+          <t>Susu GREENFIELDS Fresh Milk UHT Chocomalt 105 ml</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>3490</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/1/20/132d2e8a-b6c3-4bda-888f-12d40fbe4b7c.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/2/a5de41ba-5120-44b7-95c1-460f445e0429.jpg</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/juragankolor/celana-pendek-pria-jumbo-basket-kolor-dewasa-training-olaharaga-3-4-abu-gelap-xxl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/kikhyo/susu-greenfields-fresh-milk-uht-chocomalt-105-ml?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>10463419959</v>
+        <v>12412364057</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>alifvia</t>
+          <t>kuproy_store</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Celana pendek pria Celana Kolor Santai Dewasa Bisa cewe dan cowo</t>
+          <t xml:space="preserve"> Susu Bantal Real good 50 ml (harga untuk 10 pc)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>16500</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/3/24/7ebb32b4-3cdd-4c30-9710-b9f812deb0cc.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/25/3845fbd8-9636-4fb6-9e1c-db3ab1b4d0d6.jpg</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/01-pakaian/celana-pendek-pria-celana-kolor-santai-dewasa-bisa-cewe-dan-cowo-hitam-all-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/kuproyyy/susu-bantal-real-good-50-ml-harga-untuk-10-pc-campur-rasa-58af4?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1383418154</v>
+        <v>1568982232</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Adzqia shop</t>
+          <t>StarFnB</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>celana pendek sport khusus big size / kolor nike,adidas black</t>
+          <t>Surabaya Bear Brand ecer Nestle Susu Beruang Susu Steril 189ml Promo</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>39900</t>
+          <t>9599</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/4/2/70ac1cc8-1e92-455f-b361-5637c3898263.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/1/29/ee4bf469-ef67-4e8b-bdb3-ee8a676267f3.jpg</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/adzqiashop/celana-pendek-sport-khusus-big-size-kolor-nike-adidas-black?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/starfnb/surabaya-bear-brand-ecer-nestle-susu-beruang-susu-steril-189ml-promo?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>6718779026</v>
+        <v>2985883349</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Cahaya_hijab99</t>
+          <t>Planetium herbal</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>(COD) CELANA KOLOR CELANA PENDEK PRIA KATOK KOLOR CELANA SPORT LARI</t>
+          <t>Etawaku Platinum | Susu Kambing Etawa</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>9999</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/10/8/40312dca-5089-444e-b329-26b11678c3d4.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/17/5886a855-c6e4-495a-82f8-16fa5f92d51b.jpg</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/cahayahijab99/cod-celana-kolor-celana-pendek-pria-katok-kolor-celana-sport-lari-grosir-linning?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/planetium-herbal/etawaku-platinum-susu-kambing-etawa?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>7067448193</v>
+        <v>3101642203</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Olahraga</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Serba Kaos Bandung</t>
+          <t>Zee Official Store</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Jersey Celana Kolor Pendek Bawahan Olahraga Badminton Jumbo Big Size</t>
+          <t>Zee Reguler Jumbo Vanilla Twist Milk 2x450G (2 Pack)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>207200</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/11/26/0280ab8d-4b0e-43a8-921e-c97dde2df375.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/6/0153138e-62a6-4d3c-8326-1082fd28d05e.png</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/serbakaos/jersey-celana-kolor-pendek-bawahan-olahraga-badminton-jumbo-big-size-putih-xxl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/zeeofficial/zee-reguler-jumbo-vanilla-twist-milk-2x450g-2-pack?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D12553702</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2567294019</v>
+        <v>2097995672</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>shininglight store</t>
+          <t>Apotek Heka</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>celana pendek pria celana kolor pria olahraga</t>
+          <t>Peptimune Vanila 189 gram - Susu Untuk Optimalkan Sistem Imun Tubuh</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>25000</t>
+          <t>89200</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/18/7f64884d-27e9-47b0-924e-f83862c26190.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/8/23/a4278beb-ec11-4e5d-a173-055cc8d249d7.jpg</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/shininglight-store/celana-pendek-pria-celana-kolor-pria-olahraga-navy-polos?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/apotekheka/peptimune-vanila-189-gram-susu-untuk-optimalkan-sistem-imun-tubuh?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1832199487</v>
+        <v>2281021720</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Perawatan Hewan</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Ahmad_Muhammad99</t>
+          <t>Susu Elvis Jakarta Utara</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Celana Pendek Kolor Misty Pria Dewasa Jumbo XXXL | Celana Harian Pria</t>
+          <t>Susu Elvis - Pasteurized Goat Milk 500 ml - Susu untuk Anjing Kucing</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>18500</t>
+          <t>34900</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/24/e1486b9b-911b-45a6-8526-87df495875cc.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/30/d33ac709-654b-42e7-92cd-11ba868c3a54.jpg</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5147,77 +5131,77 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/ahmadmuhammad99/celana-pendek-kolor-misty-pria-dewasa-jumbo-xxxl-celana-harian-pria?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/susuelvisjakarta/susu-elvis-pasteurized-goat-milk-500-ml-susu-untuk-anjing-kucing?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2592093101</v>
+        <v>6888872519</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>BATAVIASPORT25</t>
+          <t>Etawalin Official</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>CELANA KOLOR PENDEK PARASUT PRIA MURAH 3 PCS</t>
+          <t>Etawalin Box 5 - Susu Kambing Etawa Untuk Anak, Dewasa dan Orang Tua</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>455000</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/22/21b3e8a0-5569-484f-9559-5c5856ef4721.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/8/ce8ee0d3-65b5-4455-a3f3-b18125795918.png</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/bataviasport25/celana-kolor-pendek-parasut-pria-murah-3-pcs-ramdom-all-size-fit-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/etawalinofficialstore/etawalin-box-5-susu-kambing-etawa-untuk-anak-dewasa-dan-orang-tua?extParam=ivf%3Dtrue%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>13073816974</v>
+        <v>1381432466</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Ahmad_Muhammad99</t>
+          <t>Bakernbarista</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Celana Pendek Kolor Bola | Celana Harian Pria Dewasa</t>
+          <t>(250g) NZ milk powder / anchor susu bubuk / susu bubuk baking untuk ku</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>17500</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/5/3/8a75cb22-1249-4df6-956a-d9f9f028326f.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/11/28/98f1d206-cecd-4720-bbbb-0cce66e6b4e6.jpg</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5227,77 +5211,77 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/ahmadmuhammad99/celana-pendek-kolor-bola-celana-harian-pria-dewasa-res-dora-xxl-48672?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/bakernbarista/250g-nz-milk-powder-anchor-susu-bubuk-susu-bubuk-baking-untuk-ku?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>775670196</v>
+        <v>12763085103</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Sweeten_you</t>
+          <t>BONANZA stock</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Celana Pendek Kolor Santai Olahraga - Abibas</t>
+          <t>Real Good Susu uht Bantal 10 pcs @ 50 ml</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>15000</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/4/8/775670196/775670196_962bb9b0-65c9-4993-bfe6-8e7b06308ec6_1024_1024.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/19/75a71dcb-bf7e-4892-ae00-5730d8d09195.jpg</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sweetenyou/celana-pendek-kolor-santai-olahraga-abibas?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/bonanzastock/real-good-susu-uht-bantal-10-pcs-50-ml-coklat-d8e12?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1967108076</v>
+        <v>2554247190</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Olahraga</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>explode official</t>
+          <t>Pancoran Herbal Store</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>celana olahraga explode / celana jersey/celana runing pria /kolor pria</t>
+          <t>Susu Jahe Merah AMH Plus Ginseng - Harga 1 Renceng isi 10 Sachet</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>18000</t>
+          <t>12000</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/7/1/43af647f-9684-4836-ae39-186bd3b4e454.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/10/10/27f9bb71-c6f0-497f-adcd-c862ef6fab47.jpg</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5307,269 +5291,277 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/explodeo/celana-olahraga-explode-celana-jersey-celana-runing-pria-kolor-pria-hitam-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/pancoran-herbal/susu-jahe-merah-amh-plus-ginseng-harga-1-renceng-isi-10-sachet?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>8188497042</v>
+        <v>3552568800</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Bayi</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>DASYAT ONLINE SHOP</t>
+          <t>NutriMart</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>DOS Celana Dalam Boxer Pria 6706 Celana Kolor Pendek Boxer Cowok</t>
+          <t>HiLo School Vanilla 1000g - Susu Tinggi Kalsium</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>6839</t>
+          <t>162800</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/2/26/e2292f4e-80f1-4ace-a96d-39887fe69a9a.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/17/2685d23d-58e3-4da7-b88b-e8b7bc44ff31.jpg</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/dasyatonlineshop/dos-celana-dalam-boxer-pria-6706-celana-kolor-pendek-boxer-cowok-biru-531d5?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/nutrimartid/hilo-school-vanilla-1000g-susu-tinggi-kalsium?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>9633916149</v>
+        <v>7167392868</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>men s stuff</t>
+          <t>NutriMart</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Celana Pendek / SweatShort Pants Pria dan Wanita / Celana Kolor Unisex</t>
+          <t>HiLo Teen Original 400gr - Susu Tinggi Kalsium Lebih Rendah Lemak</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>49300</t>
+          <t>88000</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/5/22/6795c16d-804a-4000-b5a4-5bc9387cad80.jpg</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr"/>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/30/8e18a9d9-3819-4cd2-8308-c4e0dee6512c.jpg</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/mensstuff1/celana-pendek-sweatshort-pants-pria-dan-wanita-celana-kolor-unisex-pendek-hitam-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/nutrimartid/hilo-teen-original-400gr-susu-tinggi-kalsium-lebih-rendah-lemak?extParam=cmp%3D1%26ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>203318061</v>
+        <v>1131841680</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>bibbibbli</t>
+          <t>Mini Owls Mart</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Celana kolor Pendek Jumbo XXL pria/ wanita motif kotak</t>
+          <t>Susu Segar GREENFIELDS Fresh Milk 1L - Pasteurised Milk</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>49900</t>
+          <t>20900</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/7/28/57174c62-e9af-43ef-a8d7-66d55c16153d.jpg</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr"/>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/1/11/f477242d-5b45-4660-8d61-e255ee302d07.jpg</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/celanahawai/celana-kolor-pendek-jumbo-xxl-pria-wanita-motif-kotak?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/miniowls/susu-segar-greenfields-fresh-milk-1l-pasteurised-milk?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>13144885739</v>
+        <v>231623448</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Boygross</t>
+          <t>Toko Cendol Official</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Celana Kolor L dan XL</t>
+          <t>Pediasure Complete Coklat 400gr Susu Gemuk Anak</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>22000</t>
+          <t>201000</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/15/6fcf4798-f6d2-4b52-ad22-7e2d2d47b47e.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2017/11/19/837121/837121_ec07f171-9b06-4070-ae9d-a3644afff41d_800_800.jpg</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/boygross/celana-kolor-l-dan-xl-maroon-m-l-79107?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/tokocendol/pediasure-complete-coklat-400gr-susu-gemuk-anak?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>13088737660</v>
+        <v>7730424088</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>WENTEO DE LUXE</t>
+          <t>Frisian Flag Official</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>CELANA DALAM BRANDED / KOLOR BOXER HALUS SUPER MIRROR VVIP ISI 3 PCS</t>
+          <t>Frisian Flag Omela Foaming Milk 1000ml [3 pcs]</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>348000</t>
+          <t>55600</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/5/6cb64bf7-9927-40ef-83cb-72783df55314.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/1/30/0027a881-d147-4cc4-b7be-ded5dbad9357.jpg</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/wenteostore/celana-dalam-branded-kolor-boxer-halus-super-mirror-vvip-isi-3-pcs?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/frisian-flag/frisian-flag-omela-foaming-milk-1000ml-3-pcs?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>7686825817</v>
+        <v>4789000885</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SM_FESYEN</t>
+          <t>fresh booth</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>kolor pendek celana olahraga jogging basket sport gym pria wanita</t>
+          <t>greenfields fresh milk 1 liter (Susu segar)</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>12000</t>
+          <t>22050</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/1/27/817af3d5-e9ef-4fd3-9033-15999b895a39.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/7/25/160f78ef-2b8c-49e3-b285-740c5bbe84b7.jpg</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/smfesyen/kolor-pendek-celana-olahraga-jogging-basket-sport-gym-pria-wanita-celana-dalam-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/archive-kingoracle/greenfields-fresh-milk-1-liter-susu-segar?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2511250988</v>
+        <v>7258679899</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Adzqia shop</t>
+          <t>VJ2SHOP</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>celana kolor pendek jumbo kaos babyterry</t>
+          <t>Ovaltine Malted Milk Malaysia</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>8950</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/7/0f79e726-541f-401a-a399-929ec491eb0b.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/7/24/2d965774-30f0-4d32-937f-ea4084bc5851.jpg</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -5579,437 +5571,437 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/adzqiashop/celana-kolor-pendek-jumbo-kaos-babyterry?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/vj2shop/ovaltine-malted-milk-malaysia-ecer-1-stik?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1677630775</v>
+        <v>1838877804</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>OKEGAN JEANS</t>
+          <t>Gut Living Indonesia</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>PAMA - Celana Kolor Pendek Jumbo XXXL Pria Bahan Misty Berkualitas</t>
+          <t>Coconut Milk Powder Nucifera</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>12000</t>
+          <t>49920</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/3/17/0625cf0f-e270-46c9-9998-380d9ffa8097.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/7/e6a0095d-85ef-4e3e-9ec8-a8120826f795.jpg</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/okeganjeans/pama-celana-kolor-pendek-jumbo-xxxl-pria-bahan-misty-berkualitas-xl-bb-70kg?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/gutliving/coconut-milk-powder-nucifera?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>11831934692</v>
+        <v>5154971971</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Perawatan Hewan</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Mickonova Store</t>
+          <t>Welcome Petshop</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>CELANA PENDEK PRIA KOLOR PINGGANG KARET COWOK KUALITAS DISTRO MURAH</t>
+          <t>Growssy Milk Susu Kucing 1 Sachet Kitten Anak Kucing Milk 20gr</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>42500</t>
+          <t>3130</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/13/97454180-a894-4953-b227-c3b1a5d67a58.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2022/8/1/26f13d36-4eba-4c61-a44b-53be2af1daed.png</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/mickonova-store/celana-pendek-pria-kolor-pinggang-karet-cowok-kualitas-distro-murah-cream-27-28-ff123?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/welcomepetshop/growssy-milk-susu-kucing-1-sachet-kitten-anak-kucing-milk-20gr?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>12170203862</v>
+        <v>2153859752</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>ARSY sport store</t>
+          <t>TBK Ny Liem</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Arsy Sport - Celana Kolor Pria / Celana Pendek Pria TP-007</t>
+          <t>ULTRA Mimi Kids Susu UHT 125 mL 1 pcs</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>34900</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/21/e2ea9c1a-ed02-48b0-9fb5-5b490d117cb9.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/9/9/6338463e-b54b-475d-a6ed-96a2405c6012.png</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/arsy-sport/arsy-sport-celana-kolor-pria-celana-pendek-pria-tp-007-hitam-l-ea5bd?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/tbknyliem/ultra-mimi-kids-susu-uht-125-ml-1-pcs-vanila?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1672333581</v>
+        <v>3362097865</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>alfan bejo05</t>
+          <t>ulle store</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>celana kolor pendek misty super jumbo</t>
+          <t>SUSU BUBUK KAMBING ETAWA 1KG RASA ORIGINAL,STRAWBERRY,COKLAT,NON SUGAR</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>18000</t>
+          <t>52915</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/3/14/8e8d7d2f-870d-4d0b-b332-672aa66c0b7e.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/3/20/3a70413e-b491-4862-b4f2-11017be09461.jpg</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/bejosekabehe/celana-kolor-pendek-misty-super-jumbo-random-super-jumbo?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/ullestore/susu-bubuk-kambing-etawa-1kg-rasa-original-strawberry-coklat-non-sugar-non-sugar?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>13083196306</v>
+        <v>618145054</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>GhalionOriginaL</t>
+          <t>NutriMart</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Celana Pendek Kolor Santai Pria Wanita Big Size Jumbo</t>
+          <t>Twin Pack: HiLo Gold Chocolate 750gr - Susu Tinggi Kalsium</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>16577</t>
+          <t>249300</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/21/787b6067-bf16-4cc6-9244-d62ff1078880.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/7/24/cf46bdf8-5108-4806-bf16-d2bf9cdfeae4.jpg</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/ghalionoriginal/celana-pendek-kolor-santai-pria-wanita-big-size-jumbo-abu-tua-1c01c?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/nutrimartid/twin-pack-hilo-gold-chocolate-750gr-susu-tinggi-kalsium?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>6459358524</v>
+        <v>3541400745</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Bayi</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Grosir Termurah Tercepat</t>
+          <t>Nestle Indonesia</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>GTT Celana Boxer Pria 3 Gunung Kolor Pendek Polos Cowok Underwear 2</t>
+          <t>NESTLE Nutren Junior Susu Pertumbuhan Vanila 800gx2pcs</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>4196</t>
+          <t>653100</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/8/9ad9456d-9a99-4b1f-b4bb-fdd37fe50175.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/6/12/abb07459-a7d3-48ad-b1ec-7d230cf9aa60.jpg</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/grosirtermurahtercepat/gtt-celana-boxer-pria-3-gunung-kolor-pendek-polos-cowok-underwear-2-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/nestle-indonesia/nestle-nutren-junior-susu-pertumbuhan-vanila-800gx2pcs?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>7298140853</v>
+        <v>4590023890</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Markas Busana</t>
+          <t>Vlamarket</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Kolor Santai Sporty Olahraga Volly Futsal Murah</t>
+          <t>1KG Susu Kambing Etawa Varian Rasa Vanilla Vanila Vanili Manis</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>13999</t>
+          <t>125000</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/23/0aafc28e-3203-4978-ae0f-8a195e473970.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/18/4de5f37b-9a04-4373-918f-817edaed8264.jpg</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/markasbusana/celana-pendek-pria-kolor-santai-sporty-olahraga-volly-futsal-murah-merah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/vlamarket/1kg-susu-kambing-etawa-varian-rasa-vanilla-vanila-vanili-manis?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1585454069</v>
+        <v>10720012305</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>AIMPRO</t>
+          <t>Etawaku Platinum Official Store</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Celana Kolor Pria Dewasa - Celana Pendek Pria - Celana Sport Pria</t>
+          <t>Etawaku Platinum Susu Kambing Etawa Atasi Sesak Nafas dan Paru-Paru</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>12000</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/2/5/d0e2e331-9e2f-465f-8f20-8de4170cec22.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/7/18/314e49a0-7e7b-43e0-b726-ad84cfea0e79.jpg</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/aimpro/celana-kolor-pria-dewasa-celana-pendek-pria-celana-sport-pria-hitam-all-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/etawakuplatinum-ofc/etawaku-platinum-susu-kambing-etawa-atasi-sesak-nafas-dan-paru-paru?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2999925368</v>
+        <v>1051101869</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>nnisastoree</t>
+          <t>Jualtasoriginal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>celana kolor parasut pendek</t>
+          <t>Susu ultra 125ml strawberry stroberi 125 ml</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>17000</t>
+          <t>3500</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/18/6881ef05-802e-4d68-8c71-0cbf96d09c3b.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/7/25/ff432638-93a8-43c0-9e45-ef835ee8d47d.jpg</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/nnisastoree/celana-kolor-parasut-pendek?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/jualtasoriginal/susu-ultra-125ml-strawberry-stroberi-125-ml?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>8418703093</v>
+        <v>1745056548</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>kachigachi</t>
+          <t>Ezy Baking Shop</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Jumbo / Celana Kolor Pria Big Size - Zipper 2.0</t>
+          <t>Susu Bubuk 1kg - Susu Kiloan / Susu Murah Enak</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>59900</t>
+          <t>25500</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/21/7941e093-9006-442e-97ec-2dbe19294c1b.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/22/c232e623-8bf6-4e32-890f-dd171fca5f68.jpg</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/kachigachi/celana-pendek-pria-jumbo-celana-kolor-pria-big-size-zipper-2-0-biru-m-50-65kg?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/ezybakingshop/susu-bubuk-1kg-susu-kiloan-susu-murah-enak?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2588956745</v>
+        <v>11184289773</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ImanuelStore</t>
+          <t>Etawalin</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Celana Training Pendek Pria Santai Kolor Saku + Resliting IMS</t>
+          <t>Paket 5 box Etawalin - Susu Kambing Etawa Herbal Alami</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>14999</t>
+          <t>435000</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/22/051e1430-8f8d-4001-84f8-0a16341f0027.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/14/8e1a090b-469b-485c-920e-4ec374f160f8.png</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6019,117 +6011,117 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/imanuels/celana-training-pendek-pria-santai-kolor-saku-resliting-ims-random?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/etawalinofficial/paket-5-box-etawalin-susu-kambing-etawa-herbal-alami?extParam=cmp%3D1%26ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2143284977</v>
+        <v>12367178830</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Argiastore</t>
+          <t>Brenda 74</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Celana Pendek Chino Pria Kolor Polos Harian Murah</t>
+          <t>SUSU DANCOW FORTIGRO 1KG</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>30000</t>
+          <t>109000</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/9/6/6e9695b5-aefa-4766-9593-db85d0d868a2.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/16/ae7114bc-2811-4143-92a7-24aec956dd8a.jpg</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/argiastore/celana-pendek-chino-pria-kolor-polos-harian-murah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/brenda74/susu-dancow-fortigro-1kg?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>613487865</v>
+        <v>2089106782</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Adzqia shop</t>
+          <t>raja keju</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>celana pendek sport gradeori / kolor nike,adidas black</t>
+          <t>Susu greenfields fresh milk plain 1l (KARTONAN)</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>253200</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/4/2/0ad10e46-208e-4abc-90df-39de020bdebe.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/11/22/dcb2aad4-619e-4924-9d85-4ed2ccf3b1a4.jpg</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/adzqiashop/celana-pendek-sport-gradeori-kolor-nike-adidas-black-adidas-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/rajakeju/susu-greenfields-fresh-milk-plain-1l-kartonan?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>6740493810</v>
+        <v>12757928741</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Amzy Shop</t>
+          <t>Toko Kayla Merchant</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Celana Pendek Harian Kolor Pria Dewasa Super Big Size Saku Kempol</t>
+          <t>abc susu 1 dus (isi120 Pcs)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>30000</t>
+          <t>176900</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/20/83dfadb5-8384-4800-a3eb-1cb7ea2029af.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/18/1d83cba6-8e9b-4c6e-b11f-e40d67671688.jpg</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6139,77 +6131,77 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/amzyshop/celana-pendek-harian-kolor-pria-dewasa-super-big-size-saku-kempol-tery-polos-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/tokokaylamerchant/abc-susu-1-dus-isi120-pcs?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>4894767874</v>
+        <v>294989162</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Bayi</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>TokoJoloarto</t>
+          <t>Nestle Indonesia</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Celana Pendek Kolor Murah M L XL</t>
+          <t>Nutren Junior Prebio Susu Bubuk Kaleng 800gr</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>8900</t>
+          <t>353900</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/8/30/0fbf6230-f6b2-4b1c-9d2e-f7f65f2a0df9.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/20/df214b3c-6ed2-4d37-95ae-e5a3ad59b59e.jpg</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/tokojoloarto/celana-pendek-kolor-murah-m-l-xl-s-maks-7-tahun?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/nestle-indonesia/nutren-junior-prebio-susu-bubuk-kaleng-800gr?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>6874880289</v>
+        <v>2356747559</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Amanda Shop 01</t>
+          <t>MUNTAZA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>AD - CELANA PENDEK PRIA DISTRO SURFING kolor boxer clana penek cowok d</t>
+          <t>Nutrilon Royal 3 Susu Pertumbuhan 1-3 Thn Madu 800gr</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>48000</t>
+          <t>198500</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2022/11/2/d2c3a430-9a98-46c6-8a3d-39ad64ab01f7.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/10/31/e457d700-53c9-4a9e-b245-9bb24148b4d9.png</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6219,153 +6211,157 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/amandashop01-01/ad-celana-pendek-pria-distro-surfing-kolor-boxer-clana-penek-cowok-d?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/muntaza/nutrilon-royal-3-susu-pertumbuhan-1-3-thn-madu-800gr?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>9298598858</v>
+        <v>6811191149</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Benthang Cloth</t>
+          <t>NutriMart</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Celana Kolor Protot Pria Dewasa</t>
+          <t>HiLo School Chocolate 200ml (1 pc) - Susu Tinggi Kalsium</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>14850</t>
+          <t>8600</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/5/1/a7b980a1-657f-4158-b4b8-fdd65f036308.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/9/1/0759bd78-1b11-4870-a87d-589821080264.jpg</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/benthangcloth/celana-kolor-protot-pria-dewasa?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/nutrimartid/hilo-school-chocolate-200ml-1-pc-susu-tinggi-kalsium?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>3549800205</v>
+        <v>11224204634</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>JuraganKolor</t>
+          <t>Collective Coffee</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Jumbo Basket Kolor Dewasa Olaharaga Training 3/4</t>
+          <t>Susu Diamond Fresh Milk 1 Liter Plain 946ml Freshmilk 1L Segar Karton</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>19500</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/4/14/09bade92-c0e4-4a16-9812-f0e2b077be14.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/16/7a5581e0-91b2-42b1-9203-751fe940e470.jpg</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/juragankolor/celana-pendek-pria-jumbo-basket-kolor-dewasa-olaharaga-training-3-4-hitam-xl-to-xxl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/collectivecoffee/susu-diamond-fresh-milk-1-liter-plain-946ml-freshmilk-1l-segar-karton?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>12536162055</v>
+        <v>6974815841</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>giftech</t>
+          <t>Sinar Rezeki Store</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Celana Pendek Parasut Pria Saku Resleting WaterProof Kolor Olahraga Ru</t>
+          <t>Susu Bantal Real Good 50ml Paket 10pcs / susu realgood / real good</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>32900</t>
+          <t>13250</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/13/f5eea55d-ae4f-4d1a-9bda-2847c454fde4.jpg</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr"/>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/11/16/776956ad-c837-4687-a94e-1d27026f5d60.png</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/giftech/celana-pendek-parasut-pria-saku-resleting-waterproof-kolor-olahraga-ru-ua-polos-m-860de?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sinarrezstore/susu-bantal-real-good-50ml-paket-10pcs-susu-realgood-real-good-stroberi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>6400010214</v>
+        <v>8107634166</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>JuraganKolor</t>
+          <t>Lantara</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Dewasa Kolor Cowok Polos Santai Kaos Baby Terry</t>
+          <t>Susu Abbott Prosure Premium 380 gr gram Vanila - Susu Kanker Cancer</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>24900</t>
+          <t>309888</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/24/5eb08154-e159-43d9-b9c9-cd6c582d6a20.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/2/22/20a565b6-8928-4be5-8041-95d23eae6e58.png</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6375,197 +6371,197 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/juragankolor/celana-pendek-pria-dewasa-kolor-cowok-polos-santai-kaos-baby-terry-hitam-l-to-xl-28-33?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/lantara/susu-abbott-prosure-premium-380-gr-gram-vanila-susu-kanker-cancer?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>12456177956</v>
+        <v>871120936</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Superfeel Official</t>
+          <t>Pilihlah Aku Toserba</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>CELANA DALAM KATUN BOXER 2 IN 1 CD WANITA KOLOR PEREMPUAN MIDI MID 215</t>
+          <t>Susu Ultra Mimi Kids Coklat (Cokelat) - 125 ml (1 DUS ISI 40)</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>23900</t>
+          <t>123450</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/3/292df163-4f29-4c17-b6d8-95211e705295.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/27/59ec13ed-b534-4264-bf04-67fe00851d92.jpg</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/superfeelofc/celana-dalam-katun-boxer-2-in-1-cd-wanita-kolor-perempuan-midi-mid-215-abu-abu-xxl-033ed?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/pilihlahaku/susu-ultra-mimi-kids-coklat-cokelat-125-ml-1-dus-isi-40?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>12872699462</v>
+        <v>11278039841</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Boygross</t>
+          <t>EtawalinStore</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>celana pendek prIa wanita kolor short pants pantai santai  katunpe</t>
+          <t>ETAWALIN Susu Terapi Bebas Gerak Tanpa Nyeri Paket 3 Box</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>22000</t>
+          <t>261000</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/3/7/67cedc39-69d6-4392-af0c-a5e25fe2af18.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/21/96c64560-cc3c-4727-a7c1-5c74e517955c.png</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/boygross/celana-pendek-pria-wanita-kolor-short-pants-pantai-santai-katunpe-ckm29-hitam-l-xl-082a7?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/etawalinstore1/etawalin-susu-terapi-bebas-gerak-tanpa-nyeri-paket-3-box?extParam=cmp%3D1%26ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2550930325</v>
+        <v>13399930237</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Arthalita_Oficial store</t>
+          <t>Shipment</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Celana Kolor Pria Dewasa Pendek Santai Olahraga</t>
+          <t>ZEE REGULER 2X450 SWIZZ CHOCOLATE SUSU COKLAT REGULAR JUMBO 900 KALBE</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>33900</t>
+          <t>95500</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/10/15/3ff71885-0975-4d07-ab0e-b391e6532c70.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/12/86b0be78-0088-45e2-b3d8-03d2af98e770.jpg</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/junajunoshop/celana-kolor-pria-dewasa-pendek-santai-olahraga?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/shipment/zee-reguler-2x450-swizz-chocolate-susu-coklat-regular-jumbo-900-kalbe-cokelat875g-7ddc1?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>12309358675</v>
+        <v>2678687695</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>FashionStoreMurah</t>
+          <t>Tobaking Murah Online</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Harian Kolor Santai Polos Cowok</t>
+          <t>Susu UHT ULTRA MIMI 125ml Ultra Milk Vanila Stroberi Cokelat</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>16000</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/8/5dc58606-91d3-4756-96a4-ebf507f517e3.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/3/18/c713a2a1-2315-482a-8f85-2c5a0d43e1aa.png</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/fashionsmrh/celana-pendek-pria-harian-kolor-santai-polos-cowok?extParam=cmp%3D1%26ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/tobakingmurahonline/susu-uht-ultra-mimi-125ml-ultra-milk-vanila-stroberi-cokelat-vanila?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>5844344757</v>
+        <v>1784845367</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Mincha Kolor</t>
+          <t>KedaiMart Official Store</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Celana Kolor Pria Dewasa Misty Cargo Kantung Gantung Jumbo</t>
+          <t>Susu UHT Diamond Full Cream 1 L</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>13313</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/1/2a9d43e9-8080-47ee-b641-9dd852109294.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/9/29/ba045971-fea9-49f9-b0af-4b8a608dea4b.jpg</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6575,77 +6571,77 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/minchakolor/celana-kolor-pria-dewasa-misty-cargo-kantung-gantung-jumbo?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/kedaimartstore/susu-uht-diamond-full-cream-1-l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>819350510</v>
+        <v>12798369827</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Adzqia shop</t>
+          <t>Rumah Roti ciracas</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Celana pendek sport import Adidas black / kolor black</t>
+          <t xml:space="preserve">SUSU BUBUK BRANDENBURGER ALFA UHT FULL CREAM REPACK 1KG MILK POWDER </t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>31000</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/4/2/3133a986-a6d2-44f7-83e5-8d5ae790fbb5.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/24/3ac211da-6aa4-4548-a65c-9710f46a47dd.jpg</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/adzqiashop/celana-pendek-sport-import-adidas-black-kolor-black-hitam-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/rumahroticiracas/susu-bubuk-brandenburger-alfa-uht-full-cream-repack-1kg-milk-powder?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>12851797999</v>
+        <v>639857247</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Perawatan Hewan</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Boygross</t>
+          <t>shine petstore</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Celana Jumbo Pria Santai Kolor XXL/XXXL Bahan BabyTerry Panjang 65Cm</t>
+          <t>Susu Anjing Ameri+Pro Powdered Formula for Puppies 200gr</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>33000</t>
+          <t>45000</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/3/6/75f4b6bd-4f66-47b0-8873-b50bb15de40b.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/4/940f3363-67b2-4b7e-8260-53ff56ef2a6a.png</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6655,237 +6651,237 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/boygross/celana-jumbo-pria-santai-kolor-xxl-xxxl-bahan-babyterry-panjang-65cm-hitam-xxl-xxxl-eb361?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/shinepetstore/susu-anjing-ameri-pro-powdered-formula-for-puppies-200gr?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>6762840407</v>
+        <v>1043302935</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>frankyfashion</t>
+          <t>PD AMAT SENTOSA (PDAS)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Celana Kolor Santai Clana Daleman Boxer Pendek Rumah Pria Bandung</t>
+          <t>ULTRA SUSU UHT 125 ML COKELAT ISI 40</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>26000</t>
+          <t>116000</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/6/15/ce59342e-6b08-479c-bbfd-bf297831fbdd.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/7/22/ef76c95c-7908-4f11-8b8f-c3be96056417.jpg</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/frankyfashion/celana-kolor-santai-clana-daleman-boxer-pendek-rumah-pria-bandung-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/pdamatsentosa/ultra-susu-uht-125-ml-cokelat-isi-40?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>12105547773</v>
+        <v>3867448158</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Perawatan Hewan</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Nawasena Ofc</t>
+          <t>Kimiki Petshop</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Celana Pendek Double Layer Kolor Olahraga GYM Fitnes Pria Wanita Short</t>
+          <t>Growssy Susu Kucing 1 box isi 11 sachet</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>68500</t>
+          <t>31900</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/14/ca5686ad-e6bf-4ea6-8513-a7b39c9b72d1.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/11/7/8bd6ba61-84f9-4e6e-aa03-70147c1888d6.jpg</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/nawasenao/celana-pendek-double-layer-kolor-olahraga-gym-fitnes-pria-wanita-short-hitam-mfit-l-d0ddd?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/kimikipets/growssy-susu-kucing-1-box-isi-11-sachet?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>503102183</v>
+        <v>11642745524</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Konjac Sponge Grosir</t>
+          <t>TBK Ny Liem</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Celana Kolor Pendek / Celana Pendek Zumba</t>
+          <t>DAIRY CHAMP Susu Evaporasi 390 gram</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>12000</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/1/25/66298189-bece-4df3-ad8f-8ee437e8104b.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/9/20/f16049d1-674d-4e1a-8af3-5113357a0ece.jpg</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/konjacsponge/celana-kolor-pendek-celana-pendek-zumba?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/tbknyliem/dairy-champ-susu-evaporasi-390-gram?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1348583774</v>
+        <v>224001699</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Rora Blessing Shop</t>
+          <t>Klikdokter Official Store</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Celana Kolor Pria Wanita/Celana Pendek/Celana olahraga/Celana Training</t>
+          <t>Slim &amp; Fit Milk Meal Replacement Vanilla 6X52gr</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>79120</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/21/6db1c99c-caf8-4b8f-8ec4-3f9b5c7a5800.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/8/23/87cf13f4-37f5-494b-b2a7-05fcd2cbee50.jpg</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/rorablessingshop/celana-kolor-pria-wanita-celana-pendek-celana-olahraga-celana-training-hitam-jumbo-dewasa?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/klikdoktersofficialstore/slim-fit-milk-meal-replacement-vanilla-6x52gr?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2487889845</v>
+        <v>8197866090</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Bayi</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>zedikagrosir</t>
+          <t>SGM Official Store</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>celana pendek kolor pria dewasa 6/2</t>
+          <t>SGM Eksplor 3+ dengan IronC Susu Bubuk Rasa Vanilla 600GRAM (ALD)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>16999</t>
+          <t>56329</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/1/6aa2a55b-dbaf-43eb-8f0e-bbce2135e0cd.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/15/52eb0b20-b1fa-44a3-9b91-a055be91b82e.png</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/zedikagrosir/celana-pendek-kolor-pria-dewasa-6-2-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sgmofficialstore/sgm-eksplor-3-dengan-ironc-susu-bubuk-rasa-vanilla-600gram-ald?extParam=ivf%3Dtrue%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1088450424</v>
+        <v>12564735583</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>GHASSANI ID</t>
+          <t>Sukanda Djaya Home</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>CELANA KOLOR HAWAI PENDEK SANTAI DEWASA PRIA WANITA CELANA TIDUR MURAH</t>
+          <t>Diamond Milk Susu UHT Chocolate 125 Ml 1 Karton</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>110300</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/8/11/109056159/109056159_c11d185e-c3cf-4db7-aff0-181fc1bcecd2_450_450</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/1/17/ced068ee-04cc-4f38-b03d-28e3bdb08b36.png</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -6895,117 +6891,117 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/ghassaniid/celana-kolor-hawai-pendek-santai-dewasa-pria-wanita-celana-tidur-murah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sukandahome/diamond-milk-susu-uht-chocolate-125-ml-1-karton?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D8817974</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1196180368</v>
+        <v>9429815801</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>TIGET</t>
+          <t>Indoguna Utama</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Celana Kolor Pendek Santai Futsal Bola Pria Cowok Dewasa AllSize Murah</t>
+          <t>SUSU FRESH MILK MILK LIFE BARISTA'S CHOICE</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>15000</t>
+          <t>18400</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/9/19/0a80bb54-d356-4aab-bc85-1753fd2c7345.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/11/ee5cd165-5ef2-433f-8827-b632e1dc2523.jpg</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/tiget/celana-kolor-pendek-santai-futsal-bola-pria-cowok-dewasa-allsize-murah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/indogunautama/susu-fresh-milk-milk-life-barista-s-choice?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2284279735</v>
+        <v>3746552483</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Mickonova Store</t>
+          <t>BTJSusu dan Popok Depok</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Celana Kolor Pendek Pria Wanita Dewasa Olahraga Jumbo Bigsize XXL RIP</t>
+          <t>SGM YUMMI-NUTRI COKLAT SUSU KELUARGA 690 GR</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>59000</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/10/14/34c44c6c-cded-4de1-a4ff-2bb7658c42f2.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/5/6/0c75b504-4b89-49e9-96e7-eae9be43bbdb.jpg</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/mickonova-store/celana-kolor-pendek-pria-wanita-dewasa-olahraga-jumbo-bigsize-xxl-rip-hitam-all-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/btjsusu/sgm-yummi-nutri-coklat-susu-keluarga-690-gr?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>3080850621</v>
+        <v>12750234248</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>alesha baselayer</t>
+          <t>Herbal_Bekasi</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Celana pendek pria santai katun babyterry kolor santai sport</t>
+          <t>(COD) Susu Etta Goat Milk ORIGINAL Susu Kambing bubuk premium cocok un</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>19900</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/28/31261b10-f656-458b-aa7a-e5b79d25ad60.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/17/1f8533c9-e3e7-42b5-b53c-172489ce4cab.png</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7015,77 +7011,77 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/basemanset/celana-pendek-pria-santai-katun-babyterry-kolor-santai-sport-abumuda-m-l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/herbalbekasi-1/cod-susu-etta-goat-milk-original-susu-kambing-bubuk-premium-cocok-un?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>4942990227</v>
+        <v>1316048922</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Sugar&amp;Kelly</t>
+          <t>Acep Herbal Official</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Panties Boxer CD Celana Dalam Kolor Pria Sempak Cowok Boxer Man Nyaman</t>
+          <t>Susu Peninggi Badan, Susu Tinggi Kalsium - Walatra Etaku Susu Kambing</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>7000</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/7/21/aebdc293-4167-4eb6-8095-a43e1b1e4db4.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/10/ae524813-1855-46f4-b17f-fce12b3c9f35.jpg</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sugarkelly/panties-boxer-cd-celana-dalam-kolor-pria-sempak-cowok-boxer-man-nyaman-biru?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/acepherbalofficial/susu-peninggi-badan-susu-tinggi-kalsium-walatra-etaku-susu-kambing?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>8188382189</v>
+        <v>3278793974</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Grosir Termurah Tercepat</t>
+          <t>Toko Shamal</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>GTT Celana Dalam Boxer Pria 6706 Celana Kolor Pendek Boxer Cowok</t>
+          <t>NUTRIGOAT- Minuman Sehat Susu Kambing ETAWA 200gram_ Original 200gr</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>6839</t>
+          <t>34900</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/27/8b7476bf-d709-47c2-9bbd-fad3d909473c.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/3/20/8f5d31fb-4565-4400-a6a2-01d240a06fab.jpg</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7095,357 +7091,357 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/grosirtermurahtercepat/gtt-celana-dalam-boxer-pria-6706-celana-kolor-pendek-boxer-cowok-hitam-574c8?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/shamal/nutrigoat-minuman-sehat-susu-kambing-etawa-200gram-original-200gr?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2036549708</v>
+        <v>1248265438</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Rumah celana pendek tenun abq</t>
+          <t>Cetaphil Shop</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>CELANA PANJANG TENUN KOLOR ETNIK ASMAT TERLARIS DAN TERBAIK</t>
+          <t>Abbott Similac Singapore Gain EyeQ Plus 2-FL Susu Milk Stage 4 850g</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>140000</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/6/5/78c16943-e25e-458e-a12a-3a28d4e1839f.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/13/99b4ea16-939a-4798-be12-8026a663aff1.jpg</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/rumahtenunabq/celana-panjang-tenun-kolor-etnik-asmat-terlaris-dan-terbaik-all-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/cetaphil1/abbott-similac-singapore-gain-eyeq-plus-2-fl-susu-milk-stage-4-850g?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2301423361</v>
+        <v>11273958650</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Bayi</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Strong Tiget</t>
+          <t>NutriMart</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Celana Kolor Pendek Santai Pria Cowok Dewasa Big Size All Size Paragon</t>
+          <t>Triple Pack: HiLo School Strawberry 10 Sch - Susu Tinggi Kalsium</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>19500</t>
+          <t>110000</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/10/18/bf5ee2a6-842d-4b32-bdbb-56890023004b.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/21/c1cb2013-aacf-4918-9da7-4fd48dfe6110.jpg</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/strongtiget/celana-kolor-pendek-santai-pria-cowok-dewasa-big-size-all-size-paragon?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/nutrimartid/triple-pack-hilo-school-strawberry-10-sch-susu-tinggi-kalsium?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>9713537429</v>
+        <v>2322716017</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Gudang Grosir Terlengkap</t>
+          <t>fresh booth</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>GGT UNDERWEAR MEN FIERCE MAN / KOLOR PRIA / CELANA DALAM BOXER PRIA</t>
+          <t>fresh milk cimory 950 ml (plain)</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>4829</t>
+          <t>18800</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/15/24583614-4b76-4f8e-8551-1fe95e743506.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/3/1/da5bdb8e-461d-43fc-9de2-054c32e27766.jpg</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/gudanggrosirterlengkap/ggt-underwear-men-fierce-man-kolor-pria-celana-dalam-boxer-pria-pth-no-kemasan?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/archive-kingoracle/fresh-milk-cimory-950-ml-plain?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1301570720</v>
+        <v>562857930</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Bayi</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>BAAJO SHOP</t>
+          <t>Dancow Official Store</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>CELANA PENDEK PRIA WANITA DEWASA/CELANA KOLOR PENDEK BAHAN BABYTERRY</t>
+          <t>Nestle DANCOW 3+ Cokelat Susu Anak 3-5 Tahun Box 750g</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>19900</t>
+          <t>103114</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/16/1eeb768d-d7ec-421f-914c-dce51916adff.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/2/7e3642aa-1b38-4122-9e6a-41cb814f3dd1.png</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/baajo/celana-pendek-pria-wanita-dewasa-celana-kolor-pendek-bahan-babyterry-abu-abu-allsize-27-33?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/dancowofficial/nestl-dancow-3-cokelat-susu-anak-3-5-tahun-box-750g?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>6762201001</v>
+        <v>318122043</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Bayi</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Gavinfashion</t>
+          <t>Nutrilon Shop</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Boxer Unisex Pria Wanita Celana Kolor Harian Tartan Kotak Dewasa Murah</t>
+          <t>Nutrilon Royal 3 Susu Pertumbuhan 1-3 Thn Vanila 800gr</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>9900</t>
+          <t>199762</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/17/b09410c0-6556-4958-b85d-3ccc96b74b88.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/13/ef92d08d-46ae-490c-a115-e13ab604338d.jpg</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/gavinfashion-1/boxer-unisex-pria-wanita-celana-kolor-harian-tartan-kotak-dewasa-murah-warna-acak-l-bb-35-50kg?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/nutrilonshop/nutrilon-royal-3-susu-pertumbuhan-1-3-thn-vanila-800gr?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D2900777</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1832142053</v>
+        <v>12064368053</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Ahmad_Muhammad99</t>
+          <t>Suka Herbal Alami</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Celana Pendek Kolor Misty Harian Pria Dewasa All Size | Celana Kolor</t>
+          <t>Etawaku Platinum - Susu Kambing &amp; Krimer Bebas Alergi dan Rendah Gula</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>16000</t>
+          <t>75000</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/10/20/8e732dfc-6600-4810-bf16-1f423af0d40a.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/22/a1af6491-a042-4036-b328-f7538105f585.jpg</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/ahmadmuhammad99/celana-pendek-kolor-misty-harian-pria-dewasa-all-size-celana-kolor?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sha01/etawaku-platinum-susu-kambing-krimer-bebas-alergi-dan-rendah-gula-etawanew-d5f60?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1942805254</v>
+        <v>4396435280</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Perawatan Hewan</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Violete_</t>
+          <t>Centralidnpetshop</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Violet Celana Dalam Gstring Pakain Dalam Kolor Sexy Simpul Erotis 1103</t>
+          <t>ECOPET GOAT MILK SUSU ANJING KUCING (1 box isi 10 sachet 20gr)</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>4250</t>
+          <t>49900</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/6/22/2ab6735e-16c9-427b-a689-524feb61d21c.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/20/bc7646cf-bf09-4e6f-baff-f096d2032ac3.jpg</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/violete-/violet-celana-dalam-gstring-pakain-dalam-kolor-sexy-simpul-erotis-1103-red-free-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/centralidnpetshop/ecopet-goat-milk-susu-anjing-kucing-1-box-isi-10-sachet-20gr?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>13150754142</v>
+        <v>11986071471</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Aiman Kolor</t>
+          <t>Toko Sekarwangi Citeureup</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Celana kolor pendek jumbo XL-XXL pendek pria wanita - katun rami</t>
+          <t>Susu Dancow bubuk Coklat Sachet Renceng 10x27gr / Susu Dancow FortiGro</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>25200</t>
+          <t>37500</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/29/9c70105f-e50a-486c-855d-f8b18408811d.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/31/80189a75-9b1d-4ce8-9190-9a338e5cfc2c.jpg</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/aimankolor/celana-kolor-pendek-jumbo-xl-xxl-pendek-pria-wanita-katun-rami-xl-d41c9?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/tokosekarwangi/susu-dancow-bubuk-coklat-sachet-renceng-10x27gr-susu-dancow-fortigro?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1976516769</v>
+        <v>6889275917</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Bayi</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>monkstoresoc</t>
+          <t>Dancow Official Store</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>celana kolor premium unisex pria wanita terlaris best seller</t>
+          <t>Nestle DANCOW 5+ Madu Susu Anak 5-12 Tahun Box 350g x 2 pcs</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>82564</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/1/3/58e03a54-73b8-42b4-a705-b4782cea1eab.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/11/4/fab9589f-6980-4435-96a3-64acdcde2ec8.jpg</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -7455,197 +7451,193 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/monkstoresoc/celana-kolor-premium-unisex-pria-wanita-terlaris-best-seller?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/dancowofficial/nestle-dancow-5-madu-susu-anak-5-12-tahun-box-350g-x-2-pcs?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>5449489643</v>
+        <v>12282250509</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>garasiide</t>
-        </is>
-      </c>
+          <t>Ibu &amp; Bayi</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Santai BIG SIZE JUMBO/Celana Lari Futsal Kolor Pria</t>
+          <t>Curcuma Plus Vanilla Susu 750 gram</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>6350</t>
+          <t>99600</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/8/15/08f37f4d-fa6e-45cf-b504-b42916aee6d2.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/12/5/3100cfae-9d3a-4d87-ad4c-10ed775b85e1.jpg</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/garasiide/celana-pendek-pria-santai-big-size-jumbo-celana-lari-futsal-kolor-pria-s-kosong?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/now/curcuma-plus-vanilla-susu-750-gram?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D12210375</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>13042956129</v>
+        <v>11743359658</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Superfeel Official</t>
+          <t>Frisian Flag Official</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>SFL CD THONG SEXY SEAMLESS WANITA PREMIUM KOLOR SEKSI PEREMPUAN DALEMAN BAHAN LEMBUT TALI SAMPING CELANA DALAM LINGERIE CEWE CWE CEWEK HOT COD 363</t>
+          <t>Frisian Flag Susu UHT Sereal Kopi 225ml</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>13800</t>
+          <t>6300</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/28/8824d7e4-907f-4e17-96e7-464f4444e99a.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/5/2deba239-4e7f-4ae7-9ce3-f58a075854a0.jpg</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/superfeelofc/sfl-cd-thong-sexy-seamless-wanita-premium-kolor-seksi-perempuan-daleman-bahan-lembut-tali-samping-celana-dalam-lingerie-cewe-cwe-cewek-hot-cod-363-mustard-m-95a29?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/frisian-flag/frisian-flag-susu-uht-sereal-kopi-225ml?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2468344428</v>
+        <v>7843623576</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Tokonyaivon</t>
+          <t>Susu Etawalin Official Store</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Tali Kolor / Tali Celana Harga Per Meter</t>
+          <t>TERLARIS Susu Etawalin Atasi Nyeri Sendi dan Tulang Kebas ISI 3 BOX</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>261000</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/1/25/2ace6144-c002-4ed9-9e77-47462e6551b7.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/6/26/e25cf235-c830-48b9-b7aa-6809758a84ad.png</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/tokonyaivon/tali-kolor-tali-celana-harga-per-meter?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/susuetawalin/terlaris-susu-etawalin-atasi-nyeri-sendi-dan-tulang-kebas-isi-3-box?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>13096635190</v>
+        <v>4064926322</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>DASYAT ONLINE SHOP</t>
+          <t>Ternak Syams</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>DOS Celana Boxer Pria 6954 Boxer Pria Model MAN Salur 3 Garis Kolor Pendek Polos Cowok Pakaian Dalam Laki Laki</t>
+          <t>Susu Kambing Etawa Bubuk Rasa Varian Madu Murni Honey Syams 1000 gram</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>5477</t>
+          <t>125000</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/23/2aae8b9c-d95f-45c6-9828-6e2c666cab5b.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/14/420e5b51-764c-48a8-8e8c-a5c8f2ab6a48.png</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/dasyatonlineshop/dos-celana-boxer-pria-6954-boxer-pria-model-man-salur-3-garis-kolor-pendek-polos-cowok-pakaian-dalam-laki-laki-hitam-8d63a?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/ternak-syams/susu-kambing-etawa-bubuk-rasa-varian-madu-murni-honey-syams-1000-gram?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>11799272104</v>
+        <v>3122679200</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>eLvio Group</t>
+          <t>propolis jakarta</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>CELANA PENDEK PRIA WANITA CHINO DISTRO BOXER KOLOR KAIN SANTAI 199</t>
+          <t>Susu Kambing Etawa plus Propolis Etamilku Asli Original Harga Promo</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>19700</t>
+          <t>25000</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/10/ef1b411e-c787-4b06-bae7-d7eb5352d477.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/1/10/7a83a94b-61c9-47ee-9ec0-9d172561b72c.png</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -7655,37 +7647,37 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/elviogroup/celana-pendek-pria-wanita-chino-distro-boxer-kolor-kain-santai-199?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/herbalpropolis/susu-kambing-etawa-plus-propolis-etamilku-asli-original-harga-promo?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1458028853</v>
+        <v>7940456106</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Perawatan Hewan</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Little Ant</t>
+          <t>Putrigunungfarmbogor</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Karet (3cm lebarnya) kolor / elastex / karet elastis celana permeter</t>
+          <t>Kalvolac Dairy Milk Replacer Pengganti susu 1 kg</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>59000</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2018/6/13/2372447/2372447_d453e049-9515-4213-bd07-795fd69475f7_816_612.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/22/fb8b546b-4b49-4cb1-b757-2b4bfde39e45.jpg</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7695,477 +7687,477 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/littleant/karet-3cm-lebarnya-kolor-elastex-karet-elastis-celana-permeter-putih?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/putrigunungfarm/kalvolac-dairy-milk-replacer-pengganti-susu-1-kg-ekonomis?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>7890450494</v>
+        <v>3098997442</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Bayi</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>GUDANG CELANA BOXER</t>
+          <t>Enfagrow Official Store</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>GCB - Boxer pria| kolor pria| Celana dalam bahan cotton P466</t>
+          <t>Enfagrow A+3 Susu Formula Original 400gx3</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>23900</t>
+          <t>538606</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/2/10/34770192-ef3d-4305-a7fe-67281ce5f0dc.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/1/31/ce59a9bd-dbe3-4db0-999e-a6c840c68b08.png</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/boxerpsycho/gcb-boxer-pria-kolor-pria-celana-dalam-bahan-cotton-p466-art-05?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/enfa/enfagrow-a-3-susu-formula-original-400gx3?extParam=ivf%3Dtrue%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2926258352</v>
+        <v>5871757327</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Kaysagrosir</t>
+          <t>toko hi</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Kolor Misty Super Jumbo</t>
+          <t>susu tujuh kurma</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>19000</t>
+          <t>9500</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/10/9c9a0c44-f464-4cb9-a148-17eb5dc61bdf.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/2/4f4d0a07-b3d7-4a99-880f-90a8da67da46.jpg</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/kaysagrosir/celana-pendek-pria-kolor-misty-super-jumbo?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/kantinhi/susu-tujuh-kurma?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>467081334</v>
+        <v>3761046449</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Adzqia shop</t>
+          <t>Onel Baby Shop</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Celana pendek bola dengan saku nike hitam / kolor bola futsal dan lari</t>
+          <t>SUSU BAYI NESTLE LACTOGROW 3 dan 4 HAPPYNUTRI MADU, VANILA 1 kg</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>37900</t>
+          <t>144333</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/5/8/2662913/2662913_22c568ca-a2c8-428b-8b22-4481177a60a8_700_700.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/31/38862224-80e6-4af3-8b63-52defe1ef64c.jpg</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/adzqiashop/celana-pendek-bola-dengan-saku-nike-hitam-kolor-bola-futsal-dan-lari?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/onelbabyshop/susu-bayi-nestle-lactogrow-3-dan-4-happynutri-madu-vanila-1-kg-lacto-4-vanila?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>982716101</v>
+        <v>9174735373</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Amzy Shop</t>
+          <t>Nabawi Herbal Official</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Celana Pendek Kolor Misty All SizeL-XL</t>
+          <t>SYIFAMILK - Susu Bubuk Penggemuk Badan Full Cream Vanilla 550gr</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>16500</t>
+          <t>45000</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/4/3/9de497d4-2fd9-4c71-8c1d-a387b17d1e81.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/7/18/2152d6a5-c513-4340-a675-e16fe998aa07.png</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/amzyshop/celana-pendek-kolor-misty-all-sizel-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/nabawiherbalofficial/syifamilk-susu-bubuk-penggemuk-badan-full-cream-vanilla-550gr-full-cream-6307c?extParam=ivf%3Dtrue%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>538407187</v>
+        <v>12228332419</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>strongtiget collection</t>
+          <t>NourishNihon</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Celana Kolor Santai Futsal Bola olahraga Sport Pendek Pria Cowok Murah</t>
+          <t>Susu Formula Wakodo Haihai Original Japan Jepang</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>445000</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/2/10/538407187/538407187_8fa4b466-695e-43fc-8323-4cd2765c4aed_2048_2048.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/28/bd0d0c5b-937b-4b94-85b3-c9d56856fede.jpg</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/strongtiget2/celana-kolor-santai-futsal-bola-olahraga-sport-pendek-pria-cowok-murah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/nourishnihon/susu-formula-wakodo-haihai-original-japan-jepang?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>8119976894</v>
+        <v>562936760</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Bayi</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>MyNoona Toona</t>
+          <t>Dancow Official Store</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Celana Boxer Pria 6711 Kolor Pendek Cowok Polos Underwear Man</t>
+          <t>Nestle DANCOW 5+ Vanila Susu Anak 5-12 Tahun Box 350g</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>4743</t>
+          <t>44383</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/2/22/53c989eb-692b-468f-9f59-0456571f5199.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/3/83c77597-58d4-4be9-91d6-535b284db252.png</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/mynoonatoona/celana-boxer-pria-6711-kolor-pendek-cowok-polos-underwear-man-biru?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/dancowofficial/nestl-dancow-5-vanila-susu-anak-5-12-tahun-box-350g?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2216718159</v>
+        <v>11790466057</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>ANITA shoes</t>
+          <t>iChabe Store!</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria ¾ Kendy Pinggang Kolor 33-38</t>
+          <t>[BISA COD] DS Susu Dancow sachet 27gr. 1 SACHET isi 1pcs</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>145000</t>
+          <t>3654</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/11/0efe4096-bf17-4a05-9e60-b2929ed0bd3f.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/10/21/e7f6589f-3920-4129-a6d2-afe15e2fcf58.jpg</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/anitaku/celana-pendek-pria-kendy-pinggang-kolor-33-38-cokelat-38?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/ichabe/bisa-cod-ds-susu-dancow-sachet-27gr-1-sachet-isi-1pcs-putih-b8295?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2741848283</v>
+        <v>2421066162</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Aiqa_id</t>
+          <t>ANUGERAH PANGAN JAYA BINTARO</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Celana pendek kolor uniqlo cowok polos embos laki laki dewasa besar</t>
+          <t>Susu NZMP Fonterra Skim milk powder 1kg</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>57000</t>
+          <t>76000</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/27/8804e29c-350f-4a86-9fbb-a66e8b22b3d2.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/11/16/210cf062-743e-446d-aaed-003917f4be3a.jpg</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/aiqaid/celana-pendek-kolor-uniqlo-cowok-polos-embos-laki-laki-dewasa-besar?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/apjbintaro/susu-nzmp-fonterra-skim-milk-powder-1kg?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>2018126514</v>
+        <v>1579278154</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Adzqia shop</t>
+          <t>Toko Sinar Convenience</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>( hemat 3 ) celana pendek pria santai Siro / kolor santai</t>
+          <t>Susu Frisian Flag Full Cream/ Susu Bubuk Bendera - 400 Gram</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>89900</t>
+          <t>55000</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/7/23/c1d2934d-2830-429f-908d-62cc9e04cc74.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/11/16/6eb81962-5a32-4359-83c2-1b538c03709a.jpg</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/adzqiashop/hemat-3-celana-pendek-pria-santai-siro-kolor-santai?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sinarcs/susu-frisian-flag-full-cream-susu-bubuk-bendera-400-gram?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2377263936</v>
+        <v>1630665233</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>FashionStoreMurah</t>
+          <t>BTS SUSU</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Celana Kolor Pendek Pria Wanita Tidur Katun Murah</t>
+          <t>Peptimune 185 gr Vanila susu sistem imun</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>16000</t>
+          <t>83700</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/11/5/62fe2ea8-f270-4276-994b-cf907aeda103.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/2/26/26e7e75c-afc0-49d7-bff4-beaf8061cb3a.jpg</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/fashionsmrh/celana-kolor-pendek-pria-wanita-tidur-katun-murah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/btssusu/peptimune-185-gr-vanila-susu-sistem-imun?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1325756152</v>
+        <v>12625799169</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>LAPAKMASKU.COM</t>
+          <t>Apotek Halomedika Kp Rambutan</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>kolor pendek pria/celana olahraga/celana futsal/celana santai/murah</t>
+          <t>Susu Etawalin 200 g  - Susu Dewasa - Halodoc</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>24500</t>
+          <t>91577</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/10/30/cb64f13d-d00e-4493-ab4c-0daf7662ad82.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/1/26/bf7736a4-f0f8-4c37-b107-fd38cbc5cb57.jpg</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/lapakmaskucom/kolor-pendek-pria-celana-olahraga-celana-futsal-celana-santai-murah-putih-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/apotekhakkprambutan/susu-etawalin-200-g-susu-dewasa-halodoc?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>11852584244</v>
+        <v>3251169185</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Sachstuff Official Shop</t>
+          <t>Toko herbal ceria88</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Sachstuff - Celana Kolor / Boxer Polos</t>
+          <t>susu fortico kolostrum</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>275000</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/16/eb4e94cb-b9f5-47cb-bfc5-33c57c0c1ba7.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/3/17/e39490d7-9b79-4b53-80e7-bb1691dab55d.jpg</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -8175,77 +8167,77 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sachstuff/sachstuff-celana-kolor-boxer-polos-beigie-jumbo-33967?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/therbal-2/susu-fortico-kolostrum?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1948434078</v>
+        <v>133167721</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Perawatan Hewan</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Adzqia shop</t>
+          <t>Berbagi Cantik</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>celana kolor pendek Adidas Terry saku sleting</t>
+          <t>Royal Canin Babycat Milk (Susu untuk Anak Kucing) per Sachet/FRESHPACK</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>108000</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/10/21/459dcd03-7bcf-49fd-b270-1095096df25b.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/19/d88cad81-d881-403e-8d62-a20d838d082b.jpg</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/adzqiashop/celana-kolor-pendek-adidas-terry-saku-sleting?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/berbagicantik/royal-canin-babycat-milk-susu-untuk-anak-kucing-per-sachetfreshpack?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>6460878303</v>
+        <v>2378455692</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Celana Kolor Alfath</t>
+          <t>Tobaking Murah Online</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Chino Pinggang Karet Kolor Cinos Cowok Laki Jumbo</t>
+          <t>Ultra Milk Coklat 1 liter Susu UHT Chocolate Full Cream</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>19999</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2022/9/26/eb650541-8fc1-4637-ae54-a3000c261e09.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2021/11/5/a9ebf072-214e-4f9b-b38f-da5a0f7b15d6.jpg</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -8255,37 +8247,37 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/celanakoloralfath/celana-pendek-pria-chino-pinggang-karet-kolor-cinos-cowok-laki-jumbo-hitam-anak-2-3th?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/tobakingmurahonline/ultra-milk-coklat-1-liter-susu-uht-chocolate-full-cream-full-cream?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>5795723334</v>
+        <v>2132966554</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Alishba HZstore</t>
+          <t>C&amp;C Store</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>KARET ELASTIS HITAM 4 CM PER METER KARET CELANA PINGGANG KOLOR</t>
+          <t>tiga sapi susu evaporasi evaporated milk box kotak 500 g gr 500gr</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>4900</t>
+          <t>14999</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/8/30/aa25430b-08a5-4c4c-9270-5ddc0f1849ac.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/9/3/edfdb546-e3cf-4a40-a811-c42d926f2389.jpg</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8295,117 +8287,113 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/rozar/karet-elastis-hitam-4-cm-per-meter-karet-celana-pinggang-kolor?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/cnc--store/tiga-sapi-susu-evaporasi-evaporated-milk-box-kotak-500-g-gr-500gr?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>9361430136</v>
+        <v>11419773199</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Olahraga</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Bos Clothing AM</t>
+          <t>Alam_Seafood</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Celana Pendek Olah Raga Parasut Premium / Kolor Lari / Sports short</t>
+          <t>Susu Segar Greenfields FRESH MILK 1L/FRESH MILK Greenfields Susu Segar</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>20900</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/5/30/0c3eae1f-424b-4c17-bd83-75a1bb64bdfd.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/29/cefe2805-03f0-4302-b4ad-314e24638ab8.jpg</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/bosclothing/celana-pendek-olah-raga-parasut-premium-kolor-lari-sports-short-hitam-m-4665c?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/alamseafood/susu-segar-greenfields-fresh-milk-1l-fresh-milk-greenfields-susu-segar?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>12878085973</v>
+        <v>1264100221</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>boygrossa</t>
+          <t>sehat8990</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Celana pendek kasual pria wanita santai celana pantai kolor nyaman</t>
+          <t>SUSU IGCO COLOSTRUM bukan fortico C2FAST</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>300000</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/3/7/7109a621-db02-4a0a-8b62-b44e775e0b26.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/10/17/843f8429-294b-4286-95f5-eef666007d9a.jpg</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/boygrossa/celana-pendek-kasual-pria-wanita-santai-celana-pantai-kolor-nyaman-mocca-m-l-f923d?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/lim1234/susu-igco-colostrum-bukan-fortico-c2fast?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>2481255011</v>
+        <v>11821211781</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>bracket lcd,led</t>
-        </is>
-      </c>
+          <t>Telur &amp; Olahan Susu</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr">
         <is>
-          <t>celana kolor jumbo celana kolor xxxl super jumbo celana pendek strip</t>
+          <t>Diamond Susu Segar Fresh Milk Non Fat 946 gram</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>17900</t>
+          <t>27200</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/11/30/c5e0e195-e5ae-4e39-8c5c-659af716b2f1.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/10/12/87fd9495-f07b-47b5-982c-d15e0c8a0820.jpg</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8415,47 +8403,47 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/bracket-/celana-kolor-jumbo-celana-kolor-xxxl-super-jumbo-celana-pendek-strip?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/now/diamond-susu-segar-fresh-milk-non-fat-946-gram?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D12210375</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>951597465</v>
+        <v>1013871268</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Makanan &amp; Minuman</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>yasminecollection33</t>
+          <t>Gentong Laris</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>kolor pria jumbo | celana kolor pria big size | celana pendek pria</t>
+          <t>Susu Beruang Bear Brand 189mL 1 Karton/dus (30Pcs)</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>22500</t>
+          <t>285000</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/6/20/8866649/8866649_fa7add2c-cd87-4f0f-b5aa-8fc8cdaf4888_540_540.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/6/22/ca789f7c-2bf5-4e2d-975e-d2df57d8c6d0.jpg</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/yasminecollection33/kolor-pria-jumbo-celana-kolor-pria-big-size-celana-pendek-pria?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/gentonglaris/susu-beruang-bear-brand-189ml-1-karton-dus-30pcs?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>

--- a/ui_data/tokopedia.xlsx
+++ b/ui_data/tokopedia.xlsx
@@ -432,13 +432,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
     <col width="58.33333333333334" customWidth="1" min="3" max="3"/>
     <col width="72" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="141" customWidth="1" min="6" max="6"/>
+    <col width="142" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="162" customWidth="1" min="8" max="8"/>
+    <col width="188" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -485,111 +485,111 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9259990107</v>
+        <v>725252530</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SUNFLOWER099</t>
+          <t>KURU Baby Indonesia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>susu zee renceng coklat 10 sachet</t>
+          <t>SOREX 8108 Maternity BRA BH menyusui busa tebal tanpa kawat</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>35500</t>
+          <t>31500</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/4/27/92321423-45e3-4cbe-a5d7-1e9409142d9a.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/3/4/79387973/79387973_902bb1be-573a-424f-a11c-45d3fffbfea9_700_700</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sunflower099/susu-zee-renceng-coklat-10-sachet?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/kurubaby/sorex-8108-maternity-bra-bh-menyusui-busa-tebal-tanpa-kawat-cream-36?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1285322313</v>
+        <v>10440951220</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Perawatan Hewan</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>bratasena store</t>
+          <t>fjj mart</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ROYAL CANIN BABYCAT MILK / ROYAL CANIN SUSU KUCING 300GR FRESHPACK</t>
+          <t>celana dalam wanita sorex 1250 maxi super soft Uk L EL QL EQL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>302663</t>
+          <t>17500</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/19/702ed1fd-968d-4fe2-9361-ea31b5aa369b.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/7/27/572827386/572827386_bdedd1f7-294c-4bfe-bd01-862f44a5bde1_1280_1280.jpg</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/bratasenastore/royal-canin-babycat-milk-royal-canin-susu-kucing-300gr-freshpack?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/fjjmart/celana-dalam-wanita-sorex-1250-maxi-super-soft-uk-l-el-ql-eql-dongker-l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12666340768</v>
+        <v>2036366699</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>El Husna Shop</t>
+          <t>Family Choice Official Shop</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Etawanesia Susu Kambing Etawa Atasi Pernafasan Pegal Linu Tulang Sendi</t>
+          <t>PREMIUM-Celana Dalam Busa Segitiga Sorex BA016 / CD Busa Pantat BA 016</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>56500</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/2/bdfd52cf-8421-4798-bda5-62383f2de6e3.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/7/30/7c076c0c-2413-4c04-b57f-d7e5c803aed1.jpg</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -599,77 +599,77 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/elhusnashop/etawanesia-susu-kambing-etawa-atasi-pernafasan-pegal-linu-tulang-sendi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/familychoiceofficialshop/premium-celana-dalam-busa-segitiga-sorex-ba016-cd-busa-pantat-ba-016-cd-busa-sorex-m-cd-ba016-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12599304753</v>
+        <v>7811115485</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>jianstore01</t>
+          <t>Sorex Tally</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Susu Urra Original Susu Kambing Saanen Eropa Susu Penambah Berat Badan</t>
+          <t>SOREX Young Step3 Bra Remaja Y3322 Busa Tipis Tanpa Kawat Original</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>55000</t>
+          <t>31900</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/1/23/acb89f6f-9551-49e4-978f-abb91825a3f4.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/2/4/9befcca9-becc-453c-a56d-23372b51d548.jpg</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/jianstore01/susu-urra-original-susu-kambing-saanen-eropa-susu-penambah-berat-badan?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sorex-tally/sorex-young-step3-bra-remaja-y3322-busa-tipis-tanpa-kawat-original-ungu-32?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>649324296</v>
+        <v>11454574073</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Master Domba Farm</t>
+          <t>Lingerieku</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Susu Kambing Murni - Susu Segar Bekasi</t>
+          <t>Celana Dalam Wanita Anti Nyeplak Sorex 31081</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>16950</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/9/30/e3458a68-d8ee-486d-bade-a0fa66cf31fa.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/21/c7c3c499-81f7-4de0-8792-549aace55f06.jpg</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -679,37 +679,37 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/masterdomba/susu-kambing-murni-susu-segar-bekasi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/lingerieku/celana-dalam-wanita-anti-nyeplak-sorex-31081-bungabesarhitam-30af6?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1379797762</v>
+        <v>772763981</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hypermart Balekota</t>
+          <t>Monkey D Dudud</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ULTRA UHT MILK PLAIN 1000 ML - SUSU</t>
+          <t>SOREX CD WANITA SUPER STRECTH SALUR MODEL MIDI</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>19050</t>
+          <t>14500</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/2/23/5cb51673-0173-4c58-a3c5-de1430a93e00.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/4/6/3566320/3566320_24a5fde2-57f3-40f4-96b3-e99d3c86d914_1500_1500.jpg</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -719,157 +719,157 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/hpmbalekota/ultra-uht-milk-plain-1000-ml-susu?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/monkeyddudud/sorex-cd-wanita-super-strecth-salur-model-midi-random-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1777319001</v>
+        <v>8158300232</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Foodmart Atrium Senen</t>
+          <t>BeWe Choice</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ULTRA MILK SUSU UHT COKELAT 1000 ML</t>
+          <t>Celana dalam wanita Sorex 1227 - CD Cutting Mini Soft n Comfort</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>18690</t>
+          <t>14500</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/2/23/dc214907-441f-4a08-a101-7f29911998bd.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/3/2/1276e844-f1c6-4824-9bbc-fc8ba39024b8.jpg</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/foodmartatriumsenen/ultra-milk-susu-uht-cokelat-1000-ml?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/bewechoice/celana-dalam-wanita-sorex-1227-cd-cutting-mini-soft-n-comfort-orange-tua-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>597135657</v>
+        <v>1444609946</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Busrain Gwena</t>
+          <t>Jackie Jaya</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Susu Bubuk Fullcream/coklat/Skim Indoprima 350 Gr</t>
+          <t>CD Sorex 0839 (Grosir Lusinan)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>44800</t>
+          <t>146000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/10/27/43697355/43697355_d052ed18-1dd4-4991-b6f4-16c74fb6ffc7_700_700</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/12/23/67fb0c68-35f4-4cf8-8394-927b39a768e7.png</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/gwena08/susu-bubuk-fullcream-coklat-skim-indoprima-350-gr-coklat-0e62?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/jackiejaya/cd-sorex-0839-grosir-lusinan-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12568212432</v>
+        <v>5936499296</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sukanda Djaya Home</t>
+          <t>PETERZOOM</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Diamond Milk Susu UHT Marshmallow 125 Ml 1 Karton</t>
+          <t>BH Sorex 9852 tanpa kawat kait 2 Cup C</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>110300</t>
+          <t>36800</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/1/18/95c056b7-51b8-4ce5-a81e-3a9042dae4a3.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/5/1e303bcb-a668-4511-99fb-d978935d6cc2.jpg</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sukandahome/diamond-milk-susu-uht-marshmallow-125-ml-1-karton?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D8817974</t>
+          <t>https://www.tokopedia.com/peterr/bh-sorex-9852-tanpa-kawat-kait-2-cup-c-dongker-36-b?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3148830379</v>
+        <v>10548718150</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Kivara</t>
+          <t>Moteza Indonesia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>tropicana slim susu low fat vanilla 500 gr</t>
+          <t>Sorex Bra Wanita - BH 11107 Sport Busa Cup A-B / Tanpa Kawat Kait 2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>44352</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/4/e7415884-6148-4d39-b5e7-8d9f3c285436.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/7/6/c93e0875-6569-47cb-9147-fe0241cdf05c.jpg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -879,77 +879,77 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/kivara/tropicana-slim-susu-low-fat-vanilla-500-gr-machiato-coffee?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/moteza/sorex-bra-wanita-bh-11107-sport-busa-cup-a-b-tanpa-kawat-kait-2-hitam-36?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7578952516</v>
+        <v>2687031907</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Kochhaus</t>
+          <t>PETERZOOM</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Nzmp Skim Milk Powder Susu Bubuk Rendah Lemak</t>
+          <t>Bh Pori tanpa kawat Busa tipis Sorex 9861</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>30000</t>
+          <t>38460</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/20/21378ad8-e590-47cf-ab30-8ea63452adc6.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/1/8/c9349fa5-4666-47e5-88c2-1efde2d8ea24.jpg</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/kochhaustgr/nzmp-skim-milk-powder-susu-bubuk-rendah-lemak-250-gram?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/peterr/bh-pori-tanpa-kawat-busa-tipis-sorex-9861-marun-36c?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1655383345</v>
+        <v>5359840259</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Amelia Milk</t>
+          <t>Moteza Indonesia</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Susu kambing etawa murni 100%</t>
+          <t>Sorex Bra Wanita - BH 17232 - Busa Cup A - B / Tanpa Kawat -Super Soft</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5999</t>
+          <t>29502</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/1/55f09e0a-3d82-43d2-b0d3-361ff001294a.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/22/5115e606-8a2e-48a4-8579-1324ce4e1846.jpg</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -959,117 +959,117 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sususapisusukambing/susu-kambing-etawa-murni-100?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/moteza/sorex-bra-wanita-bh-17232-busa-cup-a-b-tanpa-kawat-super-soft-cream-coklat-36?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3798261713</v>
+        <v>10571628145</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Frisian Flag Official</t>
+          <t>lapakmaniaa</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Frisian Flag Purefarm Susu UHT Low Fat Belgian Chocolate 225ml</t>
+          <t>Celana Dalam Wanita Lusinan Sorex 1257H warna Hitam Super Soft / Midi</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7200</t>
+          <t>45500</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/7/8/86c53d0f-2c53-4ea9-b02c-98acbba2481e.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/7/7/fd3e7c38-8e66-4ac2-816f-c5804f1086ff.png</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/frisian-flag/frisian-flag-purefarm-susu-uht-low-fat-belgian-chocolate-225ml?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
+          <t>https://www.tokopedia.com/lapakmaniaa/celana-dalam-wanita-lusinan-sorex-1257h-warna-hitam-super-soft-midi-3pcs-ql-c5f46?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11888805560</v>
+        <v>3472592380</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>alkahfistore04</t>
+          <t>Lingerieku</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SUSU KAMBING ETAWA BUBUK EMILK 200 GRAM MENJAGA KESEHATAN TULANG</t>
+          <t>Celana Dalam Wanita Sorex 1228 Ukuran EL atau XL Dijamin Murah</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>15000</t>
+          <t>17500</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/10/20/f5427162-b1ef-4871-a697-763e1963616e.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/10/25/819cbb52-4814-4035-a09b-0ad19e3a0bf6.jpg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/alkahfistore04/susu-kambing-etawa-bubuk-emilk-200-gram-menjaga-kesehatan-tulang?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/lingerieku/celana-dalam-wanita-sorex-1228-ukuran-el-atau-xl-dijamin-murah-random?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12564735250</v>
+        <v>12522164613</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sukanda Djaya Home</t>
+          <t>Aya handycraft</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Diamond Milk Susu UHT Full Cream 200 Ml 1 Karton</t>
+          <t>BRA BH SOREX 17239 BUSA TANPA KAWAT CUP C BESAR KAIT 3 SUPERSOFT 36-42</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>100500</t>
+          <t>29500</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/1/17/7dcc6746-9a85-4a6a-8453-e872e7257e9f.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/11/22/8a27435a-e46e-43bf-b1d5-5fad666ba867.jpg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1079,117 +1079,117 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sukandahome/diamond-milk-susu-uht-full-cream-200-ml-1-karton?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D8817974</t>
+          <t>https://www.tokopedia.com/sarban-etnik391/bra-bh-sorex-17239-busa-tanpa-kawat-cup-c-besar-kait-3-supersoft-36-42-ungu-38c-ab353?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4396979130</v>
+        <v>12995506125</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Perawatan Hewan</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Centralidnpetshop</t>
+          <t>Sorex Official Store</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>COLOSTRUM ECOPET GOAT MILK SUSU ANJING KUCING (1 box isi 10 sachet 20g</t>
+          <t>Sorex Bra Busa Sedang Tanpa Kawat Kait 2 Cup A-B 3/4 Nilon BH 17132</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>62000</t>
+          <t>30600</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/20/120b65a7-1049-43e1-97d7-bbe7edbf8bc9.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/22/2d257b41-fe50-41be-b660-6dbe0b9c170d.jpg</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/centralidnpetshop/colostrum-ecopet-goat-milk-susu-anjing-kucing-1-box-isi-10-sachet-20g?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sorexofficials/sorex-bra-busa-sedang-tanpa-kawat-kait-2-cup-a-b-3-4-nilon-bh-17132-hitam-34-05c4b?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3511539249</v>
+        <v>13636141541</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Toko Laundry Jaya</t>
+          <t>Sorex Official Store</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Susu HOMETOWN Fresh Milk 1 Liter ASLI</t>
+          <t>Sorex Bra Extra Comfort Busa Tanpa Kawat Kait 2 Setara Cup B BH 9850</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25200</t>
+          <t>49500</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/19/bc4c5402-eb44-44e8-b9de-6dae900d363e.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/30/e7eead73-6724-4fea-b7ef-0b86a9d1675c.jpg</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/laundryjaya/susu-hometown-fresh-milk-1-liter-asli?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sorexofficials/sorex-bra-extra-comfort-busa-tanpa-kawat-kait-2-setara-cup-b-bh-9850-ungu-34-51ba7?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2780213309</v>
+        <v>623863162</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cahaya Berkat Prima</t>
+          <t>Sorex Official Store</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ensure Gold Vanilla  850 gr Susu Nutrisi Dewasa Rendah Laktosa</t>
+          <t>Sorex CD Wanita Melange 15023 Pasangan Bra 11105/11106</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>275000</t>
+          <t>25500</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/11/85d1319a-4ab1-4f0d-a556-a50262db6e5c.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/13/ca9c3bc4-16d7-4ef9-bec2-6083806e96f3.jpg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1199,77 +1199,77 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/cahyaberkatprima/ensure-gold-vanilla-850-gr-susu-nutrisi-dewasa-rendah-laktosa?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sorexofficials/sorex-cd-wanita-melange-15023-pasangan-bra-11105-11106-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>414434697</v>
+        <v>2208586277</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Haga Nusantara</t>
+          <t>nnfumi shop</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Susu Hilo School Vanilla 250 g | Hi Lo School Vanila 250gr</t>
+          <t>SOREX Bra Basic Quick Dry 02003 Busa Tipis Tanpa Kawat</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>47000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/19/f8fcf446-0461-46f2-aff4-889ada52d759.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/6/11/09aae390-f8ec-4647-9ee2-322908eff546.jpg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/haganusantara/susu-hilo-school-vanilla-250-g-hi-lo-school-vanila-250gr?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/nnfumishop/sorex-bra-basic-quick-dry-02003-busa-tipis-tanpa-kawat-hitam-34?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7819113273</v>
+        <v>6081147533</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUERPO OFFICIAL</t>
+          <t>camelia colletion</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PAKET BUNDLING 3 POUCH CUERPO 2 LBS 945GRAM SUSU VANILLA &amp; COKLAT</t>
+          <t>BH Sorex Wanita / Bra Sorex Wanita17227 tanpa kawat UK 34,36,38,40</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>420000</t>
+          <t>27000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/6/18/8eb3e2ca-cd19-4f40-8628-48a3e2788d7e.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/20/f3e8b552-81c3-40de-93cd-816242609166.jpg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1279,77 +1279,77 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/cuerpo/paket-bundling-3-pouch-cuerpo-2-lbs-945gram-susu-vanilla-coklat-choco-2-van-1-9a57c?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/082140471628/bh-sorex-wanita-bra-sorex-wanita17227-tanpa-kawat-uk-34-36-38-40-coklat-40-2ec2?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2166137716</v>
+        <v>8336794580</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mola Official</t>
+          <t>Rinstore99</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Susu Almond Bubuk Mola /Almond Milk Powder Mola</t>
+          <t>Bra Tanpa Kawat Cup B Busa Sedang Sorex 99183</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>29000</t>
+          <t>41500</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/9/13/6fe116e0-a56e-4de8-b901-a26c3f436772.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/3/6/da477343-ec5f-4b07-90ef-f76f4ab61e94.jpg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/molaofficial/susu-almond-bubuk-mola-almond-milk-powder-mola-strawberi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/rinstore99/bra-tanpa-kawat-cup-b-busa-sedang-sorex-99183-abu-abu-40?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11900573615</v>
+        <v>985371804</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Taajirun Online</t>
+          <t>Sinar Jaya Underwear</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Susu sapi Milkcowplus penambah berat dan tinggi badan 500gr</t>
+          <t>SOREX Bra Basic Quick Dry 02003 Busa Tipis Tanpa Kawat</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>47000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/21/2b7acef9-9728-4740-bc77-c48557315c39.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/6/29/22117903/22117903_85584e17-0cbe-406c-b422-4342623c0ba0_1282_1282</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1359,37 +1359,37 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/taajirunonline/susu-sapi-milkcowplus-penambah-berat-dan-tinggi-badan-500gr-coklat-efc2b?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sjunderwear/sorex-bra-basic-quick-dry-02003-busa-tipis-tanpa-kawat-hitam-36?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9444499892</v>
+        <v>8177722966</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ibu &amp; Bayi</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MyBabyTools</t>
+          <t>Prema Store Bandung</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LACTOGROW 3 4 VANILA MADU SUSU PERTUMBUHAN ANAK 1-3 TAHUN 3-5 THN 1Kg</t>
+          <t xml:space="preserve">Sorex Bra Extra Comfort Busa Cup Besar Tanpa Kawat Kait 3 Cup C 9861 </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>131000</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/4/70eaacf2-f405-44d0-ab34-8de92ccc6001.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/2/25/8e4dfe0d-c39c-4ad3-bf37-8a9a1e483071.jpg</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1399,117 +1399,117 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/mybaby-tools/lactogrow-3-4-vanila-madu-susu-pertumbuhan-anak-1-3-tahun-3-5-thn-1kg-lacgr4-vanila?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/premastore/sorex-bra-extra-comfort-busa-cup-besar-tanpa-kawat-kait-3-cup-c-9861-cream-36-9f37a?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>707771109</v>
+        <v>8027216751</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Perawatan Hewan</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Agung Pet Center</t>
+          <t>Moteza Indonesia</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Royal Canin Cat Baby Milk 300gr - Promo Price</t>
+          <t>Kait Bra Sorex - 2501 ; 2502 ; 2503 Bra Extender Sambungan Pengait BH</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>316223</t>
+          <t>7227</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/5/0caeb91d-ab23-4c0a-9038-d5add3853334.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/6/8/6a8eddec-694b-4a23-a1ce-ef3a7be7585d.jpg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/agungpet/royal-canin-cat-baby-milk-300gr-promo-price?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/moteza/kait-bra-sorex-2501-2502-2503-bra-extender-sambungan-pengait-bh-2501-kait-2-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3602376461</v>
+        <v>9615346177</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>KedaiMart Official Store</t>
+          <t>Healty store 19</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SGM Eksplor 1+ Pro-Gressmaxx Susu Pertumbuhan Madu Box 400 Gram</t>
+          <t>BRA SORE CUP A KODE 17238 KAIT 2 | BRA SOREX TERLARIS</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>51000</t>
+          <t>23500</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2022/4/19/df7ed02d-dd66-4866-a216-b74d1b13738c.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/5/20/f6e0ff8d-1b31-450b-81d5-e22d2e5982e8.jpg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/kedaimartstore/sgm-eksplor-1-pro-gressmaxx-susu-pertumbuhan-madu-box-400-gram?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/healtystore19/bra-sore-cup-a-kode-17238-kait-2-bra-sorex-terlaris-34-1cddd?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>12883405718</v>
+        <v>1356073769</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ibu &amp; Bayi</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Dancow Official Store</t>
+          <t>kieven</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Nestle DANCOW 1+ Madu 1.2 kg Susu Pertumbuhan Anak Usia 1 - 3 Tahun</t>
+          <t>Cd celana dalam wanita sorex 1257 mini dan 1239 midi super soft ori</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>120062</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/8/930bdc3e-6ea3-432a-89e1-3f6ee12aca01.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/4/6892be80-412c-4220-8f13-e8d276dea358.jpg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1519,77 +1519,77 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/dancowofficial/nestle-dancow-1-madu-1-2-kg-susu-pertumbuhan-anak-usia-1-3-tahun?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
+          <t>https://www.tokopedia.com/kieven/cd-celana-dalam-wanita-sorex-1257-mini-dan-1239-midi-super-soft-ori-1257-mini-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>784472136</v>
+        <v>1835222070</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Saudara_88</t>
+          <t>tata_cute</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Susu bubuk Dancow renceng (isi 10pcs) / susu bubuk rencengan</t>
+          <t>Celana dalam wanita sorex supersoft 1239 - QL/XXL</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>36500</t>
+          <t>14499</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/4/14/6180196/6180196_d91a8855-7bec-4f9e-9ee8-dcb590dcfe7d_1560_1560.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/5/27/79932138-2bd4-4c37-b639-f2baf91984ec.jpg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/thong88/susu-bubuk-dancow-renceng-isi-10pcs-susu-bubuk-rencengan-coklat?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/tatacute16/celana-dalam-wanita-sorex-supersoft-1239-ql-xxl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2148188449</v>
+        <v>768175379</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>GIZIDAT Official</t>
+          <t>Prema Store Bandung</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Etawaku Platinum | Susu Kambing Etawa 100% Murni Pengganti Susu Sapi</t>
+          <t>Celana Dalam Sorex JUMBO 1229 CD Katun Big Size Terlaris Murah Polos</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>17500</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/28/6f07fc3c-48c1-4500-81ba-482f54263a62.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/24/ac6e4a22-32af-4b09-b1b6-8524823f9ac5.jpg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1599,77 +1599,77 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/gizidat-official/etawaku-platinum-susu-kambing-etawa-100-murni-pengganti-susu-sapi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/premastore/celana-dalam-sorex-jumbo-1229-cd-katun-big-size-terlaris-murah-polos-l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10336666062</v>
+        <v>1371026368</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>barangmurahdonk</t>
+          <t>Rinstore99</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Susu Bubuk NZMP Wholemilk Powder Full Cream - 1kg / 1000gr</t>
+          <t>Sorex Bra Sorex Extra Comfort 9853 (Kawat - Half Cup)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>39500</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/6/21/ef8c63f7-7c5b-4150-96c0-f6e9becb4d1b.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/11/24/012771c4-0a15-4616-b294-a5bd4b8662bf.jpg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/barangmurahdonk/susu-bubuk-nzmp-wholemilk-powder-full-cream-1kg-1000gr-seller-7c246?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/rinstore99/sorex-bra-sorex-extra-comfort-9853-kawat-half-cup-34-biru-dongker?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7293931581</v>
+        <v>2516156280</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Stasiun_131</t>
+          <t>Sorex Official Store</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Sunbay Susu Evaporated Evaporasi Halal</t>
+          <t>Sorex Bra Extra Comfort Busa Cup Besar Tanpa Kawat Kait 3 Cup C 9861</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>13750</t>
+          <t>54000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/22/ecc30b3c-04c8-4b0b-a18e-160e2f281850.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/27/94b1ab01-d35d-4472-bce6-15f07267f425.jpg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1679,77 +1679,77 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/stasiun-1/sunbay-susu-evaporated-evaporasi-halal?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sorexofficials/sorex-bra-extra-comfort-busa-cup-besar-tanpa-kawat-kait-3-cup-c-9861-fanta-34c?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8616547540</v>
+        <v>6403056962</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>JURAGAN ON</t>
+          <t>Lingerieku</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SUSU KAMBING ETAWA PLATINUM SK77 NON SUGAR 1KG</t>
+          <t>Celana Dalam Wanita Sorex 15232</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>65000</t>
+          <t>13850</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/3/19/9bdc301c-8d73-4781-ad7f-03bd9b615a90.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/28/d72fd357-3324-44e9-b2f9-f22d0b81add6.jpg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/juraganon/susu-kambing-etawa-platinum-sk77-non-sugar-1kg?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/lingerieku/celana-dalam-wanita-sorex-15232-random-ql-xxl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>302981196</v>
+        <v>2608783880</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ibu &amp; Bayi</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nestle Indonesia</t>
+          <t>modiss</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Nestle DANCOW FortiGro Susu Bubuk Susu Anak Full Cream 390g</t>
+          <t>SOREX Cd Wanita Basic Midi 1228 Katun Adem dipakainya</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>59600</t>
+          <t>15600</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/1/11/cc51e5ab-8b47-4297-a052-441322e059eb.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/25/4e758ee8-32f2-488d-8a85-2b8ae1d67905.jpg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1759,37 +1759,37 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/nestle-indonesia/nestle-dancow-fortigro-susu-bubuk-susu-anak-full-cream-390g?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
+          <t>https://www.tokopedia.com/modiss/sorex-cd-wanita-basic-midi-1228-katun-adem-dipakainya-random-warnanya-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>917486668</v>
+        <v>7107231208</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AFF GALLERY</t>
+          <t>Moteza Indonesia</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Susu Kambing Etawa Goatfit Milk COKLAT ISI 10 Sachet/ GoatFiT</t>
+          <t>Sorex Celana Dalam Wanita - CD 1257 - Mini Panty - Super Soft</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>18000</t>
+          <t>14157</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/6/13/10205410/10205410_a2840de2-05e5-4072-a900-c40d4fd3c1b9_1080_1080</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/24/8a295747-a28f-4c8e-b0c4-3f581b9f405d.jpg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1799,153 +1799,157 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/pusatpropolis/susu-kambing-etawa-goatfit-milk-coklat-isi-10-sachet-goatfit?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/moteza/sorex-celana-dalam-wanita-cd-1257-mini-panty-super-soft-hitam-ql-xxl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>12025028524</v>
+        <v>757427999</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SEMURGET</t>
+          <t>Prema Store Bandung</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bebelac 3 GroGreat+ Susu Bubuk Pertumbuhan Anak 400 g</t>
+          <t>Celana Dalam Wanita Sorex 1171 CD Basic Renda - CD TERMURAH TERLARIS</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>73500</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/4/a396bb5b-b1e9-43fc-9355-32645c736983.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/3/26/96523096/96523096_090617c5-3df1-4e1c-a60d-13c1f71d3369_1500_1500</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/semurget/bebelac-3-grogreat-susu-bubuk-pertumbuhan-anak-400-g-honey-09805?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/premastore/celana-dalam-wanita-sorex-1171-cd-basic-renda-cd-termurah-terlaris-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10592166712</v>
+        <v>2391250679</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Agen Susu Kambing Provit Etawa</t>
+          <t>nnfumi shop</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Susu Kambing Etawa Provit 1Box isi 50 Scht (Proviterje) Original</t>
+          <t>Sorex T-shirt Bra Busa Tanpa Kawat Kait 3 Setara Cup B BH Harian 34135</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>289999</t>
+          <t>36000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/7/9/0cdbb49d-b419-4be0-bd9c-36f905f60033.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/11/8/232ed39f-ffae-4ea0-b580-f7ce9db2e9e0.jpg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/agensusu/susu-kambing-etawa-provit-1box-isi-50-scht-proviterje-original?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/nnfumishop/sorex-t-shirt-bra-busa-tanpa-kawat-kait-3-setara-cup-b-bh-harian-34135-34?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>11126205055</v>
+        <v>5448876875</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Telur &amp; Olahan Susu</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Aya handycraft</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Frisian Flag Low Fat Belgian Chocolate Purefarm Susu UHT 225 ml</t>
+          <t>CD CELANA DALAM SOREX 1239 HALUS SUPER SOFT GROSIR M/L/EL=XL/QL=XXL</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7700</t>
+          <t>13800</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/8/10/c3ae54ee-cb78-4a8d-a977-ee8ac77ea1b5.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/8/15/21b738f3-f6ce-4286-a7d9-d37e9889f40d.jpg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/now/frisian-flag-low-fat-belgian-chocolate-purefarm-susu-uht-225-ml?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sarban-etnik391/cd-celana-dalam-sorex-1239-halus-super-soft-grosir-m-l-el-xl-ql-xxl-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2715440324</v>
+        <v>1940933063</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Iyas Susu</t>
+          <t>LUXURY _Underwear</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>susu bebelac 3 vanila 800 gram</t>
+          <t>SOREX Young Bra Remaja Y2303 Step 2 Busa Tipis Tanpa Kawat</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>138000</t>
+          <t>25400</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/1/12/58bc0571-58f1-4386-b9db-924dc5031ff0.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/6/21/93927d8c-2bbc-40b5-a396-a00bb0bfaecb.jpg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1955,37 +1959,37 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/toko-iyas-susu/susu-bebelac-3-vanila-800-gram?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/luxury-underwear/sorex-young-bra-remaja-y2303-step-2-busa-tipis-tanpa-kawat-dadu-36?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>8577959574</v>
+        <v>1637347162</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Susu Etawaku</t>
+          <t>VHERADA STORE</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Etawalin - Susu Kambing Etawa Asli - Solusi Nyeri Sendi dan Tulang</t>
+          <t>Bra sorex cup besar busa tipis tanpa kawat size 36 -44</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>92500</t>
+          <t>39500</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/7/7de10f0b-2f86-4c8a-b10e-ad504dbc0263.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/3/15/7b5cacf6-4718-46c4-aa8b-6e4708fd55b6.jpg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1995,277 +1999,277 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/susuetawaku/etawalin-susu-kambing-etawa-asli-solusi-nyeri-sendi-dan-tulang?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/vherada/bra-sorex-cup-besar-busa-tipis-tanpa-kawat-size-36-44?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1823236001</v>
+        <v>2609108706</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Hypermart Pakuwon</t>
+          <t>PETERZOOM</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Ultra UHT Milk Plain 1000 Ml</t>
+          <t>bra bh sorex 17227</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>19050</t>
+          <t>28990</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/12/11/0191c1c4-7ae2-4d4c-be4b-6c4522d60da9.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/25/2a8caaf5-c226-4ecb-91db-9e52630f59d9.jpg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/hypermartpakuwon/ultra-uht-milk-plain-1000-ml?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/peterr/bra-bh-sorex-17227-random-campur-38?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2308136735</v>
+        <v>6460963609</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>as syifa herbal</t>
+          <t>Moteza Indonesia</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Susu Kambing Etawaku Platinum | Susu Kambing Murni Rasa Original</t>
+          <t>Sorex Bra Wanita - BH 9853 - Busa Cup A - B / Kawat - Extra Comfort</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>41382</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/11/22/d85ce0b0-7f57-42f0-b5bf-2ef4c4b6da40.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/6/7/0f879d24-cdc4-47e1-adfe-d57c53bb2d64.jpg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/imamwahyudi/susu-kambing-etawaku-platinum-susu-kambing-murni-rasa-original?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/moteza/sorex-bra-wanita-bh-9853-busa-cup-a-b-kawat-extra-comfort-merah-hati-36?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1617728309</v>
+        <v>11965136233</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Groseria Mart</t>
+          <t>Sorex Official Store</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>*Bintara* Susu Ultra Mimi UHT Cokelat 125ml x 40 (1 Dus)</t>
+          <t>Sorex Bra Ada Kawat Busa Sedang Kait 3 Cup B-C Super Soft BH 17234</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>114000</t>
+          <t>47070</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/1/23/ef7e3332-3cb3-4cc7-bfd7-4371f16cb182.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/27/d95cba44-e60d-44cd-8665-72ac412a24e9.jpg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/groseria/bintara-susu-ultra-mimi-uht-cokelat-125ml-x-40-1-dus?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sorexofficials/sorex-bra-ada-kawat-busa-sedang-kait-3-cup-b-c-super-soft-bh-17234-hitam-40-c6113?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>12049999040</v>
+        <v>1063166021</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AIO STORE 88</t>
+          <t>Kusuma Wardani</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Minuman Susu Coklat 3 in 1 malaysia</t>
+          <t>Sorex 17238 | Bra / BH Wanita Cewek Super Soft Tanpa Kawat Busa Sedang</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>66500</t>
+          <t>25700</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/8/31d70dcc-a60e-41b8-85f3-66f18824331f.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/4/1/ef767e34-cc4c-47bc-ae19-7bb9d04a3b9d.png</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/aio-store-88/minuman-susu-coklat-3-in-1-malaysia-18-sachet-18a00?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/kusuma-wardani/sorex-17238-bra-bh-wanita-cewek-super-soft-tanpa-kawat-busa-sedang-38b-cokelat?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1249998537</v>
+        <v>1407942573</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TBK Ny Liem</t>
+          <t>Sorex Tally</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ULTRA MILK Susu Full Cream UHT 1 liter</t>
+          <t>SOREX Bra Pori pori EXTRA COMFORT 9852 Busa Tipis Tanpa Kawat CUP B</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>19200</t>
+          <t>37900</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/10/11/152b7702-59bb-4fc9-be92-bd87e22348b9.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/19/a93ba27f-ada0-4d5a-82d7-94e07a2a4a87.jpg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/tbknyliem/ultra-milk-susu-full-cream-uht-1-liter?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sorex-tally/sorex-bra-pori-pori-extra-comfort-9852-busa-tipis-tanpa-kawat-cup-b-kopi-40b?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3153287705</v>
+        <v>6788966843</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HuiliShop</t>
+          <t>Lingerieku</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SO GOOD SUSU STERIL 200ML</t>
+          <t>Bra Sorex Extra Comfort Busa Kait 2 Kode 9850</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>36650</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/3/7/7bdc06a8-c93a-4ae4-8630-3c5675405231.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/28/14b6ada0-cfa6-404c-88b6-5f011daf9c53.jpg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/elmos-colection/so-good-susu-steril-200ml?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/lingerieku/bra-sorex-extra-comfort-busa-kait-2-kode-9850-coklat-muda-36?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1291828935</v>
+        <v>7446218163</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Perawatan Hewan</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CHIKO PETSHOPS</t>
+          <t>SOREX-Mdn</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Susu Kucing Growssy SACHET</t>
+          <t>CELANA DALAM WANITA MIDI 1228 SOREX Eceran</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2900</t>
+          <t>13860</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/3/22/1977e872-487f-4858-a9d8-cadaf07d030a.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/21/e8f63e3b-5f1f-4add-a0f5-3647775f455f.jpg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2275,77 +2279,77 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/chikopetshops/susu-kucing-growssy-sachet?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sorex-mdn/celana-dalam-wanita-midi-1228-sorex-eceran-m-random?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3811947511</v>
+        <v>1287734161</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Depo Susu Kelapa Gading</t>
+          <t>Sorex Official Store</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Susu Diamond Fresh Milk 1 Liter Plain 946ml Freshmilk 1L Segar Karton</t>
+          <t>Sorex Cd Basic Super Soft 1239</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>20990</t>
+          <t>21400</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/19/75fe5c93-0afa-4632-9898-8c0873887239.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/24/a96b7159-db0e-48d9-a60d-8cb797987b73.jpg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/deposusuaa/susu-diamond-fresh-milk-1-liter-plain-946ml-freshmilk-1l-segar-karton?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sorexofficials/sorex-cd-basic-super-soft-1239-m?extParam=ivf%3Dtrue%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>441262405</v>
+        <v>690723342</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>WRP Official Store</t>
+          <t>Lingerieku</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>WRP Low Fat Milk Chocolate Hazelnut 200g - Susu Rendah Lemak</t>
+          <t>Bra BH Super Soft Sorex 17239 Dijamin Murah</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>62300</t>
+          <t>28950</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/2/9/c600b6ab-f5cb-47b5-9d11-88e1edba9698.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/2/7/643365/643365_03bc8110-4274-48b0-9918-67a801a7c190_1181_1181</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2355,117 +2359,117 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/wrp/wrp-low-fat-milk-chocolate-hazelnut-200g-susu-rendah-lemak?extParam=ivf%3Dtrue%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/lingerieku/bra-bh-super-soft-sorex-17239-dijamin-murah-36-cokelat?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>11697942987</v>
+        <v>1576994476</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TerjaminAda</t>
+          <t>Aurel Babyshop</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Karihome Susu Kambing Premium 3 dan 4 900gr</t>
+          <t>Stagen pelangsing Sorex 2437 - Korset Sorex Pengait dan Risleting</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>580000</t>
+          <t>69900</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/9/27/8ab63c3e-30a4-4019-8f9b-ad9dd2e722f9.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/3/61a7c15d-a588-4898-a054-8a3461bcf2c8.png</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/terjaminada/karihome-susu-kambing-premium-3-dan-4-900gr-karihome-4-914ce?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/aurelbabyshop/stagen-pelangsing-sorex-2437-korset-sorex-pengait-dan-risleting-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>641502371</v>
+        <v>2582163336</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DReal StarShop</t>
+          <t>Cu_Shop11</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>REALGOOD SUSU BANTAL 55ml</t>
+          <t>Sorex Bra Busa Tanpa Kawat Kait 2 Setara Cup B BH Harian Casual Style</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>29000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/12/26/1002017/1002017_27983ad2-a058-4ce4-b2d0-27ae4c0143a9_1134_1134.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/26/32066f2a-cd9e-464a-b774-23c9673292fe.jpg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/drealstarshop/realgood-susu-bantal-55ml-keju?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/cushop11/sorex-bra-busa-tanpa-kawat-kait-2-setara-cup-b-bh-harian-casual-style-38-abu-abu?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6995667674</v>
+        <v>9100259313</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>obabyhouse</t>
+          <t>Okee Underware</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Arla Full Cream Milk UHT Organic 200 ml</t>
+          <t>Bra CUP Besar-C Pakai Kawat | Sorex 3262| BEST SELLER !! EXTRA COMFORT</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>9500</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/5/24/3dfe1239-c0a1-4385-bd18-79f1eab41435.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/3/23/513e9dcb-23e7-4b3a-bf50-b22a3e5f04f6.jpg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2475,77 +2479,77 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/obabyhouse/arla-full-cream-milk-uht-organic-200-ml?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D1308962</t>
+          <t>https://www.tokopedia.com/okeeunderware/bra-cup-besar-c-pakai-kawat-sorex-3262-best-seller-extra-comfort-hijau-muda-36?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>671532532</v>
+        <v>13730913400</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Edi bahagia</t>
+          <t>Aya handycraft</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Susu UHT rasa coklat Ultra milk 200 ml (satu dus)</t>
+          <t>BRA SOREX 17238 SUPER SOFT 34/36/38/40 CUP A/B BUSA SEDANG TANPA KAWAT</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>117990</t>
+          <t>24700</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/1/23/1c840102-564b-4056-90b4-ee9b9685d660.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/18/8feab2f0-ae22-4597-b4ca-a87d733b26a9.jpg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/edibahagia/susu-uht-rasa-coklat-ultra-milk-200-ml-satu-dus?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sarban-etnik391/bra-sorex-17238-super-soft-34-36-38-40-cup-a-b-busa-sedang-tanpa-kawat-hitam-34-c5369?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3486780854</v>
+        <v>3040965903</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HALAL HERBAL OFFICIAL</t>
+          <t>camelia colletion</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Etawaku Platinum | Paket 3 - Solusi Alergi Susu Sapi</t>
+          <t>Bra sorex 17239 tampa kawat CUP C super soft kait 3</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>246000</t>
+          <t>28500</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/25/79ada17c-0ea9-427a-bf92-13dd94f36f07.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/14/f94ec3c4-e440-4529-a11c-d41a194a13e4.jpg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2555,77 +2559,77 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/halalherbshop/etawaku-platinum-paket-3-solusi-alergi-susu-sapi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/082140471628/bra-sorex-17239-tampa-kawat-cup-c-super-soft-kait-3-kopi-40?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>8687200783</v>
+        <v>9818248792</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>OHCO shop</t>
+          <t>PETERZOOM</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Hania Goat Milk Skim Susu Kambing HNI</t>
+          <t>Celana Dalam Wanita Sorex 1257 Super lembut model kecil mini pinggul</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>12000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/1/f03987dd-b743-4660-8d99-f92d25be51b6.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/5/30/f9d87fed-4487-4b76-850e-e28a29cb9cbd.jpg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/ohco/hania-goat-milk-skim-susu-kambing-hni?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/peterr/celana-dalam-wanita-sorex-1257-super-lembut-model-kecil-mini-pinggul-random-m-d5c78?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4619447971</v>
+        <v>2068047515</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Perawatan Hewan</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Kucingbilly</t>
+          <t>Sorex Official Store</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Micucu cat susu anak kucing</t>
+          <t>Sorex CD Wanita Midi Basic Comfort Chic Adem Lembut Pori-pori CD 1260</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>31669</t>
+          <t>24750</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/21/31a239f1-3a84-47ff-980c-e6b939ad008b.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/24/ac454352-6ef9-417e-bc94-95e0f60f331e.jpg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2635,73 +2639,77 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/kucingbilly/micucu-cat-susu-anak-kucing?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sorexofficials/sorex-cd-wanita-midi-basic-comfort-chic-adem-lembut-pori-pori-cd-1260-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2430489333</v>
+        <v>11982209632</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Zee Official Store</t>
+          <t>Moteza Indonesia</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Zee KrunchZee Vanilla Twist Milk 337.5gr</t>
+          <t>Sorex 9824 Bra BH Busa Sedang | Full Cup A-B | Tanpa Kawat Cup |Kait 3</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>49100</t>
+          <t>41382</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/6/13/c77d9b12-8809-4686-800c-c1687db0e900.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/10/31/29b32ed0-2c20-497f-a8ab-8851aebae6ee.jpg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/zeeofficial/zee-krunchzee-vanilla-twist-milk-337-5gr?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D12553702</t>
+          <t>https://www.tokopedia.com/moteza/sorex-9824-bra-bh-busa-sedang-full-cup-a-b-tanpa-kawat-cup-kait-3-hitam-40-002f1?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>7734369467</v>
+        <v>3615512950</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Telur &amp; Olahan Susu</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>TOKO MINESSASHOP</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Indomilk Susu UHT Korean Black Latte 180 ml</t>
+          <t>BH SOREX SILKY SOFT BRA 9815 TANPA KAWAT BUSA KAIT 3 SETARA CUP B</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4100</t>
+          <t>39500</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/1/30/7b37e608-9a94-48e7-8f9f-8f1d33132e27.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/5/608d2b75-7035-4404-b75f-5cf60a218632.jpg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2711,237 +2719,237 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/now/indomilk-susu-uht-korean-black-latte-180-ml?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D12210375</t>
+          <t>https://www.tokopedia.com/minessashop/bh-sorex-silky-soft-bra-9815-tanpa-kawat-busa-kait-3-setara-cup-b-hitam-34?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6731618060</v>
+        <v>6765761869</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ibu &amp; Bayi</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SGM Official Store</t>
+          <t>Lingerieku</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SGM Eksplor 3+ dengan IronC Susu Bubuk Rasa Madu 600GR</t>
+          <t>Sorex 1250 CD Celana Dalam Wanita Maxi Jumbo Dijamin Murah</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>56329</t>
+          <t>15950</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/15/bdf44b5a-c565-49c1-a310-1f7b0ef68fe7.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/23/16a708b5-cbd8-4f9f-a130-07a6ab5e28ec.jpg</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sgmofficialstore/sgm-eksplor-3-dengan-ironc-susu-bubuk-rasa-madu-600gr?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/lingerieku/sorex-1250-cd-celana-dalam-wanita-maxi-jumbo-dijamin-murah-kopi-eql-xxxl-cfe82?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2926038881</v>
+        <v>1713480219</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Internet ID</t>
+          <t>KIOS Abah_</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Susu Proten Box Rasa Vanilla</t>
+          <t>CD Celana Dalam Wanita Sorex 1239 Lusinan/6 pcs</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>12000</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/4/4/209c5107-d9c7-4b97-b833-52edf09faceb.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/1/30/b26450d9-ec6b-488a-ab6b-b0066caaaaf6.jpg</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/internetid/susu-proten-box-rasa-vanilla-1-pcs?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/kiosabah/cd-celana-dalam-wanita-sorex-1239-lusinan-6-pcs-campur-ql?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5970739345</v>
+        <v>4893830676</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Etawalin Official Store</t>
+          <t>Rinstore99</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Etawalin Susu Kambing Etawa Original Atasi Masalah Sendi Dan Tulang</t>
+          <t>Celana Dalam Sorex 15232 Super Soft</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>90000</t>
+          <t>14000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/26/0a9ecc7f-a797-441c-b893-0e96b21b7698.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/15/c09ffe6a-e6f2-4db2-9b23-97efda973fa0.jpg</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/etawalin/etawalin-susu-kambing-etawa-original-atasi-masalah-sendi-dan-tulang?extParam=cmp%3D1%26ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/rinstore99/celana-dalam-sorex-15232-super-soft-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>6956739514</v>
+        <v>2009276749</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Sinar Baru Group</t>
+          <t>LUXURY _Underwear</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Susu Milo Uht 110ml Kotak Coklat / 110 Ml 1 dus Karton 36 pcs</t>
+          <t>SOREX Cd Wanita Basic Katun Mini 1227 Soft &amp; Comfort</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>96500</t>
+          <t>14600</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/11/13/b5f0ae79-7896-4728-abcd-04394fa01f85.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/6/18/09dac654-3ea5-4dfe-a003-fb375243de86.jpg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sinarbarugroup/susu-milo-uht-110ml-kotak-coklat-110-ml-1-dus-karton-36-pcs?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/luxury-underwear/sorex-cd-wanita-basic-katun-mini-1227-soft-comfort-random-warnanya-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>867513022</v>
+        <v>1636803747</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Jtw366 Farm</t>
+          <t>TOKO AIDIL UNDERWEAR</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Susu Sapi Murni Pasteurisasi Jatiwaringin Free Ongkir*</t>
+          <t>Bra Sorex 17058 Maximizer Bra Busa Tebal Tanpa Kawat Uk 34-38</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>17000</t>
+          <t>39500</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/5/26/2354600/2354600_ba0374a7-5173-4299-9b1e-a0f043e094e4_656_656.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/3/1/605a4b72-8651-4aa7-8ad5-dfeeb58d568c.jpg</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/archive-jtw366/susu-sapi-murni-pasteurisasi-jatiwaringin-free-ongkir?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/aidil100815/bra-sorex-17058-maximizer-bra-busa-tebal-tanpa-kawat-uk-34-38?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2112143327</v>
+        <v>7657264936</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Perawatan Hewan</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Susu Elvis Jakarta Barat</t>
+          <t>eL Mar Baby &amp; Kids Wear</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Susu Elvis - Raw Goat Milk Regular Pack 100 ml x 5 - Anjing Kucing</t>
+          <t>Sorex Bra Super Soft BH Tanpa Kawat (17238) Setara Cup A-B</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>32900</t>
+          <t>24900</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/30/f1cf3385-1111-4447-8697-09fc24189459.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/1/14/b90d7e45-290b-4202-b8a8-bc2c62f88eab.jpg</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2951,37 +2959,37 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/susu-elvis/susu-elvis-raw-goat-milk-regular-pack-100-ml-x-5-anjing-kucing?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/elmarbaby/sorex-bra-super-soft-bh-tanpa-kawat-17238-setara-cup-a-b-36?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1999277986</v>
+        <v>5433005553</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>piqa_store</t>
+          <t>Gallerieku</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Susu kambing murni segar beku kemasan 200ml</t>
+          <t>SOREX bra Cup Besar 9814 Busa Tipis Tanpa Kawat Kait 3 setara Cup B-C</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5850</t>
+          <t>35800</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/8/22/f2baed76-5116-462b-b7e7-9ec6acbe5ac5.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/8/14/624271b0-8ff1-4308-b5cd-70c040ae9622.jpg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2991,273 +2999,277 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/piqastore/susu-kambing-murni-segar-beku-kemasan-200ml?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/gallerieku/sorex-bra-cup-besar-9814-busa-tipis-tanpa-kawat-kait-3-setara-cup-b-c-biru-dongker-40?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>326746996</v>
+        <v>2880161397</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ibu &amp; Bayi</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SGM Official Store</t>
+          <t>Rinstore99</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SGM Eksplor 1+ dengan IronC Susu Pertumbuhan Rasa Madu 900GR</t>
+          <t>Bra Tanpa Kawat Cup C Sorex</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>81097</t>
+          <t>37500</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/15/fc08b719-6958-4b68-b260-7640eaa5daec.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/5/1e4e2a9c-ca53-4d68-8c1c-49936fd2948b.jpg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sgmofficialstore/sgm-eksplor-1-dengan-ironc-susu-pertumbuhan-rasa-madu-900gr?extParam=ivf%3Dtrue%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/rinstore99/bra-tanpa-kawat-cup-c-sorex-hitam-40c?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3798261599</v>
+        <v>4430015764</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Frisian Flag Official</t>
+          <t>Kiddos First</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Frisian Flag Purefarm Susu UHT Fullcream 946ml</t>
+          <t>BH Sorex 17232 Bra Busa Tanpa Kawat Cup B Kait 2 Best Seller</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>19750</t>
+          <t>28500</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/7/8/1ccae403-29a9-4b23-8fe5-7b0791919fd0.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/22/d33a52eb-8e0b-452b-b33e-0145278d350e.jpg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/frisian-flag/frisian-flag-purefarm-susu-uht-fullcream-946ml?extParam=cmp%3D1%26ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/kiddosfirst/bh-sorex-17232-bra-busa-tanpa-kawat-cup-b-kait-2-best-seller-36-merah-ati?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1936441850</v>
+        <v>7232200442</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>BAYININJA</t>
+          <t>Moteza Indonesia</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NATURE ONE Organic 4 Junior Susu Anak 3 to 6 Tahun 900 g</t>
+          <t>Sorex Celana Dalam Wanita - CD 1239 - Midi Panty - Super Soft</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>475000</t>
+          <t>14157</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/7/18/682869e9-2f70-48ed-b598-426be69de2d1.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/24/ca245c75-7633-4c8f-94b2-4a05f7549ce6.jpg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/bayininja/nature-one-organic-4-junior-susu-anak-3-to-6-tahun-900-g?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/moteza/sorex-celana-dalam-wanita-cd-1239-midi-panty-super-soft-abu-muda-l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>10380114110</v>
+        <v>4642021829</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ibu &amp; Bayi</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>fathanstore</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Lactogrow 3 Happynutri Susu Formula 1 - 3 tahun Vanila 350 g</t>
+          <t>Bra BH Sorex Super Soft 17238</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>62100</t>
+          <t>26190</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/9/7/3eeeaefd-cf37-4e9c-a943-ff589a45e8ca.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/10/10/4c1cc392-4f09-43ae-ba97-414177bc28f3.jpg</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/now/lactogrow-3-happynutri-susu-formula-1-3-tahun-vanila-350-g?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D12210375</t>
+          <t>https://www.tokopedia.com/fathanmaulidan/bra-bh-sorex-super-soft-17238-biru-tua-38?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2045119883</v>
+        <v>1003887277</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Sahabat Kesehatan</t>
+          <t>Lingerieku</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Bundle 2 Box Pulmosol - Susu Nutrisi Kesehatan Pernapasan</t>
+          <t>Bra Ukuran Cup Besar Tanpa Kawat Busa Tipis Sorex 02008</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>155810</t>
+          <t>55500</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/8/3/50e6c69d-7646-452f-a6e2-7b4c0ac3f351.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/30/a6898716-49b1-408c-bc4e-95114c4cfb68.jpg</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sahabatkesehatan/bundle-2-box-pulmosol-susu-nutrisi-kesehatan-pernapasan?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D1149176</t>
+          <t>https://www.tokopedia.com/lingerieku/bra-ukuran-cup-besar-tanpa-kawat-busa-tipis-sorex-02008-40-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2292134147</v>
+        <v>9008251418</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>susu kita2</t>
+          <t>TOKO HAO HAO</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Susu Milo Kotak Coklat ACTIVE GO UHT - 110 ml (4 pcs)</t>
+          <t>CD Celana Dalam Wanita Sorex Super Soft 1239</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11500</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/10/15/3d0802f7-d515-4aab-8b91-409f0dc493ab.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/9/14/502cb4aa-3332-4296-a668-59b4652ab1cf.jpg</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/susukita2/susu-milo-kotak-coklat-active-go-uht-110-ml-4-pcs?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/toko-hao-hao/cd-celana-dalam-wanita-sorex-super-soft-1239-m-1-pcs-4abf3?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>9243248283</v>
+        <v>12474503392</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Apotek Heka Bandung</t>
+          <t>Prema Store Bandung</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Nutren Diab 400 g - Susu Diabetes Menjaga Gula Darah</t>
+          <t>Bra Bh Set Sorex 34227 Kawat Busa Sedang Kait 3 (Cup A-B)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>204300</t>
+          <t>55000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/4/21/0d1e5d70-7cf2-4215-894e-1661e1b2993a.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/6/059ae2a9-d3b4-4cdf-b731-9031a4ffee66.jpg</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3267,37 +3279,37 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/apotek-heka-bandung/nutren-diab-400-g-susu-diabetes-menjaga-gula-darah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/premastore/bra-bh-set-sorex-34227-kawat-busa-sedang-kait-3-cup-a-b-pink-36-9efdc?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1095043807</v>
+        <v>1636428795</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>omega food</t>
+          <t>TOKO AIDIL UNDERWEAR</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Purenat pure goat milk powder 800 g ( susu kambing)</t>
+          <t>Bra Sorex 02003 Quick Dry Kattun Tanpa kawat Tanpa busa Uk 34-40</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>445000</t>
+          <t>45999</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/8/13/16188cc7-3533-4ded-bfcf-ebe691aee225.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/3/1/b644bb60-4ccd-491f-a113-148087b0f4ad.jpg</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3307,117 +3319,117 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/090991/purenat-pure-goat-milk-powder-800-g-susu-kambing?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/aidil100815/bra-sorex-02003-quick-dry-kattun-tanpa-kawat-tanpa-busa-uk-34-40?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>7251033699</v>
+        <v>1160105470</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Emmar Shop</t>
+          <t>lalunashop2017</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SGM Eksplor 3 Plus Susu Pertumbuhan 3-5 Tahun 900g 900 gram</t>
+          <t>sorex GString 777</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>79800</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/18/b452997a-bae3-4e0e-b4bf-b961d15204bf.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/8/19/c75ca2a1-a608-4623-b293-b90afa2844c4.jpg</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/emmarshop/sgm-eksplor-3-plus-susu-pertumbuhan-3-5-tahun-900g-900-gram-madu?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/lalunashop2017/sorex-gstring-777?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>9582378525</v>
+        <v>836131412</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ibu &amp; Bayi</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Dancow Official Store</t>
+          <t>Sorex Official Store</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Nestle DANCOW FortiGro Susu Bubuk Susu Anak Instant 195g</t>
+          <t>Sorex CD Wanita Cotton Rich CD 1254 Katun Premium Mix</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>25313</t>
+          <t>21450</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/15/e04b5a0d-cc75-44c6-8ddc-22c15d0b8ab6.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/13/ca315b3d-47f0-4103-8a6a-7a71e1ec2dd6.jpg</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/dancowofficial/nestle-dancow-fortigro-susu-bubuk-susu-anak-instant-195g?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sorexofficials/sorex-cd-wanita-cotton-rich-cd-1254-katun-premium-mix-l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>8912418435</v>
+        <v>6273273677</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Langgan MM</t>
+          <t>PETERZOOM</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anget Sari Susu Jahe Minuman Serbuk [10 pcs/ renceng]</t>
+          <t>Bh Berkawat Sorex 65002 Ukuran Sedang Cup B kait 2 buah</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11500</t>
+          <t>33900</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/4/1/7993df3f-2bf7-4fea-a2e3-84d41802d2ca.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/19/cc93eb91-dbaa-48f6-975d-aad46a1b59ae.jpg</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3427,157 +3439,157 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/langgan-mm/anget-sari-susu-jahe-minuman-serbuk-10-pcs-renceng?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/peterr/bh-berkawat-sorex-65002-ukuran-sedang-cup-b-kait-2-buah-dongker-36-b?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>984337146</v>
+        <v>3267531322</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Fonterra Official Store</t>
+          <t>Toko JT</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Boneeto Susu Bubuk Cokelat 2 x 320g- Daya Pikir dan Tubuh Aktif</t>
+          <t>Celana Dalam Wanita Seamless Tanpa Jahitan 12 Motif Sorex 18013 3pcs</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>78397</t>
+          <t>59000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/28/1df7f87b-c626-403c-81c4-65ad1fe71a82.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/3/19/5326809a-7314-4e23-985b-70b7f4cfeea1.jpg</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/fonterraofficial/boneeto-susu-bubuk-cokelat-2-x-320g-daya-pikir-dan-tubuh-aktif?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
+          <t>https://www.tokopedia.com/jtshop/celana-dalam-wanita-seamless-tanpa-jahitan-12-motif-sorex-18013-3pcs-extra-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>12751265552</v>
+        <v>618053087</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>sehat gemoy657</t>
+          <t>Sorex Official Store</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>susu fortico kolostrum isi 20 sachet</t>
+          <t>BH MENYUSUI SOREX 8200 (NURSING BRA)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>275000</t>
+          <t>67500</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/17/8175739c-ee46-41b6-a56d-f21d366a3f13.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/6/11/22c02175-5ce2-4058-9ef4-31b2fef5d5ad.jpg</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sehatgemoy657/susu-fortico-kolostrum-isi-20-sachet?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sorexofficials/bh-menyusui-sorex-8200-nursing-bra-cokelat-38-42?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>326747153</v>
+        <v>5647542298</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ibu &amp; Bayi</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SGM Official Store</t>
+          <t>BeWe Choice</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SGM Eksplor 3+ dengan IronC Susu Bubuk Rasa Vanilla 900GR</t>
+          <t>SATUAN - Celana Dalam wanita SOREX 1257 - SUPER SOFT</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>75872</t>
+          <t>12850</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/15/d08bb59a-dcf4-4122-867b-98fd20d5a80b.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/8/24/26744208-c309-4fb5-b84e-3db35f076c88.jpg</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sgmofficialstore/sgm-eksplor-3-dengan-ironc-susu-bubuk-rasa-vanilla-900gr?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/bewechoice/satuan-celana-dalam-wanita-sorex-1257-super-soft-kopi-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>10067422371</v>
+        <v>8263947077</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Sinar Cahaya Agung</t>
+          <t>Rinstore99</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>(1 Dus = 30 pcs) Susu Beruang / Nestle Bear Brand 140 ml</t>
+          <t>Celana Dalam Wanita Sorex 1228 Soft Comfort</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>226000</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/6/10/ef067e61-b9cb-4580-b1bd-c3f71c1bdea3.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/9/13/45ba8cce-63b4-4349-829d-845e29b30f34.jpg</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3587,117 +3599,117 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sinarcahayaa/1-dus-30-pcs-susu-beruang-nestle-bear-brand-140-ml?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/rinstore99/celana-dalam-wanita-sorex-1228-soft-comfort-random-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>8470936427</v>
+        <v>1682711596</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Dunia Kasa &amp; Verban</t>
+          <t>Prema Store Bandung</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Susu Colusmin 10 Sachet</t>
+          <t>PAKET BUNDLING 6PCS Celana Dalam Wanita Sorex 1259 Warna Random</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>105000</t>
+          <t>81000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/3/12/292d87b0-d9b7-4b22-a88b-e039b9d56942.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/3/18/0ef24bc3-072c-45af-a539-417c9e732bc5.jpg</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/duniakasaverban/susu-colusmin-10-sachet?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/premastore/paket-bundling-6pcs-celana-dalam-wanita-sorex-1259-warna-random-random-6pcs-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>576532250</v>
+        <v>248873290</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Perawatan Hewan</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>atanta Shop</t>
+          <t>Toko JT</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Propet's - 1kg Formula Susu Untuk Kucing &amp; Anjing propet propets</t>
+          <t>Celana Dalam Wanita Sorex Seamless Tanpa Jahitan Pori 225 FIT TO XXL</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>37000</t>
+          <t>66500</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2018/10/4/3117310/3117310_dbe25d3e-0db7-4ab5-b35f-760ad9d61ff2_800_800.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/2/21/4704073/4704073_f35ff0d4-670a-48e2-b376-01b2d1ae8024_1280_1280</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/atanta/propet-s-1kg-formula-susu-untuk-kucing-anjing-propet-propets?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/jtshop/celana-dalam-wanita-sorex-seamless-tanpa-jahitan-pori-225-fit-to-xxl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>12561603555</v>
+        <v>3465350846</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Sukanda Djaya Home</t>
+          <t>TOKO MINESSASHOP</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Diamond Milk Susu UHT Marshmallow 125 ML [Isi 12 Pcs]</t>
+          <t>SOREX KORSET ST1051-8052 STAGEN PASCA MELAHIRKAN /Stagen perut</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>33096</t>
+          <t>37500</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/1/17/ce45658f-a131-4e65-bd06-4fc931ece908.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/4/6/ce0c2cc0-9ab0-4941-ab5a-dd2d39a48109.jpg</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3707,357 +3719,357 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sukandahome/diamond-milk-susu-uht-marshmallow-125-ml-isi-12-pcs?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D8817974</t>
+          <t>https://www.tokopedia.com/minessashop/sorex-korset-st1051-8052-stagen-pasca-melahirkan-stagen-perut-1051-cokelat-freesize?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>6001159331</v>
+        <v>5433803221</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Nabawi Herbal Official</t>
+          <t>Chantika underwear</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Susu Kambing Sky Goat</t>
+          <t>SOREX bra Cup besar 9814 Busa Tipis Tanpa Kawat Kait 3 Setara Cup B-C</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>30000</t>
+          <t>35700</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/26/fd91f88a-4f93-4b3d-9e55-888f405aacb0.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/8/14/a19b8a22-db22-4e9a-b89d-89f536aa4e7c.jpg</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/nabawiherbalofficial/susu-kambing-sky-goat-cokelat?extParam=ivf%3Dtrue%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/chantikaunderwear/sorex-bra-cup-besar-9814-busa-tipis-tanpa-kawat-kait-3-setara-cup-b-c-coklat-muda-38?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>8887919434</v>
+        <v>8027058076</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>delightfoodies</t>
+          <t>Moteza Indonesia</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Susu greenfields fresh milk 1000ml / fresh milk greenfields 1 liter</t>
+          <t>Kait Bra Sorex - 2001 ; 2002 Kait 2 3 Sambungan Tali BH Bra Extension</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>21200</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/3/31/76aa522c-7f14-4fbb-942e-85df19b9e10c.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/6/8/920bea65-fcd8-4384-b20d-cd81cd14f49d.jpg</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/delightfoodies/susu-greenfields-fresh-milk-1000ml-fresh-milk-greenfields-1-liter?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/moteza/kait-bra-sorex-2001-2002-kait-2-3-sambungan-tali-bh-bra-extension-2001-kait-2-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>348537624</v>
+        <v>712415849</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Adzkia Fresh Food</t>
+          <t>bobo baby shop</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Yummy Feta Cheese Cow milk 1kg</t>
+          <t>Sorex 8200 Premium Maternity Bra BH Menyusui Asli Original Termurah</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>205000</t>
+          <t>45000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2018/10/24/348537624/348537624_d8f7e1f8-a7b0-46cb-bc8e-d1edff8a5deb_640_640.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/2/24/16721778/16721778_0afc424d-9344-4e8f-bcce-b2152b487ded_700_700</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/adzkiafreshfood/yummy-feta-cheese-cow-milk-1kg?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/bobobaby/sorex-8200-premium-maternity-bra-bh-menyusui-asli-original-termurah-kecil-34-38-pink?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>12022294446</v>
+        <v>6916108550</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Republik Bayi Tangerang</t>
+          <t>YooMee store</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Boost Optimum Susu Bubuk Nutrisi Dewasa Lansia 800gr 800 gram MURAH</t>
+          <t>cd celana dalam wanita remaja abg sorex 15226</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>288000</t>
+          <t>10250</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/4/e831d8a6-12e9-4072-875a-99a63b4470d4.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/11/8/3ff59c04-d609-4115-a3f6-35d3ada1233f.jpg</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/republikbayi-tangerang/boost-optimum-susu-bubuk-nutrisi-dewasa-lansia-800gr-800-gram-murah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/yoomeestore/cd-celana-dalam-wanita-remaja-abg-sorex-15226-random?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>377834851</v>
+        <v>731474507</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Perawatan Hewan</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>KIN DOG FOOD - JakBar</t>
+          <t>Prema Store Bandung</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>KIN Dog Food - Goat Milk Kefir</t>
+          <t>Pakaian Dalam Wanita Sorex 1170 Original | CD Cewek Termurah</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>73000</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/4/20/33f8ea95-8baf-4e36-b522-84e2b38c2eca.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/25/9b11100b-f32c-4316-88c7-4446aca0bdd6.jpg</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/kindogfoodjakbar/kin-dog-food-goat-milk-kefir?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/premastore/pakaian-dalam-wanita-sorex-1170-original-cd-cewek-termurah-l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1693824234</v>
+        <v>2437001224</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Lactona Official</t>
+          <t>PETERZOOM</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Lactona Skim 300 Gram Susu Rendah Lemak Low Fat</t>
+          <t>bra bh sorex 267 kawat</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>36999</t>
+          <t>39300</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/3/25/0e6170a9-d11c-4528-bf20-f982dc9cba1c.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/11/19/5c6f1d1c-46d1-4894-bb1d-e46ff0447f83.jpg</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/lactonaofficial/lactona-skim-300-gram-susu-rendah-lemak-low-fat?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/peterr/bra-bh-sorex-267-kawat-merah-38?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>11021568306</v>
+        <v>12624547684</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>EtawalinStoreIndonesia</t>
+          <t>Sorex Official Store</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Etawalin - Susu Herbal 100% Alami (1 Box)</t>
+          <t>Sorex Bra Tanpa Kawat Busa Sedang Kait 3 Cup A-B Bra Harian BH 33507</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>90000</t>
+          <t>34920</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/20/7a3912a5-384f-42ac-bcf0-064d642744f7.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/26/cfcdeb1f-c605-44b3-bf99-d995f395ebad.jpg</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/etawalinstoreindonesia/etawalin-susu-herbal-100-alami-1-box?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sorexofficials/sorex-bra-tanpa-kawat-busa-sedang-kait-3-cup-a-b-bra-harian-bh-33507-coklat-36-86c25?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>12675862864</v>
+        <v>1469491957</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Nice For Kids</t>
+          <t>Rinstore99</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Anchor Protein Plus Sachet Susu Bubuk Tinggi Protein + Renceng</t>
+          <t>Bra Tanpa Kawat Sorex 9850 Extra Comfort</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>37000</t>
+          <t>40500</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/4/d9378ee0-b6e6-40ee-a65e-0d68300ee4a2.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/27/e0bafe0a-5154-4a12-b524-f1c1d83e9880.jpg</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/niceforkids/anchor-protein-plus-sachet-susu-bubuk-tinggi-protein-renceng?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/rinstore99/bra-tanpa-kawat-sorex-9850-extra-comfort-biru-dongker-36-b37e7?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>10309681315</v>
+        <v>834026579</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Perawatan Hewan</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>woofidoo pet grocer</t>
+          <t>Prema Store Bandung</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>WOOFIDOO Kefir Goat Milk Yogurt Anjing Cat Dog Probiotic Susu Kambing</t>
+          <t>CD Sorex 1260 Comfort Pori Celana Dalam Termurah</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/6/20/b6e144a7-ecf1-456f-bd77-fd45ac25fa6c.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/5/7/96523096/96523096_f99074fe-288a-42c2-9296-f56c8a25142c_700_700</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4067,77 +4079,77 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/woofidoo/woofidoo-kefir-goat-milk-yogurt-anjing-cat-dog-probiotic-susu-kambing?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/premastore/cd-sorex-1260-comfort-pori-celana-dalam-termurah-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2091429750</v>
+        <v>1304509033</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>TOKO FAHMI RB</t>
+          <t>Chic Mama</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Dancow Instant FortiGro susu bubuk Sachet 27gr x 10 Sachet (Renceng)</t>
+          <t>Bra / BH Jumbo Tanpa Kawat Sorex 9833</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>36000</t>
+          <t>37500</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/10/27/3209f716-c29b-432e-a239-d539144e9832.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2017/5/19/15753602/15753602_4064a084-45e4-46bd-8cda-c4640d7fa2d8_475_475.jpg</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/fahmirb/dancow-instant-fortigro-susu-bubuk-sachet-27gr-x-10-sachet-renceng-coklat?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/chicmama/bra-bh-jumbo-tanpa-kawat-sorex-9833-42-dusty-pink?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2165265431</v>
+        <v>1078609190</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>NutriMart</t>
+          <t>YooMee store</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Twin Pack: HiLo Teen Taro 500gr - Susu Tinggi Kalsium</t>
+          <t>celana dalam wanita sorex 1238 supersoft uk M L EL/XL QL/XXL</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>181300</t>
+          <t>16500</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/30/07815505-9e39-4667-b7f5-3dda911e0dec.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/26/24913035-93cf-4de7-9883-7533afbd7474.jpg</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4147,193 +4159,197 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/nutrimartid/twin-pack-hilo-teen-taro-500gr-susu-tinggi-kalsium?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D30193</t>
+          <t>https://www.tokopedia.com/yoomeestore/celana-dalam-wanita-sorex-1238-supersoft-uk-m-l-el-xl-ql-xxl-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>558833506</v>
+        <v>2203647652</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ibu &amp; Bayi</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Dancow Official Store</t>
+          <t>Sorex Official Store</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Nestle DANCOW 1+ Madu Susu Anak 1-3 Tahun Box 350g</t>
+          <t>Sorex CD Basic Hotpants Super Soft Adem ( Cocok Untuk Daleman ) 1261</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>42800</t>
+          <t>22800</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/5/b4738089-0711-48ba-8d5c-72cf4c15fafe.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/29/cf5576a3-5766-495e-8130-d5eaec25d1fb.jpg</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/dancowofficial/nestl-dancow-1-madu-susu-anak-1-3-tahun-box-350g?extParam=cmp%3D1%26ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sorexofficials/sorex-cd-basic-hotpants-super-soft-adem-cocok-untuk-daleman-1261-l-random?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>9582374095</v>
+        <v>10325774626</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Ibu &amp; Bayi</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Dancow Official Store</t>
+          <t>BeWe Choice</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Nestle DANCOW FortiGro Susu Bubuk Susu Anak Instant 390gram</t>
+          <t>Bra Tanpa Kawat SOREX 33305</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>54860</t>
+          <t>25000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/5/19/f80dd131-6791-4e87-b458-43a9eb8259de.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/6/21/e46d6450-1266-4ed7-8c66-9449682c2675.jpg</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/dancowofficial/nestle-dancow-fortigro-susu-bubuk-susu-anak-instant-390gram?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/bewechoice/bra-tanpa-kawat-sorex-33305-coklat-tua-34-e7dc?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>10811310464</v>
+        <v>5334863028</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Perawatan Hewan</t>
+          <t>Olahraga</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>MAKMUR JAYA PET SHOP</t>
+          <t>Moteza Indonesia</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Top Growth 30gr Susu Kucing / KMR Kitten Milk Replacer | 1 box</t>
+          <t>Sorex Bra - SP 020 &amp; 021 - Tanpa Kawat - Active Sport Olahraga Stretch</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>27499</t>
+          <t>39402</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/7/22/f3e4be4a-80d5-4e08-a9c3-a9354d55686f.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/6/7/8017362b-b3e3-414d-bfb2-0ff6608dfd8b.jpg</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/makmurjaya-ps/top-growth-30gr-susu-kucing-kmr-kitten-milk-replacer-1-box?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/moteza/sorex-bra-sp-020-021-tanpa-kawat-active-sport-olahraga-stretch-sp-021-kecil-hijau?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2036162870</v>
+        <v>1065410704</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Telur &amp; Olahan Susu</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>We Mall</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Milo Susu UHT Activ Go Cokelat 180 ml</t>
+          <t>79-CELANA DALAM MENSTRUASI WANITA KATUN ANTI BAKTERI PANTY BUKAN SOREX</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4800</t>
+          <t>13260</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/10/15/1631b9dc-dbd2-45e9-bcc3-3d16d6aaa907.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/27/8fedfd43-a8a4-4760-8778-62974b95a311.jpg</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/now/milo-susu-uht-activ-go-cokelat-180-ml?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D16699633</t>
+          <t>https://www.tokopedia.com/wemall/79-celana-dalam-menstruasi-wanita-katun-anti-bakteri-panty-bukan-sorex-putih?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>9207905357</v>
+        <v>2804289366</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Etawalin Official</t>
+          <t>Sorex Official Store</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>ETAWALIN SUSU ETAWA ORIGINAL ATASI NYERI SENDI DAN ASAM URAT</t>
+          <t>Sorex Slimming Corset Pasca Melahirkan Aman Dipakai Freesize C 4431</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>99000</t>
+          <t>103455</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/8/d8310d72-83ba-4b20-8db3-b55a8606aeea.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/24/d6baf5a6-550f-4018-a617-05199726eacd.jpg</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4343,33 +4359,37 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/etawalinofficialstore/etawalin-susu-etawa-original-atasi-nyeri-sendi-dan-asam-urat?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sorexofficials/sorex-slimming-corset-pasca-melahirkan-aman-dipakai-freesize-c-4431-cokelat-8f95?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3693130259</v>
+        <v>7301615217</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Telur &amp; Olahan Susu</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>YooMee store</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Diamond Susu Segar Fresh Milk Strawberry 946 ml</t>
+          <t>cd celana dalam wanita sorex 1229 maxi katun soft</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>27200</t>
+          <t>18750</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/5/4/8563283f-d298-41e4-8dc1-119b33669bba.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/23/b6e4730e-79aa-4810-a814-69dc05becb49.jpg</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4379,233 +4399,237 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/now/diamond-susu-segar-fresh-milk-strawberry-946-ml?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D12210375</t>
+          <t>https://www.tokopedia.com/yoomeestore/cd-celana-dalam-wanita-sorex-1229-maxi-katun-soft-hitam-l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>7747957004</v>
+        <v>7093768512</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Online Susu</t>
+          <t>HL SHOP 2</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>NESTLE NUTREN Diab - Susu Diabetes Vanilla - Kaleng 400 gram</t>
+          <t>6PCS / Setengah Lusin Sorex CD Wanita 1257 Super Soft Lembut</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>198900</t>
+          <t>79000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/6/30/2249ad09-5331-4340-bced-aa14b5df7efe.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/14/6ca94ee7-54a4-4295-8d0c-3d2e3a350234.jpg</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/onlinesusu-1/nestle-nutren-diab-susu-diabetes-vanilla-kaleng-400-gram?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/hlshop2/6pcs-setengah-lusin-sorex-cd-wanita-1257-super-soft-lembut-random-el-xl-6pcs?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>8605614932</v>
+        <v>1521407039</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>toko dua putra</t>
+          <t>Sorex Official Store</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>susu greenfields UHT Full Cream 200 Ml X 32 Pcs (.1 karton.)</t>
+          <t>Sorex Bra Cup Besar Tanpa Kawat Busa Kait 3 Setara Cup B-C Soft 9815</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>185000</t>
+          <t>60135</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/6/13/2d8139eb-24af-4b94-9d91-d3e3009ab7b3.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/20/923ec908-2535-44cc-ac77-8e879888db3b.jpg</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/tokoduaputrabsd/susu-greenfields-uht-full-cream-200-ml-x-32-pcs-1-karton?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sorexofficials/sorex-bra-cup-besar-tanpa-kawat-busa-kait-3-setara-cup-b-c-soft-9815-cokelat-38?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>6294605436</v>
+        <v>2097880292</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Telur &amp; Olahan Susu</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>fjj mart</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Greenfields Susu Segar Fresh Milk Strawberry 200 ml</t>
+          <t>bh / bra sorex 17228 soft &amp; comfort fine cottoon uk 36 38 40 42</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>30500</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2022/9/20/c1a6f6f4-eafc-4e44-b2de-0d7a4c9c9498.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/2/5/6362187/6362187_9d31e18b-35f2-4740-b200-b901c2071358_1080_1080.jpg</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/now/greenfields-susu-segar-fresh-milk-strawberry-200-ml?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D12210375</t>
+          <t>https://www.tokopedia.com/fjjmart/bh-bra-sorex-17228-soft-comfort-fine-cottoon-uk-36-38-40-42-cokelat-40?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>3798261719</v>
+        <v>2246700480</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Frisian Flag Official</t>
+          <t>BWR shop</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Frisian Flag Purefarm Susu UHT Low Fat French Vanilla 225ml</t>
+          <t>[ 3 Pcs ] CD Sorex 1257 | Celana Dalam Wanita MIDI Super Soft - Bwr</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>7200</t>
+          <t>40500</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/7/8/ecd1885d-4a39-4017-879d-f4e4a90f6a28.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/1/24/29617308/29617308_baf93739-e2e3-4ac8-b03a-923a1a9105b2_1024_1024</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/frisian-flag/frisian-flag-purefarm-susu-uht-low-fat-french-vanilla-225ml?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
+          <t>https://www.tokopedia.com/bwrshop/3-pcs-cd-sorex-1257-celana-dalam-wanita-midi-super-soft-bwr-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2045123448</v>
+        <v>11268647354</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Sahabat Kesehatan</t>
+          <t>Lingerieku</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Bundle 10 Box Pulmosol - Susu Nutrisi Kesehatan Pernapasan</t>
+          <t>Sorex 99066 BH Bra Wanita Busa Tebal Push Up Berkawat</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>775170</t>
+          <t>41500</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/8/3/52da3980-f3fe-4933-ab36-161a996c3fe6.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/20/c7ddbeeb-df87-44bd-a898-952e3c697244.jpg</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sahabatkesehatan/bundle-10-box-pulmosol-susu-nutrisi-kesehatan-pernapasan?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D1149176</t>
+          <t>https://www.tokopedia.com/lingerieku/sorex-99066-bh-bra-wanita-busa-tebal-push-up-berkawat-dongker-size-36-78dfc?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1240207458</v>
+        <v>9681982156</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Manda Probiotica</t>
+          <t>BeWe Choice</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>grass fed cow milk susu sapi grass fed</t>
+          <t>KAIT EXTENDER BRA SOREX / KAIT SAMBUNGAN BH 2501/2502/2503</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>25000</t>
+          <t>7500</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/10/6/baece4a4-68a3-4a86-b597-1dd06f1485a8.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/4/20/ce01e850-126c-4216-9b01-ca749c2d4265.jpg</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4615,37 +4639,37 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/mandaprobiotica/grass-fed-cow-milk-susu-sapi-grass-fed?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/bewechoice/kait-extender-bra-sorex-kait-sambungan-bh-2501-2502-2503-2501-kait-2-cream?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1922600976</v>
+        <v>6918756165</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>NutriMart</t>
+          <t>fjj mart</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Twin Pack: HiLo Teen Popcorn Caramel 500gr - Susu Tinggi Kalsium</t>
+          <t>CD celana dalam wanita seamless sorex ea 511 522 pori pori</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>181300</t>
+          <t>20000</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/9/7/796920c3-3910-4449-8b68-8c54411a9e27.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/10/5/7b0e371a-a769-4dad-8a15-8a3ba7badb7c.jpg</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4655,153 +4679,157 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/nutrimartid/twin-pack-hilo-teen-popcorn-caramel-500gr-susu-tinggi-kalsium?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D30193</t>
+          <t>https://www.tokopedia.com/fjjmart/cd-celana-dalam-wanita-seamless-sorex-ea-511-522-pori-pori-random-511-kecil?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2399808754</v>
+        <v>2944293740</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Telur &amp; Olahan Susu</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
+          <t>Fashion Pria</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>PETERZOOM</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Cimory Susu UHT Blueberry 250 ml</t>
+          <t>CD pria SOREX 3903 grosir sz S-XL</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>5800</t>
+          <t>19558</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2021/11/10/f49008cc-a745-4d66-bbd1-8cc9a70bd2c0.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/12/9/97f87986-878b-4527-a90b-cd0773890151.jpg</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/now/cimory-susu-uht-blueberry-250-ml?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D12210375</t>
+          <t>https://www.tokopedia.com/peterr/cd-pria-sorex-3903-grosir-sz-s-xl-biru-muda-s?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>5098826363</v>
+        <v>1352772989</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>gudang endog</t>
+          <t>kieven</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Susu Evaporasi FN F&amp;N / Evaporated Milk FN 380gr grab/gojek only</t>
+          <t>Bh bra sorex 17238 cup kecil 17239 cup besar tanpa kawat busa murah</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>16900</t>
+          <t>24900</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/7/29/a38ff9cb-ad05-4661-8dd9-8f00e21e2e3b.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/4/bd7cdb6c-19bc-413c-89ad-cbfeaf75c3bc.jpg</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/archive-gudang-endog/susu-evaporasi-fn-f-n-evaporated-milk-fn-380gr-grab-gojek-only?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/kieven/bh-bra-sorex-17238-cup-kecil-17239-cup-besar-tanpa-kawat-busa-murah-17238-cup-kecil-38?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>573926135</v>
+        <v>2100708754</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Toko Reflus</t>
+          <t>Okee Underware</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Susu UHT Ultra 1 Liter</t>
+          <t>Bra Remaja Tanpa busa dan Kawat Sorex Young Step 2 Art Y2303 | Bh ABG</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>17500</t>
+          <t>26950</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/9/30/6908789/6908789_fadb67bd-aace-45b6-a6a2-866e05cd7c4e_1224_1224.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/12/22/65b45df5-38fc-42f8-b8f7-cb5faefee4b0.png</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/tokoreflus/susu-uht-ultra-1-liter?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/okeeunderware/bra-remaja-tanpa-busa-dan-kawat-sorex-young-step-2-art-y2303-bh-abg-32-krem?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>11756155273</v>
+        <v>901507829</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>cccstore7</t>
+          <t>Kidz Deal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>SUSU USA HEVISURE GOLD UNTUK PENGIDAP DIABETES</t>
+          <t>Celana Dalam CD Super Soft Sorex 1257</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>429000</t>
+          <t>12250</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/27/30b5bad6-44aa-4a59-ab0a-6d65b832c8c0.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/11/28/93eb3cfc-2d05-48ed-b6b0-2df74842e4d4.jpg</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4811,157 +4839,157 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/cccstore7/susu-usa-hevisure-gold-untuk-pengidap-diabetes?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/kidzdeal/celana-dalam-cd-super-soft-sorex-1257-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1197033246</v>
+        <v>363378488</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Tokoman Official Store</t>
+          <t>Lingerieku</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>F&amp;N Evaporated Milk 380 gr / Susu Evaporasi / Pengganti Santan</t>
+          <t>Celana Korset Pelangsing Perut Badan Terbaru Sorex 13187</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>17000</t>
+          <t>49250</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/7/16/8583607/8583607_d5c1674b-3be6-439e-aa34-463616f9a103_1280_1280.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2018/3/20/643365/643365_1342efcf-2d15-47c8-a409-2e5d493a9163_1280_1186.jpg</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/tokoman-official/f-n-evaporated-milk-380-gr-susu-evaporasi-pengganti-santan?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/lingerieku/celana-korset-pelangsing-perut-badan-terbaru-sorex-13187-cokelat-muda?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>7974813717</v>
+        <v>7257996883</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Kikhyo</t>
+          <t>Moteza Indonesia</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Susu GREENFIELDS Fresh Milk UHT Chocomalt 105 ml</t>
+          <t>Sorex Celana Dalam Wanita - CD 1227 - Mini Panty -Katun Soft &amp; Comfort</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>3490</t>
+          <t>14652</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/2/a5de41ba-5120-44b7-95c1-460f445e0429.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/24/4561f873-7f18-4417-b930-7bf4bd739dd6.jpg</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/kikhyo/susu-greenfields-fresh-milk-uht-chocomalt-105-ml?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/moteza/sorex-celana-dalam-wanita-cd-1227-mini-panty-katun-soft-comfort-oc-cream-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>12412364057</v>
+        <v>1653041753</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>kuproy_store</t>
+          <t>Star Baby Shop</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Susu Bantal Real good 50 ml (harga untuk 10 pc)</t>
+          <t>Korset Sorex XL-XXL EXTRA SIZE Pelangsing Perut Pasca Melahirkan Sorex</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>72500</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/25/3845fbd8-9636-4fb6-9e1c-db3ab1b4d0d6.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/3/7/a804ef37-7ce1-4f49-8c81-24c978c68be4.jpg</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/kuproyyy/susu-bantal-real-good-50-ml-harga-untuk-10-pc-campur-rasa-58af4?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/starbabyshop/korset-sorex-xl-xxl-extra-size-pelangsing-perut-pasca-melahirkan-sorex?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1568982232</v>
+        <v>11831905763</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>StarFnB</t>
+          <t>Sorex Official Store</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Surabaya Bear Brand ecer Nestle Susu Beruang Susu Steril 189ml Promo</t>
+          <t>Sorex T-shirt Bra Busa Tanpa Kawat Kait 3 Setara Cup B BH Harian 34135</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>9599</t>
+          <t>49680</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/1/29/ee4bf469-ef67-4e8b-bdb3-ee8a676267f3.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/26/92370e60-6a34-4670-96c2-f28fb598a86d.png</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4971,77 +4999,77 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/starfnb/surabaya-bear-brand-ecer-nestle-susu-beruang-susu-steril-189ml-promo?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sorexofficials/sorex-t-shirt-bra-busa-tanpa-kawat-kait-3-setara-cup-b-bh-harian-34135-dongker-36-6734c?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2985883349</v>
+        <v>1879600619</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Planetium herbal</t>
+          <t>Wahu_store</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Etawaku Platinum | Susu Kambing Etawa</t>
+          <t>Size Jumbo Celana Dalam Wanita Sorex 1248 Super soft Ukuran Besar</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>23000</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/17/5886a855-c6e4-495a-82f8-16fa5f92d51b.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/6/4/9c090e18-30d5-40bb-a82b-af221e1b7028.jpg</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/planetium-herbal/etawaku-platinum-susu-kambing-etawa?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/wahustore/size-jumbo-celana-dalam-wanita-sorex-1248-super-soft-ukuran-besar-eql-4l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>3101642203</v>
+        <v>3589793604</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Zee Official Store</t>
+          <t>deinay</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Zee Reguler Jumbo Vanilla Twist Milk 2x450G (2 Pack)</t>
+          <t>Sorex Bra Set Super Soft Tanpa Kawat Busa Tipis (Bra + CD) KD87</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>207200</t>
+          <t>45000</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/6/0153138e-62a6-4d3c-8326-1082fd28d05e.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/4/18/e2675dc5-200a-43b5-b674-1d1bcf379aaa.jpg</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5051,77 +5079,77 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/zeeofficial/zee-reguler-jumbo-vanilla-twist-milk-2x450g-2-pack?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D12553702</t>
+          <t>https://www.tokopedia.com/deinay/sorex-bra-set-super-soft-tanpa-kawat-busa-tipis-bra-cd-kd87-biru-tua-bra-36-cd-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2097995672</v>
+        <v>6836457654</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Apotek Heka</t>
+          <t>Sorex Official Store</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Peptimune Vanila 189 gram - Susu Untuk Optimalkan Sistem Imun Tubuh</t>
+          <t>Sorex CD Wanita Seamless Tanpa Jahitan Anti Nyeplak Midi Pori EA 511</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>89200</t>
+          <t>30750</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/8/23/a4278beb-ec11-4e5d-a173-055cc8d249d7.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/7/bccc97bd-d1df-4a07-85e3-13f36bf1a129.jpg</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/apotekheka/peptimune-vanila-189-gram-susu-untuk-optimalkan-sistem-imun-tubuh?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sorexofficials/sorex-cd-wanita-seamless-tanpa-jahitan-anti-nyeplak-midi-pori-ea-511-ungu?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2281021720</v>
+        <v>5362621707</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Perawatan Hewan</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Susu Elvis Jakarta Utara</t>
+          <t>Moteza Indonesia</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Susu Elvis - Pasteurized Goat Milk 500 ml - Susu untuk Anjing Kucing</t>
+          <t>Sorex Bra Wanita - BH 17233 - Busa Cup B -C / Tanpa Kawat - Super Soft</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>34900</t>
+          <t>32472</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/30/d33ac709-654b-42e7-92cd-11ba868c3a54.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/22/8eb13b81-9436-421e-8d9a-edd7e086727c.jpg</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5131,157 +5159,157 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/susuelvisjakarta/susu-elvis-pasteurized-goat-milk-500-ml-susu-untuk-anjing-kucing?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/moteza/sorex-bra-wanita-bh-17233-busa-cup-b-c-tanpa-kawat-super-soft-fanta-36?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>6888872519</v>
+        <v>397157246</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Etawalin Official</t>
+          <t>VHERADA STORE</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Etawalin Box 5 - Susu Kambing Etawa Untuk Anak, Dewasa dan Orang Tua</t>
+          <t>Bra sorex Kemben 9862</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>455000</t>
+          <t>42500</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/8/ce8ee0d3-65b5-4455-a3f3-b18125795918.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/3/15/397157246/397157246_809d9688-fd99-458b-893f-517f26140f52_1280_1280.jpg</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/etawalinofficialstore/etawalin-box-5-susu-kambing-etawa-untuk-anak-dewasa-dan-orang-tua?extParam=ivf%3Dtrue%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/vherada/bra-sorex-kemben-9862?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1381432466</v>
+        <v>6734614616</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Bakernbarista</t>
+          <t>fjj mart</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>(250g) NZ milk powder / anchor susu bubuk / susu bubuk baking untuk ku</t>
+          <t>celana dalam wanita sorex 1228 soft &amp; comfort uk M L EL QL</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>18500</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/11/28/98f1d206-cecd-4720-bbbb-0cce66e6b4e6.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/8/28/fe7ba945-aea9-4487-9816-930995bba93d.jpg</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/bakernbarista/250g-nz-milk-powder-anchor-susu-bubuk-susu-bubuk-baking-untuk-ku?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/fjjmart/celana-dalam-wanita-sorex-1228-soft-comfort-uk-m-l-el-ql-hijau-xxl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>12763085103</v>
+        <v>833998703</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>BONANZA stock</t>
+          <t>Prema Store Bandung</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Real Good Susu uht Bantal 10 pcs @ 50 ml</t>
+          <t>CD SOREX 1251 Super Soft Midi Basic Terlaris Termurah</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/19/75a71dcb-bf7e-4892-ae00-5730d8d09195.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/24/9e89e428-dd89-4901-bada-222b8762e834.jpg</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/bonanzastock/real-good-susu-uht-bantal-10-pcs-50-ml-coklat-d8e12?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/premastore/cd-sorex-1251-super-soft-midi-basic-terlaris-termurah-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2554247190</v>
+        <v>7916806470</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Pancoran Herbal Store</t>
+          <t>Prema Store Bandung</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Susu Jahe Merah AMH Plus Ginseng - Harga 1 Renceng isi 10 Sachet</t>
+          <t>BRA SOREX 17228 BIG CUP SIZE TANPA KAWAT BUSA TIPIS</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>12000</t>
+          <t>30000</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/10/10/27f9bb71-c6f0-497f-adcd-c862ef6fab47.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/25/c40cc358-78b9-42a8-9821-ad2c1c62215a.jpg</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5291,77 +5319,77 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/pancoran-herbal/susu-jahe-merah-amh-plus-ginseng-harga-1-renceng-isi-10-sachet?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/premastore/bra-sorex-17228-big-cup-size-tanpa-kawat-busa-tipis-pink-40?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>3552568800</v>
+        <v>3623008841</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Ibu &amp; Bayi</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>NutriMart</t>
+          <t>isabelle bou</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>HiLo School Vanilla 1000g - Susu Tinggi Kalsium</t>
+          <t>celana dalam wanita sorex 1239 size M..L .XL &amp; XXL</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>162800</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/17/2685d23d-58e3-4da7-b88b-e8b7bc44ff31.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/9/4/ccb86169-8956-48fc-ad93-37e06a40635a.jpg</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/nutrimartid/hilo-school-vanilla-1000g-susu-tinggi-kalsium?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
+          <t>https://www.tokopedia.com/isabellebou/celana-dalam-wanita-sorex-1239-size-m-l-xl-xxl-m-random-acak?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>7167392868</v>
+        <v>1261491433</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>NutriMart</t>
+          <t>Toko JT</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>HiLo Teen Original 400gr - Susu Tinggi Kalsium Lebih Rendah Lemak</t>
+          <t>Celana Dalam Katun Wanita Maxi Tinggi Sorex Comfort</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>88000</t>
+          <t>19000</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/30/8e18a9d9-3819-4cd2-8308-c4e0dee6512c.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/7/23/f2d30ba2-ab85-4f16-8033-568b5b8e212b.jpg</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5371,117 +5399,117 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/nutrimartid/hilo-teen-original-400gr-susu-tinggi-kalsium-lebih-rendah-lemak?extParam=cmp%3D1%26ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/jtshop/celana-dalam-katun-wanita-maxi-tinggi-sorex-comfort-l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1131841680</v>
+        <v>13865613074</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Mini Owls Mart</t>
+          <t>Toko JT</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Susu Segar GREENFIELDS Fresh Milk 1L - Pasteurised Milk</t>
+          <t>BH Daily Bra Comfort Soft Polos Tanpa Kawat Polos Sorex Underwear</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>20900</t>
+          <t>27000</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/1/11/f477242d-5b45-4660-8d61-e255ee302d07.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/2/5f3d248c-7294-46a9-bac8-34cd3e60869b.jpg</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/miniowls/susu-segar-greenfields-fresh-milk-1l-pasteurised-milk?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/jtshop/bh-daily-bra-comfort-soft-polos-tanpa-kawat-polos-sorex-underwear-36-03216?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>231623448</v>
+        <v>1529858000</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Toko Cendol Official</t>
+          <t>Dalaman KU</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Pediasure Complete Coklat 400gr Susu Gemuk Anak</t>
+          <t>SOREX Bra Super Soft 17238 Busa Tipis Tanpa Kawat Setara Cup B</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>201000</t>
+          <t>22900</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2017/11/19/837121/837121_ec07f171-9b06-4070-ae9d-a3644afff41d_800_800.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/20/2bb144d5-2d34-410e-ba3d-02310d80b1bc.jpg</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/tokocendol/pediasure-complete-coklat-400gr-susu-gemuk-anak?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/dalaman-ku/sorex-bra-super-soft-17238-busa-tipis-tanpa-kawat-setara-cup-b-abu-38?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>7730424088</v>
+        <v>2183460060</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Frisian Flag Official</t>
+          <t>JW_OLSHOP</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Frisian Flag Omela Foaming Milk 1000ml [3 pcs]</t>
+          <t>BRA SOREX 02002 QUICK DRY COTTON - CUP B - BUSA TIPIS - TANPA KAWAT</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>55600</t>
+          <t>44500</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/1/30/0027a881-d147-4cc4-b7be-ded5dbad9357.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/9/17/78c141d8-72c8-4542-af9d-3ce7f4ab5f3b.jpg</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -5491,37 +5519,37 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/frisian-flag/frisian-flag-omela-foaming-milk-1000ml-3-pcs?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
+          <t>https://www.tokopedia.com/jwolshop-1/bra-sorex-02002-quick-dry-cotton-cup-b-busa-tipis-tanpa-kawat-32b?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>4789000885</v>
+        <v>11639881141</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>fresh booth</t>
+          <t>Moteza Indonesia</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>greenfields fresh milk 1 liter (Susu segar)</t>
+          <t>Sorex Bra Wanita - BH 9814 - Busa Cup B - C / Tanpa Kawat - Silky Soft</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>22050</t>
+          <t>37917</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/7/25/160f78ef-2b8c-49e3-b285-740c5bbe84b7.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/29/b552ed5a-097b-4187-a623-6b7c8e75a123.jpg</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5531,117 +5559,117 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/archive-kingoracle/greenfields-fresh-milk-1-liter-susu-segar?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/moteza/sorex-bra-wanita-bh-9814-busa-cup-b-c-tanpa-kawat-silky-soft-abu-40-88015?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>7258679899</v>
+        <v>1143353581</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>VJ2SHOP</t>
+          <t>YooMee store</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Ovaltine Malted Milk Malaysia</t>
+          <t>cd celana dalam wanita sorex 1179 midi uk m l el/xl ql/xxl</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>8950</t>
+          <t>17500</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/7/24/2d965774-30f0-4d32-937f-ea4084bc5851.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/9/2/5c766f83-48c9-43ee-a346-0b8cbaafceee.jpg</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/vj2shop/ovaltine-malted-milk-malaysia-ecer-1-stik?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/yoomeestore/cd-celana-dalam-wanita-sorex-1179-midi-uk-m-l-el-xl-ql-xxl-xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1838877804</v>
+        <v>6835815626</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Gut Living Indonesia</t>
+          <t>Sorex Official Store</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Coconut Milk Powder Nucifera</t>
+          <t>Sorex Cd Seamless Tanpa Jahitan EA509</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>49920</t>
+          <t>31800</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/7/e6a0095d-85ef-4e3e-9ec8-a8120826f795.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/25/52b5747e-ae55-4207-9179-4438d298139a.jpg</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/gutliving/coconut-milk-powder-nucifera?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sorexofficials/sorex-cd-seamless-tanpa-jahitan-ea509-cokelat?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>5154971971</v>
+        <v>3473512689</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Perawatan Hewan</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Welcome Petshop</t>
+          <t>Lingerieku</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Growssy Milk Susu Kucing 1 Sachet Kitten Anak Kucing Milk 20gr</t>
+          <t>Celana Dalam Wanita Bahan Katun Sorex 15228</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>3130</t>
+          <t>10850</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2022/8/1/26f13d36-4eba-4c61-a44b-53be2af1daed.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2019/5/27/643365/643365_ccd75c7f-f79a-4128-823d-1a124b5943f4_1181_1181.jpg</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5651,77 +5679,77 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/welcomepetshop/growssy-milk-susu-kucing-1-sachet-kitten-anak-kucing-milk-20gr?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/lingerieku/celana-dalam-wanita-bahan-katun-sorex-15228-random?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2153859752</v>
+        <v>2999545702</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>TBK Ny Liem</t>
+          <t>PETERZOOM</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>ULTRA Mimi Kids Susu UHT 125 mL 1 pcs</t>
+          <t>BH Sorex 1 set Cup B dan Cup C tanpa Kawat Busa Tipis</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>47850</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/9/9/6338463e-b54b-475d-a6ed-96a2405c6012.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/18/d438fde2-c34d-4baf-886a-cc50c1235381.jpg</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/tbknyliem/ultra-mimi-kids-susu-uht-125-ml-1-pcs-vanila?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/peterr/bh-sorex-1-set-cup-b-dan-cup-c-tanpa-kawat-busa-tipis-cup-b-hitam-36?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>3362097865</v>
+        <v>2162775153</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ulle store</t>
+          <t>Healty store 19</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>SUSU BUBUK KAMBING ETAWA 1KG RASA ORIGINAL,STRAWBERRY,COKLAT,NON SUGAR</t>
+          <t>CELANA DALAM WANITA SOREX ORIGINAL TERMULAH - CELANA DALAM WANIT TERLA</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>52915</t>
+          <t>12150</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/3/20/3a70413e-b491-4862-b4f2-11017be09461.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/9/12/cd1b4d74-63db-4c6f-9a1d-ad2c2a2c5d6a.jpg</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5731,197 +5759,197 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/ullestore/susu-bubuk-kambing-etawa-1kg-rasa-original-strawberry-coklat-non-sugar-non-sugar?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/healtystore19/celana-dalam-wanita-sorex-original-termulah-celana-dalam-wanit-terla-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>618145054</v>
+        <v>10527221291</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>NutriMart</t>
+          <t>Prema Store Bandung</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Twin Pack: HiLo Gold Chocolate 750gr - Susu Tinggi Kalsium</t>
+          <t>BH SOREX 9850 Basic Bra Busa Tanpa Kawat Terlaris</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>249300</t>
+          <t>38500</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/7/24/cf46bdf8-5108-4806-bf16-d2bf9cdfeae4.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/24/00b69845-d606-4549-9934-b34d5f76eba1.jpg</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/nutrimartid/twin-pack-hilo-gold-chocolate-750gr-susu-tinggi-kalsium?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
+          <t>https://www.tokopedia.com/premastore/bh-sorex-9850-basic-bra-busa-tanpa-kawat-terlaris-hijau-tua-34?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>3541400745</v>
+        <v>2266695260</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Ibu &amp; Bayi</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Nestle Indonesia</t>
+          <t>PETERZOOM</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>NESTLE Nutren Junior Susu Pertumbuhan Vanila 800gx2pcs</t>
+          <t>Bra Bh SOREX Tshirt bra 34135 Cup A atau B</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>653100</t>
+          <t>36250</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/6/12/abb07459-a7d3-48ad-b1ec-7d230cf9aa60.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/10/9/6839a33c-fb51-4f31-afac-37853c08c24a.jpg</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/nestle-indonesia/nestle-nutren-junior-susu-pertumbuhan-vanila-800gx2pcs?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/peterr/bra-bh-sorex-tshirt-bra-34135-cup-a-atau-b-coklat-muda-38?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>4590023890</v>
+        <v>982130189</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Vlamarket</t>
+          <t>sckmenwear</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1KG Susu Kambing Etawa Varian Rasa Vanilla Vanila Vanili Manis</t>
+          <t>TERLARIS // CELANA DALAM SOREX WANITA 1257 ANEKA WARNA HARGA GROSIR MU</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>125000</t>
+          <t>13023</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/18/4de5f37b-9a04-4373-918f-817edaed8264.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/11/4/cde44111-e40b-4c11-91a8-77fff4586f78.png</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/vlamarket/1kg-susu-kambing-etawa-varian-rasa-vanilla-vanila-vanili-manis?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sckmenwear/terlaris-celana-dalam-sorex-wanita-1257-aneka-warna-harga-grosir-mu-l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>10720012305</v>
+        <v>12117328794</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Etawaku Platinum Official Store</t>
+          <t>TomsCorner</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Etawaku Platinum Susu Kambing Etawa Atasi Sesak Nafas dan Paru-Paru</t>
+          <t>BH Sorex Tanpa Kawat Bra Sorex 17227 Setara Cup A-B Soft &amp; Full Cup</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>29900</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/7/18/314e49a0-7e7b-43e0-b726-ad84cfea0e79.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/11/15/5750d62c-680e-46ed-a24e-d91acf91653b.jpg</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/etawakuplatinum-ofc/etawaku-platinum-susu-kambing-etawa-atasi-sesak-nafas-dan-paru-paru?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/tomscorner/bh-sorex-tanpa-kawat-bra-sorex-17227-setara-cup-a-b-soft-full-cup-abu-tua-40-54650?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1051101869</v>
+        <v>1276375355</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Jualtasoriginal</t>
+          <t>YooMee store</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Susu ultra 125ml strawberry stroberi 125 ml</t>
+          <t>bh bra extra comfort sorex 3262 cup besar kawat</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>3500</t>
+          <t>38500</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/7/25/ff432638-93a8-43c0-9e45-ef835ee8d47d.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/10/22/6918aff0-3143-4043-84d4-efe02ddb500f.jpg</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5931,77 +5959,77 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/jualtasoriginal/susu-ultra-125ml-strawberry-stroberi-125-ml?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/yoomeestore/bh-bra-extra-comfort-sorex-3262-cup-besar-kawat-coklat-muda-40?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1745056548</v>
+        <v>7306286854</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Ezy Baking Shop</t>
+          <t>BeWe Choice</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Susu Bubuk 1kg - Susu Kiloan / Susu Murah Enak</t>
+          <t>Celana Dalam wanita JUMBO Sorex 1248-14</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>25500</t>
+          <t>18200</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/22/c232e623-8bf6-4e32-890f-dd171fca5f68.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/8/2/6bf4a149-65a8-4bb2-8e1d-0e0ea4569b9f.jpg</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/ezybakingshop/susu-bubuk-1kg-susu-kiloan-susu-murah-enak?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/bewechoice/celana-dalam-wanita-jumbo-sorex-1248-14-khaki-eql?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>11184289773</v>
+        <v>3053739759</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Etawalin</t>
+          <t>Chantika underwear</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Paket 5 box Etawalin - Susu Kambing Etawa Herbal Alami</t>
+          <t>SOREX Bra Sport EXTRA Comfort 65003 Busa Tipis Tanpa Kawat</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>435000</t>
+          <t>35900</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/14/8e1a090b-469b-485c-920e-4ec374f160f8.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/3/31/314d61fd-72ff-490e-9dc1-3495bb32d660.jpg</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6011,117 +6039,117 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/etawalinofficial/paket-5-box-etawalin-susu-kambing-etawa-herbal-alami?extParam=cmp%3D1%26ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/chantikaunderwear/sorex-bra-sport-extra-comfort-65003-busa-tipis-tanpa-kawat-cream-36-d0ed?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>12367178830</v>
+        <v>3375979256</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Brenda 74</t>
+          <t>alangbbro fashion</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>SUSU DANCOW FORTIGRO 1KG</t>
+          <t>Cd sorex lusinan 2055, 2054, 9075, 1233, 1232, 1251, 1238, 1257, 1239</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>109000</t>
+          <t>155100</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/16/ae7114bc-2811-4143-92a7-24aec956dd8a.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/3/29/314d9eb7-adb5-49d3-8cc0-4030fdbc3912.jpg</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/brenda74/susu-dancow-fortigro-1kg?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/mydaleman/cd-sorex-lusinan-2055-2054-9075-1233-1232-1251-1238-1257-1239-sorex-1239-12ps-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2089106782</v>
+        <v>1879396575</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>raja keju</t>
+          <t>Family Choice Official Shop</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Susu greenfields fresh milk plain 1l (KARTONAN)</t>
+          <t>Celana Dalam SOREX Wanita Super Soft Sorex 1238 Termurah</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>253200</t>
+          <t>15200</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/11/22/dcb2aad4-619e-4924-9d85-4ed2ccf3b1a4.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/6/2/088a9a57-612c-4541-850b-0aaf4f7806ae.png</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/rajakeju/susu-greenfields-fresh-milk-plain-1l-kartonan?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/familychoiceofficialshop/celana-dalam-sorex-wanita-super-soft-sorex-1238-termurah-m-warna-acak-cd-sorex-1238?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>12757928741</v>
+        <v>11855681148</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Toko Kayla Merchant</t>
+          <t>Rinstore99</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>abc susu 1 dus (isi120 Pcs)</t>
+          <t>Bra Tanpa Kawat Sorex Casual Comfort 65003</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>176900</t>
+          <t>38500</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/18/1d83cba6-8e9b-4c6e-b11f-e40d67671688.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/10/16/3d008976-e094-4725-8148-c3c3f7b5dc2b.jpg</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6131,77 +6159,77 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/tokokaylamerchant/abc-susu-1-dus-isi120-pcs?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/rinstore99/bra-tanpa-kawat-sorex-casual-comfort-65003-hitam-38-8236d?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>294989162</v>
+        <v>10185444407</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Ibu &amp; Bayi</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Nestle Indonesia</t>
+          <t>SOREX-Mdn</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Nutren Junior Prebio Susu Bubuk Kaleng 800gr</t>
+          <t>Bra BH tanpa Kawat 17239 Supersoft Sorex</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>353900</t>
+          <t>29500</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/20/df214b3c-6ed2-4d37-95ae-e5a3ad59b59e.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/5/13/2a0aa4f3-8abb-4a4a-acaf-40b2eed452f6.jpg</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/nestle-indonesia/nutren-junior-prebio-susu-bubuk-kaleng-800gr?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
+          <t>https://www.tokopedia.com/sorex-mdn/bra-bh-tanpa-kawat-17239-supersoft-sorex-42-95-abumuda?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2356747559</v>
+        <v>13116789239</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>MUNTAZA</t>
+          <t>Babygram_indonesia</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Nutrilon Royal 3 Susu Pertumbuhan 1-3 Thn Madu 800gr</t>
+          <t>Bra BH Sorex 17232 Tanpa Kawat Busa Tipis Kait 2 (Cup A-B)</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>198500</t>
+          <t>25900</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/10/31/e457d700-53c9-4a9e-b245-9bb24148b4d9.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/17/7a4fc7ce-9f25-43c7-921a-843b049ed7e9.jpg</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6211,37 +6239,37 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/muntaza/nutrilon-royal-3-susu-pertumbuhan-1-3-thn-madu-800gr?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/babygram/bra-bh-sorex-17232-tanpa-kawat-busa-tipis-kait-2-cup-a-b-17232-hitam-size-40-fdcc5?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>6811191149</v>
+        <v>3021071820</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>NutriMart</t>
+          <t>MMcollections mom&amp;kids</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HiLo School Chocolate 200ml (1 pc) - Susu Tinggi Kalsium</t>
+          <t>Bra Sorex 267 Cup Setengah Kawat Busa Sedang Bh Robot Original</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>8600</t>
+          <t>33500</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/9/1/0759bd78-1b11-4870-a87d-589821080264.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/2/21/19d91df0-5546-4087-8c0a-2b05d975a2a1.jpg</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6251,77 +6279,77 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/nutrimartid/hilo-school-chocolate-200ml-1-pc-susu-tinggi-kalsium?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
+          <t>https://www.tokopedia.com/mmcollections/bra-sorex-267-cup-setengah-kawat-busa-sedang-bh-robot-original-merah-36?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>11224204634</v>
+        <v>1337515743</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Collective Coffee</t>
+          <t>Sorex Official Store</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Susu Diamond Fresh Milk 1 Liter Plain 946ml Freshmilk 1L Segar Karton</t>
+          <t>Sorex Bra 3262 Busa Sedang, Berkawat Kait 3 Extra Comfort</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>19500</t>
+          <t>50625</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/16/7a5581e0-91b2-42b1-9203-751fe940e470.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/7/25/20dc0f08-b69e-4a97-9467-b7397203040a.png</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/collectivecoffee/susu-diamond-fresh-milk-1-liter-plain-946ml-freshmilk-1l-segar-karton?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sorexofficials/sorex-bra-3262-busa-sedang-berkawat-kait-3-extra-comfort-hitam-42?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>6974815841</v>
+        <v>5430161737</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Sinar Rezeki Store</t>
+          <t>Kiddos First</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Susu Bantal Real Good 50ml Paket 10pcs / susu realgood / real good</t>
+          <t>Bra Sorex 65001 Kait 2 Busa Tanpa Kawat setara cup B Casual Comfort</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>13250</t>
+          <t>37999</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/11/16/776956ad-c837-4687-a94e-1d27026f5d60.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/8/14/932931bb-63be-4ed4-bae2-67197bc54194.jpg</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6331,77 +6359,77 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sinarrezstore/susu-bantal-real-good-50ml-paket-10pcs-susu-realgood-real-good-stroberi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/kiddosfirst/bra-sorex-65001-kait-2-busa-tanpa-kawat-setara-cup-b-casual-comfort-34-fanta?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>8107634166</v>
+        <v>7398541046</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Lantara</t>
+          <t>MMcollections mom&amp;kids</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Susu Abbott Prosure Premium 380 gr gram Vanila - Susu Kanker Cancer</t>
+          <t>BH Bra Tanpa Kawat Busa Tipis Lembut Silky Soft Sorex 9814</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>309888</t>
+          <t>37000</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/2/22/20a565b6-8928-4be5-8041-95d23eae6e58.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/1/3/082982a6-82f5-4db8-bb19-db3ccb716595.jpg</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/lantara/susu-abbott-prosure-premium-380-gr-gram-vanila-susu-kanker-cancer?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/mmcollections/bh-bra-tanpa-kawat-busa-tipis-lembut-silky-soft-sorex-9814-36-hitam?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>871120936</v>
+        <v>4530744544</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Pilihlah Aku Toserba</t>
+          <t>lalunashop2017</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Susu Ultra Mimi Kids Coklat (Cokelat) - 125 ml (1 DUS ISI 40)</t>
+          <t>Sorex bra 34135 cup A busa 34-38</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>123450</t>
+          <t>37958</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/27/59ec13ed-b534-4264-bf04-67fe00851d92.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/28/eee51048-7d8f-41c7-ad5b-9f9685e0bcd0.jpg</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6411,37 +6439,37 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/pilihlahaku/susu-ultra-mimi-kids-coklat-cokelat-125-ml-1-dus-isi-40?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/lalunashop2017/sorex-bra-34135-cup-a-busa-34-38?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>11278039841</v>
+        <v>1637709026</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>EtawalinStore</t>
+          <t>Sinar Jaya Underwear</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>ETAWALIN Susu Terapi Bebas Gerak Tanpa Nyeri Paket 3 Box</t>
+          <t>BH Remaja ABG Sorex ,Tanpa Kawat Busa Tipis,Bahan Katun,Uk 32-36</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>261000</t>
+          <t>28500</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/21/96c64560-cc3c-4727-a7c1-5c74e517955c.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/3/1/772d58dd-bb08-41f3-a885-3407d790eea8.jpg</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6451,357 +6479,357 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/etawalinstore1/etawalin-susu-terapi-bebas-gerak-tanpa-nyeri-paket-3-box?extParam=cmp%3D1%26ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sjunderwear/bh-remaja-abg-sorex-tanpa-kawat-busa-tipis-bahan-katun-uk-32-36-biru-muda-34?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>13399930237</v>
+        <v>2567048716</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Olahraga</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Shipment</t>
+          <t>PETERZOOM</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>ZEE REGULER 2X450 SWIZZ CHOCOLATE SUSU COKLAT REGULAR JUMBO 900 KALBE</t>
+          <t>Bra Sport Sorex SP 023</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>95500</t>
+          <t>33990</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/12/86b0be78-0088-45e2-b3d8-03d2af98e770.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/12/18/389ce211-53ad-4e6b-a148-93d742015953.jpg</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/shipment/zee-reguler-2x450-swizz-chocolate-susu-coklat-regular-jumbo-900-kalbe-cokelat875g-7ddc1?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/peterr/bra-sport-sorex-sp-023-marun-all-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2678687695</v>
+        <v>1373971427</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Tobaking Murah Online</t>
+          <t>VHERADA STORE</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Susu UHT ULTRA MIMI 125ml Ultra Milk Vanila Stroberi Cokelat</t>
+          <t>Best seller ..Bra sorex pori 3262 kait 3 pakai kawat uk 36-42</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>3400</t>
+          <t>39999</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/3/18/c713a2a1-2315-482a-8f85-2c5a0d43e1aa.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/1/28/3e145384-7b5f-4226-a36a-845d983458d4.jpg</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/tobakingmurahonline/susu-uht-ultra-mimi-125ml-ultra-milk-vanila-stroberi-cokelat-vanila?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/vherada/best-seller-bra-sorex-pori-3262-kait-3-pakai-kawat-uk-36-42-hitam-36?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1784845367</v>
+        <v>9441529241</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>KedaiMart Official Store</t>
+          <t>Moteza Indonesia</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Susu UHT Diamond Full Cream 1 L</t>
+          <t>Sorex Celana Dalam Wanita - CD 1232 - Midi Panty - Stretch Soft Katun</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>22077</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/9/29/ba045971-fea9-49f9-b0af-4b8a608dea4b.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/24/a7f0b0b7-2421-42a5-b3e1-38bfb18ae387.jpg</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/kedaimartstore/susu-uht-diamond-full-cream-1-l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/moteza/sorex-celana-dalam-wanita-cd-1232-midi-panty-stretch-soft-katun-bata-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>12798369827</v>
+        <v>2847246249</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Rumah Roti ciracas</t>
+          <t>Queen_underwear</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUSU BUBUK BRANDENBURGER ALFA UHT FULL CREAM REPACK 1KG MILK POWDER </t>
+          <t>Bra sorex kawat extra comfort 3262</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>31000</t>
+          <t>39500</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/24/3ac211da-6aa4-4548-a65c-9710f46a47dd.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/5/19/6295b36f-3b2a-4de6-93e3-98b93fd48bfd.jpg</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/rumahroticiracas/susu-bubuk-brandenburger-alfa-uht-full-cream-repack-1kg-milk-powder?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/queenunderwear/bra-sorex-kawat-extra-comfort-3262-dongker-nevy-40?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>639857247</v>
+        <v>16371303</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Perawatan Hewan</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>shine petstore</t>
+          <t>Tanako Shop</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Susu Anjing Ameri+Pro Powdered Formula for Puppies 200gr</t>
+          <t>Celana Dalam Sorex art 1229 size EQL (XXXL) jumbo / big size</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>21900</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/4/940f3363-67b2-4b7e-8260-53ff56ef2a6a.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/2/27/8340731f-d8f0-4007-bc2e-5654b299b15f.jpg</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/shinepetstore/susu-anjing-ameri-pro-powdered-formula-for-puppies-200gr?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/tanakoshop/celana-dalam-sorex-art-1229-size-eql-xxxl-jumbo-big-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1043302935</v>
+        <v>2689827994</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>PD AMAT SENTOSA (PDAS)</t>
+          <t>Sorex Official Store</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>ULTRA SUSU UHT 125 ML COKELAT ISI 40</t>
+          <t>Sorex Celana Dalam Basic Midi Wanita Basic Shape Up CD 9073</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>116000</t>
+          <t>33400</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/7/22/ef76c95c-7908-4f11-8b8f-c3be96056417.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/1/8/8403df66-a6c4-4cf6-8222-99915b91ca0d.jpg</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/pdamatsentosa/ultra-susu-uht-125-ml-cokelat-isi-40?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sorexofficials/sorex-celana-dalam-basic-midi-wanita-basic-shape-up-cd-9073-m-random?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>3867448158</v>
+        <v>12476539769</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Perawatan Hewan</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Kimiki Petshop</t>
+          <t>Prema Store Bandung</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Growssy Susu Kucing 1 box isi 11 sachet</t>
+          <t>Bra BH Set Sorex 99200 Kawat Busa Sedang Kait 3 (Cup B-C)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>31900</t>
+          <t>55000</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/11/7/8bd6ba61-84f9-4e6e-aa03-70147c1888d6.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/6/8d0107de-1a26-41a0-9b36-0abd67e3c193.jpg</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/kimikipets/growssy-susu-kucing-1-box-isi-11-sachet?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/premastore/bra-bh-set-sorex-99200-kawat-busa-sedang-kait-3-cup-b-c-pink-34-bfb6c?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>11642745524</v>
+        <v>5479870574</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>TBK Ny Liem</t>
+          <t>Babyshop-murah</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>DAIRY CHAMP Susu Evaporasi 390 gram</t>
+          <t>Celana Dalam Wanita Extra Comfort Sorex 15020</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>12000</t>
+          <t>15500</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/9/20/f16049d1-674d-4e1a-8af3-5113357a0ece.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/8/16/d7850521-9974-43b0-82d2-b015bad51d9e.jpg</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/tbknyliem/dairy-champ-susu-evaporasi-390-gram?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/babyshop-murah/celana-dalam-wanita-extra-comfort-sorex-15020-m-random?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>224001699</v>
+        <v>3875355033</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Klikdokter Official Store</t>
+          <t>Sinar Jaya Underwear</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Slim &amp; Fit Milk Meal Replacement Vanilla 6X52gr</t>
+          <t>BH WANITA SOREX 99189,TANPA KAWAT,BAHAN KATUN,BUSA SEDANG,CUP A-B</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>79120</t>
+          <t>38888</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/8/23/87cf13f4-37f5-494b-b2a7-05fcd2cbee50.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/5/19/8b5800b7-db4b-42a7-b2cb-f44c7a77e10e.jpg</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -6811,77 +6839,77 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/klikdoktersofficialstore/slim-fit-milk-meal-replacement-vanilla-6x52gr?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sjunderwear/bh-wanita-sorex-99189-tanpa-kawat-bahan-katun-busa-sedang-cup-a-b-pink-38?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>8197866090</v>
+        <v>1407807095</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Ibu &amp; Bayi</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SGM Official Store</t>
+          <t>Sorex Tally</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>SGM Eksplor 3+ dengan IronC Susu Bubuk Rasa Vanilla 600GRAM (ALD)</t>
+          <t>SOREX Bra Half CUP 9853 Busa Berkawat EXTRA COMFORT</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>56329</t>
+          <t>39900</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/5/15/52eb0b20-b1fa-44a3-9b91-a055be91b82e.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/11/7/58dd295a-f8b8-4eff-b597-ab2a531d1b6c.jpg</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sgmofficialstore/sgm-eksplor-3-dengan-ironc-susu-bubuk-rasa-vanilla-600gram-ald?extParam=ivf%3Dtrue%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sorex-tally/sorex-bra-half-cup-9853-busa-berkawat-extra-comfort-coklat-tua-36?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>12564735583</v>
+        <v>4906506162</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Sukanda Djaya Home</t>
+          <t>murahrejeki90</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Diamond Milk Susu UHT Chocolate 125 Ml 1 Karton</t>
+          <t>CD SOREX 15232 ORIGINAL SUPER SOFT TERBARU</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>110300</t>
+          <t>13500</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/1/17/ced068ee-04cc-4f38-b03d-28e3bdb08b36.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/7/19/49695844-8b42-43b8-9227-74310baa092c.jpg</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -6891,397 +6919,397 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sukandahome/diamond-milk-susu-uht-chocolate-125-ml-1-karton?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D8817974</t>
+          <t>https://www.tokopedia.com/archive-murahrejeki90-1646536736/cd-sorex-15232-original-super-soft-terbaru-random-acak-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>9429815801</v>
+        <v>1862200775</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Indoguna Utama</t>
+          <t>Sinar Jaya Underwear</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>SUSU FRESH MILK MILK LIFE BARISTA'S CHOICE</t>
+          <t>BH Bra Sorex 9850 -Tanpa Kawat</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>18400</t>
+          <t>37500</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/11/ee5cd165-5ef2-433f-8827-b632e1dc2523.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/23/05b880b0-b7f6-4e6b-83e6-61fff478e71d.jpg</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/indogunautama/susu-fresh-milk-milk-life-barista-s-choice?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sjunderwear/bh-bra-sorex-9850-tanpa-kawat-biru-dongker-40?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>3746552483</v>
+        <v>608034764</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>BTJSusu dan Popok Depok</t>
+          <t>fjj mart</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>SGM YUMMI-NUTRI COKLAT SUSU KELUARGA 690 GR</t>
+          <t>cd celana dalam wanita sorex 1228 soft &amp; comfort size QL/XXL</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>59000</t>
+          <t>18000</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/5/6/0c75b504-4b89-49e9-96e7-eae9be43bbdb.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/8/28/26689ce7-6857-46d6-a2fb-b4f3d643c3d3.jpg</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/btjsusu/sgm-yummi-nutri-coklat-susu-keluarga-690-gr?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/fjjmart/cd-celana-dalam-wanita-sorex-1228-soft-comfort-size-ql-xxl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>12750234248</v>
+        <v>2274392339</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Herbal_Bekasi</t>
+          <t>LUXURY _Underwear</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>(COD) Susu Etta Goat Milk ORIGINAL Susu Kambing bubuk premium cocok un</t>
+          <t>SOREX Bra Basic Super Soft 17238 Busa Tipis Tanpa Kawat Setara Cup A-B</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>24900</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/2/17/1f8533c9-e3e7-42b5-b53c-172489ce4cab.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/10/11/6b80131e-ab69-4aca-93f8-a3d5e908806c.jpg</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/herbalbekasi-1/cod-susu-etta-goat-milk-original-susu-kambing-bubuk-premium-cocok-un?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/luxury-underwear/sorex-bra-basic-super-soft-17238-busa-tipis-tanpa-kawat-setara-cup-a-b-abu-38?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1316048922</v>
+        <v>751607814</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Acep Herbal Official</t>
+          <t>Dalaman KU</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Susu Peninggi Badan, Susu Tinggi Kalsium - Walatra Etaku Susu Kambing</t>
+          <t>Celana Dalam Wanita Sorex 1230 Midi EL/XL, QL/XXL</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>12300</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/10/ae524813-1855-46f4-b17f-fce12b3c9f35.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/3/22/457031558/457031558_3b438f19-b3ee-42a6-9234-13d75197433e_1024_1024.jpg</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/acepherbalofficial/susu-peninggi-badan-susu-tinggi-kalsium-walatra-etaku-susu-kambing?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/dalaman-ku/celana-dalam-wanita-sorex-1230-midi-el-xl-ql-xxl-random-warnanya-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>3278793974</v>
+        <v>8061064057</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Toko Shamal</t>
+          <t>MMcollections mom&amp;kids</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>NUTRIGOAT- Minuman Sehat Susu Kambing ETAWA 200gram_ Original 200gr</t>
+          <t>celana dalam wanita Sorex 1248 jumbo big size QXL</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>34900</t>
+          <t>20000</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/3/20/8f5d31fb-4565-4400-a6a2-01d240a06fab.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/3/20/cc823c73-1f1c-477e-b2cf-22b6a55f9fbf.jpg</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/shamal/nutrigoat-minuman-sehat-susu-kambing-etawa-200gram-original-200gr?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/mmcollections/celana-dalam-wanita-sorex-1248-jumbo-big-size-qxl-hitam-eql-4l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1248265438</v>
+        <v>1946147995</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Cetaphil Shop</t>
+          <t>Sinar Jaya Underwear</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Abbott Similac Singapore Gain EyeQ Plus 2-FL Susu Milk Stage 4 850g</t>
+          <t>(TERLARIS ) BH SOREX SOFT COMFORT 17227,TANPA KAWAT,BAHAN KATUN</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>27500</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/13/99b4ea16-939a-4798-be12-8026a663aff1.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/4/8/bf291c53-ed7b-40c2-909d-d3dd54946f42.jpg</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/cetaphil1/abbott-similac-singapore-gain-eyeq-plus-2-fl-susu-milk-stage-4-850g?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sjunderwear/terlaris-bh-sorex-soft-comfort-17227-tanpa-kawat-bahan-katun-biru-muda-40?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>11273958650</v>
+        <v>2434670538</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Ibu &amp; Bayi</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>NutriMart</t>
+          <t>Kiddos First</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Triple Pack: HiLo School Strawberry 10 Sch - Susu Tinggi Kalsium</t>
+          <t>Celana Dalam CD Wanita Super Stretch Sorex 1258</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>110000</t>
+          <t>13500</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/21/c1cb2013-aacf-4918-9da7-4fd48dfe6110.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/30/214141a4-b75e-439e-bc96-ee856deb1b19.jpg</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/nutrimartid/triple-pack-hilo-school-strawberry-10-sch-susu-tinggi-kalsium?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
+          <t>https://www.tokopedia.com/kiddosfirst/celana-dalam-cd-wanita-super-stretch-sorex-1258-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2322716017</v>
+        <v>1956077928</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>fresh booth</t>
+          <t>HL SHOP 2</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>fresh milk cimory 950 ml (plain)</t>
+          <t>BH Sorex Tanpa Kawat Bra Sorex 17228 Setara Cup B-C Soft &amp; Comfort</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>18800</t>
+          <t>30000</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/3/1/da5bdb8e-461d-43fc-9de2-054c32e27766.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/2/12/f697379f-65ac-4816-a391-d6b9397502d2.jpg</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/archive-kingoracle/fresh-milk-cimory-950-ml-plain?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/hlshop2/bh-sorex-tanpa-kawat-bra-sorex-17228-setara-cup-b-c-soft-comfort-hitam-40?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>562857930</v>
+        <v>7507851353</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Ibu &amp; Bayi</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Dancow Official Store</t>
+          <t>Lingerieku</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Nestle DANCOW 3+ Cokelat Susu Anak 3-5 Tahun Box 750g</t>
+          <t>Sorex 17232 BH Bra Wanita Busa Tipis Tanpa Kawat Kait 2 Setara Cup B</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>103114</t>
+          <t>28950</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/2/7e3642aa-1b38-4122-9e6a-41cb814f3dd1.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/7/20/9be6cd52-12c6-4184-9679-611c61ec9b6c.jpg</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/dancowofficial/nestl-dancow-3-cokelat-susu-anak-3-5-tahun-box-750g?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
+          <t>https://www.tokopedia.com/lingerieku/sorex-17232-bh-bra-wanita-busa-tipis-tanpa-kawat-kait-2-setara-cup-b-cokelat-muda-size-40-5c59c?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>318122043</v>
+        <v>7949520028</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Ibu &amp; Bayi</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Nutrilon Shop</t>
+          <t>modiss</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Nutrilon Royal 3 Susu Pertumbuhan 1-3 Thn Vanila 800gr</t>
+          <t>CD wanita semi Boxer Sorex 1238 Super Soft</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>199762</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/13/ef92d08d-46ae-490c-a115-e13ab604338d.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/6/14/7367b5b7-6439-40e4-9d82-b4464ecd1fc1.jpg</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -7291,37 +7319,37 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/nutrilonshop/nutrilon-royal-3-susu-pertumbuhan-1-3-thn-vanila-800gr?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D2900777</t>
+          <t>https://www.tokopedia.com/modiss/cd-wanita-semi-boxer-sorex-1238-super-soft-seri-warnanya-m-f010?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>12064368053</v>
+        <v>3472903309</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Suka Herbal Alami</t>
+          <t>Lingerieku</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Etawaku Platinum - Susu Kambing &amp; Krimer Bebas Alergi dan Rendah Gula</t>
+          <t>Celana Dalam Wanita Katun Halus Polos Sorex 1227 Ukuran L</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>75000</t>
+          <t>15250</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/22/a1af6491-a042-4036-b328-f7538105f585.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/10/13/5e25df3a-7994-46af-98e9-0557533a6130.jpg</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7331,37 +7359,37 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sha01/etawaku-platinum-susu-kambing-krimer-bebas-alergi-dan-rendah-gula-etawanew-d5f60?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/lingerieku/celana-dalam-wanita-katun-halus-polos-sorex-1227-ukuran-l-random?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>4396435280</v>
+        <v>1591856662</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Perawatan Hewan</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Centralidnpetshop</t>
+          <t>JW_OLSHOP</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>ECOPET GOAT MILK SUSU ANJING KUCING (1 box isi 10 sachet 20gr)</t>
+          <t>BRA SOREX BIG CUP 01008 BUSA TIPIS TANPA KAWAT CUP BESAR</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>49900</t>
+          <t>56000</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/6/20/bc7646cf-bf09-4e6f-baff-f096d2032ac3.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/2/9/53670f07-1e74-4a80-9a47-19e73d82f1c9.jpg</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -7371,37 +7399,37 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/centralidnpetshop/ecopet-goat-milk-susu-anjing-kucing-1-box-isi-10-sachet-20gr?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/jwolshop-1/bra-sorex-big-cup-01008-busa-tipis-tanpa-kawat-cup-besar-36?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>11986071471</v>
+        <v>5384140723</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Toko Sekarwangi Citeureup</t>
+          <t>TOKO HAO HAO</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Susu Dancow bubuk Coklat Sachet Renceng 10x27gr / Susu Dancow FortiGro</t>
+          <t>CD SOREX 1259 SUPER STRETCH CELANA DALAM WANITA UKURAN M-XXL</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>37500</t>
+          <t>14751</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/31/80189a75-9b1d-4ce8-9190-9a338e5cfc2c.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/8/12/a69db94f-faeb-4b2a-b7cc-87c3081e5795.jpg</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -7411,73 +7439,77 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/tokosekarwangi/susu-dancow-bubuk-coklat-sachet-renceng-10x27gr-susu-dancow-fortigro?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/toko-hao-hao/cd-sorex-1259-super-stretch-celana-dalam-wanita-ukuran-m-xxl-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>6889275917</v>
+        <v>13062688269</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ibu &amp; Bayi</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Dancow Official Store</t>
+          <t>Okee Underware</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Nestle DANCOW 5+ Madu Susu Anak 5-12 Tahun Box 350g x 2 pcs</t>
+          <t>Bra Tanpa Kawat Sorex 17238 Super Soft Busa Sedang Setara CUP B</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>82564</t>
+          <t>25700</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/11/4/fab9589f-6980-4435-96a3-64acdcde2ec8.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/8/31/4f4772f3-a128-4cd8-905d-61e597742022.png</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/dancowofficial/nestle-dancow-5-madu-susu-anak-5-12-tahun-box-350g-x-2-pcs?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/okeeunderware/bra-tanpa-kawat-sorex-17238-super-soft-busa-sedang-setara-cup-b-pink-38-b5842?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>12282250509</v>
+        <v>11666713915</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ibu &amp; Bayi</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr"/>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Sorex Official Store</t>
+        </is>
+      </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Curcuma Plus Vanilla Susu 750 gram</t>
+          <t>Sorex Bra Tanpa Kawat Busa Sedang Kait 3 Full Cup B-C BH 33495</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>99600</t>
+          <t>33300</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/12/5/3100cfae-9d3a-4d87-ad4c-10ed775b85e1.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/9/23/34a7e486-556d-4700-8239-1c2aa4dae814.jpg</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -7487,37 +7519,37 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/now/curcuma-plus-vanilla-susu-750-gram?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D12210375</t>
+          <t>https://www.tokopedia.com/sorexofficials/sorex-bra-tanpa-kawat-busa-sedang-kait-3-full-cup-b-c-bh-33495-abu-abu-40-0034c?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>11743359658</v>
+        <v>6934579090</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Frisian Flag Official</t>
+          <t>Babyshop-murah</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Frisian Flag Susu UHT Sereal Kopi 225ml</t>
+          <t>Celana Dalam Wanita cd Sorex 1263 Natural Feel</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>6300</t>
+          <t>18000</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/5/2deba239-4e7f-4ae7-9ce3-f58a075854a0.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/8/11/37dded9c-9354-4fbf-bd73-6ba5665b40bd.jpg</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7527,117 +7559,117 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/frisian-flag/frisian-flag-susu-uht-sereal-kopi-225ml?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
+          <t>https://www.tokopedia.com/babyshop-murah/celana-dalam-wanita-cd-sorex-1263-natural-feel-random-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>7843623576</v>
+        <v>7592319780</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Susu Etawalin Official Store</t>
+          <t>Katvinshop</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>TERLARIS Susu Etawalin Atasi Nyeri Sendi dan Tulang Kebas ISI 3 BOX</t>
+          <t>Celana dalam wanita sorex 1257 super soft</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>261000</t>
+          <t>13500</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/6/26/e25cf235-c830-48b9-b7aa-6809758a84ad.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/10/1/d6f01ea3-42c4-494c-a81b-c185c724edf4.jpg</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/susuetawalin/terlaris-susu-etawalin-atasi-nyeri-sendi-dan-tulang-kebas-isi-3-box?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/katvinshop/celana-dalam-wanita-sorex-1257-super-soft-warna-lain-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>4064926322</v>
+        <v>2035906575</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Ternak Syams</t>
+          <t>Cu_Shop11</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Susu Kambing Etawa Bubuk Rasa Varian Madu Murni Honey Syams 1000 gram</t>
+          <t>SOREX cd Seamless EA 510 Seamless Panty Extra Size Anti Nyeplak</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>125000</t>
+          <t>21750</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/14/420e5b51-764c-48a8-8e8c-a5c8f2ab6a48.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/26/c1f8a022-a893-4e0e-bce4-def3c6118bae.jpg</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/ternak-syams/susu-kambing-etawa-bubuk-rasa-varian-madu-murni-honey-syams-1000-gram?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/cushop11/sorex-cd-seamless-ea-510-seamless-panty-extra-size-anti-nyeplak?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>3122679200</v>
+        <v>5136067269</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>propolis jakarta</t>
+          <t>LUXURY _Underwear</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Susu Kambing Etawa plus Propolis Etamilku Asli Original Harga Promo</t>
+          <t>SOREX bra basic Quick Dry busa tipis tanpa Kawat</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>25000</t>
+          <t>42900</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/1/10/7a83a94b-61c9-47ee-9ec0-9d172561b72c.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/7/31/5139dfec-0545-4102-b2c6-6cffd82996b6.jpg</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -7647,37 +7679,37 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/herbalpropolis/susu-kambing-etawa-plus-propolis-etamilku-asli-original-harga-promo?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/luxury-underwear/sorex-bra-basic-quick-dry-busa-tipis-tanpa-kawat-cream-34?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>7940456106</v>
+        <v>1418311545</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Perawatan Hewan</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Putrigunungfarmbogor</t>
+          <t>Sorex Official Store</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Kalvolac Dairy Milk Replacer Pengganti susu 1 kg</t>
+          <t>Sorex Bra Busa Cup Besar Kawat Kait 3 Cup C Vina Series BH 11188</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>59000</t>
+          <t>70000</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/12/22/fb8b546b-4b49-4cb1-b757-2b4bfde39e45.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/4/6e29749d-3800-42ef-92ee-239f497e4eac.jpg</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7687,37 +7719,37 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/putrigunungfarm/kalvolac-dairy-milk-replacer-pengganti-susu-1-kg-ekonomis?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sorexofficials/sorex-bra-busa-cup-besar-kawat-kait-3-cup-c-vina-series-bh-11188-biru-36c?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>3098997442</v>
+        <v>4605079327</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ibu &amp; Bayi</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Enfagrow Official Store</t>
+          <t>YOUnYOU</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Enfagrow A+3 Susu Formula Original 400gx3</t>
+          <t>Celana Dalam Sorex Basic Jumbo Maxi 1229 Soft &amp; Comfort</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>538606</t>
+          <t>19000</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/1/31/ce59a9bd-dbe3-4db0-999e-a6c840c68b08.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/7/2/112eff05-20c6-4b49-9c53-5b0192a69047.jpg</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -7727,117 +7759,117 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/enfa/enfagrow-a-3-susu-formula-original-400gx3?extParam=ivf%3Dtrue%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/younyou2/celana-dalam-sorex-basic-jumbo-maxi-1229-soft-comfort-l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>5871757327</v>
+        <v>12197426263</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>toko hi</t>
+          <t>MMcollections mom&amp;kids</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>susu tujuh kurma</t>
+          <t>Bra Cup Besar Tanpa Kawat Busa Tipis Bh Sorex 02008 Big Cup</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>9500</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/9/2/4f4d0a07-b3d7-4a99-880f-90a8da67da46.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/24/7a710823-3610-448c-b4f9-77e293438d6e.jpg</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/kantinhi/susu-tujuh-kurma?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/mmcollections/bra-cup-besar-tanpa-kawat-busa-tipis-bh-sorex-02008-big-cup-02021-abu-38-ea8ab?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>3761046449</v>
+        <v>1948715233</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Onel Baby Shop</t>
+          <t>Sinar Jaya Underwear</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>SUSU BAYI NESTLE LACTOGROW 3 dan 4 HAPPYNUTRI MADU, VANILA 1 kg</t>
+          <t>BH SOREX 11180 ORIGINAL | Bh Seamless Big Cup C,Busa Tipis Tanpa Kawat</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>144333</t>
+          <t>45000</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/31/38862224-80e6-4af3-8b63-52defe1ef64c.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/6/24/5ea9916e-4646-4a8b-ab5e-2c84a1a3cd03.jpg</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/onelbabyshop/susu-bayi-nestle-lactogrow-3-dan-4-happynutri-madu-vanila-1-kg-lacto-4-vanila?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sjunderwear/bh-sorex-11180-original-bh-seamless-big-cup-c-busa-tipis-tanpa-kawat-biru-dongker-36?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>9174735373</v>
+        <v>11128273534</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Nabawi Herbal Official</t>
+          <t>Kiddos First</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>SYIFAMILK - Susu Bubuk Penggemuk Badan Full Cream Vanilla 550gr</t>
+          <t>Sorex Bra BH Tanpa Kawat Busa Cup B Kait 3 Comfy Bra BH Harian 9824</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>38999</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/7/18/2152d6a5-c513-4340-a675-e16fe998aa07.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/26/25b38346-7c38-43bc-9a6c-3b318d62d044.jpg</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -7847,77 +7879,77 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/nabawiherbalofficial/syifamilk-susu-bubuk-penggemuk-badan-full-cream-vanilla-550gr-full-cream-6307c?extParam=ivf%3Dtrue%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/kiddosfirst/sorex-bra-bh-tanpa-kawat-busa-cup-b-kait-3-comfy-bra-bh-harian-9824-38-toska-aff18?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>12228332419</v>
+        <v>3699490876</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>NourishNihon</t>
+          <t>Rinstore99</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Susu Formula Wakodo Haihai Original Japan Jepang</t>
+          <t>Celana Dalam Mini Sorex 1257 Super Soft</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>445000</t>
+          <t>12000</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/28/bd0d0c5b-937b-4b94-85b3-c9d56856fede.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/10/20/b653dc09-724c-4562-b94b-ca67b7b0adbb.jpg</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/nourishnihon/susu-formula-wakodo-haihai-original-japan-jepang?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/rinstore99/celana-dalam-mini-sorex-1257-super-soft-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>562936760</v>
+        <v>12217538529</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Ibu &amp; Bayi</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Dancow Official Store</t>
+          <t>Blissfulist</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Nestle DANCOW 5+ Vanila Susu Anak 5-12 Tahun Box 350g</t>
+          <t>Bra sorex kawat 17234</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>44383</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/3/83c77597-58d4-4be9-91d6-535b284db252.png</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/11/27/6764cbcd-831f-49bd-bf56-d7af842134b0.jpg</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -7927,157 +7959,157 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/dancowofficial/nestl-dancow-5-vanila-susu-anak-5-12-tahun-box-350g?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13056835</t>
+          <t>https://www.tokopedia.com/blissfulist/bra-sorex-kawat-17234?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>11790466057</v>
+        <v>13145891468</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>iChabe Store!</t>
+          <t>Prema Store Bandung</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>[BISA COD] DS Susu Dancow sachet 27gr. 1 SACHET isi 1pcs</t>
+          <t>Bh Bra Sorex 65001 (CUP SEDANG) Polos | Bra Busa Tanpa Kawat Termurah</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>3654</t>
+          <t>37500</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/10/21/e7f6589f-3920-4129-a6d2-afe15e2fcf58.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/product-1/2020/8/12/96523096/96523096_736d1790-8a1c-4fb7-9c1b-8d99af3e6932_700_700</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/ichabe/bisa-cod-ds-susu-dancow-sachet-27gr-1-sachet-isi-1pcs-putih-b8295?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/premastore/bh-bra-sorex-65001-cup-sedang-polos-bra-busa-tanpa-kawat-termurah-abu-abu-38-1d918?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2421066162</v>
+        <v>1542918757</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ANUGERAH PANGAN JAYA BINTARO</t>
+          <t>Gallerieku</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Susu NZMP Fonterra Skim milk powder 1kg</t>
+          <t>SOREX bra extra comfort 3260 Busa Tipis berkawat</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>76000</t>
+          <t>36800</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/11/16/210cf062-743e-446d-aaed-003917f4be3a.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/1/20/085c4825-5928-4d23-9ed6-7790a82824b3.jpg</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/apjbintaro/susu-nzmp-fonterra-skim-milk-powder-1kg?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/gallerieku/sorex-bra-extra-comfort-3260-busa-tipis-berkawat-hitam-38?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1579278154</v>
+        <v>5582403212</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Toko Sinar Convenience</t>
+          <t>Chantika underwear</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Susu Frisian Flag Full Cream/ Susu Bubuk Bendera - 400 Gram</t>
+          <t>SOREX bra Silky Soft 9815 Busa Tipis Tanpa Kawat Kait 3 Setara Cup B</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>55000</t>
+          <t>41900</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/11/16/6eb81962-5a32-4359-83c2-1b538c03709a.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/8/21/5646668d-75f8-4b03-b708-850e9623f390.jpg</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/sinarcs/susu-frisian-flag-full-cream-susu-bubuk-bendera-400-gram?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/chantikaunderwear/sorex-bra-silky-soft-9815-busa-tipis-tanpa-kawat-kait-3-setara-cup-b-abu-34?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1630665233</v>
+        <v>13071961023</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>BTS SUSU</t>
+          <t>Sorex Official Store</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Peptimune 185 gr Vanila susu sistem imun</t>
+          <t>Sorex Bra Tanpa Kawat Busa Sedang Kait 3 Cup C-D Rania BH 18230</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>83700</t>
+          <t>46645</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/2/26/26e7e75c-afc0-49d7-bff4-beaf8061cb3a.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/4/2/3d3d430a-107b-4153-a007-61ac6b1ba1c4.jpg</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -8087,77 +8119,77 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/btssusu/peptimune-185-gr-vanila-susu-sistem-imun?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sorexofficials/sorex-bra-tanpa-kawat-busa-sedang-kait-3-cup-c-d-rania-bh-18230-hitam-44-23856?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>12625799169</v>
+        <v>4425667046</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Apotek Halomedika Kp Rambutan</t>
+          <t>MeiraUnderwear</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Susu Etawalin 200 g  - Susu Dewasa - Halodoc</t>
+          <t>CD Celana Dalam Sorex 15226, 15227, 15228 Katun Series</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>91577</t>
+          <t>11750</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2024/1/26/bf7736a4-f0f8-4c37-b107-fd38cbc5cb57.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2022/6/22/ea69d137-46a7-42ef-89a1-1b5751c5f5b0.jpg</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/apotekhakkprambutan/susu-etawalin-200-g-susu-dewasa-halodoc?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/meiraunderwear-1/cd-celana-dalam-sorex-15226-15227-15228-katun-series-15228-l-xl-random?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>3251169185</v>
+        <v>2469459237</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Toko herbal ceria88</t>
+          <t>Katvinshop</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>susu fortico kolostrum</t>
+          <t>Bh casual daily bra Sorex 17232 busa tipis tanpa kawat</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>275000</t>
+          <t>29000</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/3/17/e39490d7-9b79-4b53-80e7-bb1691dab55d.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/25/5240e1fd-a67e-4e56-a128-1bf50fe3cec3.jpg</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -8167,37 +8199,37 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/therbal-2/susu-fortico-kolostrum?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/katvinshop/bh-casual-daily-bra-sorex-17232-busa-tipis-tanpa-kawat-38?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>133167721</v>
+        <v>3623059656</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Perawatan Hewan</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Berbagi Cantik</t>
+          <t>kellys bou</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Royal Canin Babycat Milk (Susu untuk Anak Kucing) per Sachet/FRESHPACK</t>
+          <t>celana dalam wanita sorex 1239 size M. L. XL &amp; XXL</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>108000</t>
+          <t>12600</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/1/19/d88cad81-d881-403e-8d62-a20d838d082b.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/1/3/20d5db0f-45af-4fea-ac0d-02adfd9104d0.jpg</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -8207,37 +8239,37 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/berbagicantik/royal-canin-babycat-milk-susu-untuk-anak-kucing-per-sachetfreshpack?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/kellys-bou/celana-dalam-wanita-sorex-1239-size-m-l-xl-xxl-m-random-acak?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2378455692</v>
+        <v>6513961039</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Tobaking Murah Online</t>
+          <t>Toko Underwear TOP</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Ultra Milk Coklat 1 liter Susu UHT Chocolate Full Cream</t>
+          <t>Sorex Celana Dalam Wanita 15228 Underwear cewek simple lembut,nyaman</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>12499</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2021/11/5/a9ebf072-214e-4f9b-b38f-da5a0f7b15d6.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2022/9/28/8276eedf-fa55-4f68-a189-f054431ad2ac.jpg</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -8247,37 +8279,37 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/tobakingmurahonline/ultra-milk-coklat-1-liter-susu-uht-chocolate-full-cream-full-cream?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/tokounderweartop/sorex-celana-dalam-wanita-15228-underwear-cewek-simple-lembut-nyaman?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2132966554</v>
+        <v>4789582479</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>C&amp;C Store</t>
+          <t>mutiara underwear</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>tiga sapi susu evaporasi evaporated milk box kotak 500 g gr 500gr</t>
+          <t>Celana Dalam Jumbo Wanita Sorex 1248 Size 3xl-5xl Celana Dalam Maxi</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>14999</t>
+          <t>17999</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/9/3/edfdb546-e3cf-4a40-a811-c42d926f2389.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/12/7/4e9ac33a-bda8-438a-99ed-fe15f25bb082.jpg</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8287,77 +8319,77 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/cnc--store/tiga-sapi-susu-evaporasi-evaporated-milk-box-kotak-500-g-gr-500gr?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/archive-crystal-com/celana-dalam-jumbo-wanita-sorex-1248-size-3xl-5xl-celana-dalam-maxi-random-qql-4xl?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>11419773199</v>
+        <v>2530796386</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Alam_Seafood</t>
+          <t>deinay</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Susu Segar Greenfields FRESH MILK 1L/FRESH MILK Greenfields Susu Segar</t>
+          <t>Sorex BH Bra Tanpa Kawat Busa Tipis Casual Style Cup Sedang Art 17232</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>20900</t>
+          <t>30500</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2023/8/29/cefe2805-03f0-4302-b4ad-314e24638ab8.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/11/10/57f2709e-8ba9-443d-87b0-f77203a84fd6.jpg</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/alamseafood/susu-segar-greenfields-fresh-milk-1l-fresh-milk-greenfields-susu-segar?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/deinay/sorex-bh-bra-tanpa-kawat-busa-tipis-casual-style-cup-sedang-art-17232-fanta-tua-38?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1264100221</v>
+        <v>12576270177</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>sehat8990</t>
+          <t>Sorex Official Store</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>SUSU IGCO COLOSTRUM bukan fortico C2FAST</t>
+          <t>Sorex Young Bra Remaja Seamless Tanpa Kawat BH Step 3 Kait 3 Y 3328</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>300000</t>
+          <t>55290</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2020/10/17/843f8429-294b-4286-95f5-eef666007d9a.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2024/3/25/4a609d06-9205-4f4b-9fc7-c37f2a3df820.jpg</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -8367,33 +8399,37 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/lim1234/susu-igco-colostrum-bukan-fortico-c2fast?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sorexofficials/sorex-young-bra-remaja-seamless-tanpa-kawat-bh-step-3-kait-3-y-3328-coklat-36-61e59?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>11821211781</v>
+        <v>1975556502</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Telur &amp; Olahan Susu</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr"/>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Okee Underware</t>
+        </is>
+      </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Diamond Susu Segar Fresh Milk Non Fat 946 gram</t>
+          <t>CD Wanita Seamless Model Boxer Sorex EA 512 Free Size</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>27200</t>
+          <t>24900</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/hDjmkQ/2023/10/12/87fd9495-f07b-47b5-982c-d15e0c8a0820.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/7/5/9960aa62-48de-4a12-8dcd-d2defa41acd2.png</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8403,47 +8439,47 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/now/diamond-susu-segar-fresh-milk-non-fat-946-gram?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D12210375</t>
+          <t>https://www.tokopedia.com/okeeunderware/cd-wanita-seamless-model-boxer-sorex-ea-512-free-size?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1013871268</v>
+        <v>1163815634</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Makanan &amp; Minuman</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Gentong Laris</t>
+          <t>Toko JT</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Susu Beruang Bear Brand 189mL 1 Karton/dus (30Pcs)</t>
+          <t>Sorex 6709|Celana Dalam Wanita/CD Menstruasi/Haid (3 pcs)</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>285000</t>
+          <t>63000</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2021/6/22/ca789f7c-2bf5-4e2d-975e-d2df57d8c6d0.jpg</t>
+          <t>https://images.tokopedia.net/img/cache/200-square/VqbcmM/2022/7/2/cc553405-b34d-4265-a043-664595261588.jpg</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/gentonglaris/susu-beruang-bear-brand-189ml-1-karton-dus-30pcs?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/jtshop/sorex-6709-celana-dalam-wanita-cd-menstruasi-haid-3-pcs-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
     </row>
